--- a/JSFDM/Framework.xlsx
+++ b/JSFDM/Framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="2220" windowHeight="2460" tabRatio="943" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="-12" windowWidth="2220" windowHeight="2460" tabRatio="943" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="219">
   <si>
     <t>TestScenario</t>
   </si>
@@ -534,7 +534,172 @@
     <t>NonRedundant</t>
   </si>
   <si>
-    <t>|FDM Server ( DESKTOP-AJ7O5O5 )|DESKTOP-AJ7O5O5|MUX</t>
+    <t>AttachApp</t>
+  </si>
+  <si>
+    <t>packagePath</t>
+  </si>
+  <si>
+    <t>packageName</t>
+  </si>
+  <si>
+    <t>HCMClient</t>
+  </si>
+  <si>
+    <t>&lt;TC11&gt;</t>
+  </si>
+  <si>
+    <t>DetachApp</t>
+  </si>
+  <si>
+    <t>Attach the Application</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Detach the Application</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Honeywell\FDM\ClientMachine\Bin</t>
+  </si>
+  <si>
+    <t>0906.sym</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>AttachDeviceDocumentation</t>
+  </si>
+  <si>
+    <t>DetachDeviceDocumentation</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Attach the Device documentation</t>
+  </si>
+  <si>
+    <t>Detach the Device documentation</t>
+  </si>
+  <si>
+    <t>&lt;TC12&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TC13&gt;</t>
+  </si>
+  <si>
+    <t>|FDM Server ( DESKTOP-AJ7O5O5 )|ESHART|ESHART|C300_69|AI-HART_39|AICHANNEL_01_1</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Check device parameters (Device functions and FDM tasks)</t>
+  </si>
+  <si>
+    <t>&lt;TC14&gt;</t>
+  </si>
+  <si>
+    <t>DeviceParam</t>
+  </si>
+  <si>
+    <t>Update the dtm libraries</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>&lt;TC15&gt;</t>
+  </si>
+  <si>
+    <t>UpdateDTMLibrary</t>
+  </si>
+  <si>
+    <t>&lt;TC16&gt;</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Read and Write the device properties</t>
+  </si>
+  <si>
+    <t>ReadAndWriteDeviceProperties</t>
+  </si>
+  <si>
+    <t>DeviceUsage</t>
+  </si>
+  <si>
+    <t>Spare</t>
+  </si>
+  <si>
+    <t>Calibrationstatus</t>
+  </si>
+  <si>
+    <t>Calibrated</t>
+  </si>
+  <si>
+    <t>DeviceHealth</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>PrintTheDevice</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Print the device</t>
+  </si>
+  <si>
+    <t>&lt;TC17&gt;</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>Logging a user action in the Audit Trail, and verifies the entry in the Audit Trail grid.</t>
+  </si>
+  <si>
+    <t>LogUserAction</t>
+  </si>
+  <si>
+    <t>&lt;TC18&gt;</t>
+  </si>
+  <si>
+    <t>|FDM Server ( DESKTOP-AJ7O5O5 )|ESHART|ESHART</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>Unlock the device and check it is unlocked or not</t>
+  </si>
+  <si>
+    <t>Lock the device and check it is locked or not</t>
+  </si>
+  <si>
+    <t>&lt;TC19&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TC20&gt;</t>
+  </si>
+  <si>
+    <t>DeviceExplicitLock</t>
+  </si>
+  <si>
+    <t>DeviceExplicitUnlock</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1775,7 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1745,6 +1910,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -2204,7 +2375,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.25" customHeight="1"/>
@@ -2231,7 +2402,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>107</v>
@@ -2253,7 +2424,7 @@
         <v>122</v>
       </c>
       <c r="B4" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>123</v>
@@ -2275,7 +2446,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.25" customHeight="1"/>
@@ -10411,10 +10582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.25" customHeight="1"/>
@@ -10441,7 +10612,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>109</v>
@@ -10452,7 +10623,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>115</v>
@@ -10463,7 +10634,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>117</v>
@@ -10474,7 +10645,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>131</v>
@@ -10485,7 +10656,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>137</v>
@@ -10496,9 +10667,9 @@
         <v>64</v>
       </c>
       <c r="B7" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="49" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10507,9 +10678,9 @@
         <v>67</v>
       </c>
       <c r="B8" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="49" t="s">
         <v>156</v>
       </c>
     </row>
@@ -10518,9 +10689,9 @@
         <v>78</v>
       </c>
       <c r="B9" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="49" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10529,10 +10700,131 @@
         <v>96</v>
       </c>
       <c r="B10" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="49" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A11" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="51">
+        <v>0</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A12" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="51">
+        <v>0</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A13" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="51">
+        <v>0</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A14" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="51">
+        <v>0</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A15" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="51">
+        <v>0</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A16" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="51">
+        <v>0</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A17" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="51">
+        <v>0</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A18" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="62">
+        <v>0</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A19" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="62">
+        <v>0</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A20" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="62">
+        <v>0</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A21" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="62">
+        <v>0</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -10543,10 +10835,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ATZ81"/>
+  <dimension ref="A1:ATZ133"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24055,7 +24347,7 @@
       </c>
       <c r="C13" s="41"/>
     </row>
-    <row r="14" spans="1:1222">
+    <row r="14" spans="1:1222" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A14" s="52" t="s">
         <v>110</v>
       </c>
@@ -24064,7 +24356,7 @@
       </c>
       <c r="C14" s="42"/>
     </row>
-    <row r="15" spans="1:1222">
+    <row r="15" spans="1:1222" hidden="1">
       <c r="A15" s="43" t="s">
         <v>111</v>
       </c>
@@ -24073,7 +24365,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:1222">
+    <row r="16" spans="1:1222" hidden="1">
       <c r="A16" s="43" t="s">
         <v>112</v>
       </c>
@@ -24082,7 +24374,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:1222">
+    <row r="17" spans="1:1222" hidden="1">
       <c r="A17" s="43" t="s">
         <v>75</v>
       </c>
@@ -25325,7 +25617,7 @@
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -26553,7 +26845,7 @@
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42">
-        <v>30</v>
+        <v>300000</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -43987,30 +44279,1262 @@
       </c>
     </row>
     <row r="71" spans="1:1222">
-      <c r="A71" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="52">
-        <v>1</v>
-      </c>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="42"/>
     </row>
     <row r="72" spans="1:1222">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-    </row>
-    <row r="73" spans="1:1222">
-      <c r="A73" s="41" t="s">
+      <c r="A72" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+    </row>
+    <row r="74" spans="1:1222">
+      <c r="A74" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="41"/>
+    </row>
+    <row r="75" spans="1:1222" s="37" customFormat="1">
+      <c r="A75" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="52">
+        <v>2</v>
+      </c>
+      <c r="C75" s="42"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
+      <c r="AB75" s="38"/>
+      <c r="AC75" s="38"/>
+      <c r="AD75" s="38"/>
+      <c r="AE75" s="38"/>
+      <c r="AF75" s="38"/>
+      <c r="AG75" s="38"/>
+      <c r="AH75" s="38"/>
+      <c r="AI75" s="38"/>
+      <c r="AJ75" s="38"/>
+      <c r="AK75" s="38"/>
+      <c r="AL75" s="38"/>
+      <c r="AM75" s="38"/>
+      <c r="AN75" s="38"/>
+      <c r="AO75" s="38"/>
+      <c r="AP75" s="38"/>
+      <c r="AQ75" s="38"/>
+      <c r="AR75" s="38"/>
+      <c r="AS75" s="38"/>
+      <c r="AT75" s="38"/>
+      <c r="AU75" s="38"/>
+      <c r="AV75" s="38"/>
+      <c r="AW75" s="38"/>
+      <c r="AX75" s="38"/>
+      <c r="AY75" s="38"/>
+      <c r="AZ75" s="38"/>
+      <c r="BA75" s="38"/>
+      <c r="BB75" s="38"/>
+      <c r="BC75" s="38"/>
+      <c r="BD75" s="38"/>
+      <c r="BE75" s="38"/>
+      <c r="BF75" s="38"/>
+      <c r="BG75" s="38"/>
+      <c r="BH75" s="38"/>
+      <c r="BI75" s="38"/>
+      <c r="BJ75" s="38"/>
+      <c r="BK75" s="38"/>
+      <c r="BL75" s="38"/>
+      <c r="BM75" s="38"/>
+      <c r="BN75" s="38"/>
+      <c r="BO75" s="38"/>
+      <c r="BP75" s="38"/>
+      <c r="BQ75" s="38"/>
+      <c r="BR75" s="38"/>
+      <c r="BS75" s="38"/>
+      <c r="BT75" s="38"/>
+      <c r="BU75" s="38"/>
+      <c r="BV75" s="38"/>
+      <c r="BW75" s="38"/>
+      <c r="BX75" s="38"/>
+      <c r="BY75" s="38"/>
+      <c r="BZ75" s="38"/>
+      <c r="CA75" s="38"/>
+      <c r="CB75" s="38"/>
+      <c r="CC75" s="38"/>
+      <c r="CD75" s="38"/>
+      <c r="CE75" s="38"/>
+      <c r="CF75" s="38"/>
+      <c r="CG75" s="38"/>
+      <c r="CH75" s="38"/>
+      <c r="CI75" s="38"/>
+      <c r="CJ75" s="38"/>
+      <c r="CK75" s="38"/>
+      <c r="CL75" s="38"/>
+      <c r="CM75" s="38"/>
+      <c r="CN75" s="38"/>
+      <c r="CO75" s="38"/>
+      <c r="CP75" s="38"/>
+      <c r="CQ75" s="38"/>
+      <c r="CR75" s="38"/>
+      <c r="CS75" s="38"/>
+      <c r="CT75" s="38"/>
+      <c r="CU75" s="38"/>
+      <c r="CV75" s="38"/>
+      <c r="CW75" s="38"/>
+      <c r="CX75" s="38"/>
+      <c r="CY75" s="38"/>
+      <c r="CZ75" s="38"/>
+      <c r="DA75" s="38"/>
+      <c r="DB75" s="38"/>
+      <c r="DC75" s="38"/>
+      <c r="DD75" s="38"/>
+      <c r="DE75" s="38"/>
+      <c r="DF75" s="38"/>
+      <c r="DG75" s="38"/>
+      <c r="DH75" s="38"/>
+      <c r="DI75" s="38"/>
+      <c r="DJ75" s="38"/>
+      <c r="DK75" s="38"/>
+      <c r="DL75" s="38"/>
+      <c r="DM75" s="38"/>
+      <c r="DN75" s="38"/>
+      <c r="DO75" s="38"/>
+      <c r="DP75" s="38"/>
+      <c r="DQ75" s="38"/>
+      <c r="DR75" s="38"/>
+      <c r="DS75" s="38"/>
+      <c r="DT75" s="38"/>
+      <c r="DU75" s="38"/>
+      <c r="DV75" s="38"/>
+      <c r="DW75" s="38"/>
+      <c r="DX75" s="38"/>
+      <c r="DY75" s="38"/>
+      <c r="DZ75" s="38"/>
+      <c r="EA75" s="38"/>
+      <c r="EB75" s="38"/>
+      <c r="EC75" s="38"/>
+      <c r="ED75" s="38"/>
+      <c r="EE75" s="38"/>
+      <c r="EF75" s="38"/>
+      <c r="EG75" s="38"/>
+      <c r="EH75" s="38"/>
+      <c r="EI75" s="38"/>
+      <c r="EJ75" s="38"/>
+      <c r="EK75" s="38"/>
+      <c r="EL75" s="38"/>
+      <c r="EM75" s="38"/>
+      <c r="EN75" s="38"/>
+      <c r="EO75" s="38"/>
+      <c r="EP75" s="38"/>
+      <c r="EQ75" s="38"/>
+      <c r="ER75" s="38"/>
+      <c r="ES75" s="38"/>
+      <c r="ET75" s="38"/>
+      <c r="EU75" s="38"/>
+      <c r="EV75" s="38"/>
+      <c r="EW75" s="38"/>
+      <c r="EX75" s="38"/>
+      <c r="EY75" s="38"/>
+      <c r="EZ75" s="38"/>
+      <c r="FA75" s="38"/>
+      <c r="FB75" s="38"/>
+      <c r="FC75" s="38"/>
+      <c r="FD75" s="38"/>
+      <c r="FE75" s="38"/>
+      <c r="FF75" s="38"/>
+      <c r="FG75" s="38"/>
+      <c r="FH75" s="38"/>
+      <c r="FI75" s="38"/>
+      <c r="FJ75" s="38"/>
+      <c r="FK75" s="38"/>
+      <c r="FL75" s="38"/>
+      <c r="FM75" s="38"/>
+      <c r="FN75" s="38"/>
+      <c r="FO75" s="38"/>
+      <c r="FP75" s="38"/>
+      <c r="FQ75" s="38"/>
+      <c r="FR75" s="38"/>
+      <c r="FS75" s="38"/>
+      <c r="FT75" s="38"/>
+      <c r="FU75" s="38"/>
+      <c r="FV75" s="38"/>
+      <c r="FW75" s="38"/>
+      <c r="FX75" s="38"/>
+      <c r="FY75" s="38"/>
+      <c r="FZ75" s="38"/>
+      <c r="GA75" s="38"/>
+      <c r="GB75" s="38"/>
+      <c r="GC75" s="38"/>
+      <c r="GD75" s="38"/>
+      <c r="GE75" s="38"/>
+      <c r="GF75" s="38"/>
+      <c r="GG75" s="38"/>
+      <c r="GH75" s="38"/>
+      <c r="GI75" s="38"/>
+      <c r="GJ75" s="38"/>
+      <c r="GK75" s="38"/>
+      <c r="GL75" s="38"/>
+      <c r="GM75" s="38"/>
+      <c r="GN75" s="38"/>
+      <c r="GO75" s="38"/>
+      <c r="GP75" s="38"/>
+      <c r="GQ75" s="38"/>
+      <c r="GR75" s="38"/>
+      <c r="GS75" s="38"/>
+      <c r="GT75" s="38"/>
+      <c r="GU75" s="38"/>
+      <c r="GV75" s="38"/>
+      <c r="GW75" s="38"/>
+      <c r="GX75" s="38"/>
+      <c r="GY75" s="38"/>
+      <c r="GZ75" s="38"/>
+      <c r="HA75" s="38"/>
+      <c r="HB75" s="38"/>
+      <c r="HC75" s="38"/>
+      <c r="HD75" s="38"/>
+      <c r="HE75" s="38"/>
+      <c r="HF75" s="38"/>
+      <c r="HG75" s="38"/>
+      <c r="HH75" s="38"/>
+      <c r="HI75" s="38"/>
+      <c r="HJ75" s="38"/>
+      <c r="HK75" s="38"/>
+      <c r="HL75" s="38"/>
+      <c r="HM75" s="38"/>
+      <c r="HN75" s="38"/>
+      <c r="HO75" s="38"/>
+      <c r="HP75" s="38"/>
+      <c r="HQ75" s="38"/>
+      <c r="HR75" s="38"/>
+      <c r="HS75" s="38"/>
+      <c r="HT75" s="38"/>
+      <c r="HU75" s="38"/>
+      <c r="HV75" s="38"/>
+      <c r="HW75" s="38"/>
+      <c r="HX75" s="38"/>
+      <c r="HY75" s="38"/>
+      <c r="HZ75" s="38"/>
+      <c r="IA75" s="38"/>
+      <c r="IB75" s="38"/>
+      <c r="IC75" s="38"/>
+      <c r="ID75" s="38"/>
+      <c r="IE75" s="38"/>
+      <c r="IF75" s="38"/>
+      <c r="IG75" s="38"/>
+      <c r="IH75" s="38"/>
+      <c r="II75" s="38"/>
+      <c r="IJ75" s="38"/>
+      <c r="IK75" s="38"/>
+      <c r="IL75" s="38"/>
+      <c r="IM75" s="38"/>
+      <c r="IN75" s="38"/>
+      <c r="IO75" s="38"/>
+      <c r="IP75" s="38"/>
+      <c r="IQ75" s="38"/>
+      <c r="IR75" s="38"/>
+      <c r="IS75" s="38"/>
+      <c r="IT75" s="38"/>
+      <c r="IU75" s="38"/>
+      <c r="IV75" s="38"/>
+      <c r="IW75" s="38"/>
+      <c r="IX75" s="38"/>
+      <c r="IY75" s="38"/>
+      <c r="IZ75" s="38"/>
+      <c r="JA75" s="38"/>
+      <c r="JB75" s="38"/>
+      <c r="JC75" s="38"/>
+      <c r="JD75" s="38"/>
+      <c r="JE75" s="38"/>
+      <c r="JF75" s="38"/>
+      <c r="JG75" s="38"/>
+      <c r="JH75" s="38"/>
+      <c r="JI75" s="38"/>
+      <c r="JJ75" s="38"/>
+      <c r="JK75" s="38"/>
+      <c r="JL75" s="38"/>
+      <c r="JM75" s="38"/>
+      <c r="JN75" s="38"/>
+      <c r="JO75" s="38"/>
+      <c r="JP75" s="38"/>
+      <c r="JQ75" s="38"/>
+      <c r="JR75" s="38"/>
+      <c r="JS75" s="38"/>
+      <c r="JT75" s="38"/>
+      <c r="JU75" s="38"/>
+      <c r="JV75" s="38"/>
+      <c r="JW75" s="38"/>
+      <c r="JX75" s="38"/>
+      <c r="JY75" s="38"/>
+      <c r="JZ75" s="38"/>
+      <c r="KA75" s="38"/>
+      <c r="KB75" s="38"/>
+      <c r="KC75" s="38"/>
+      <c r="KD75" s="38"/>
+      <c r="KE75" s="38"/>
+      <c r="KF75" s="38"/>
+      <c r="KG75" s="38"/>
+      <c r="KH75" s="38"/>
+      <c r="KI75" s="38"/>
+      <c r="KJ75" s="38"/>
+      <c r="KK75" s="38"/>
+      <c r="KL75" s="38"/>
+      <c r="KM75" s="38"/>
+      <c r="KN75" s="38"/>
+      <c r="KO75" s="38"/>
+      <c r="KP75" s="38"/>
+      <c r="KQ75" s="38"/>
+      <c r="KR75" s="38"/>
+      <c r="KS75" s="38"/>
+      <c r="KT75" s="38"/>
+      <c r="KU75" s="38"/>
+      <c r="KV75" s="38"/>
+      <c r="KW75" s="38"/>
+      <c r="KX75" s="38"/>
+      <c r="KY75" s="38"/>
+      <c r="KZ75" s="38"/>
+      <c r="LA75" s="38"/>
+      <c r="LB75" s="38"/>
+      <c r="LC75" s="38"/>
+      <c r="LD75" s="38"/>
+      <c r="LE75" s="38"/>
+      <c r="LF75" s="38"/>
+      <c r="LG75" s="38"/>
+      <c r="LH75" s="38"/>
+      <c r="LI75" s="38"/>
+      <c r="LJ75" s="38"/>
+      <c r="LK75" s="38"/>
+      <c r="LL75" s="38"/>
+      <c r="LM75" s="38"/>
+      <c r="LN75" s="38"/>
+      <c r="LO75" s="38"/>
+      <c r="LP75" s="38"/>
+      <c r="LQ75" s="38"/>
+      <c r="LR75" s="38"/>
+      <c r="LS75" s="38"/>
+      <c r="LT75" s="38"/>
+      <c r="LU75" s="38"/>
+      <c r="LV75" s="38"/>
+      <c r="LW75" s="38"/>
+      <c r="LX75" s="38"/>
+      <c r="LY75" s="38"/>
+      <c r="LZ75" s="38"/>
+      <c r="MA75" s="38"/>
+      <c r="MB75" s="38"/>
+      <c r="MC75" s="38"/>
+      <c r="MD75" s="38"/>
+      <c r="ME75" s="38"/>
+      <c r="MF75" s="38"/>
+      <c r="MG75" s="38"/>
+      <c r="MH75" s="38"/>
+      <c r="MI75" s="38"/>
+      <c r="MJ75" s="38"/>
+      <c r="MK75" s="38"/>
+      <c r="ML75" s="38"/>
+      <c r="MM75" s="38"/>
+      <c r="MN75" s="38"/>
+      <c r="MO75" s="38"/>
+      <c r="MP75" s="38"/>
+      <c r="MQ75" s="38"/>
+      <c r="MR75" s="38"/>
+      <c r="MS75" s="38"/>
+      <c r="MT75" s="38"/>
+      <c r="MU75" s="38"/>
+      <c r="MV75" s="38"/>
+      <c r="MW75" s="38"/>
+      <c r="MX75" s="38"/>
+      <c r="MY75" s="38"/>
+      <c r="MZ75" s="38"/>
+      <c r="NA75" s="38"/>
+      <c r="NB75" s="38"/>
+      <c r="NC75" s="38"/>
+      <c r="ND75" s="38"/>
+      <c r="NE75" s="38"/>
+      <c r="NF75" s="38"/>
+      <c r="NG75" s="38"/>
+      <c r="NH75" s="38"/>
+      <c r="NI75" s="38"/>
+      <c r="NJ75" s="38"/>
+      <c r="NK75" s="38"/>
+      <c r="NL75" s="38"/>
+      <c r="NM75" s="38"/>
+      <c r="NN75" s="38"/>
+      <c r="NO75" s="38"/>
+      <c r="NP75" s="38"/>
+      <c r="NQ75" s="38"/>
+      <c r="NR75" s="38"/>
+      <c r="NS75" s="38"/>
+      <c r="NT75" s="38"/>
+      <c r="NU75" s="38"/>
+      <c r="NV75" s="38"/>
+      <c r="NW75" s="38"/>
+      <c r="NX75" s="38"/>
+      <c r="NY75" s="38"/>
+      <c r="NZ75" s="38"/>
+      <c r="OA75" s="38"/>
+      <c r="OB75" s="38"/>
+      <c r="OC75" s="38"/>
+      <c r="OD75" s="38"/>
+      <c r="OE75" s="38"/>
+      <c r="OF75" s="38"/>
+      <c r="OG75" s="38"/>
+      <c r="OH75" s="38"/>
+      <c r="OI75" s="38"/>
+      <c r="OJ75" s="38"/>
+      <c r="OK75" s="38"/>
+      <c r="OL75" s="38"/>
+      <c r="OM75" s="38"/>
+      <c r="ON75" s="38"/>
+      <c r="OO75" s="38"/>
+      <c r="OP75" s="38"/>
+      <c r="OQ75" s="38"/>
+      <c r="OR75" s="38"/>
+      <c r="OS75" s="38"/>
+      <c r="OT75" s="38"/>
+      <c r="OU75" s="38"/>
+      <c r="OV75" s="38"/>
+      <c r="OW75" s="38"/>
+      <c r="OX75" s="38"/>
+      <c r="OY75" s="38"/>
+      <c r="OZ75" s="38"/>
+      <c r="PA75" s="38"/>
+      <c r="PB75" s="38"/>
+      <c r="PC75" s="38"/>
+      <c r="PD75" s="38"/>
+      <c r="PE75" s="38"/>
+      <c r="PF75" s="38"/>
+      <c r="PG75" s="38"/>
+      <c r="PH75" s="38"/>
+      <c r="PI75" s="38"/>
+      <c r="PJ75" s="38"/>
+      <c r="PK75" s="38"/>
+      <c r="PL75" s="38"/>
+      <c r="PM75" s="38"/>
+      <c r="PN75" s="38"/>
+      <c r="PO75" s="38"/>
+      <c r="PP75" s="38"/>
+      <c r="PQ75" s="38"/>
+      <c r="PR75" s="38"/>
+      <c r="PS75" s="38"/>
+      <c r="PT75" s="38"/>
+      <c r="PU75" s="38"/>
+      <c r="PV75" s="38"/>
+      <c r="PW75" s="38"/>
+      <c r="PX75" s="38"/>
+      <c r="PY75" s="38"/>
+      <c r="PZ75" s="38"/>
+      <c r="QA75" s="38"/>
+      <c r="QB75" s="38"/>
+      <c r="QC75" s="38"/>
+      <c r="QD75" s="38"/>
+      <c r="QE75" s="38"/>
+      <c r="QF75" s="38"/>
+      <c r="QG75" s="38"/>
+      <c r="QH75" s="38"/>
+      <c r="QI75" s="38"/>
+      <c r="QJ75" s="38"/>
+      <c r="QK75" s="38"/>
+      <c r="QL75" s="38"/>
+      <c r="QM75" s="38"/>
+      <c r="QN75" s="38"/>
+      <c r="QO75" s="38"/>
+      <c r="QP75" s="38"/>
+      <c r="QQ75" s="38"/>
+      <c r="QR75" s="38"/>
+      <c r="QS75" s="38"/>
+      <c r="QT75" s="38"/>
+      <c r="QU75" s="38"/>
+      <c r="QV75" s="38"/>
+      <c r="QW75" s="38"/>
+      <c r="QX75" s="38"/>
+      <c r="QY75" s="38"/>
+      <c r="QZ75" s="38"/>
+      <c r="RA75" s="38"/>
+      <c r="RB75" s="38"/>
+      <c r="RC75" s="38"/>
+      <c r="RD75" s="38"/>
+      <c r="RE75" s="38"/>
+      <c r="RF75" s="38"/>
+      <c r="RG75" s="38"/>
+      <c r="RH75" s="38"/>
+      <c r="RI75" s="38"/>
+      <c r="RJ75" s="38"/>
+      <c r="RK75" s="38"/>
+      <c r="RL75" s="38"/>
+      <c r="RM75" s="38"/>
+      <c r="RN75" s="38"/>
+      <c r="RO75" s="38"/>
+      <c r="RP75" s="38"/>
+      <c r="RQ75" s="38"/>
+      <c r="RR75" s="38"/>
+      <c r="RS75" s="38"/>
+      <c r="RT75" s="38"/>
+      <c r="RU75" s="38"/>
+      <c r="RV75" s="38"/>
+      <c r="RW75" s="38"/>
+      <c r="RX75" s="38"/>
+      <c r="RY75" s="38"/>
+      <c r="RZ75" s="38"/>
+      <c r="SA75" s="38"/>
+      <c r="SB75" s="38"/>
+      <c r="SC75" s="38"/>
+      <c r="SD75" s="38"/>
+      <c r="SE75" s="38"/>
+      <c r="SF75" s="38"/>
+      <c r="SG75" s="38"/>
+      <c r="SH75" s="38"/>
+      <c r="SI75" s="38"/>
+      <c r="SJ75" s="38"/>
+      <c r="SK75" s="38"/>
+      <c r="SL75" s="38"/>
+      <c r="SM75" s="38"/>
+      <c r="SN75" s="38"/>
+      <c r="SO75" s="38"/>
+      <c r="SP75" s="38"/>
+      <c r="SQ75" s="38"/>
+      <c r="SR75" s="38"/>
+      <c r="SS75" s="38"/>
+      <c r="ST75" s="38"/>
+      <c r="SU75" s="38"/>
+      <c r="SV75" s="38"/>
+      <c r="SW75" s="38"/>
+      <c r="SX75" s="38"/>
+      <c r="SY75" s="38"/>
+      <c r="SZ75" s="38"/>
+      <c r="TA75" s="38"/>
+      <c r="TB75" s="38"/>
+      <c r="TC75" s="38"/>
+      <c r="TD75" s="38"/>
+      <c r="TE75" s="38"/>
+      <c r="TF75" s="38"/>
+      <c r="TG75" s="38"/>
+      <c r="TH75" s="38"/>
+      <c r="TI75" s="38"/>
+      <c r="TJ75" s="38"/>
+      <c r="TK75" s="38"/>
+      <c r="TL75" s="38"/>
+      <c r="TM75" s="38"/>
+      <c r="TN75" s="38"/>
+      <c r="TO75" s="38"/>
+      <c r="TP75" s="38"/>
+      <c r="TQ75" s="38"/>
+      <c r="TR75" s="38"/>
+      <c r="TS75" s="38"/>
+      <c r="TT75" s="38"/>
+      <c r="TU75" s="38"/>
+      <c r="TV75" s="38"/>
+      <c r="TW75" s="38"/>
+      <c r="TX75" s="38"/>
+      <c r="TY75" s="38"/>
+      <c r="TZ75" s="38"/>
+      <c r="UA75" s="38"/>
+      <c r="UB75" s="38"/>
+      <c r="UC75" s="38"/>
+      <c r="UD75" s="38"/>
+      <c r="UE75" s="38"/>
+      <c r="UF75" s="38"/>
+      <c r="UG75" s="38"/>
+      <c r="UH75" s="38"/>
+      <c r="UI75" s="38"/>
+      <c r="UJ75" s="38"/>
+      <c r="UK75" s="38"/>
+      <c r="UL75" s="38"/>
+      <c r="UM75" s="38"/>
+      <c r="UN75" s="38"/>
+      <c r="UO75" s="38"/>
+      <c r="UP75" s="38"/>
+      <c r="UQ75" s="38"/>
+      <c r="UR75" s="38"/>
+      <c r="US75" s="38"/>
+      <c r="UT75" s="38"/>
+      <c r="UU75" s="38"/>
+      <c r="UV75" s="38"/>
+      <c r="UW75" s="38"/>
+      <c r="UX75" s="38"/>
+      <c r="UY75" s="38"/>
+      <c r="UZ75" s="38"/>
+      <c r="VA75" s="38"/>
+      <c r="VB75" s="38"/>
+      <c r="VC75" s="38"/>
+      <c r="VD75" s="38"/>
+      <c r="VE75" s="38"/>
+      <c r="VF75" s="38"/>
+      <c r="VG75" s="38"/>
+      <c r="VH75" s="38"/>
+      <c r="VI75" s="38"/>
+      <c r="VJ75" s="38"/>
+      <c r="VK75" s="38"/>
+      <c r="VL75" s="38"/>
+      <c r="VM75" s="38"/>
+      <c r="VN75" s="38"/>
+      <c r="VO75" s="38"/>
+      <c r="VP75" s="38"/>
+      <c r="VQ75" s="38"/>
+      <c r="VR75" s="38"/>
+      <c r="VS75" s="38"/>
+      <c r="VT75" s="38"/>
+      <c r="VU75" s="38"/>
+      <c r="VV75" s="38"/>
+      <c r="VW75" s="38"/>
+      <c r="VX75" s="38"/>
+      <c r="VY75" s="38"/>
+      <c r="VZ75" s="38"/>
+      <c r="WA75" s="38"/>
+      <c r="WB75" s="38"/>
+      <c r="WC75" s="38"/>
+      <c r="WD75" s="38"/>
+      <c r="WE75" s="38"/>
+      <c r="WF75" s="38"/>
+      <c r="WG75" s="38"/>
+      <c r="WH75" s="38"/>
+      <c r="WI75" s="38"/>
+      <c r="WJ75" s="38"/>
+      <c r="WK75" s="38"/>
+      <c r="WL75" s="38"/>
+      <c r="WM75" s="38"/>
+      <c r="WN75" s="38"/>
+      <c r="WO75" s="38"/>
+      <c r="WP75" s="38"/>
+      <c r="WQ75" s="38"/>
+      <c r="WR75" s="38"/>
+      <c r="WS75" s="38"/>
+      <c r="WT75" s="38"/>
+      <c r="WU75" s="38"/>
+      <c r="WV75" s="38"/>
+      <c r="WW75" s="38"/>
+      <c r="WX75" s="38"/>
+      <c r="WY75" s="38"/>
+      <c r="WZ75" s="38"/>
+      <c r="XA75" s="38"/>
+      <c r="XB75" s="38"/>
+      <c r="XC75" s="38"/>
+      <c r="XD75" s="38"/>
+      <c r="XE75" s="38"/>
+      <c r="XF75" s="38"/>
+      <c r="XG75" s="38"/>
+      <c r="XH75" s="38"/>
+      <c r="XI75" s="38"/>
+      <c r="XJ75" s="38"/>
+      <c r="XK75" s="38"/>
+      <c r="XL75" s="38"/>
+      <c r="XM75" s="38"/>
+      <c r="XN75" s="38"/>
+      <c r="XO75" s="38"/>
+      <c r="XP75" s="38"/>
+      <c r="XQ75" s="38"/>
+      <c r="XR75" s="38"/>
+      <c r="XS75" s="38"/>
+      <c r="XT75" s="38"/>
+      <c r="XU75" s="38"/>
+      <c r="XV75" s="38"/>
+      <c r="XW75" s="38"/>
+      <c r="XX75" s="38"/>
+      <c r="XY75" s="38"/>
+      <c r="XZ75" s="38"/>
+      <c r="YA75" s="38"/>
+      <c r="YB75" s="38"/>
+      <c r="YC75" s="38"/>
+      <c r="YD75" s="38"/>
+      <c r="YE75" s="38"/>
+      <c r="YF75" s="38"/>
+      <c r="YG75" s="38"/>
+      <c r="YH75" s="38"/>
+      <c r="YI75" s="38"/>
+      <c r="YJ75" s="38"/>
+      <c r="YK75" s="38"/>
+      <c r="YL75" s="38"/>
+      <c r="YM75" s="38"/>
+      <c r="YN75" s="38"/>
+      <c r="YO75" s="38"/>
+      <c r="YP75" s="38"/>
+      <c r="YQ75" s="38"/>
+      <c r="YR75" s="38"/>
+      <c r="YS75" s="38"/>
+      <c r="YT75" s="38"/>
+      <c r="YU75" s="38"/>
+      <c r="YV75" s="38"/>
+      <c r="YW75" s="38"/>
+      <c r="YX75" s="38"/>
+      <c r="YY75" s="38"/>
+      <c r="YZ75" s="38"/>
+      <c r="ZA75" s="38"/>
+      <c r="ZB75" s="38"/>
+      <c r="ZC75" s="38"/>
+      <c r="ZD75" s="38"/>
+      <c r="ZE75" s="38"/>
+      <c r="ZF75" s="38"/>
+      <c r="ZG75" s="38"/>
+      <c r="ZH75" s="38"/>
+      <c r="ZI75" s="38"/>
+      <c r="ZJ75" s="38"/>
+      <c r="ZK75" s="38"/>
+      <c r="ZL75" s="38"/>
+      <c r="ZM75" s="38"/>
+      <c r="ZN75" s="38"/>
+      <c r="ZO75" s="38"/>
+      <c r="ZP75" s="38"/>
+      <c r="ZQ75" s="38"/>
+      <c r="ZR75" s="38"/>
+      <c r="ZS75" s="38"/>
+      <c r="ZT75" s="38"/>
+      <c r="ZU75" s="38"/>
+      <c r="ZV75" s="38"/>
+      <c r="ZW75" s="38"/>
+      <c r="ZX75" s="38"/>
+      <c r="ZY75" s="38"/>
+      <c r="ZZ75" s="38"/>
+      <c r="AAA75" s="38"/>
+      <c r="AAB75" s="38"/>
+      <c r="AAC75" s="38"/>
+      <c r="AAD75" s="38"/>
+      <c r="AAE75" s="38"/>
+      <c r="AAF75" s="38"/>
+      <c r="AAG75" s="38"/>
+      <c r="AAH75" s="38"/>
+      <c r="AAI75" s="38"/>
+      <c r="AAJ75" s="38"/>
+      <c r="AAK75" s="38"/>
+      <c r="AAL75" s="38"/>
+      <c r="AAM75" s="38"/>
+      <c r="AAN75" s="38"/>
+      <c r="AAO75" s="38"/>
+      <c r="AAP75" s="38"/>
+      <c r="AAQ75" s="38"/>
+      <c r="AAR75" s="38"/>
+      <c r="AAS75" s="38"/>
+      <c r="AAT75" s="38"/>
+      <c r="AAU75" s="38"/>
+      <c r="AAV75" s="38"/>
+      <c r="AAW75" s="38"/>
+      <c r="AAX75" s="38"/>
+      <c r="AAY75" s="38"/>
+      <c r="AAZ75" s="38"/>
+      <c r="ABA75" s="38"/>
+      <c r="ABB75" s="38"/>
+      <c r="ABC75" s="38"/>
+      <c r="ABD75" s="38"/>
+      <c r="ABE75" s="38"/>
+      <c r="ABF75" s="38"/>
+      <c r="ABG75" s="38"/>
+      <c r="ABH75" s="38"/>
+      <c r="ABI75" s="38"/>
+      <c r="ABJ75" s="38"/>
+      <c r="ABK75" s="38"/>
+      <c r="ABL75" s="38"/>
+      <c r="ABM75" s="38"/>
+      <c r="ABN75" s="38"/>
+      <c r="ABO75" s="38"/>
+      <c r="ABP75" s="38"/>
+      <c r="ABQ75" s="38"/>
+      <c r="ABR75" s="38"/>
+      <c r="ABS75" s="38"/>
+      <c r="ABT75" s="38"/>
+      <c r="ABU75" s="38"/>
+      <c r="ABV75" s="38"/>
+      <c r="ABW75" s="38"/>
+      <c r="ABX75" s="38"/>
+      <c r="ABY75" s="38"/>
+      <c r="ABZ75" s="38"/>
+      <c r="ACA75" s="38"/>
+      <c r="ACB75" s="38"/>
+      <c r="ACC75" s="38"/>
+      <c r="ACD75" s="38"/>
+      <c r="ACE75" s="38"/>
+      <c r="ACF75" s="38"/>
+      <c r="ACG75" s="38"/>
+      <c r="ACH75" s="38"/>
+      <c r="ACI75" s="38"/>
+      <c r="ACJ75" s="38"/>
+      <c r="ACK75" s="38"/>
+      <c r="ACL75" s="38"/>
+      <c r="ACM75" s="38"/>
+      <c r="ACN75" s="38"/>
+      <c r="ACO75" s="38"/>
+      <c r="ACP75" s="38"/>
+      <c r="ACQ75" s="38"/>
+      <c r="ACR75" s="38"/>
+      <c r="ACS75" s="38"/>
+      <c r="ACT75" s="38"/>
+      <c r="ACU75" s="38"/>
+      <c r="ACV75" s="38"/>
+      <c r="ACW75" s="38"/>
+      <c r="ACX75" s="38"/>
+      <c r="ACY75" s="38"/>
+      <c r="ACZ75" s="38"/>
+      <c r="ADA75" s="38"/>
+      <c r="ADB75" s="38"/>
+      <c r="ADC75" s="38"/>
+      <c r="ADD75" s="38"/>
+      <c r="ADE75" s="38"/>
+      <c r="ADF75" s="38"/>
+      <c r="ADG75" s="38"/>
+      <c r="ADH75" s="38"/>
+      <c r="ADI75" s="38"/>
+      <c r="ADJ75" s="38"/>
+      <c r="ADK75" s="38"/>
+      <c r="ADL75" s="38"/>
+      <c r="ADM75" s="38"/>
+      <c r="ADN75" s="38"/>
+      <c r="ADO75" s="38"/>
+      <c r="ADP75" s="38"/>
+      <c r="ADQ75" s="38"/>
+      <c r="ADR75" s="38"/>
+      <c r="ADS75" s="38"/>
+      <c r="ADT75" s="38"/>
+      <c r="ADU75" s="38"/>
+      <c r="ADV75" s="38"/>
+      <c r="ADW75" s="38"/>
+      <c r="ADX75" s="38"/>
+      <c r="ADY75" s="38"/>
+      <c r="ADZ75" s="38"/>
+      <c r="AEA75" s="38"/>
+      <c r="AEB75" s="38"/>
+      <c r="AEC75" s="38"/>
+      <c r="AED75" s="38"/>
+      <c r="AEE75" s="38"/>
+      <c r="AEF75" s="38"/>
+      <c r="AEG75" s="38"/>
+      <c r="AEH75" s="38"/>
+      <c r="AEI75" s="38"/>
+      <c r="AEJ75" s="38"/>
+      <c r="AEK75" s="38"/>
+      <c r="AEL75" s="38"/>
+      <c r="AEM75" s="38"/>
+      <c r="AEN75" s="38"/>
+      <c r="AEO75" s="38"/>
+      <c r="AEP75" s="38"/>
+      <c r="AEQ75" s="38"/>
+      <c r="AER75" s="38"/>
+      <c r="AES75" s="38"/>
+      <c r="AET75" s="38"/>
+      <c r="AEU75" s="38"/>
+      <c r="AEV75" s="38"/>
+      <c r="AEW75" s="38"/>
+      <c r="AEX75" s="38"/>
+      <c r="AEY75" s="38"/>
+      <c r="AEZ75" s="38"/>
+      <c r="AFA75" s="38"/>
+      <c r="AFB75" s="38"/>
+      <c r="AFC75" s="38"/>
+      <c r="AFD75" s="38"/>
+      <c r="AFE75" s="38"/>
+      <c r="AFF75" s="38"/>
+      <c r="AFG75" s="38"/>
+      <c r="AFH75" s="38"/>
+      <c r="AFI75" s="38"/>
+      <c r="AFJ75" s="38"/>
+      <c r="AFK75" s="38"/>
+      <c r="AFL75" s="38"/>
+      <c r="AFM75" s="38"/>
+      <c r="AFN75" s="38"/>
+      <c r="AFO75" s="38"/>
+      <c r="AFP75" s="38"/>
+      <c r="AFQ75" s="38"/>
+      <c r="AFR75" s="38"/>
+      <c r="AFS75" s="38"/>
+      <c r="AFT75" s="38"/>
+      <c r="AFU75" s="38"/>
+      <c r="AFV75" s="38"/>
+      <c r="AFW75" s="38"/>
+      <c r="AFX75" s="38"/>
+      <c r="AFY75" s="38"/>
+      <c r="AFZ75" s="38"/>
+      <c r="AGA75" s="38"/>
+      <c r="AGB75" s="38"/>
+      <c r="AGC75" s="38"/>
+      <c r="AGD75" s="38"/>
+      <c r="AGE75" s="38"/>
+      <c r="AGF75" s="38"/>
+      <c r="AGG75" s="38"/>
+      <c r="AGH75" s="38"/>
+      <c r="AGI75" s="38"/>
+      <c r="AGJ75" s="38"/>
+      <c r="AGK75" s="38"/>
+      <c r="AGL75" s="38"/>
+      <c r="AGM75" s="38"/>
+      <c r="AGN75" s="38"/>
+      <c r="AGO75" s="38"/>
+      <c r="AGP75" s="38"/>
+      <c r="AGQ75" s="38"/>
+      <c r="AGR75" s="38"/>
+      <c r="AGS75" s="38"/>
+      <c r="AGT75" s="38"/>
+      <c r="AGU75" s="38"/>
+      <c r="AGV75" s="38"/>
+      <c r="AGW75" s="38"/>
+      <c r="AGX75" s="38"/>
+      <c r="AGY75" s="38"/>
+      <c r="AGZ75" s="38"/>
+      <c r="AHA75" s="38"/>
+      <c r="AHB75" s="38"/>
+      <c r="AHC75" s="38"/>
+      <c r="AHD75" s="38"/>
+      <c r="AHE75" s="38"/>
+      <c r="AHF75" s="38"/>
+      <c r="AHG75" s="38"/>
+      <c r="AHH75" s="38"/>
+      <c r="AHI75" s="38"/>
+      <c r="AHJ75" s="38"/>
+      <c r="AHK75" s="38"/>
+      <c r="AHL75" s="38"/>
+      <c r="AHM75" s="38"/>
+      <c r="AHN75" s="38"/>
+      <c r="AHO75" s="38"/>
+      <c r="AHP75" s="38"/>
+      <c r="AHQ75" s="38"/>
+      <c r="AHR75" s="38"/>
+      <c r="AHS75" s="38"/>
+      <c r="AHT75" s="38"/>
+      <c r="AHU75" s="38"/>
+      <c r="AHV75" s="38"/>
+      <c r="AHW75" s="38"/>
+      <c r="AHX75" s="38"/>
+      <c r="AHY75" s="38"/>
+      <c r="AHZ75" s="38"/>
+      <c r="AIA75" s="38"/>
+      <c r="AIB75" s="38"/>
+      <c r="AIC75" s="38"/>
+      <c r="AID75" s="38"/>
+      <c r="AIE75" s="38"/>
+      <c r="AIF75" s="38"/>
+      <c r="AIG75" s="38"/>
+      <c r="AIH75" s="38"/>
+      <c r="AII75" s="38"/>
+      <c r="AIJ75" s="38"/>
+      <c r="AIK75" s="38"/>
+      <c r="AIL75" s="38"/>
+      <c r="AIM75" s="38"/>
+      <c r="AIN75" s="38"/>
+      <c r="AIO75" s="38"/>
+      <c r="AIP75" s="38"/>
+      <c r="AIQ75" s="38"/>
+      <c r="AIR75" s="38"/>
+      <c r="AIS75" s="38"/>
+      <c r="AIT75" s="38"/>
+      <c r="AIU75" s="38"/>
+      <c r="AIV75" s="38"/>
+      <c r="AIW75" s="38"/>
+      <c r="AIX75" s="38"/>
+      <c r="AIY75" s="38"/>
+      <c r="AIZ75" s="38"/>
+      <c r="AJA75" s="38"/>
+      <c r="AJB75" s="38"/>
+      <c r="AJC75" s="38"/>
+      <c r="AJD75" s="38"/>
+      <c r="AJE75" s="38"/>
+      <c r="AJF75" s="38"/>
+      <c r="AJG75" s="38"/>
+      <c r="AJH75" s="38"/>
+      <c r="AJI75" s="38"/>
+      <c r="AJJ75" s="38"/>
+      <c r="AJK75" s="38"/>
+      <c r="AJL75" s="38"/>
+      <c r="AJM75" s="38"/>
+      <c r="AJN75" s="38"/>
+      <c r="AJO75" s="38"/>
+      <c r="AJP75" s="38"/>
+      <c r="AJQ75" s="38"/>
+      <c r="AJR75" s="38"/>
+      <c r="AJS75" s="38"/>
+      <c r="AJT75" s="38"/>
+      <c r="AJU75" s="38"/>
+      <c r="AJV75" s="38"/>
+      <c r="AJW75" s="38"/>
+      <c r="AJX75" s="38"/>
+      <c r="AJY75" s="38"/>
+      <c r="AJZ75" s="38"/>
+      <c r="AKA75" s="38"/>
+      <c r="AKB75" s="38"/>
+      <c r="AKC75" s="38"/>
+      <c r="AKD75" s="38"/>
+      <c r="AKE75" s="38"/>
+      <c r="AKF75" s="38"/>
+      <c r="AKG75" s="38"/>
+      <c r="AKH75" s="38"/>
+      <c r="AKI75" s="38"/>
+      <c r="AKJ75" s="38"/>
+      <c r="AKK75" s="38"/>
+      <c r="AKL75" s="38"/>
+      <c r="AKM75" s="38"/>
+      <c r="AKN75" s="38"/>
+      <c r="AKO75" s="38"/>
+      <c r="AKP75" s="38"/>
+      <c r="AKQ75" s="38"/>
+      <c r="AKR75" s="38"/>
+      <c r="AKS75" s="38"/>
+      <c r="AKT75" s="38"/>
+      <c r="AKU75" s="38"/>
+      <c r="AKV75" s="38"/>
+      <c r="AKW75" s="38"/>
+      <c r="AKX75" s="38"/>
+      <c r="AKY75" s="38"/>
+      <c r="AKZ75" s="38"/>
+      <c r="ALA75" s="38"/>
+      <c r="ALB75" s="38"/>
+      <c r="ALC75" s="38"/>
+      <c r="ALD75" s="38"/>
+      <c r="ALE75" s="38"/>
+      <c r="ALF75" s="38"/>
+      <c r="ALG75" s="38"/>
+      <c r="ALH75" s="38"/>
+      <c r="ALI75" s="38"/>
+      <c r="ALJ75" s="38"/>
+      <c r="ALK75" s="38"/>
+      <c r="ALL75" s="38"/>
+      <c r="ALM75" s="38"/>
+      <c r="ALN75" s="38"/>
+      <c r="ALO75" s="38"/>
+      <c r="ALP75" s="38"/>
+      <c r="ALQ75" s="38"/>
+      <c r="ALR75" s="38"/>
+      <c r="ALS75" s="38"/>
+      <c r="ALT75" s="38"/>
+      <c r="ALU75" s="38"/>
+      <c r="ALV75" s="38"/>
+      <c r="ALW75" s="38"/>
+      <c r="ALX75" s="38"/>
+      <c r="ALY75" s="38"/>
+      <c r="ALZ75" s="38"/>
+      <c r="AMA75" s="38"/>
+      <c r="AMB75" s="38"/>
+      <c r="AMC75" s="38"/>
+      <c r="AMD75" s="38"/>
+      <c r="AME75" s="38"/>
+      <c r="AMF75" s="38"/>
+      <c r="AMG75" s="38"/>
+      <c r="AMH75" s="38"/>
+      <c r="AMI75" s="38"/>
+      <c r="AMJ75" s="38"/>
+      <c r="AMK75" s="38"/>
+      <c r="AML75" s="38"/>
+      <c r="AMM75" s="38"/>
+      <c r="AMN75" s="38"/>
+      <c r="AMO75" s="38"/>
+      <c r="AMP75" s="38"/>
+      <c r="AMQ75" s="38"/>
+      <c r="AMR75" s="38"/>
+      <c r="AMS75" s="38"/>
+      <c r="AMT75" s="38"/>
+      <c r="AMU75" s="38"/>
+      <c r="AMV75" s="38"/>
+      <c r="AMW75" s="38"/>
+      <c r="AMX75" s="38"/>
+      <c r="AMY75" s="38"/>
+      <c r="AMZ75" s="38"/>
+      <c r="ANA75" s="38"/>
+      <c r="ANB75" s="38"/>
+      <c r="ANC75" s="38"/>
+      <c r="AND75" s="38"/>
+      <c r="ANE75" s="38"/>
+      <c r="ANF75" s="38"/>
+      <c r="ANG75" s="38"/>
+      <c r="ANH75" s="38"/>
+      <c r="ANI75" s="38"/>
+      <c r="ANJ75" s="38"/>
+      <c r="ANK75" s="38"/>
+      <c r="ANL75" s="38"/>
+      <c r="ANM75" s="38"/>
+      <c r="ANN75" s="38"/>
+      <c r="ANO75" s="38"/>
+      <c r="ANP75" s="38"/>
+      <c r="ANQ75" s="38"/>
+      <c r="ANR75" s="38"/>
+      <c r="ANS75" s="38"/>
+      <c r="ANT75" s="38"/>
+      <c r="ANU75" s="38"/>
+      <c r="ANV75" s="38"/>
+      <c r="ANW75" s="38"/>
+      <c r="ANX75" s="38"/>
+      <c r="ANY75" s="38"/>
+      <c r="ANZ75" s="38"/>
+      <c r="AOA75" s="38"/>
+      <c r="AOB75" s="38"/>
+      <c r="AOC75" s="38"/>
+      <c r="AOD75" s="38"/>
+      <c r="AOE75" s="38"/>
+      <c r="AOF75" s="38"/>
+      <c r="AOG75" s="38"/>
+      <c r="AOH75" s="38"/>
+      <c r="AOI75" s="38"/>
+      <c r="AOJ75" s="38"/>
+      <c r="AOK75" s="38"/>
+      <c r="AOL75" s="38"/>
+      <c r="AOM75" s="38"/>
+      <c r="AON75" s="38"/>
+      <c r="AOO75" s="38"/>
+      <c r="AOP75" s="38"/>
+      <c r="AOQ75" s="38"/>
+      <c r="AOR75" s="38"/>
+      <c r="AOS75" s="38"/>
+      <c r="AOT75" s="38"/>
+      <c r="AOU75" s="38"/>
+      <c r="AOV75" s="38"/>
+      <c r="AOW75" s="38"/>
+      <c r="AOX75" s="38"/>
+      <c r="AOY75" s="38"/>
+      <c r="AOZ75" s="38"/>
+      <c r="APA75" s="38"/>
+      <c r="APB75" s="38"/>
+      <c r="APC75" s="38"/>
+      <c r="APD75" s="38"/>
+      <c r="APE75" s="38"/>
+      <c r="APF75" s="38"/>
+      <c r="APG75" s="38"/>
+      <c r="APH75" s="38"/>
+      <c r="API75" s="38"/>
+      <c r="APJ75" s="38"/>
+      <c r="APK75" s="38"/>
+      <c r="APL75" s="38"/>
+      <c r="APM75" s="38"/>
+      <c r="APN75" s="38"/>
+      <c r="APO75" s="38"/>
+      <c r="APP75" s="38"/>
+      <c r="APQ75" s="38"/>
+      <c r="APR75" s="38"/>
+      <c r="APS75" s="38"/>
+      <c r="APT75" s="38"/>
+      <c r="APU75" s="38"/>
+      <c r="APV75" s="38"/>
+      <c r="APW75" s="38"/>
+      <c r="APX75" s="38"/>
+      <c r="APY75" s="38"/>
+      <c r="APZ75" s="38"/>
+      <c r="AQA75" s="38"/>
+      <c r="AQB75" s="38"/>
+      <c r="AQC75" s="38"/>
+      <c r="AQD75" s="38"/>
+      <c r="AQE75" s="38"/>
+      <c r="AQF75" s="38"/>
+      <c r="AQG75" s="38"/>
+      <c r="AQH75" s="38"/>
+      <c r="AQI75" s="38"/>
+      <c r="AQJ75" s="38"/>
+      <c r="AQK75" s="38"/>
+      <c r="AQL75" s="38"/>
+      <c r="AQM75" s="38"/>
+      <c r="AQN75" s="38"/>
+      <c r="AQO75" s="38"/>
+      <c r="AQP75" s="38"/>
+      <c r="AQQ75" s="38"/>
+      <c r="AQR75" s="38"/>
+      <c r="AQS75" s="38"/>
+      <c r="AQT75" s="38"/>
+      <c r="AQU75" s="38"/>
+      <c r="AQV75" s="38"/>
+      <c r="AQW75" s="38"/>
+      <c r="AQX75" s="38"/>
+      <c r="AQY75" s="38"/>
+      <c r="AQZ75" s="38"/>
+      <c r="ARA75" s="38"/>
+      <c r="ARB75" s="38"/>
+      <c r="ARC75" s="38"/>
+      <c r="ARD75" s="38"/>
+      <c r="ARE75" s="38"/>
+      <c r="ARF75" s="38"/>
+      <c r="ARG75" s="38"/>
+      <c r="ARH75" s="38"/>
+      <c r="ARI75" s="38"/>
+      <c r="ARJ75" s="38"/>
+      <c r="ARK75" s="38"/>
+      <c r="ARL75" s="38"/>
+      <c r="ARM75" s="38"/>
+      <c r="ARN75" s="38"/>
+      <c r="ARO75" s="38"/>
+      <c r="ARP75" s="38"/>
+      <c r="ARQ75" s="38"/>
+      <c r="ARR75" s="38"/>
+      <c r="ARS75" s="38"/>
+      <c r="ART75" s="38"/>
+      <c r="ARU75" s="38"/>
+      <c r="ARV75" s="38"/>
+      <c r="ARW75" s="38"/>
+      <c r="ARX75" s="38"/>
+      <c r="ARY75" s="38"/>
+      <c r="ARZ75" s="38"/>
+      <c r="ASA75" s="38"/>
+      <c r="ASB75" s="38"/>
+      <c r="ASC75" s="38"/>
+      <c r="ASD75" s="38"/>
+      <c r="ASE75" s="38"/>
+      <c r="ASF75" s="38"/>
+      <c r="ASG75" s="38"/>
+      <c r="ASH75" s="38"/>
+      <c r="ASI75" s="38"/>
+      <c r="ASJ75" s="38"/>
+      <c r="ASK75" s="38"/>
+      <c r="ASL75" s="38"/>
+      <c r="ASM75" s="38"/>
+      <c r="ASN75" s="38"/>
+      <c r="ASO75" s="38"/>
+      <c r="ASP75" s="38"/>
+      <c r="ASQ75" s="38"/>
+      <c r="ASR75" s="38"/>
+      <c r="ASS75" s="38"/>
+      <c r="AST75" s="38"/>
+      <c r="ASU75" s="38"/>
+      <c r="ASV75" s="38"/>
+      <c r="ASW75" s="38"/>
+      <c r="ASX75" s="38"/>
+      <c r="ASY75" s="38"/>
+      <c r="ASZ75" s="38"/>
+      <c r="ATA75" s="38"/>
+      <c r="ATB75" s="38"/>
+      <c r="ATC75" s="38"/>
+      <c r="ATD75" s="38"/>
+      <c r="ATE75" s="38"/>
+      <c r="ATF75" s="38"/>
+      <c r="ATG75" s="38"/>
+      <c r="ATH75" s="38"/>
+      <c r="ATI75" s="38"/>
+      <c r="ATJ75" s="38"/>
+      <c r="ATK75" s="38"/>
+      <c r="ATL75" s="38"/>
+      <c r="ATM75" s="38"/>
+      <c r="ATN75" s="38"/>
+      <c r="ATO75" s="38"/>
+      <c r="ATP75" s="38"/>
+      <c r="ATQ75" s="38"/>
+      <c r="ATR75" s="38"/>
+      <c r="ATS75" s="38"/>
+      <c r="ATT75" s="38"/>
+      <c r="ATU75" s="38"/>
+      <c r="ATV75" s="38"/>
+      <c r="ATW75" s="38"/>
+      <c r="ATX75" s="38"/>
+      <c r="ATY75" s="38"/>
+      <c r="ATZ75" s="38"/>
     </row>
     <row r="76" spans="1:1222" s="37" customFormat="1">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="19"/>
+      <c r="A76" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43" t="s">
+        <v>172</v>
+      </c>
       <c r="D76" s="38"/>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
@@ -45232,9 +46756,13 @@
       <c r="ATZ76" s="38"/>
     </row>
     <row r="77" spans="1:1222" s="37" customFormat="1">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43" t="s">
+        <v>166</v>
+      </c>
       <c r="D77" s="38"/>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -46455,2457 +47983,5270 @@
       <c r="ATY77" s="38"/>
       <c r="ATZ77" s="38"/>
     </row>
-    <row r="78" spans="1:1222" s="37" customFormat="1">
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38"/>
-      <c r="AA78" s="38"/>
-      <c r="AB78" s="38"/>
-      <c r="AC78" s="38"/>
-      <c r="AD78" s="38"/>
-      <c r="AE78" s="38"/>
-      <c r="AF78" s="38"/>
-      <c r="AG78" s="38"/>
-      <c r="AH78" s="38"/>
-      <c r="AI78" s="38"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="38"/>
-      <c r="AL78" s="38"/>
-      <c r="AM78" s="38"/>
-      <c r="AN78" s="38"/>
-      <c r="AO78" s="38"/>
-      <c r="AP78" s="38"/>
-      <c r="AQ78" s="38"/>
-      <c r="AR78" s="38"/>
-      <c r="AS78" s="38"/>
-      <c r="AT78" s="38"/>
-      <c r="AU78" s="38"/>
-      <c r="AV78" s="38"/>
-      <c r="AW78" s="38"/>
-      <c r="AX78" s="38"/>
-      <c r="AY78" s="38"/>
-      <c r="AZ78" s="38"/>
-      <c r="BA78" s="38"/>
-      <c r="BB78" s="38"/>
-      <c r="BC78" s="38"/>
-      <c r="BD78" s="38"/>
-      <c r="BE78" s="38"/>
-      <c r="BF78" s="38"/>
-      <c r="BG78" s="38"/>
-      <c r="BH78" s="38"/>
-      <c r="BI78" s="38"/>
-      <c r="BJ78" s="38"/>
-      <c r="BK78" s="38"/>
-      <c r="BL78" s="38"/>
-      <c r="BM78" s="38"/>
-      <c r="BN78" s="38"/>
-      <c r="BO78" s="38"/>
-      <c r="BP78" s="38"/>
-      <c r="BQ78" s="38"/>
-      <c r="BR78" s="38"/>
-      <c r="BS78" s="38"/>
-      <c r="BT78" s="38"/>
-      <c r="BU78" s="38"/>
-      <c r="BV78" s="38"/>
-      <c r="BW78" s="38"/>
-      <c r="BX78" s="38"/>
-      <c r="BY78" s="38"/>
-      <c r="BZ78" s="38"/>
-      <c r="CA78" s="38"/>
-      <c r="CB78" s="38"/>
-      <c r="CC78" s="38"/>
-      <c r="CD78" s="38"/>
-      <c r="CE78" s="38"/>
-      <c r="CF78" s="38"/>
-      <c r="CG78" s="38"/>
-      <c r="CH78" s="38"/>
-      <c r="CI78" s="38"/>
-      <c r="CJ78" s="38"/>
-      <c r="CK78" s="38"/>
-      <c r="CL78" s="38"/>
-      <c r="CM78" s="38"/>
-      <c r="CN78" s="38"/>
-      <c r="CO78" s="38"/>
-      <c r="CP78" s="38"/>
-      <c r="CQ78" s="38"/>
-      <c r="CR78" s="38"/>
-      <c r="CS78" s="38"/>
-      <c r="CT78" s="38"/>
-      <c r="CU78" s="38"/>
-      <c r="CV78" s="38"/>
-      <c r="CW78" s="38"/>
-      <c r="CX78" s="38"/>
-      <c r="CY78" s="38"/>
-      <c r="CZ78" s="38"/>
-      <c r="DA78" s="38"/>
-      <c r="DB78" s="38"/>
-      <c r="DC78" s="38"/>
-      <c r="DD78" s="38"/>
-      <c r="DE78" s="38"/>
-      <c r="DF78" s="38"/>
-      <c r="DG78" s="38"/>
-      <c r="DH78" s="38"/>
-      <c r="DI78" s="38"/>
-      <c r="DJ78" s="38"/>
-      <c r="DK78" s="38"/>
-      <c r="DL78" s="38"/>
-      <c r="DM78" s="38"/>
-      <c r="DN78" s="38"/>
-      <c r="DO78" s="38"/>
-      <c r="DP78" s="38"/>
-      <c r="DQ78" s="38"/>
-      <c r="DR78" s="38"/>
-      <c r="DS78" s="38"/>
-      <c r="DT78" s="38"/>
-      <c r="DU78" s="38"/>
-      <c r="DV78" s="38"/>
-      <c r="DW78" s="38"/>
-      <c r="DX78" s="38"/>
-      <c r="DY78" s="38"/>
-      <c r="DZ78" s="38"/>
-      <c r="EA78" s="38"/>
-      <c r="EB78" s="38"/>
-      <c r="EC78" s="38"/>
-      <c r="ED78" s="38"/>
-      <c r="EE78" s="38"/>
-      <c r="EF78" s="38"/>
-      <c r="EG78" s="38"/>
-      <c r="EH78" s="38"/>
-      <c r="EI78" s="38"/>
-      <c r="EJ78" s="38"/>
-      <c r="EK78" s="38"/>
-      <c r="EL78" s="38"/>
-      <c r="EM78" s="38"/>
-      <c r="EN78" s="38"/>
-      <c r="EO78" s="38"/>
-      <c r="EP78" s="38"/>
-      <c r="EQ78" s="38"/>
-      <c r="ER78" s="38"/>
-      <c r="ES78" s="38"/>
-      <c r="ET78" s="38"/>
-      <c r="EU78" s="38"/>
-      <c r="EV78" s="38"/>
-      <c r="EW78" s="38"/>
-      <c r="EX78" s="38"/>
-      <c r="EY78" s="38"/>
-      <c r="EZ78" s="38"/>
-      <c r="FA78" s="38"/>
-      <c r="FB78" s="38"/>
-      <c r="FC78" s="38"/>
-      <c r="FD78" s="38"/>
-      <c r="FE78" s="38"/>
-      <c r="FF78" s="38"/>
-      <c r="FG78" s="38"/>
-      <c r="FH78" s="38"/>
-      <c r="FI78" s="38"/>
-      <c r="FJ78" s="38"/>
-      <c r="FK78" s="38"/>
-      <c r="FL78" s="38"/>
-      <c r="FM78" s="38"/>
-      <c r="FN78" s="38"/>
-      <c r="FO78" s="38"/>
-      <c r="FP78" s="38"/>
-      <c r="FQ78" s="38"/>
-      <c r="FR78" s="38"/>
-      <c r="FS78" s="38"/>
-      <c r="FT78" s="38"/>
-      <c r="FU78" s="38"/>
-      <c r="FV78" s="38"/>
-      <c r="FW78" s="38"/>
-      <c r="FX78" s="38"/>
-      <c r="FY78" s="38"/>
-      <c r="FZ78" s="38"/>
-      <c r="GA78" s="38"/>
-      <c r="GB78" s="38"/>
-      <c r="GC78" s="38"/>
-      <c r="GD78" s="38"/>
-      <c r="GE78" s="38"/>
-      <c r="GF78" s="38"/>
-      <c r="GG78" s="38"/>
-      <c r="GH78" s="38"/>
-      <c r="GI78" s="38"/>
-      <c r="GJ78" s="38"/>
-      <c r="GK78" s="38"/>
-      <c r="GL78" s="38"/>
-      <c r="GM78" s="38"/>
-      <c r="GN78" s="38"/>
-      <c r="GO78" s="38"/>
-      <c r="GP78" s="38"/>
-      <c r="GQ78" s="38"/>
-      <c r="GR78" s="38"/>
-      <c r="GS78" s="38"/>
-      <c r="GT78" s="38"/>
-      <c r="GU78" s="38"/>
-      <c r="GV78" s="38"/>
-      <c r="GW78" s="38"/>
-      <c r="GX78" s="38"/>
-      <c r="GY78" s="38"/>
-      <c r="GZ78" s="38"/>
-      <c r="HA78" s="38"/>
-      <c r="HB78" s="38"/>
-      <c r="HC78" s="38"/>
-      <c r="HD78" s="38"/>
-      <c r="HE78" s="38"/>
-      <c r="HF78" s="38"/>
-      <c r="HG78" s="38"/>
-      <c r="HH78" s="38"/>
-      <c r="HI78" s="38"/>
-      <c r="HJ78" s="38"/>
-      <c r="HK78" s="38"/>
-      <c r="HL78" s="38"/>
-      <c r="HM78" s="38"/>
-      <c r="HN78" s="38"/>
-      <c r="HO78" s="38"/>
-      <c r="HP78" s="38"/>
-      <c r="HQ78" s="38"/>
-      <c r="HR78" s="38"/>
-      <c r="HS78" s="38"/>
-      <c r="HT78" s="38"/>
-      <c r="HU78" s="38"/>
-      <c r="HV78" s="38"/>
-      <c r="HW78" s="38"/>
-      <c r="HX78" s="38"/>
-      <c r="HY78" s="38"/>
-      <c r="HZ78" s="38"/>
-      <c r="IA78" s="38"/>
-      <c r="IB78" s="38"/>
-      <c r="IC78" s="38"/>
-      <c r="ID78" s="38"/>
-      <c r="IE78" s="38"/>
-      <c r="IF78" s="38"/>
-      <c r="IG78" s="38"/>
-      <c r="IH78" s="38"/>
-      <c r="II78" s="38"/>
-      <c r="IJ78" s="38"/>
-      <c r="IK78" s="38"/>
-      <c r="IL78" s="38"/>
-      <c r="IM78" s="38"/>
-      <c r="IN78" s="38"/>
-      <c r="IO78" s="38"/>
-      <c r="IP78" s="38"/>
-      <c r="IQ78" s="38"/>
-      <c r="IR78" s="38"/>
-      <c r="IS78" s="38"/>
-      <c r="IT78" s="38"/>
-      <c r="IU78" s="38"/>
-      <c r="IV78" s="38"/>
-      <c r="IW78" s="38"/>
-      <c r="IX78" s="38"/>
-      <c r="IY78" s="38"/>
-      <c r="IZ78" s="38"/>
-      <c r="JA78" s="38"/>
-      <c r="JB78" s="38"/>
-      <c r="JC78" s="38"/>
-      <c r="JD78" s="38"/>
-      <c r="JE78" s="38"/>
-      <c r="JF78" s="38"/>
-      <c r="JG78" s="38"/>
-      <c r="JH78" s="38"/>
-      <c r="JI78" s="38"/>
-      <c r="JJ78" s="38"/>
-      <c r="JK78" s="38"/>
-      <c r="JL78" s="38"/>
-      <c r="JM78" s="38"/>
-      <c r="JN78" s="38"/>
-      <c r="JO78" s="38"/>
-      <c r="JP78" s="38"/>
-      <c r="JQ78" s="38"/>
-      <c r="JR78" s="38"/>
-      <c r="JS78" s="38"/>
-      <c r="JT78" s="38"/>
-      <c r="JU78" s="38"/>
-      <c r="JV78" s="38"/>
-      <c r="JW78" s="38"/>
-      <c r="JX78" s="38"/>
-      <c r="JY78" s="38"/>
-      <c r="JZ78" s="38"/>
-      <c r="KA78" s="38"/>
-      <c r="KB78" s="38"/>
-      <c r="KC78" s="38"/>
-      <c r="KD78" s="38"/>
-      <c r="KE78" s="38"/>
-      <c r="KF78" s="38"/>
-      <c r="KG78" s="38"/>
-      <c r="KH78" s="38"/>
-      <c r="KI78" s="38"/>
-      <c r="KJ78" s="38"/>
-      <c r="KK78" s="38"/>
-      <c r="KL78" s="38"/>
-      <c r="KM78" s="38"/>
-      <c r="KN78" s="38"/>
-      <c r="KO78" s="38"/>
-      <c r="KP78" s="38"/>
-      <c r="KQ78" s="38"/>
-      <c r="KR78" s="38"/>
-      <c r="KS78" s="38"/>
-      <c r="KT78" s="38"/>
-      <c r="KU78" s="38"/>
-      <c r="KV78" s="38"/>
-      <c r="KW78" s="38"/>
-      <c r="KX78" s="38"/>
-      <c r="KY78" s="38"/>
-      <c r="KZ78" s="38"/>
-      <c r="LA78" s="38"/>
-      <c r="LB78" s="38"/>
-      <c r="LC78" s="38"/>
-      <c r="LD78" s="38"/>
-      <c r="LE78" s="38"/>
-      <c r="LF78" s="38"/>
-      <c r="LG78" s="38"/>
-      <c r="LH78" s="38"/>
-      <c r="LI78" s="38"/>
-      <c r="LJ78" s="38"/>
-      <c r="LK78" s="38"/>
-      <c r="LL78" s="38"/>
-      <c r="LM78" s="38"/>
-      <c r="LN78" s="38"/>
-      <c r="LO78" s="38"/>
-      <c r="LP78" s="38"/>
-      <c r="LQ78" s="38"/>
-      <c r="LR78" s="38"/>
-      <c r="LS78" s="38"/>
-      <c r="LT78" s="38"/>
-      <c r="LU78" s="38"/>
-      <c r="LV78" s="38"/>
-      <c r="LW78" s="38"/>
-      <c r="LX78" s="38"/>
-      <c r="LY78" s="38"/>
-      <c r="LZ78" s="38"/>
-      <c r="MA78" s="38"/>
-      <c r="MB78" s="38"/>
-      <c r="MC78" s="38"/>
-      <c r="MD78" s="38"/>
-      <c r="ME78" s="38"/>
-      <c r="MF78" s="38"/>
-      <c r="MG78" s="38"/>
-      <c r="MH78" s="38"/>
-      <c r="MI78" s="38"/>
-      <c r="MJ78" s="38"/>
-      <c r="MK78" s="38"/>
-      <c r="ML78" s="38"/>
-      <c r="MM78" s="38"/>
-      <c r="MN78" s="38"/>
-      <c r="MO78" s="38"/>
-      <c r="MP78" s="38"/>
-      <c r="MQ78" s="38"/>
-      <c r="MR78" s="38"/>
-      <c r="MS78" s="38"/>
-      <c r="MT78" s="38"/>
-      <c r="MU78" s="38"/>
-      <c r="MV78" s="38"/>
-      <c r="MW78" s="38"/>
-      <c r="MX78" s="38"/>
-      <c r="MY78" s="38"/>
-      <c r="MZ78" s="38"/>
-      <c r="NA78" s="38"/>
-      <c r="NB78" s="38"/>
-      <c r="NC78" s="38"/>
-      <c r="ND78" s="38"/>
-      <c r="NE78" s="38"/>
-      <c r="NF78" s="38"/>
-      <c r="NG78" s="38"/>
-      <c r="NH78" s="38"/>
-      <c r="NI78" s="38"/>
-      <c r="NJ78" s="38"/>
-      <c r="NK78" s="38"/>
-      <c r="NL78" s="38"/>
-      <c r="NM78" s="38"/>
-      <c r="NN78" s="38"/>
-      <c r="NO78" s="38"/>
-      <c r="NP78" s="38"/>
-      <c r="NQ78" s="38"/>
-      <c r="NR78" s="38"/>
-      <c r="NS78" s="38"/>
-      <c r="NT78" s="38"/>
-      <c r="NU78" s="38"/>
-      <c r="NV78" s="38"/>
-      <c r="NW78" s="38"/>
-      <c r="NX78" s="38"/>
-      <c r="NY78" s="38"/>
-      <c r="NZ78" s="38"/>
-      <c r="OA78" s="38"/>
-      <c r="OB78" s="38"/>
-      <c r="OC78" s="38"/>
-      <c r="OD78" s="38"/>
-      <c r="OE78" s="38"/>
-      <c r="OF78" s="38"/>
-      <c r="OG78" s="38"/>
-      <c r="OH78" s="38"/>
-      <c r="OI78" s="38"/>
-      <c r="OJ78" s="38"/>
-      <c r="OK78" s="38"/>
-      <c r="OL78" s="38"/>
-      <c r="OM78" s="38"/>
-      <c r="ON78" s="38"/>
-      <c r="OO78" s="38"/>
-      <c r="OP78" s="38"/>
-      <c r="OQ78" s="38"/>
-      <c r="OR78" s="38"/>
-      <c r="OS78" s="38"/>
-      <c r="OT78" s="38"/>
-      <c r="OU78" s="38"/>
-      <c r="OV78" s="38"/>
-      <c r="OW78" s="38"/>
-      <c r="OX78" s="38"/>
-      <c r="OY78" s="38"/>
-      <c r="OZ78" s="38"/>
-      <c r="PA78" s="38"/>
-      <c r="PB78" s="38"/>
-      <c r="PC78" s="38"/>
-      <c r="PD78" s="38"/>
-      <c r="PE78" s="38"/>
-      <c r="PF78" s="38"/>
-      <c r="PG78" s="38"/>
-      <c r="PH78" s="38"/>
-      <c r="PI78" s="38"/>
-      <c r="PJ78" s="38"/>
-      <c r="PK78" s="38"/>
-      <c r="PL78" s="38"/>
-      <c r="PM78" s="38"/>
-      <c r="PN78" s="38"/>
-      <c r="PO78" s="38"/>
-      <c r="PP78" s="38"/>
-      <c r="PQ78" s="38"/>
-      <c r="PR78" s="38"/>
-      <c r="PS78" s="38"/>
-      <c r="PT78" s="38"/>
-      <c r="PU78" s="38"/>
-      <c r="PV78" s="38"/>
-      <c r="PW78" s="38"/>
-      <c r="PX78" s="38"/>
-      <c r="PY78" s="38"/>
-      <c r="PZ78" s="38"/>
-      <c r="QA78" s="38"/>
-      <c r="QB78" s="38"/>
-      <c r="QC78" s="38"/>
-      <c r="QD78" s="38"/>
-      <c r="QE78" s="38"/>
-      <c r="QF78" s="38"/>
-      <c r="QG78" s="38"/>
-      <c r="QH78" s="38"/>
-      <c r="QI78" s="38"/>
-      <c r="QJ78" s="38"/>
-      <c r="QK78" s="38"/>
-      <c r="QL78" s="38"/>
-      <c r="QM78" s="38"/>
-      <c r="QN78" s="38"/>
-      <c r="QO78" s="38"/>
-      <c r="QP78" s="38"/>
-      <c r="QQ78" s="38"/>
-      <c r="QR78" s="38"/>
-      <c r="QS78" s="38"/>
-      <c r="QT78" s="38"/>
-      <c r="QU78" s="38"/>
-      <c r="QV78" s="38"/>
-      <c r="QW78" s="38"/>
-      <c r="QX78" s="38"/>
-      <c r="QY78" s="38"/>
-      <c r="QZ78" s="38"/>
-      <c r="RA78" s="38"/>
-      <c r="RB78" s="38"/>
-      <c r="RC78" s="38"/>
-      <c r="RD78" s="38"/>
-      <c r="RE78" s="38"/>
-      <c r="RF78" s="38"/>
-      <c r="RG78" s="38"/>
-      <c r="RH78" s="38"/>
-      <c r="RI78" s="38"/>
-      <c r="RJ78" s="38"/>
-      <c r="RK78" s="38"/>
-      <c r="RL78" s="38"/>
-      <c r="RM78" s="38"/>
-      <c r="RN78" s="38"/>
-      <c r="RO78" s="38"/>
-      <c r="RP78" s="38"/>
-      <c r="RQ78" s="38"/>
-      <c r="RR78" s="38"/>
-      <c r="RS78" s="38"/>
-      <c r="RT78" s="38"/>
-      <c r="RU78" s="38"/>
-      <c r="RV78" s="38"/>
-      <c r="RW78" s="38"/>
-      <c r="RX78" s="38"/>
-      <c r="RY78" s="38"/>
-      <c r="RZ78" s="38"/>
-      <c r="SA78" s="38"/>
-      <c r="SB78" s="38"/>
-      <c r="SC78" s="38"/>
-      <c r="SD78" s="38"/>
-      <c r="SE78" s="38"/>
-      <c r="SF78" s="38"/>
-      <c r="SG78" s="38"/>
-      <c r="SH78" s="38"/>
-      <c r="SI78" s="38"/>
-      <c r="SJ78" s="38"/>
-      <c r="SK78" s="38"/>
-      <c r="SL78" s="38"/>
-      <c r="SM78" s="38"/>
-      <c r="SN78" s="38"/>
-      <c r="SO78" s="38"/>
-      <c r="SP78" s="38"/>
-      <c r="SQ78" s="38"/>
-      <c r="SR78" s="38"/>
-      <c r="SS78" s="38"/>
-      <c r="ST78" s="38"/>
-      <c r="SU78" s="38"/>
-      <c r="SV78" s="38"/>
-      <c r="SW78" s="38"/>
-      <c r="SX78" s="38"/>
-      <c r="SY78" s="38"/>
-      <c r="SZ78" s="38"/>
-      <c r="TA78" s="38"/>
-      <c r="TB78" s="38"/>
-      <c r="TC78" s="38"/>
-      <c r="TD78" s="38"/>
-      <c r="TE78" s="38"/>
-      <c r="TF78" s="38"/>
-      <c r="TG78" s="38"/>
-      <c r="TH78" s="38"/>
-      <c r="TI78" s="38"/>
-      <c r="TJ78" s="38"/>
-      <c r="TK78" s="38"/>
-      <c r="TL78" s="38"/>
-      <c r="TM78" s="38"/>
-      <c r="TN78" s="38"/>
-      <c r="TO78" s="38"/>
-      <c r="TP78" s="38"/>
-      <c r="TQ78" s="38"/>
-      <c r="TR78" s="38"/>
-      <c r="TS78" s="38"/>
-      <c r="TT78" s="38"/>
-      <c r="TU78" s="38"/>
-      <c r="TV78" s="38"/>
-      <c r="TW78" s="38"/>
-      <c r="TX78" s="38"/>
-      <c r="TY78" s="38"/>
-      <c r="TZ78" s="38"/>
-      <c r="UA78" s="38"/>
-      <c r="UB78" s="38"/>
-      <c r="UC78" s="38"/>
-      <c r="UD78" s="38"/>
-      <c r="UE78" s="38"/>
-      <c r="UF78" s="38"/>
-      <c r="UG78" s="38"/>
-      <c r="UH78" s="38"/>
-      <c r="UI78" s="38"/>
-      <c r="UJ78" s="38"/>
-      <c r="UK78" s="38"/>
-      <c r="UL78" s="38"/>
-      <c r="UM78" s="38"/>
-      <c r="UN78" s="38"/>
-      <c r="UO78" s="38"/>
-      <c r="UP78" s="38"/>
-      <c r="UQ78" s="38"/>
-      <c r="UR78" s="38"/>
-      <c r="US78" s="38"/>
-      <c r="UT78" s="38"/>
-      <c r="UU78" s="38"/>
-      <c r="UV78" s="38"/>
-      <c r="UW78" s="38"/>
-      <c r="UX78" s="38"/>
-      <c r="UY78" s="38"/>
-      <c r="UZ78" s="38"/>
-      <c r="VA78" s="38"/>
-      <c r="VB78" s="38"/>
-      <c r="VC78" s="38"/>
-      <c r="VD78" s="38"/>
-      <c r="VE78" s="38"/>
-      <c r="VF78" s="38"/>
-      <c r="VG78" s="38"/>
-      <c r="VH78" s="38"/>
-      <c r="VI78" s="38"/>
-      <c r="VJ78" s="38"/>
-      <c r="VK78" s="38"/>
-      <c r="VL78" s="38"/>
-      <c r="VM78" s="38"/>
-      <c r="VN78" s="38"/>
-      <c r="VO78" s="38"/>
-      <c r="VP78" s="38"/>
-      <c r="VQ78" s="38"/>
-      <c r="VR78" s="38"/>
-      <c r="VS78" s="38"/>
-      <c r="VT78" s="38"/>
-      <c r="VU78" s="38"/>
-      <c r="VV78" s="38"/>
-      <c r="VW78" s="38"/>
-      <c r="VX78" s="38"/>
-      <c r="VY78" s="38"/>
-      <c r="VZ78" s="38"/>
-      <c r="WA78" s="38"/>
-      <c r="WB78" s="38"/>
-      <c r="WC78" s="38"/>
-      <c r="WD78" s="38"/>
-      <c r="WE78" s="38"/>
-      <c r="WF78" s="38"/>
-      <c r="WG78" s="38"/>
-      <c r="WH78" s="38"/>
-      <c r="WI78" s="38"/>
-      <c r="WJ78" s="38"/>
-      <c r="WK78" s="38"/>
-      <c r="WL78" s="38"/>
-      <c r="WM78" s="38"/>
-      <c r="WN78" s="38"/>
-      <c r="WO78" s="38"/>
-      <c r="WP78" s="38"/>
-      <c r="WQ78" s="38"/>
-      <c r="WR78" s="38"/>
-      <c r="WS78" s="38"/>
-      <c r="WT78" s="38"/>
-      <c r="WU78" s="38"/>
-      <c r="WV78" s="38"/>
-      <c r="WW78" s="38"/>
-      <c r="WX78" s="38"/>
-      <c r="WY78" s="38"/>
-      <c r="WZ78" s="38"/>
-      <c r="XA78" s="38"/>
-      <c r="XB78" s="38"/>
-      <c r="XC78" s="38"/>
-      <c r="XD78" s="38"/>
-      <c r="XE78" s="38"/>
-      <c r="XF78" s="38"/>
-      <c r="XG78" s="38"/>
-      <c r="XH78" s="38"/>
-      <c r="XI78" s="38"/>
-      <c r="XJ78" s="38"/>
-      <c r="XK78" s="38"/>
-      <c r="XL78" s="38"/>
-      <c r="XM78" s="38"/>
-      <c r="XN78" s="38"/>
-      <c r="XO78" s="38"/>
-      <c r="XP78" s="38"/>
-      <c r="XQ78" s="38"/>
-      <c r="XR78" s="38"/>
-      <c r="XS78" s="38"/>
-      <c r="XT78" s="38"/>
-      <c r="XU78" s="38"/>
-      <c r="XV78" s="38"/>
-      <c r="XW78" s="38"/>
-      <c r="XX78" s="38"/>
-      <c r="XY78" s="38"/>
-      <c r="XZ78" s="38"/>
-      <c r="YA78" s="38"/>
-      <c r="YB78" s="38"/>
-      <c r="YC78" s="38"/>
-      <c r="YD78" s="38"/>
-      <c r="YE78" s="38"/>
-      <c r="YF78" s="38"/>
-      <c r="YG78" s="38"/>
-      <c r="YH78" s="38"/>
-      <c r="YI78" s="38"/>
-      <c r="YJ78" s="38"/>
-      <c r="YK78" s="38"/>
-      <c r="YL78" s="38"/>
-      <c r="YM78" s="38"/>
-      <c r="YN78" s="38"/>
-      <c r="YO78" s="38"/>
-      <c r="YP78" s="38"/>
-      <c r="YQ78" s="38"/>
-      <c r="YR78" s="38"/>
-      <c r="YS78" s="38"/>
-      <c r="YT78" s="38"/>
-      <c r="YU78" s="38"/>
-      <c r="YV78" s="38"/>
-      <c r="YW78" s="38"/>
-      <c r="YX78" s="38"/>
-      <c r="YY78" s="38"/>
-      <c r="YZ78" s="38"/>
-      <c r="ZA78" s="38"/>
-      <c r="ZB78" s="38"/>
-      <c r="ZC78" s="38"/>
-      <c r="ZD78" s="38"/>
-      <c r="ZE78" s="38"/>
-      <c r="ZF78" s="38"/>
-      <c r="ZG78" s="38"/>
-      <c r="ZH78" s="38"/>
-      <c r="ZI78" s="38"/>
-      <c r="ZJ78" s="38"/>
-      <c r="ZK78" s="38"/>
-      <c r="ZL78" s="38"/>
-      <c r="ZM78" s="38"/>
-      <c r="ZN78" s="38"/>
-      <c r="ZO78" s="38"/>
-      <c r="ZP78" s="38"/>
-      <c r="ZQ78" s="38"/>
-      <c r="ZR78" s="38"/>
-      <c r="ZS78" s="38"/>
-      <c r="ZT78" s="38"/>
-      <c r="ZU78" s="38"/>
-      <c r="ZV78" s="38"/>
-      <c r="ZW78" s="38"/>
-      <c r="ZX78" s="38"/>
-      <c r="ZY78" s="38"/>
-      <c r="ZZ78" s="38"/>
-      <c r="AAA78" s="38"/>
-      <c r="AAB78" s="38"/>
-      <c r="AAC78" s="38"/>
-      <c r="AAD78" s="38"/>
-      <c r="AAE78" s="38"/>
-      <c r="AAF78" s="38"/>
-      <c r="AAG78" s="38"/>
-      <c r="AAH78" s="38"/>
-      <c r="AAI78" s="38"/>
-      <c r="AAJ78" s="38"/>
-      <c r="AAK78" s="38"/>
-      <c r="AAL78" s="38"/>
-      <c r="AAM78" s="38"/>
-      <c r="AAN78" s="38"/>
-      <c r="AAO78" s="38"/>
-      <c r="AAP78" s="38"/>
-      <c r="AAQ78" s="38"/>
-      <c r="AAR78" s="38"/>
-      <c r="AAS78" s="38"/>
-      <c r="AAT78" s="38"/>
-      <c r="AAU78" s="38"/>
-      <c r="AAV78" s="38"/>
-      <c r="AAW78" s="38"/>
-      <c r="AAX78" s="38"/>
-      <c r="AAY78" s="38"/>
-      <c r="AAZ78" s="38"/>
-      <c r="ABA78" s="38"/>
-      <c r="ABB78" s="38"/>
-      <c r="ABC78" s="38"/>
-      <c r="ABD78" s="38"/>
-      <c r="ABE78" s="38"/>
-      <c r="ABF78" s="38"/>
-      <c r="ABG78" s="38"/>
-      <c r="ABH78" s="38"/>
-      <c r="ABI78" s="38"/>
-      <c r="ABJ78" s="38"/>
-      <c r="ABK78" s="38"/>
-      <c r="ABL78" s="38"/>
-      <c r="ABM78" s="38"/>
-      <c r="ABN78" s="38"/>
-      <c r="ABO78" s="38"/>
-      <c r="ABP78" s="38"/>
-      <c r="ABQ78" s="38"/>
-      <c r="ABR78" s="38"/>
-      <c r="ABS78" s="38"/>
-      <c r="ABT78" s="38"/>
-      <c r="ABU78" s="38"/>
-      <c r="ABV78" s="38"/>
-      <c r="ABW78" s="38"/>
-      <c r="ABX78" s="38"/>
-      <c r="ABY78" s="38"/>
-      <c r="ABZ78" s="38"/>
-      <c r="ACA78" s="38"/>
-      <c r="ACB78" s="38"/>
-      <c r="ACC78" s="38"/>
-      <c r="ACD78" s="38"/>
-      <c r="ACE78" s="38"/>
-      <c r="ACF78" s="38"/>
-      <c r="ACG78" s="38"/>
-      <c r="ACH78" s="38"/>
-      <c r="ACI78" s="38"/>
-      <c r="ACJ78" s="38"/>
-      <c r="ACK78" s="38"/>
-      <c r="ACL78" s="38"/>
-      <c r="ACM78" s="38"/>
-      <c r="ACN78" s="38"/>
-      <c r="ACO78" s="38"/>
-      <c r="ACP78" s="38"/>
-      <c r="ACQ78" s="38"/>
-      <c r="ACR78" s="38"/>
-      <c r="ACS78" s="38"/>
-      <c r="ACT78" s="38"/>
-      <c r="ACU78" s="38"/>
-      <c r="ACV78" s="38"/>
-      <c r="ACW78" s="38"/>
-      <c r="ACX78" s="38"/>
-      <c r="ACY78" s="38"/>
-      <c r="ACZ78" s="38"/>
-      <c r="ADA78" s="38"/>
-      <c r="ADB78" s="38"/>
-      <c r="ADC78" s="38"/>
-      <c r="ADD78" s="38"/>
-      <c r="ADE78" s="38"/>
-      <c r="ADF78" s="38"/>
-      <c r="ADG78" s="38"/>
-      <c r="ADH78" s="38"/>
-      <c r="ADI78" s="38"/>
-      <c r="ADJ78" s="38"/>
-      <c r="ADK78" s="38"/>
-      <c r="ADL78" s="38"/>
-      <c r="ADM78" s="38"/>
-      <c r="ADN78" s="38"/>
-      <c r="ADO78" s="38"/>
-      <c r="ADP78" s="38"/>
-      <c r="ADQ78" s="38"/>
-      <c r="ADR78" s="38"/>
-      <c r="ADS78" s="38"/>
-      <c r="ADT78" s="38"/>
-      <c r="ADU78" s="38"/>
-      <c r="ADV78" s="38"/>
-      <c r="ADW78" s="38"/>
-      <c r="ADX78" s="38"/>
-      <c r="ADY78" s="38"/>
-      <c r="ADZ78" s="38"/>
-      <c r="AEA78" s="38"/>
-      <c r="AEB78" s="38"/>
-      <c r="AEC78" s="38"/>
-      <c r="AED78" s="38"/>
-      <c r="AEE78" s="38"/>
-      <c r="AEF78" s="38"/>
-      <c r="AEG78" s="38"/>
-      <c r="AEH78" s="38"/>
-      <c r="AEI78" s="38"/>
-      <c r="AEJ78" s="38"/>
-      <c r="AEK78" s="38"/>
-      <c r="AEL78" s="38"/>
-      <c r="AEM78" s="38"/>
-      <c r="AEN78" s="38"/>
-      <c r="AEO78" s="38"/>
-      <c r="AEP78" s="38"/>
-      <c r="AEQ78" s="38"/>
-      <c r="AER78" s="38"/>
-      <c r="AES78" s="38"/>
-      <c r="AET78" s="38"/>
-      <c r="AEU78" s="38"/>
-      <c r="AEV78" s="38"/>
-      <c r="AEW78" s="38"/>
-      <c r="AEX78" s="38"/>
-      <c r="AEY78" s="38"/>
-      <c r="AEZ78" s="38"/>
-      <c r="AFA78" s="38"/>
-      <c r="AFB78" s="38"/>
-      <c r="AFC78" s="38"/>
-      <c r="AFD78" s="38"/>
-      <c r="AFE78" s="38"/>
-      <c r="AFF78" s="38"/>
-      <c r="AFG78" s="38"/>
-      <c r="AFH78" s="38"/>
-      <c r="AFI78" s="38"/>
-      <c r="AFJ78" s="38"/>
-      <c r="AFK78" s="38"/>
-      <c r="AFL78" s="38"/>
-      <c r="AFM78" s="38"/>
-      <c r="AFN78" s="38"/>
-      <c r="AFO78" s="38"/>
-      <c r="AFP78" s="38"/>
-      <c r="AFQ78" s="38"/>
-      <c r="AFR78" s="38"/>
-      <c r="AFS78" s="38"/>
-      <c r="AFT78" s="38"/>
-      <c r="AFU78" s="38"/>
-      <c r="AFV78" s="38"/>
-      <c r="AFW78" s="38"/>
-      <c r="AFX78" s="38"/>
-      <c r="AFY78" s="38"/>
-      <c r="AFZ78" s="38"/>
-      <c r="AGA78" s="38"/>
-      <c r="AGB78" s="38"/>
-      <c r="AGC78" s="38"/>
-      <c r="AGD78" s="38"/>
-      <c r="AGE78" s="38"/>
-      <c r="AGF78" s="38"/>
-      <c r="AGG78" s="38"/>
-      <c r="AGH78" s="38"/>
-      <c r="AGI78" s="38"/>
-      <c r="AGJ78" s="38"/>
-      <c r="AGK78" s="38"/>
-      <c r="AGL78" s="38"/>
-      <c r="AGM78" s="38"/>
-      <c r="AGN78" s="38"/>
-      <c r="AGO78" s="38"/>
-      <c r="AGP78" s="38"/>
-      <c r="AGQ78" s="38"/>
-      <c r="AGR78" s="38"/>
-      <c r="AGS78" s="38"/>
-      <c r="AGT78" s="38"/>
-      <c r="AGU78" s="38"/>
-      <c r="AGV78" s="38"/>
-      <c r="AGW78" s="38"/>
-      <c r="AGX78" s="38"/>
-      <c r="AGY78" s="38"/>
-      <c r="AGZ78" s="38"/>
-      <c r="AHA78" s="38"/>
-      <c r="AHB78" s="38"/>
-      <c r="AHC78" s="38"/>
-      <c r="AHD78" s="38"/>
-      <c r="AHE78" s="38"/>
-      <c r="AHF78" s="38"/>
-      <c r="AHG78" s="38"/>
-      <c r="AHH78" s="38"/>
-      <c r="AHI78" s="38"/>
-      <c r="AHJ78" s="38"/>
-      <c r="AHK78" s="38"/>
-      <c r="AHL78" s="38"/>
-      <c r="AHM78" s="38"/>
-      <c r="AHN78" s="38"/>
-      <c r="AHO78" s="38"/>
-      <c r="AHP78" s="38"/>
-      <c r="AHQ78" s="38"/>
-      <c r="AHR78" s="38"/>
-      <c r="AHS78" s="38"/>
-      <c r="AHT78" s="38"/>
-      <c r="AHU78" s="38"/>
-      <c r="AHV78" s="38"/>
-      <c r="AHW78" s="38"/>
-      <c r="AHX78" s="38"/>
-      <c r="AHY78" s="38"/>
-      <c r="AHZ78" s="38"/>
-      <c r="AIA78" s="38"/>
-      <c r="AIB78" s="38"/>
-      <c r="AIC78" s="38"/>
-      <c r="AID78" s="38"/>
-      <c r="AIE78" s="38"/>
-      <c r="AIF78" s="38"/>
-      <c r="AIG78" s="38"/>
-      <c r="AIH78" s="38"/>
-      <c r="AII78" s="38"/>
-      <c r="AIJ78" s="38"/>
-      <c r="AIK78" s="38"/>
-      <c r="AIL78" s="38"/>
-      <c r="AIM78" s="38"/>
-      <c r="AIN78" s="38"/>
-      <c r="AIO78" s="38"/>
-      <c r="AIP78" s="38"/>
-      <c r="AIQ78" s="38"/>
-      <c r="AIR78" s="38"/>
-      <c r="AIS78" s="38"/>
-      <c r="AIT78" s="38"/>
-      <c r="AIU78" s="38"/>
-      <c r="AIV78" s="38"/>
-      <c r="AIW78" s="38"/>
-      <c r="AIX78" s="38"/>
-      <c r="AIY78" s="38"/>
-      <c r="AIZ78" s="38"/>
-      <c r="AJA78" s="38"/>
-      <c r="AJB78" s="38"/>
-      <c r="AJC78" s="38"/>
-      <c r="AJD78" s="38"/>
-      <c r="AJE78" s="38"/>
-      <c r="AJF78" s="38"/>
-      <c r="AJG78" s="38"/>
-      <c r="AJH78" s="38"/>
-      <c r="AJI78" s="38"/>
-      <c r="AJJ78" s="38"/>
-      <c r="AJK78" s="38"/>
-      <c r="AJL78" s="38"/>
-      <c r="AJM78" s="38"/>
-      <c r="AJN78" s="38"/>
-      <c r="AJO78" s="38"/>
-      <c r="AJP78" s="38"/>
-      <c r="AJQ78" s="38"/>
-      <c r="AJR78" s="38"/>
-      <c r="AJS78" s="38"/>
-      <c r="AJT78" s="38"/>
-      <c r="AJU78" s="38"/>
-      <c r="AJV78" s="38"/>
-      <c r="AJW78" s="38"/>
-      <c r="AJX78" s="38"/>
-      <c r="AJY78" s="38"/>
-      <c r="AJZ78" s="38"/>
-      <c r="AKA78" s="38"/>
-      <c r="AKB78" s="38"/>
-      <c r="AKC78" s="38"/>
-      <c r="AKD78" s="38"/>
-      <c r="AKE78" s="38"/>
-      <c r="AKF78" s="38"/>
-      <c r="AKG78" s="38"/>
-      <c r="AKH78" s="38"/>
-      <c r="AKI78" s="38"/>
-      <c r="AKJ78" s="38"/>
-      <c r="AKK78" s="38"/>
-      <c r="AKL78" s="38"/>
-      <c r="AKM78" s="38"/>
-      <c r="AKN78" s="38"/>
-      <c r="AKO78" s="38"/>
-      <c r="AKP78" s="38"/>
-      <c r="AKQ78" s="38"/>
-      <c r="AKR78" s="38"/>
-      <c r="AKS78" s="38"/>
-      <c r="AKT78" s="38"/>
-      <c r="AKU78" s="38"/>
-      <c r="AKV78" s="38"/>
-      <c r="AKW78" s="38"/>
-      <c r="AKX78" s="38"/>
-      <c r="AKY78" s="38"/>
-      <c r="AKZ78" s="38"/>
-      <c r="ALA78" s="38"/>
-      <c r="ALB78" s="38"/>
-      <c r="ALC78" s="38"/>
-      <c r="ALD78" s="38"/>
-      <c r="ALE78" s="38"/>
-      <c r="ALF78" s="38"/>
-      <c r="ALG78" s="38"/>
-      <c r="ALH78" s="38"/>
-      <c r="ALI78" s="38"/>
-      <c r="ALJ78" s="38"/>
-      <c r="ALK78" s="38"/>
-      <c r="ALL78" s="38"/>
-      <c r="ALM78" s="38"/>
-      <c r="ALN78" s="38"/>
-      <c r="ALO78" s="38"/>
-      <c r="ALP78" s="38"/>
-      <c r="ALQ78" s="38"/>
-      <c r="ALR78" s="38"/>
-      <c r="ALS78" s="38"/>
-      <c r="ALT78" s="38"/>
-      <c r="ALU78" s="38"/>
-      <c r="ALV78" s="38"/>
-      <c r="ALW78" s="38"/>
-      <c r="ALX78" s="38"/>
-      <c r="ALY78" s="38"/>
-      <c r="ALZ78" s="38"/>
-      <c r="AMA78" s="38"/>
-      <c r="AMB78" s="38"/>
-      <c r="AMC78" s="38"/>
-      <c r="AMD78" s="38"/>
-      <c r="AME78" s="38"/>
-      <c r="AMF78" s="38"/>
-      <c r="AMG78" s="38"/>
-      <c r="AMH78" s="38"/>
-      <c r="AMI78" s="38"/>
-      <c r="AMJ78" s="38"/>
-      <c r="AMK78" s="38"/>
-      <c r="AML78" s="38"/>
-      <c r="AMM78" s="38"/>
-      <c r="AMN78" s="38"/>
-      <c r="AMO78" s="38"/>
-      <c r="AMP78" s="38"/>
-      <c r="AMQ78" s="38"/>
-      <c r="AMR78" s="38"/>
-      <c r="AMS78" s="38"/>
-      <c r="AMT78" s="38"/>
-      <c r="AMU78" s="38"/>
-      <c r="AMV78" s="38"/>
-      <c r="AMW78" s="38"/>
-      <c r="AMX78" s="38"/>
-      <c r="AMY78" s="38"/>
-      <c r="AMZ78" s="38"/>
-      <c r="ANA78" s="38"/>
-      <c r="ANB78" s="38"/>
-      <c r="ANC78" s="38"/>
-      <c r="AND78" s="38"/>
-      <c r="ANE78" s="38"/>
-      <c r="ANF78" s="38"/>
-      <c r="ANG78" s="38"/>
-      <c r="ANH78" s="38"/>
-      <c r="ANI78" s="38"/>
-      <c r="ANJ78" s="38"/>
-      <c r="ANK78" s="38"/>
-      <c r="ANL78" s="38"/>
-      <c r="ANM78" s="38"/>
-      <c r="ANN78" s="38"/>
-      <c r="ANO78" s="38"/>
-      <c r="ANP78" s="38"/>
-      <c r="ANQ78" s="38"/>
-      <c r="ANR78" s="38"/>
-      <c r="ANS78" s="38"/>
-      <c r="ANT78" s="38"/>
-      <c r="ANU78" s="38"/>
-      <c r="ANV78" s="38"/>
-      <c r="ANW78" s="38"/>
-      <c r="ANX78" s="38"/>
-      <c r="ANY78" s="38"/>
-      <c r="ANZ78" s="38"/>
-      <c r="AOA78" s="38"/>
-      <c r="AOB78" s="38"/>
-      <c r="AOC78" s="38"/>
-      <c r="AOD78" s="38"/>
-      <c r="AOE78" s="38"/>
-      <c r="AOF78" s="38"/>
-      <c r="AOG78" s="38"/>
-      <c r="AOH78" s="38"/>
-      <c r="AOI78" s="38"/>
-      <c r="AOJ78" s="38"/>
-      <c r="AOK78" s="38"/>
-      <c r="AOL78" s="38"/>
-      <c r="AOM78" s="38"/>
-      <c r="AON78" s="38"/>
-      <c r="AOO78" s="38"/>
-      <c r="AOP78" s="38"/>
-      <c r="AOQ78" s="38"/>
-      <c r="AOR78" s="38"/>
-      <c r="AOS78" s="38"/>
-      <c r="AOT78" s="38"/>
-      <c r="AOU78" s="38"/>
-      <c r="AOV78" s="38"/>
-      <c r="AOW78" s="38"/>
-      <c r="AOX78" s="38"/>
-      <c r="AOY78" s="38"/>
-      <c r="AOZ78" s="38"/>
-      <c r="APA78" s="38"/>
-      <c r="APB78" s="38"/>
-      <c r="APC78" s="38"/>
-      <c r="APD78" s="38"/>
-      <c r="APE78" s="38"/>
-      <c r="APF78" s="38"/>
-      <c r="APG78" s="38"/>
-      <c r="APH78" s="38"/>
-      <c r="API78" s="38"/>
-      <c r="APJ78" s="38"/>
-      <c r="APK78" s="38"/>
-      <c r="APL78" s="38"/>
-      <c r="APM78" s="38"/>
-      <c r="APN78" s="38"/>
-      <c r="APO78" s="38"/>
-      <c r="APP78" s="38"/>
-      <c r="APQ78" s="38"/>
-      <c r="APR78" s="38"/>
-      <c r="APS78" s="38"/>
-      <c r="APT78" s="38"/>
-      <c r="APU78" s="38"/>
-      <c r="APV78" s="38"/>
-      <c r="APW78" s="38"/>
-      <c r="APX78" s="38"/>
-      <c r="APY78" s="38"/>
-      <c r="APZ78" s="38"/>
-      <c r="AQA78" s="38"/>
-      <c r="AQB78" s="38"/>
-      <c r="AQC78" s="38"/>
-      <c r="AQD78" s="38"/>
-      <c r="AQE78" s="38"/>
-      <c r="AQF78" s="38"/>
-      <c r="AQG78" s="38"/>
-      <c r="AQH78" s="38"/>
-      <c r="AQI78" s="38"/>
-      <c r="AQJ78" s="38"/>
-      <c r="AQK78" s="38"/>
-      <c r="AQL78" s="38"/>
-      <c r="AQM78" s="38"/>
-      <c r="AQN78" s="38"/>
-      <c r="AQO78" s="38"/>
-      <c r="AQP78" s="38"/>
-      <c r="AQQ78" s="38"/>
-      <c r="AQR78" s="38"/>
-      <c r="AQS78" s="38"/>
-      <c r="AQT78" s="38"/>
-      <c r="AQU78" s="38"/>
-      <c r="AQV78" s="38"/>
-      <c r="AQW78" s="38"/>
-      <c r="AQX78" s="38"/>
-      <c r="AQY78" s="38"/>
-      <c r="AQZ78" s="38"/>
-      <c r="ARA78" s="38"/>
-      <c r="ARB78" s="38"/>
-      <c r="ARC78" s="38"/>
-      <c r="ARD78" s="38"/>
-      <c r="ARE78" s="38"/>
-      <c r="ARF78" s="38"/>
-      <c r="ARG78" s="38"/>
-      <c r="ARH78" s="38"/>
-      <c r="ARI78" s="38"/>
-      <c r="ARJ78" s="38"/>
-      <c r="ARK78" s="38"/>
-      <c r="ARL78" s="38"/>
-      <c r="ARM78" s="38"/>
-      <c r="ARN78" s="38"/>
-      <c r="ARO78" s="38"/>
-      <c r="ARP78" s="38"/>
-      <c r="ARQ78" s="38"/>
-      <c r="ARR78" s="38"/>
-      <c r="ARS78" s="38"/>
-      <c r="ART78" s="38"/>
-      <c r="ARU78" s="38"/>
-      <c r="ARV78" s="38"/>
-      <c r="ARW78" s="38"/>
-      <c r="ARX78" s="38"/>
-      <c r="ARY78" s="38"/>
-      <c r="ARZ78" s="38"/>
-      <c r="ASA78" s="38"/>
-      <c r="ASB78" s="38"/>
-      <c r="ASC78" s="38"/>
-      <c r="ASD78" s="38"/>
-      <c r="ASE78" s="38"/>
-      <c r="ASF78" s="38"/>
-      <c r="ASG78" s="38"/>
-      <c r="ASH78" s="38"/>
-      <c r="ASI78" s="38"/>
-      <c r="ASJ78" s="38"/>
-      <c r="ASK78" s="38"/>
-      <c r="ASL78" s="38"/>
-      <c r="ASM78" s="38"/>
-      <c r="ASN78" s="38"/>
-      <c r="ASO78" s="38"/>
-      <c r="ASP78" s="38"/>
-      <c r="ASQ78" s="38"/>
-      <c r="ASR78" s="38"/>
-      <c r="ASS78" s="38"/>
-      <c r="AST78" s="38"/>
-      <c r="ASU78" s="38"/>
-      <c r="ASV78" s="38"/>
-      <c r="ASW78" s="38"/>
-      <c r="ASX78" s="38"/>
-      <c r="ASY78" s="38"/>
-      <c r="ASZ78" s="38"/>
-      <c r="ATA78" s="38"/>
-      <c r="ATB78" s="38"/>
-      <c r="ATC78" s="38"/>
-      <c r="ATD78" s="38"/>
-      <c r="ATE78" s="38"/>
-      <c r="ATF78" s="38"/>
-      <c r="ATG78" s="38"/>
-      <c r="ATH78" s="38"/>
-      <c r="ATI78" s="38"/>
-      <c r="ATJ78" s="38"/>
-      <c r="ATK78" s="38"/>
-      <c r="ATL78" s="38"/>
-      <c r="ATM78" s="38"/>
-      <c r="ATN78" s="38"/>
-      <c r="ATO78" s="38"/>
-      <c r="ATP78" s="38"/>
-      <c r="ATQ78" s="38"/>
-      <c r="ATR78" s="38"/>
-      <c r="ATS78" s="38"/>
-      <c r="ATT78" s="38"/>
-      <c r="ATU78" s="38"/>
-      <c r="ATV78" s="38"/>
-      <c r="ATW78" s="38"/>
-      <c r="ATX78" s="38"/>
-      <c r="ATY78" s="38"/>
-      <c r="ATZ78" s="38"/>
-    </row>
-    <row r="79" spans="1:1222" s="37" customFormat="1">
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="38"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="38"/>
-      <c r="Z79" s="38"/>
-      <c r="AA79" s="38"/>
-      <c r="AB79" s="38"/>
-      <c r="AC79" s="38"/>
-      <c r="AD79" s="38"/>
-      <c r="AE79" s="38"/>
-      <c r="AF79" s="38"/>
-      <c r="AG79" s="38"/>
-      <c r="AH79" s="38"/>
-      <c r="AI79" s="38"/>
-      <c r="AJ79" s="38"/>
-      <c r="AK79" s="38"/>
-      <c r="AL79" s="38"/>
-      <c r="AM79" s="38"/>
-      <c r="AN79" s="38"/>
-      <c r="AO79" s="38"/>
-      <c r="AP79" s="38"/>
-      <c r="AQ79" s="38"/>
-      <c r="AR79" s="38"/>
-      <c r="AS79" s="38"/>
-      <c r="AT79" s="38"/>
-      <c r="AU79" s="38"/>
-      <c r="AV79" s="38"/>
-      <c r="AW79" s="38"/>
-      <c r="AX79" s="38"/>
-      <c r="AY79" s="38"/>
-      <c r="AZ79" s="38"/>
-      <c r="BA79" s="38"/>
-      <c r="BB79" s="38"/>
-      <c r="BC79" s="38"/>
-      <c r="BD79" s="38"/>
-      <c r="BE79" s="38"/>
-      <c r="BF79" s="38"/>
-      <c r="BG79" s="38"/>
-      <c r="BH79" s="38"/>
-      <c r="BI79" s="38"/>
-      <c r="BJ79" s="38"/>
-      <c r="BK79" s="38"/>
-      <c r="BL79" s="38"/>
-      <c r="BM79" s="38"/>
-      <c r="BN79" s="38"/>
-      <c r="BO79" s="38"/>
-      <c r="BP79" s="38"/>
-      <c r="BQ79" s="38"/>
-      <c r="BR79" s="38"/>
-      <c r="BS79" s="38"/>
-      <c r="BT79" s="38"/>
-      <c r="BU79" s="38"/>
-      <c r="BV79" s="38"/>
-      <c r="BW79" s="38"/>
-      <c r="BX79" s="38"/>
-      <c r="BY79" s="38"/>
-      <c r="BZ79" s="38"/>
-      <c r="CA79" s="38"/>
-      <c r="CB79" s="38"/>
-      <c r="CC79" s="38"/>
-      <c r="CD79" s="38"/>
-      <c r="CE79" s="38"/>
-      <c r="CF79" s="38"/>
-      <c r="CG79" s="38"/>
-      <c r="CH79" s="38"/>
-      <c r="CI79" s="38"/>
-      <c r="CJ79" s="38"/>
-      <c r="CK79" s="38"/>
-      <c r="CL79" s="38"/>
-      <c r="CM79" s="38"/>
-      <c r="CN79" s="38"/>
-      <c r="CO79" s="38"/>
-      <c r="CP79" s="38"/>
-      <c r="CQ79" s="38"/>
-      <c r="CR79" s="38"/>
-      <c r="CS79" s="38"/>
-      <c r="CT79" s="38"/>
-      <c r="CU79" s="38"/>
-      <c r="CV79" s="38"/>
-      <c r="CW79" s="38"/>
-      <c r="CX79" s="38"/>
-      <c r="CY79" s="38"/>
-      <c r="CZ79" s="38"/>
-      <c r="DA79" s="38"/>
-      <c r="DB79" s="38"/>
-      <c r="DC79" s="38"/>
-      <c r="DD79" s="38"/>
-      <c r="DE79" s="38"/>
-      <c r="DF79" s="38"/>
-      <c r="DG79" s="38"/>
-      <c r="DH79" s="38"/>
-      <c r="DI79" s="38"/>
-      <c r="DJ79" s="38"/>
-      <c r="DK79" s="38"/>
-      <c r="DL79" s="38"/>
-      <c r="DM79" s="38"/>
-      <c r="DN79" s="38"/>
-      <c r="DO79" s="38"/>
-      <c r="DP79" s="38"/>
-      <c r="DQ79" s="38"/>
-      <c r="DR79" s="38"/>
-      <c r="DS79" s="38"/>
-      <c r="DT79" s="38"/>
-      <c r="DU79" s="38"/>
-      <c r="DV79" s="38"/>
-      <c r="DW79" s="38"/>
-      <c r="DX79" s="38"/>
-      <c r="DY79" s="38"/>
-      <c r="DZ79" s="38"/>
-      <c r="EA79" s="38"/>
-      <c r="EB79" s="38"/>
-      <c r="EC79" s="38"/>
-      <c r="ED79" s="38"/>
-      <c r="EE79" s="38"/>
-      <c r="EF79" s="38"/>
-      <c r="EG79" s="38"/>
-      <c r="EH79" s="38"/>
-      <c r="EI79" s="38"/>
-      <c r="EJ79" s="38"/>
-      <c r="EK79" s="38"/>
-      <c r="EL79" s="38"/>
-      <c r="EM79" s="38"/>
-      <c r="EN79" s="38"/>
-      <c r="EO79" s="38"/>
-      <c r="EP79" s="38"/>
-      <c r="EQ79" s="38"/>
-      <c r="ER79" s="38"/>
-      <c r="ES79" s="38"/>
-      <c r="ET79" s="38"/>
-      <c r="EU79" s="38"/>
-      <c r="EV79" s="38"/>
-      <c r="EW79" s="38"/>
-      <c r="EX79" s="38"/>
-      <c r="EY79" s="38"/>
-      <c r="EZ79" s="38"/>
-      <c r="FA79" s="38"/>
-      <c r="FB79" s="38"/>
-      <c r="FC79" s="38"/>
-      <c r="FD79" s="38"/>
-      <c r="FE79" s="38"/>
-      <c r="FF79" s="38"/>
-      <c r="FG79" s="38"/>
-      <c r="FH79" s="38"/>
-      <c r="FI79" s="38"/>
-      <c r="FJ79" s="38"/>
-      <c r="FK79" s="38"/>
-      <c r="FL79" s="38"/>
-      <c r="FM79" s="38"/>
-      <c r="FN79" s="38"/>
-      <c r="FO79" s="38"/>
-      <c r="FP79" s="38"/>
-      <c r="FQ79" s="38"/>
-      <c r="FR79" s="38"/>
-      <c r="FS79" s="38"/>
-      <c r="FT79" s="38"/>
-      <c r="FU79" s="38"/>
-      <c r="FV79" s="38"/>
-      <c r="FW79" s="38"/>
-      <c r="FX79" s="38"/>
-      <c r="FY79" s="38"/>
-      <c r="FZ79" s="38"/>
-      <c r="GA79" s="38"/>
-      <c r="GB79" s="38"/>
-      <c r="GC79" s="38"/>
-      <c r="GD79" s="38"/>
-      <c r="GE79" s="38"/>
-      <c r="GF79" s="38"/>
-      <c r="GG79" s="38"/>
-      <c r="GH79" s="38"/>
-      <c r="GI79" s="38"/>
-      <c r="GJ79" s="38"/>
-      <c r="GK79" s="38"/>
-      <c r="GL79" s="38"/>
-      <c r="GM79" s="38"/>
-      <c r="GN79" s="38"/>
-      <c r="GO79" s="38"/>
-      <c r="GP79" s="38"/>
-      <c r="GQ79" s="38"/>
-      <c r="GR79" s="38"/>
-      <c r="GS79" s="38"/>
-      <c r="GT79" s="38"/>
-      <c r="GU79" s="38"/>
-      <c r="GV79" s="38"/>
-      <c r="GW79" s="38"/>
-      <c r="GX79" s="38"/>
-      <c r="GY79" s="38"/>
-      <c r="GZ79" s="38"/>
-      <c r="HA79" s="38"/>
-      <c r="HB79" s="38"/>
-      <c r="HC79" s="38"/>
-      <c r="HD79" s="38"/>
-      <c r="HE79" s="38"/>
-      <c r="HF79" s="38"/>
-      <c r="HG79" s="38"/>
-      <c r="HH79" s="38"/>
-      <c r="HI79" s="38"/>
-      <c r="HJ79" s="38"/>
-      <c r="HK79" s="38"/>
-      <c r="HL79" s="38"/>
-      <c r="HM79" s="38"/>
-      <c r="HN79" s="38"/>
-      <c r="HO79" s="38"/>
-      <c r="HP79" s="38"/>
-      <c r="HQ79" s="38"/>
-      <c r="HR79" s="38"/>
-      <c r="HS79" s="38"/>
-      <c r="HT79" s="38"/>
-      <c r="HU79" s="38"/>
-      <c r="HV79" s="38"/>
-      <c r="HW79" s="38"/>
-      <c r="HX79" s="38"/>
-      <c r="HY79" s="38"/>
-      <c r="HZ79" s="38"/>
-      <c r="IA79" s="38"/>
-      <c r="IB79" s="38"/>
-      <c r="IC79" s="38"/>
-      <c r="ID79" s="38"/>
-      <c r="IE79" s="38"/>
-      <c r="IF79" s="38"/>
-      <c r="IG79" s="38"/>
-      <c r="IH79" s="38"/>
-      <c r="II79" s="38"/>
-      <c r="IJ79" s="38"/>
-      <c r="IK79" s="38"/>
-      <c r="IL79" s="38"/>
-      <c r="IM79" s="38"/>
-      <c r="IN79" s="38"/>
-      <c r="IO79" s="38"/>
-      <c r="IP79" s="38"/>
-      <c r="IQ79" s="38"/>
-      <c r="IR79" s="38"/>
-      <c r="IS79" s="38"/>
-      <c r="IT79" s="38"/>
-      <c r="IU79" s="38"/>
-      <c r="IV79" s="38"/>
-      <c r="IW79" s="38"/>
-      <c r="IX79" s="38"/>
-      <c r="IY79" s="38"/>
-      <c r="IZ79" s="38"/>
-      <c r="JA79" s="38"/>
-      <c r="JB79" s="38"/>
-      <c r="JC79" s="38"/>
-      <c r="JD79" s="38"/>
-      <c r="JE79" s="38"/>
-      <c r="JF79" s="38"/>
-      <c r="JG79" s="38"/>
-      <c r="JH79" s="38"/>
-      <c r="JI79" s="38"/>
-      <c r="JJ79" s="38"/>
-      <c r="JK79" s="38"/>
-      <c r="JL79" s="38"/>
-      <c r="JM79" s="38"/>
-      <c r="JN79" s="38"/>
-      <c r="JO79" s="38"/>
-      <c r="JP79" s="38"/>
-      <c r="JQ79" s="38"/>
-      <c r="JR79" s="38"/>
-      <c r="JS79" s="38"/>
-      <c r="JT79" s="38"/>
-      <c r="JU79" s="38"/>
-      <c r="JV79" s="38"/>
-      <c r="JW79" s="38"/>
-      <c r="JX79" s="38"/>
-      <c r="JY79" s="38"/>
-      <c r="JZ79" s="38"/>
-      <c r="KA79" s="38"/>
-      <c r="KB79" s="38"/>
-      <c r="KC79" s="38"/>
-      <c r="KD79" s="38"/>
-      <c r="KE79" s="38"/>
-      <c r="KF79" s="38"/>
-      <c r="KG79" s="38"/>
-      <c r="KH79" s="38"/>
-      <c r="KI79" s="38"/>
-      <c r="KJ79" s="38"/>
-      <c r="KK79" s="38"/>
-      <c r="KL79" s="38"/>
-      <c r="KM79" s="38"/>
-      <c r="KN79" s="38"/>
-      <c r="KO79" s="38"/>
-      <c r="KP79" s="38"/>
-      <c r="KQ79" s="38"/>
-      <c r="KR79" s="38"/>
-      <c r="KS79" s="38"/>
-      <c r="KT79" s="38"/>
-      <c r="KU79" s="38"/>
-      <c r="KV79" s="38"/>
-      <c r="KW79" s="38"/>
-      <c r="KX79" s="38"/>
-      <c r="KY79" s="38"/>
-      <c r="KZ79" s="38"/>
-      <c r="LA79" s="38"/>
-      <c r="LB79" s="38"/>
-      <c r="LC79" s="38"/>
-      <c r="LD79" s="38"/>
-      <c r="LE79" s="38"/>
-      <c r="LF79" s="38"/>
-      <c r="LG79" s="38"/>
-      <c r="LH79" s="38"/>
-      <c r="LI79" s="38"/>
-      <c r="LJ79" s="38"/>
-      <c r="LK79" s="38"/>
-      <c r="LL79" s="38"/>
-      <c r="LM79" s="38"/>
-      <c r="LN79" s="38"/>
-      <c r="LO79" s="38"/>
-      <c r="LP79" s="38"/>
-      <c r="LQ79" s="38"/>
-      <c r="LR79" s="38"/>
-      <c r="LS79" s="38"/>
-      <c r="LT79" s="38"/>
-      <c r="LU79" s="38"/>
-      <c r="LV79" s="38"/>
-      <c r="LW79" s="38"/>
-      <c r="LX79" s="38"/>
-      <c r="LY79" s="38"/>
-      <c r="LZ79" s="38"/>
-      <c r="MA79" s="38"/>
-      <c r="MB79" s="38"/>
-      <c r="MC79" s="38"/>
-      <c r="MD79" s="38"/>
-      <c r="ME79" s="38"/>
-      <c r="MF79" s="38"/>
-      <c r="MG79" s="38"/>
-      <c r="MH79" s="38"/>
-      <c r="MI79" s="38"/>
-      <c r="MJ79" s="38"/>
-      <c r="MK79" s="38"/>
-      <c r="ML79" s="38"/>
-      <c r="MM79" s="38"/>
-      <c r="MN79" s="38"/>
-      <c r="MO79" s="38"/>
-      <c r="MP79" s="38"/>
-      <c r="MQ79" s="38"/>
-      <c r="MR79" s="38"/>
-      <c r="MS79" s="38"/>
-      <c r="MT79" s="38"/>
-      <c r="MU79" s="38"/>
-      <c r="MV79" s="38"/>
-      <c r="MW79" s="38"/>
-      <c r="MX79" s="38"/>
-      <c r="MY79" s="38"/>
-      <c r="MZ79" s="38"/>
-      <c r="NA79" s="38"/>
-      <c r="NB79" s="38"/>
-      <c r="NC79" s="38"/>
-      <c r="ND79" s="38"/>
-      <c r="NE79" s="38"/>
-      <c r="NF79" s="38"/>
-      <c r="NG79" s="38"/>
-      <c r="NH79" s="38"/>
-      <c r="NI79" s="38"/>
-      <c r="NJ79" s="38"/>
-      <c r="NK79" s="38"/>
-      <c r="NL79" s="38"/>
-      <c r="NM79" s="38"/>
-      <c r="NN79" s="38"/>
-      <c r="NO79" s="38"/>
-      <c r="NP79" s="38"/>
-      <c r="NQ79" s="38"/>
-      <c r="NR79" s="38"/>
-      <c r="NS79" s="38"/>
-      <c r="NT79" s="38"/>
-      <c r="NU79" s="38"/>
-      <c r="NV79" s="38"/>
-      <c r="NW79" s="38"/>
-      <c r="NX79" s="38"/>
-      <c r="NY79" s="38"/>
-      <c r="NZ79" s="38"/>
-      <c r="OA79" s="38"/>
-      <c r="OB79" s="38"/>
-      <c r="OC79" s="38"/>
-      <c r="OD79" s="38"/>
-      <c r="OE79" s="38"/>
-      <c r="OF79" s="38"/>
-      <c r="OG79" s="38"/>
-      <c r="OH79" s="38"/>
-      <c r="OI79" s="38"/>
-      <c r="OJ79" s="38"/>
-      <c r="OK79" s="38"/>
-      <c r="OL79" s="38"/>
-      <c r="OM79" s="38"/>
-      <c r="ON79" s="38"/>
-      <c r="OO79" s="38"/>
-      <c r="OP79" s="38"/>
-      <c r="OQ79" s="38"/>
-      <c r="OR79" s="38"/>
-      <c r="OS79" s="38"/>
-      <c r="OT79" s="38"/>
-      <c r="OU79" s="38"/>
-      <c r="OV79" s="38"/>
-      <c r="OW79" s="38"/>
-      <c r="OX79" s="38"/>
-      <c r="OY79" s="38"/>
-      <c r="OZ79" s="38"/>
-      <c r="PA79" s="38"/>
-      <c r="PB79" s="38"/>
-      <c r="PC79" s="38"/>
-      <c r="PD79" s="38"/>
-      <c r="PE79" s="38"/>
-      <c r="PF79" s="38"/>
-      <c r="PG79" s="38"/>
-      <c r="PH79" s="38"/>
-      <c r="PI79" s="38"/>
-      <c r="PJ79" s="38"/>
-      <c r="PK79" s="38"/>
-      <c r="PL79" s="38"/>
-      <c r="PM79" s="38"/>
-      <c r="PN79" s="38"/>
-      <c r="PO79" s="38"/>
-      <c r="PP79" s="38"/>
-      <c r="PQ79" s="38"/>
-      <c r="PR79" s="38"/>
-      <c r="PS79" s="38"/>
-      <c r="PT79" s="38"/>
-      <c r="PU79" s="38"/>
-      <c r="PV79" s="38"/>
-      <c r="PW79" s="38"/>
-      <c r="PX79" s="38"/>
-      <c r="PY79" s="38"/>
-      <c r="PZ79" s="38"/>
-      <c r="QA79" s="38"/>
-      <c r="QB79" s="38"/>
-      <c r="QC79" s="38"/>
-      <c r="QD79" s="38"/>
-      <c r="QE79" s="38"/>
-      <c r="QF79" s="38"/>
-      <c r="QG79" s="38"/>
-      <c r="QH79" s="38"/>
-      <c r="QI79" s="38"/>
-      <c r="QJ79" s="38"/>
-      <c r="QK79" s="38"/>
-      <c r="QL79" s="38"/>
-      <c r="QM79" s="38"/>
-      <c r="QN79" s="38"/>
-      <c r="QO79" s="38"/>
-      <c r="QP79" s="38"/>
-      <c r="QQ79" s="38"/>
-      <c r="QR79" s="38"/>
-      <c r="QS79" s="38"/>
-      <c r="QT79" s="38"/>
-      <c r="QU79" s="38"/>
-      <c r="QV79" s="38"/>
-      <c r="QW79" s="38"/>
-      <c r="QX79" s="38"/>
-      <c r="QY79" s="38"/>
-      <c r="QZ79" s="38"/>
-      <c r="RA79" s="38"/>
-      <c r="RB79" s="38"/>
-      <c r="RC79" s="38"/>
-      <c r="RD79" s="38"/>
-      <c r="RE79" s="38"/>
-      <c r="RF79" s="38"/>
-      <c r="RG79" s="38"/>
-      <c r="RH79" s="38"/>
-      <c r="RI79" s="38"/>
-      <c r="RJ79" s="38"/>
-      <c r="RK79" s="38"/>
-      <c r="RL79" s="38"/>
-      <c r="RM79" s="38"/>
-      <c r="RN79" s="38"/>
-      <c r="RO79" s="38"/>
-      <c r="RP79" s="38"/>
-      <c r="RQ79" s="38"/>
-      <c r="RR79" s="38"/>
-      <c r="RS79" s="38"/>
-      <c r="RT79" s="38"/>
-      <c r="RU79" s="38"/>
-      <c r="RV79" s="38"/>
-      <c r="RW79" s="38"/>
-      <c r="RX79" s="38"/>
-      <c r="RY79" s="38"/>
-      <c r="RZ79" s="38"/>
-      <c r="SA79" s="38"/>
-      <c r="SB79" s="38"/>
-      <c r="SC79" s="38"/>
-      <c r="SD79" s="38"/>
-      <c r="SE79" s="38"/>
-      <c r="SF79" s="38"/>
-      <c r="SG79" s="38"/>
-      <c r="SH79" s="38"/>
-      <c r="SI79" s="38"/>
-      <c r="SJ79" s="38"/>
-      <c r="SK79" s="38"/>
-      <c r="SL79" s="38"/>
-      <c r="SM79" s="38"/>
-      <c r="SN79" s="38"/>
-      <c r="SO79" s="38"/>
-      <c r="SP79" s="38"/>
-      <c r="SQ79" s="38"/>
-      <c r="SR79" s="38"/>
-      <c r="SS79" s="38"/>
-      <c r="ST79" s="38"/>
-      <c r="SU79" s="38"/>
-      <c r="SV79" s="38"/>
-      <c r="SW79" s="38"/>
-      <c r="SX79" s="38"/>
-      <c r="SY79" s="38"/>
-      <c r="SZ79" s="38"/>
-      <c r="TA79" s="38"/>
-      <c r="TB79" s="38"/>
-      <c r="TC79" s="38"/>
-      <c r="TD79" s="38"/>
-      <c r="TE79" s="38"/>
-      <c r="TF79" s="38"/>
-      <c r="TG79" s="38"/>
-      <c r="TH79" s="38"/>
-      <c r="TI79" s="38"/>
-      <c r="TJ79" s="38"/>
-      <c r="TK79" s="38"/>
-      <c r="TL79" s="38"/>
-      <c r="TM79" s="38"/>
-      <c r="TN79" s="38"/>
-      <c r="TO79" s="38"/>
-      <c r="TP79" s="38"/>
-      <c r="TQ79" s="38"/>
-      <c r="TR79" s="38"/>
-      <c r="TS79" s="38"/>
-      <c r="TT79" s="38"/>
-      <c r="TU79" s="38"/>
-      <c r="TV79" s="38"/>
-      <c r="TW79" s="38"/>
-      <c r="TX79" s="38"/>
-      <c r="TY79" s="38"/>
-      <c r="TZ79" s="38"/>
-      <c r="UA79" s="38"/>
-      <c r="UB79" s="38"/>
-      <c r="UC79" s="38"/>
-      <c r="UD79" s="38"/>
-      <c r="UE79" s="38"/>
-      <c r="UF79" s="38"/>
-      <c r="UG79" s="38"/>
-      <c r="UH79" s="38"/>
-      <c r="UI79" s="38"/>
-      <c r="UJ79" s="38"/>
-      <c r="UK79" s="38"/>
-      <c r="UL79" s="38"/>
-      <c r="UM79" s="38"/>
-      <c r="UN79" s="38"/>
-      <c r="UO79" s="38"/>
-      <c r="UP79" s="38"/>
-      <c r="UQ79" s="38"/>
-      <c r="UR79" s="38"/>
-      <c r="US79" s="38"/>
-      <c r="UT79" s="38"/>
-      <c r="UU79" s="38"/>
-      <c r="UV79" s="38"/>
-      <c r="UW79" s="38"/>
-      <c r="UX79" s="38"/>
-      <c r="UY79" s="38"/>
-      <c r="UZ79" s="38"/>
-      <c r="VA79" s="38"/>
-      <c r="VB79" s="38"/>
-      <c r="VC79" s="38"/>
-      <c r="VD79" s="38"/>
-      <c r="VE79" s="38"/>
-      <c r="VF79" s="38"/>
-      <c r="VG79" s="38"/>
-      <c r="VH79" s="38"/>
-      <c r="VI79" s="38"/>
-      <c r="VJ79" s="38"/>
-      <c r="VK79" s="38"/>
-      <c r="VL79" s="38"/>
-      <c r="VM79" s="38"/>
-      <c r="VN79" s="38"/>
-      <c r="VO79" s="38"/>
-      <c r="VP79" s="38"/>
-      <c r="VQ79" s="38"/>
-      <c r="VR79" s="38"/>
-      <c r="VS79" s="38"/>
-      <c r="VT79" s="38"/>
-      <c r="VU79" s="38"/>
-      <c r="VV79" s="38"/>
-      <c r="VW79" s="38"/>
-      <c r="VX79" s="38"/>
-      <c r="VY79" s="38"/>
-      <c r="VZ79" s="38"/>
-      <c r="WA79" s="38"/>
-      <c r="WB79" s="38"/>
-      <c r="WC79" s="38"/>
-      <c r="WD79" s="38"/>
-      <c r="WE79" s="38"/>
-      <c r="WF79" s="38"/>
-      <c r="WG79" s="38"/>
-      <c r="WH79" s="38"/>
-      <c r="WI79" s="38"/>
-      <c r="WJ79" s="38"/>
-      <c r="WK79" s="38"/>
-      <c r="WL79" s="38"/>
-      <c r="WM79" s="38"/>
-      <c r="WN79" s="38"/>
-      <c r="WO79" s="38"/>
-      <c r="WP79" s="38"/>
-      <c r="WQ79" s="38"/>
-      <c r="WR79" s="38"/>
-      <c r="WS79" s="38"/>
-      <c r="WT79" s="38"/>
-      <c r="WU79" s="38"/>
-      <c r="WV79" s="38"/>
-      <c r="WW79" s="38"/>
-      <c r="WX79" s="38"/>
-      <c r="WY79" s="38"/>
-      <c r="WZ79" s="38"/>
-      <c r="XA79" s="38"/>
-      <c r="XB79" s="38"/>
-      <c r="XC79" s="38"/>
-      <c r="XD79" s="38"/>
-      <c r="XE79" s="38"/>
-      <c r="XF79" s="38"/>
-      <c r="XG79" s="38"/>
-      <c r="XH79" s="38"/>
-      <c r="XI79" s="38"/>
-      <c r="XJ79" s="38"/>
-      <c r="XK79" s="38"/>
-      <c r="XL79" s="38"/>
-      <c r="XM79" s="38"/>
-      <c r="XN79" s="38"/>
-      <c r="XO79" s="38"/>
-      <c r="XP79" s="38"/>
-      <c r="XQ79" s="38"/>
-      <c r="XR79" s="38"/>
-      <c r="XS79" s="38"/>
-      <c r="XT79" s="38"/>
-      <c r="XU79" s="38"/>
-      <c r="XV79" s="38"/>
-      <c r="XW79" s="38"/>
-      <c r="XX79" s="38"/>
-      <c r="XY79" s="38"/>
-      <c r="XZ79" s="38"/>
-      <c r="YA79" s="38"/>
-      <c r="YB79" s="38"/>
-      <c r="YC79" s="38"/>
-      <c r="YD79" s="38"/>
-      <c r="YE79" s="38"/>
-      <c r="YF79" s="38"/>
-      <c r="YG79" s="38"/>
-      <c r="YH79" s="38"/>
-      <c r="YI79" s="38"/>
-      <c r="YJ79" s="38"/>
-      <c r="YK79" s="38"/>
-      <c r="YL79" s="38"/>
-      <c r="YM79" s="38"/>
-      <c r="YN79" s="38"/>
-      <c r="YO79" s="38"/>
-      <c r="YP79" s="38"/>
-      <c r="YQ79" s="38"/>
-      <c r="YR79" s="38"/>
-      <c r="YS79" s="38"/>
-      <c r="YT79" s="38"/>
-      <c r="YU79" s="38"/>
-      <c r="YV79" s="38"/>
-      <c r="YW79" s="38"/>
-      <c r="YX79" s="38"/>
-      <c r="YY79" s="38"/>
-      <c r="YZ79" s="38"/>
-      <c r="ZA79" s="38"/>
-      <c r="ZB79" s="38"/>
-      <c r="ZC79" s="38"/>
-      <c r="ZD79" s="38"/>
-      <c r="ZE79" s="38"/>
-      <c r="ZF79" s="38"/>
-      <c r="ZG79" s="38"/>
-      <c r="ZH79" s="38"/>
-      <c r="ZI79" s="38"/>
-      <c r="ZJ79" s="38"/>
-      <c r="ZK79" s="38"/>
-      <c r="ZL79" s="38"/>
-      <c r="ZM79" s="38"/>
-      <c r="ZN79" s="38"/>
-      <c r="ZO79" s="38"/>
-      <c r="ZP79" s="38"/>
-      <c r="ZQ79" s="38"/>
-      <c r="ZR79" s="38"/>
-      <c r="ZS79" s="38"/>
-      <c r="ZT79" s="38"/>
-      <c r="ZU79" s="38"/>
-      <c r="ZV79" s="38"/>
-      <c r="ZW79" s="38"/>
-      <c r="ZX79" s="38"/>
-      <c r="ZY79" s="38"/>
-      <c r="ZZ79" s="38"/>
-      <c r="AAA79" s="38"/>
-      <c r="AAB79" s="38"/>
-      <c r="AAC79" s="38"/>
-      <c r="AAD79" s="38"/>
-      <c r="AAE79" s="38"/>
-      <c r="AAF79" s="38"/>
-      <c r="AAG79" s="38"/>
-      <c r="AAH79" s="38"/>
-      <c r="AAI79" s="38"/>
-      <c r="AAJ79" s="38"/>
-      <c r="AAK79" s="38"/>
-      <c r="AAL79" s="38"/>
-      <c r="AAM79" s="38"/>
-      <c r="AAN79" s="38"/>
-      <c r="AAO79" s="38"/>
-      <c r="AAP79" s="38"/>
-      <c r="AAQ79" s="38"/>
-      <c r="AAR79" s="38"/>
-      <c r="AAS79" s="38"/>
-      <c r="AAT79" s="38"/>
-      <c r="AAU79" s="38"/>
-      <c r="AAV79" s="38"/>
-      <c r="AAW79" s="38"/>
-      <c r="AAX79" s="38"/>
-      <c r="AAY79" s="38"/>
-      <c r="AAZ79" s="38"/>
-      <c r="ABA79" s="38"/>
-      <c r="ABB79" s="38"/>
-      <c r="ABC79" s="38"/>
-      <c r="ABD79" s="38"/>
-      <c r="ABE79" s="38"/>
-      <c r="ABF79" s="38"/>
-      <c r="ABG79" s="38"/>
-      <c r="ABH79" s="38"/>
-      <c r="ABI79" s="38"/>
-      <c r="ABJ79" s="38"/>
-      <c r="ABK79" s="38"/>
-      <c r="ABL79" s="38"/>
-      <c r="ABM79" s="38"/>
-      <c r="ABN79" s="38"/>
-      <c r="ABO79" s="38"/>
-      <c r="ABP79" s="38"/>
-      <c r="ABQ79" s="38"/>
-      <c r="ABR79" s="38"/>
-      <c r="ABS79" s="38"/>
-      <c r="ABT79" s="38"/>
-      <c r="ABU79" s="38"/>
-      <c r="ABV79" s="38"/>
-      <c r="ABW79" s="38"/>
-      <c r="ABX79" s="38"/>
-      <c r="ABY79" s="38"/>
-      <c r="ABZ79" s="38"/>
-      <c r="ACA79" s="38"/>
-      <c r="ACB79" s="38"/>
-      <c r="ACC79" s="38"/>
-      <c r="ACD79" s="38"/>
-      <c r="ACE79" s="38"/>
-      <c r="ACF79" s="38"/>
-      <c r="ACG79" s="38"/>
-      <c r="ACH79" s="38"/>
-      <c r="ACI79" s="38"/>
-      <c r="ACJ79" s="38"/>
-      <c r="ACK79" s="38"/>
-      <c r="ACL79" s="38"/>
-      <c r="ACM79" s="38"/>
-      <c r="ACN79" s="38"/>
-      <c r="ACO79" s="38"/>
-      <c r="ACP79" s="38"/>
-      <c r="ACQ79" s="38"/>
-      <c r="ACR79" s="38"/>
-      <c r="ACS79" s="38"/>
-      <c r="ACT79" s="38"/>
-      <c r="ACU79" s="38"/>
-      <c r="ACV79" s="38"/>
-      <c r="ACW79" s="38"/>
-      <c r="ACX79" s="38"/>
-      <c r="ACY79" s="38"/>
-      <c r="ACZ79" s="38"/>
-      <c r="ADA79" s="38"/>
-      <c r="ADB79" s="38"/>
-      <c r="ADC79" s="38"/>
-      <c r="ADD79" s="38"/>
-      <c r="ADE79" s="38"/>
-      <c r="ADF79" s="38"/>
-      <c r="ADG79" s="38"/>
-      <c r="ADH79" s="38"/>
-      <c r="ADI79" s="38"/>
-      <c r="ADJ79" s="38"/>
-      <c r="ADK79" s="38"/>
-      <c r="ADL79" s="38"/>
-      <c r="ADM79" s="38"/>
-      <c r="ADN79" s="38"/>
-      <c r="ADO79" s="38"/>
-      <c r="ADP79" s="38"/>
-      <c r="ADQ79" s="38"/>
-      <c r="ADR79" s="38"/>
-      <c r="ADS79" s="38"/>
-      <c r="ADT79" s="38"/>
-      <c r="ADU79" s="38"/>
-      <c r="ADV79" s="38"/>
-      <c r="ADW79" s="38"/>
-      <c r="ADX79" s="38"/>
-      <c r="ADY79" s="38"/>
-      <c r="ADZ79" s="38"/>
-      <c r="AEA79" s="38"/>
-      <c r="AEB79" s="38"/>
-      <c r="AEC79" s="38"/>
-      <c r="AED79" s="38"/>
-      <c r="AEE79" s="38"/>
-      <c r="AEF79" s="38"/>
-      <c r="AEG79" s="38"/>
-      <c r="AEH79" s="38"/>
-      <c r="AEI79" s="38"/>
-      <c r="AEJ79" s="38"/>
-      <c r="AEK79" s="38"/>
-      <c r="AEL79" s="38"/>
-      <c r="AEM79" s="38"/>
-      <c r="AEN79" s="38"/>
-      <c r="AEO79" s="38"/>
-      <c r="AEP79" s="38"/>
-      <c r="AEQ79" s="38"/>
-      <c r="AER79" s="38"/>
-      <c r="AES79" s="38"/>
-      <c r="AET79" s="38"/>
-      <c r="AEU79" s="38"/>
-      <c r="AEV79" s="38"/>
-      <c r="AEW79" s="38"/>
-      <c r="AEX79" s="38"/>
-      <c r="AEY79" s="38"/>
-      <c r="AEZ79" s="38"/>
-      <c r="AFA79" s="38"/>
-      <c r="AFB79" s="38"/>
-      <c r="AFC79" s="38"/>
-      <c r="AFD79" s="38"/>
-      <c r="AFE79" s="38"/>
-      <c r="AFF79" s="38"/>
-      <c r="AFG79" s="38"/>
-      <c r="AFH79" s="38"/>
-      <c r="AFI79" s="38"/>
-      <c r="AFJ79" s="38"/>
-      <c r="AFK79" s="38"/>
-      <c r="AFL79" s="38"/>
-      <c r="AFM79" s="38"/>
-      <c r="AFN79" s="38"/>
-      <c r="AFO79" s="38"/>
-      <c r="AFP79" s="38"/>
-      <c r="AFQ79" s="38"/>
-      <c r="AFR79" s="38"/>
-      <c r="AFS79" s="38"/>
-      <c r="AFT79" s="38"/>
-      <c r="AFU79" s="38"/>
-      <c r="AFV79" s="38"/>
-      <c r="AFW79" s="38"/>
-      <c r="AFX79" s="38"/>
-      <c r="AFY79" s="38"/>
-      <c r="AFZ79" s="38"/>
-      <c r="AGA79" s="38"/>
-      <c r="AGB79" s="38"/>
-      <c r="AGC79" s="38"/>
-      <c r="AGD79" s="38"/>
-      <c r="AGE79" s="38"/>
-      <c r="AGF79" s="38"/>
-      <c r="AGG79" s="38"/>
-      <c r="AGH79" s="38"/>
-      <c r="AGI79" s="38"/>
-      <c r="AGJ79" s="38"/>
-      <c r="AGK79" s="38"/>
-      <c r="AGL79" s="38"/>
-      <c r="AGM79" s="38"/>
-      <c r="AGN79" s="38"/>
-      <c r="AGO79" s="38"/>
-      <c r="AGP79" s="38"/>
-      <c r="AGQ79" s="38"/>
-      <c r="AGR79" s="38"/>
-      <c r="AGS79" s="38"/>
-      <c r="AGT79" s="38"/>
-      <c r="AGU79" s="38"/>
-      <c r="AGV79" s="38"/>
-      <c r="AGW79" s="38"/>
-      <c r="AGX79" s="38"/>
-      <c r="AGY79" s="38"/>
-      <c r="AGZ79" s="38"/>
-      <c r="AHA79" s="38"/>
-      <c r="AHB79" s="38"/>
-      <c r="AHC79" s="38"/>
-      <c r="AHD79" s="38"/>
-      <c r="AHE79" s="38"/>
-      <c r="AHF79" s="38"/>
-      <c r="AHG79" s="38"/>
-      <c r="AHH79" s="38"/>
-      <c r="AHI79" s="38"/>
-      <c r="AHJ79" s="38"/>
-      <c r="AHK79" s="38"/>
-      <c r="AHL79" s="38"/>
-      <c r="AHM79" s="38"/>
-      <c r="AHN79" s="38"/>
-      <c r="AHO79" s="38"/>
-      <c r="AHP79" s="38"/>
-      <c r="AHQ79" s="38"/>
-      <c r="AHR79" s="38"/>
-      <c r="AHS79" s="38"/>
-      <c r="AHT79" s="38"/>
-      <c r="AHU79" s="38"/>
-      <c r="AHV79" s="38"/>
-      <c r="AHW79" s="38"/>
-      <c r="AHX79" s="38"/>
-      <c r="AHY79" s="38"/>
-      <c r="AHZ79" s="38"/>
-      <c r="AIA79" s="38"/>
-      <c r="AIB79" s="38"/>
-      <c r="AIC79" s="38"/>
-      <c r="AID79" s="38"/>
-      <c r="AIE79" s="38"/>
-      <c r="AIF79" s="38"/>
-      <c r="AIG79" s="38"/>
-      <c r="AIH79" s="38"/>
-      <c r="AII79" s="38"/>
-      <c r="AIJ79" s="38"/>
-      <c r="AIK79" s="38"/>
-      <c r="AIL79" s="38"/>
-      <c r="AIM79" s="38"/>
-      <c r="AIN79" s="38"/>
-      <c r="AIO79" s="38"/>
-      <c r="AIP79" s="38"/>
-      <c r="AIQ79" s="38"/>
-      <c r="AIR79" s="38"/>
-      <c r="AIS79" s="38"/>
-      <c r="AIT79" s="38"/>
-      <c r="AIU79" s="38"/>
-      <c r="AIV79" s="38"/>
-      <c r="AIW79" s="38"/>
-      <c r="AIX79" s="38"/>
-      <c r="AIY79" s="38"/>
-      <c r="AIZ79" s="38"/>
-      <c r="AJA79" s="38"/>
-      <c r="AJB79" s="38"/>
-      <c r="AJC79" s="38"/>
-      <c r="AJD79" s="38"/>
-      <c r="AJE79" s="38"/>
-      <c r="AJF79" s="38"/>
-      <c r="AJG79" s="38"/>
-      <c r="AJH79" s="38"/>
-      <c r="AJI79" s="38"/>
-      <c r="AJJ79" s="38"/>
-      <c r="AJK79" s="38"/>
-      <c r="AJL79" s="38"/>
-      <c r="AJM79" s="38"/>
-      <c r="AJN79" s="38"/>
-      <c r="AJO79" s="38"/>
-      <c r="AJP79" s="38"/>
-      <c r="AJQ79" s="38"/>
-      <c r="AJR79" s="38"/>
-      <c r="AJS79" s="38"/>
-      <c r="AJT79" s="38"/>
-      <c r="AJU79" s="38"/>
-      <c r="AJV79" s="38"/>
-      <c r="AJW79" s="38"/>
-      <c r="AJX79" s="38"/>
-      <c r="AJY79" s="38"/>
-      <c r="AJZ79" s="38"/>
-      <c r="AKA79" s="38"/>
-      <c r="AKB79" s="38"/>
-      <c r="AKC79" s="38"/>
-      <c r="AKD79" s="38"/>
-      <c r="AKE79" s="38"/>
-      <c r="AKF79" s="38"/>
-      <c r="AKG79" s="38"/>
-      <c r="AKH79" s="38"/>
-      <c r="AKI79" s="38"/>
-      <c r="AKJ79" s="38"/>
-      <c r="AKK79" s="38"/>
-      <c r="AKL79" s="38"/>
-      <c r="AKM79" s="38"/>
-      <c r="AKN79" s="38"/>
-      <c r="AKO79" s="38"/>
-      <c r="AKP79" s="38"/>
-      <c r="AKQ79" s="38"/>
-      <c r="AKR79" s="38"/>
-      <c r="AKS79" s="38"/>
-      <c r="AKT79" s="38"/>
-      <c r="AKU79" s="38"/>
-      <c r="AKV79" s="38"/>
-      <c r="AKW79" s="38"/>
-      <c r="AKX79" s="38"/>
-      <c r="AKY79" s="38"/>
-      <c r="AKZ79" s="38"/>
-      <c r="ALA79" s="38"/>
-      <c r="ALB79" s="38"/>
-      <c r="ALC79" s="38"/>
-      <c r="ALD79" s="38"/>
-      <c r="ALE79" s="38"/>
-      <c r="ALF79" s="38"/>
-      <c r="ALG79" s="38"/>
-      <c r="ALH79" s="38"/>
-      <c r="ALI79" s="38"/>
-      <c r="ALJ79" s="38"/>
-      <c r="ALK79" s="38"/>
-      <c r="ALL79" s="38"/>
-      <c r="ALM79" s="38"/>
-      <c r="ALN79" s="38"/>
-      <c r="ALO79" s="38"/>
-      <c r="ALP79" s="38"/>
-      <c r="ALQ79" s="38"/>
-      <c r="ALR79" s="38"/>
-      <c r="ALS79" s="38"/>
-      <c r="ALT79" s="38"/>
-      <c r="ALU79" s="38"/>
-      <c r="ALV79" s="38"/>
-      <c r="ALW79" s="38"/>
-      <c r="ALX79" s="38"/>
-      <c r="ALY79" s="38"/>
-      <c r="ALZ79" s="38"/>
-      <c r="AMA79" s="38"/>
-      <c r="AMB79" s="38"/>
-      <c r="AMC79" s="38"/>
-      <c r="AMD79" s="38"/>
-      <c r="AME79" s="38"/>
-      <c r="AMF79" s="38"/>
-      <c r="AMG79" s="38"/>
-      <c r="AMH79" s="38"/>
-      <c r="AMI79" s="38"/>
-      <c r="AMJ79" s="38"/>
-      <c r="AMK79" s="38"/>
-      <c r="AML79" s="38"/>
-      <c r="AMM79" s="38"/>
-      <c r="AMN79" s="38"/>
-      <c r="AMO79" s="38"/>
-      <c r="AMP79" s="38"/>
-      <c r="AMQ79" s="38"/>
-      <c r="AMR79" s="38"/>
-      <c r="AMS79" s="38"/>
-      <c r="AMT79" s="38"/>
-      <c r="AMU79" s="38"/>
-      <c r="AMV79" s="38"/>
-      <c r="AMW79" s="38"/>
-      <c r="AMX79" s="38"/>
-      <c r="AMY79" s="38"/>
-      <c r="AMZ79" s="38"/>
-      <c r="ANA79" s="38"/>
-      <c r="ANB79" s="38"/>
-      <c r="ANC79" s="38"/>
-      <c r="AND79" s="38"/>
-      <c r="ANE79" s="38"/>
-      <c r="ANF79" s="38"/>
-      <c r="ANG79" s="38"/>
-      <c r="ANH79" s="38"/>
-      <c r="ANI79" s="38"/>
-      <c r="ANJ79" s="38"/>
-      <c r="ANK79" s="38"/>
-      <c r="ANL79" s="38"/>
-      <c r="ANM79" s="38"/>
-      <c r="ANN79" s="38"/>
-      <c r="ANO79" s="38"/>
-      <c r="ANP79" s="38"/>
-      <c r="ANQ79" s="38"/>
-      <c r="ANR79" s="38"/>
-      <c r="ANS79" s="38"/>
-      <c r="ANT79" s="38"/>
-      <c r="ANU79" s="38"/>
-      <c r="ANV79" s="38"/>
-      <c r="ANW79" s="38"/>
-      <c r="ANX79" s="38"/>
-      <c r="ANY79" s="38"/>
-      <c r="ANZ79" s="38"/>
-      <c r="AOA79" s="38"/>
-      <c r="AOB79" s="38"/>
-      <c r="AOC79" s="38"/>
-      <c r="AOD79" s="38"/>
-      <c r="AOE79" s="38"/>
-      <c r="AOF79" s="38"/>
-      <c r="AOG79" s="38"/>
-      <c r="AOH79" s="38"/>
-      <c r="AOI79" s="38"/>
-      <c r="AOJ79" s="38"/>
-      <c r="AOK79" s="38"/>
-      <c r="AOL79" s="38"/>
-      <c r="AOM79" s="38"/>
-      <c r="AON79" s="38"/>
-      <c r="AOO79" s="38"/>
-      <c r="AOP79" s="38"/>
-      <c r="AOQ79" s="38"/>
-      <c r="AOR79" s="38"/>
-      <c r="AOS79" s="38"/>
-      <c r="AOT79" s="38"/>
-      <c r="AOU79" s="38"/>
-      <c r="AOV79" s="38"/>
-      <c r="AOW79" s="38"/>
-      <c r="AOX79" s="38"/>
-      <c r="AOY79" s="38"/>
-      <c r="AOZ79" s="38"/>
-      <c r="APA79" s="38"/>
-      <c r="APB79" s="38"/>
-      <c r="APC79" s="38"/>
-      <c r="APD79" s="38"/>
-      <c r="APE79" s="38"/>
-      <c r="APF79" s="38"/>
-      <c r="APG79" s="38"/>
-      <c r="APH79" s="38"/>
-      <c r="API79" s="38"/>
-      <c r="APJ79" s="38"/>
-      <c r="APK79" s="38"/>
-      <c r="APL79" s="38"/>
-      <c r="APM79" s="38"/>
-      <c r="APN79" s="38"/>
-      <c r="APO79" s="38"/>
-      <c r="APP79" s="38"/>
-      <c r="APQ79" s="38"/>
-      <c r="APR79" s="38"/>
-      <c r="APS79" s="38"/>
-      <c r="APT79" s="38"/>
-      <c r="APU79" s="38"/>
-      <c r="APV79" s="38"/>
-      <c r="APW79" s="38"/>
-      <c r="APX79" s="38"/>
-      <c r="APY79" s="38"/>
-      <c r="APZ79" s="38"/>
-      <c r="AQA79" s="38"/>
-      <c r="AQB79" s="38"/>
-      <c r="AQC79" s="38"/>
-      <c r="AQD79" s="38"/>
-      <c r="AQE79" s="38"/>
-      <c r="AQF79" s="38"/>
-      <c r="AQG79" s="38"/>
-      <c r="AQH79" s="38"/>
-      <c r="AQI79" s="38"/>
-      <c r="AQJ79" s="38"/>
-      <c r="AQK79" s="38"/>
-      <c r="AQL79" s="38"/>
-      <c r="AQM79" s="38"/>
-      <c r="AQN79" s="38"/>
-      <c r="AQO79" s="38"/>
-      <c r="AQP79" s="38"/>
-      <c r="AQQ79" s="38"/>
-      <c r="AQR79" s="38"/>
-      <c r="AQS79" s="38"/>
-      <c r="AQT79" s="38"/>
-      <c r="AQU79" s="38"/>
-      <c r="AQV79" s="38"/>
-      <c r="AQW79" s="38"/>
-      <c r="AQX79" s="38"/>
-      <c r="AQY79" s="38"/>
-      <c r="AQZ79" s="38"/>
-      <c r="ARA79" s="38"/>
-      <c r="ARB79" s="38"/>
-      <c r="ARC79" s="38"/>
-      <c r="ARD79" s="38"/>
-      <c r="ARE79" s="38"/>
-      <c r="ARF79" s="38"/>
-      <c r="ARG79" s="38"/>
-      <c r="ARH79" s="38"/>
-      <c r="ARI79" s="38"/>
-      <c r="ARJ79" s="38"/>
-      <c r="ARK79" s="38"/>
-      <c r="ARL79" s="38"/>
-      <c r="ARM79" s="38"/>
-      <c r="ARN79" s="38"/>
-      <c r="ARO79" s="38"/>
-      <c r="ARP79" s="38"/>
-      <c r="ARQ79" s="38"/>
-      <c r="ARR79" s="38"/>
-      <c r="ARS79" s="38"/>
-      <c r="ART79" s="38"/>
-      <c r="ARU79" s="38"/>
-      <c r="ARV79" s="38"/>
-      <c r="ARW79" s="38"/>
-      <c r="ARX79" s="38"/>
-      <c r="ARY79" s="38"/>
-      <c r="ARZ79" s="38"/>
-      <c r="ASA79" s="38"/>
-      <c r="ASB79" s="38"/>
-      <c r="ASC79" s="38"/>
-      <c r="ASD79" s="38"/>
-      <c r="ASE79" s="38"/>
-      <c r="ASF79" s="38"/>
-      <c r="ASG79" s="38"/>
-      <c r="ASH79" s="38"/>
-      <c r="ASI79" s="38"/>
-      <c r="ASJ79" s="38"/>
-      <c r="ASK79" s="38"/>
-      <c r="ASL79" s="38"/>
-      <c r="ASM79" s="38"/>
-      <c r="ASN79" s="38"/>
-      <c r="ASO79" s="38"/>
-      <c r="ASP79" s="38"/>
-      <c r="ASQ79" s="38"/>
-      <c r="ASR79" s="38"/>
-      <c r="ASS79" s="38"/>
-      <c r="AST79" s="38"/>
-      <c r="ASU79" s="38"/>
-      <c r="ASV79" s="38"/>
-      <c r="ASW79" s="38"/>
-      <c r="ASX79" s="38"/>
-      <c r="ASY79" s="38"/>
-      <c r="ASZ79" s="38"/>
-      <c r="ATA79" s="38"/>
-      <c r="ATB79" s="38"/>
-      <c r="ATC79" s="38"/>
-      <c r="ATD79" s="38"/>
-      <c r="ATE79" s="38"/>
-      <c r="ATF79" s="38"/>
-      <c r="ATG79" s="38"/>
-      <c r="ATH79" s="38"/>
-      <c r="ATI79" s="38"/>
-      <c r="ATJ79" s="38"/>
-      <c r="ATK79" s="38"/>
-      <c r="ATL79" s="38"/>
-      <c r="ATM79" s="38"/>
-      <c r="ATN79" s="38"/>
-      <c r="ATO79" s="38"/>
-      <c r="ATP79" s="38"/>
-      <c r="ATQ79" s="38"/>
-      <c r="ATR79" s="38"/>
-      <c r="ATS79" s="38"/>
-      <c r="ATT79" s="38"/>
-      <c r="ATU79" s="38"/>
-      <c r="ATV79" s="38"/>
-      <c r="ATW79" s="38"/>
-      <c r="ATX79" s="38"/>
-      <c r="ATY79" s="38"/>
-      <c r="ATZ79" s="38"/>
+    <row r="78" spans="1:1222">
+      <c r="A78" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
     </row>
     <row r="80" spans="1:1222">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
+      <c r="A80" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="41"/>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
+    <row r="81" spans="1:1222">
+      <c r="A81" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="52">
+        <v>1</v>
+      </c>
+      <c r="C81" s="42"/>
+    </row>
+    <row r="82" spans="1:1222" s="37" customFormat="1">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="38"/>
+      <c r="Y82" s="38"/>
+      <c r="Z82" s="38"/>
+      <c r="AA82" s="38"/>
+      <c r="AB82" s="38"/>
+      <c r="AC82" s="38"/>
+      <c r="AD82" s="38"/>
+      <c r="AE82" s="38"/>
+      <c r="AF82" s="38"/>
+      <c r="AG82" s="38"/>
+      <c r="AH82" s="38"/>
+      <c r="AI82" s="38"/>
+      <c r="AJ82" s="38"/>
+      <c r="AK82" s="38"/>
+      <c r="AL82" s="38"/>
+      <c r="AM82" s="38"/>
+      <c r="AN82" s="38"/>
+      <c r="AO82" s="38"/>
+      <c r="AP82" s="38"/>
+      <c r="AQ82" s="38"/>
+      <c r="AR82" s="38"/>
+      <c r="AS82" s="38"/>
+      <c r="AT82" s="38"/>
+      <c r="AU82" s="38"/>
+      <c r="AV82" s="38"/>
+      <c r="AW82" s="38"/>
+      <c r="AX82" s="38"/>
+      <c r="AY82" s="38"/>
+      <c r="AZ82" s="38"/>
+      <c r="BA82" s="38"/>
+      <c r="BB82" s="38"/>
+      <c r="BC82" s="38"/>
+      <c r="BD82" s="38"/>
+      <c r="BE82" s="38"/>
+      <c r="BF82" s="38"/>
+      <c r="BG82" s="38"/>
+      <c r="BH82" s="38"/>
+      <c r="BI82" s="38"/>
+      <c r="BJ82" s="38"/>
+      <c r="BK82" s="38"/>
+      <c r="BL82" s="38"/>
+      <c r="BM82" s="38"/>
+      <c r="BN82" s="38"/>
+      <c r="BO82" s="38"/>
+      <c r="BP82" s="38"/>
+      <c r="BQ82" s="38"/>
+      <c r="BR82" s="38"/>
+      <c r="BS82" s="38"/>
+      <c r="BT82" s="38"/>
+      <c r="BU82" s="38"/>
+      <c r="BV82" s="38"/>
+      <c r="BW82" s="38"/>
+      <c r="BX82" s="38"/>
+      <c r="BY82" s="38"/>
+      <c r="BZ82" s="38"/>
+      <c r="CA82" s="38"/>
+      <c r="CB82" s="38"/>
+      <c r="CC82" s="38"/>
+      <c r="CD82" s="38"/>
+      <c r="CE82" s="38"/>
+      <c r="CF82" s="38"/>
+      <c r="CG82" s="38"/>
+      <c r="CH82" s="38"/>
+      <c r="CI82" s="38"/>
+      <c r="CJ82" s="38"/>
+      <c r="CK82" s="38"/>
+      <c r="CL82" s="38"/>
+      <c r="CM82" s="38"/>
+      <c r="CN82" s="38"/>
+      <c r="CO82" s="38"/>
+      <c r="CP82" s="38"/>
+      <c r="CQ82" s="38"/>
+      <c r="CR82" s="38"/>
+      <c r="CS82" s="38"/>
+      <c r="CT82" s="38"/>
+      <c r="CU82" s="38"/>
+      <c r="CV82" s="38"/>
+      <c r="CW82" s="38"/>
+      <c r="CX82" s="38"/>
+      <c r="CY82" s="38"/>
+      <c r="CZ82" s="38"/>
+      <c r="DA82" s="38"/>
+      <c r="DB82" s="38"/>
+      <c r="DC82" s="38"/>
+      <c r="DD82" s="38"/>
+      <c r="DE82" s="38"/>
+      <c r="DF82" s="38"/>
+      <c r="DG82" s="38"/>
+      <c r="DH82" s="38"/>
+      <c r="DI82" s="38"/>
+      <c r="DJ82" s="38"/>
+      <c r="DK82" s="38"/>
+      <c r="DL82" s="38"/>
+      <c r="DM82" s="38"/>
+      <c r="DN82" s="38"/>
+      <c r="DO82" s="38"/>
+      <c r="DP82" s="38"/>
+      <c r="DQ82" s="38"/>
+      <c r="DR82" s="38"/>
+      <c r="DS82" s="38"/>
+      <c r="DT82" s="38"/>
+      <c r="DU82" s="38"/>
+      <c r="DV82" s="38"/>
+      <c r="DW82" s="38"/>
+      <c r="DX82" s="38"/>
+      <c r="DY82" s="38"/>
+      <c r="DZ82" s="38"/>
+      <c r="EA82" s="38"/>
+      <c r="EB82" s="38"/>
+      <c r="EC82" s="38"/>
+      <c r="ED82" s="38"/>
+      <c r="EE82" s="38"/>
+      <c r="EF82" s="38"/>
+      <c r="EG82" s="38"/>
+      <c r="EH82" s="38"/>
+      <c r="EI82" s="38"/>
+      <c r="EJ82" s="38"/>
+      <c r="EK82" s="38"/>
+      <c r="EL82" s="38"/>
+      <c r="EM82" s="38"/>
+      <c r="EN82" s="38"/>
+      <c r="EO82" s="38"/>
+      <c r="EP82" s="38"/>
+      <c r="EQ82" s="38"/>
+      <c r="ER82" s="38"/>
+      <c r="ES82" s="38"/>
+      <c r="ET82" s="38"/>
+      <c r="EU82" s="38"/>
+      <c r="EV82" s="38"/>
+      <c r="EW82" s="38"/>
+      <c r="EX82" s="38"/>
+      <c r="EY82" s="38"/>
+      <c r="EZ82" s="38"/>
+      <c r="FA82" s="38"/>
+      <c r="FB82" s="38"/>
+      <c r="FC82" s="38"/>
+      <c r="FD82" s="38"/>
+      <c r="FE82" s="38"/>
+      <c r="FF82" s="38"/>
+      <c r="FG82" s="38"/>
+      <c r="FH82" s="38"/>
+      <c r="FI82" s="38"/>
+      <c r="FJ82" s="38"/>
+      <c r="FK82" s="38"/>
+      <c r="FL82" s="38"/>
+      <c r="FM82" s="38"/>
+      <c r="FN82" s="38"/>
+      <c r="FO82" s="38"/>
+      <c r="FP82" s="38"/>
+      <c r="FQ82" s="38"/>
+      <c r="FR82" s="38"/>
+      <c r="FS82" s="38"/>
+      <c r="FT82" s="38"/>
+      <c r="FU82" s="38"/>
+      <c r="FV82" s="38"/>
+      <c r="FW82" s="38"/>
+      <c r="FX82" s="38"/>
+      <c r="FY82" s="38"/>
+      <c r="FZ82" s="38"/>
+      <c r="GA82" s="38"/>
+      <c r="GB82" s="38"/>
+      <c r="GC82" s="38"/>
+      <c r="GD82" s="38"/>
+      <c r="GE82" s="38"/>
+      <c r="GF82" s="38"/>
+      <c r="GG82" s="38"/>
+      <c r="GH82" s="38"/>
+      <c r="GI82" s="38"/>
+      <c r="GJ82" s="38"/>
+      <c r="GK82" s="38"/>
+      <c r="GL82" s="38"/>
+      <c r="GM82" s="38"/>
+      <c r="GN82" s="38"/>
+      <c r="GO82" s="38"/>
+      <c r="GP82" s="38"/>
+      <c r="GQ82" s="38"/>
+      <c r="GR82" s="38"/>
+      <c r="GS82" s="38"/>
+      <c r="GT82" s="38"/>
+      <c r="GU82" s="38"/>
+      <c r="GV82" s="38"/>
+      <c r="GW82" s="38"/>
+      <c r="GX82" s="38"/>
+      <c r="GY82" s="38"/>
+      <c r="GZ82" s="38"/>
+      <c r="HA82" s="38"/>
+      <c r="HB82" s="38"/>
+      <c r="HC82" s="38"/>
+      <c r="HD82" s="38"/>
+      <c r="HE82" s="38"/>
+      <c r="HF82" s="38"/>
+      <c r="HG82" s="38"/>
+      <c r="HH82" s="38"/>
+      <c r="HI82" s="38"/>
+      <c r="HJ82" s="38"/>
+      <c r="HK82" s="38"/>
+      <c r="HL82" s="38"/>
+      <c r="HM82" s="38"/>
+      <c r="HN82" s="38"/>
+      <c r="HO82" s="38"/>
+      <c r="HP82" s="38"/>
+      <c r="HQ82" s="38"/>
+      <c r="HR82" s="38"/>
+      <c r="HS82" s="38"/>
+      <c r="HT82" s="38"/>
+      <c r="HU82" s="38"/>
+      <c r="HV82" s="38"/>
+      <c r="HW82" s="38"/>
+      <c r="HX82" s="38"/>
+      <c r="HY82" s="38"/>
+      <c r="HZ82" s="38"/>
+      <c r="IA82" s="38"/>
+      <c r="IB82" s="38"/>
+      <c r="IC82" s="38"/>
+      <c r="ID82" s="38"/>
+      <c r="IE82" s="38"/>
+      <c r="IF82" s="38"/>
+      <c r="IG82" s="38"/>
+      <c r="IH82" s="38"/>
+      <c r="II82" s="38"/>
+      <c r="IJ82" s="38"/>
+      <c r="IK82" s="38"/>
+      <c r="IL82" s="38"/>
+      <c r="IM82" s="38"/>
+      <c r="IN82" s="38"/>
+      <c r="IO82" s="38"/>
+      <c r="IP82" s="38"/>
+      <c r="IQ82" s="38"/>
+      <c r="IR82" s="38"/>
+      <c r="IS82" s="38"/>
+      <c r="IT82" s="38"/>
+      <c r="IU82" s="38"/>
+      <c r="IV82" s="38"/>
+      <c r="IW82" s="38"/>
+      <c r="IX82" s="38"/>
+      <c r="IY82" s="38"/>
+      <c r="IZ82" s="38"/>
+      <c r="JA82" s="38"/>
+      <c r="JB82" s="38"/>
+      <c r="JC82" s="38"/>
+      <c r="JD82" s="38"/>
+      <c r="JE82" s="38"/>
+      <c r="JF82" s="38"/>
+      <c r="JG82" s="38"/>
+      <c r="JH82" s="38"/>
+      <c r="JI82" s="38"/>
+      <c r="JJ82" s="38"/>
+      <c r="JK82" s="38"/>
+      <c r="JL82" s="38"/>
+      <c r="JM82" s="38"/>
+      <c r="JN82" s="38"/>
+      <c r="JO82" s="38"/>
+      <c r="JP82" s="38"/>
+      <c r="JQ82" s="38"/>
+      <c r="JR82" s="38"/>
+      <c r="JS82" s="38"/>
+      <c r="JT82" s="38"/>
+      <c r="JU82" s="38"/>
+      <c r="JV82" s="38"/>
+      <c r="JW82" s="38"/>
+      <c r="JX82" s="38"/>
+      <c r="JY82" s="38"/>
+      <c r="JZ82" s="38"/>
+      <c r="KA82" s="38"/>
+      <c r="KB82" s="38"/>
+      <c r="KC82" s="38"/>
+      <c r="KD82" s="38"/>
+      <c r="KE82" s="38"/>
+      <c r="KF82" s="38"/>
+      <c r="KG82" s="38"/>
+      <c r="KH82" s="38"/>
+      <c r="KI82" s="38"/>
+      <c r="KJ82" s="38"/>
+      <c r="KK82" s="38"/>
+      <c r="KL82" s="38"/>
+      <c r="KM82" s="38"/>
+      <c r="KN82" s="38"/>
+      <c r="KO82" s="38"/>
+      <c r="KP82" s="38"/>
+      <c r="KQ82" s="38"/>
+      <c r="KR82" s="38"/>
+      <c r="KS82" s="38"/>
+      <c r="KT82" s="38"/>
+      <c r="KU82" s="38"/>
+      <c r="KV82" s="38"/>
+      <c r="KW82" s="38"/>
+      <c r="KX82" s="38"/>
+      <c r="KY82" s="38"/>
+      <c r="KZ82" s="38"/>
+      <c r="LA82" s="38"/>
+      <c r="LB82" s="38"/>
+      <c r="LC82" s="38"/>
+      <c r="LD82" s="38"/>
+      <c r="LE82" s="38"/>
+      <c r="LF82" s="38"/>
+      <c r="LG82" s="38"/>
+      <c r="LH82" s="38"/>
+      <c r="LI82" s="38"/>
+      <c r="LJ82" s="38"/>
+      <c r="LK82" s="38"/>
+      <c r="LL82" s="38"/>
+      <c r="LM82" s="38"/>
+      <c r="LN82" s="38"/>
+      <c r="LO82" s="38"/>
+      <c r="LP82" s="38"/>
+      <c r="LQ82" s="38"/>
+      <c r="LR82" s="38"/>
+      <c r="LS82" s="38"/>
+      <c r="LT82" s="38"/>
+      <c r="LU82" s="38"/>
+      <c r="LV82" s="38"/>
+      <c r="LW82" s="38"/>
+      <c r="LX82" s="38"/>
+      <c r="LY82" s="38"/>
+      <c r="LZ82" s="38"/>
+      <c r="MA82" s="38"/>
+      <c r="MB82" s="38"/>
+      <c r="MC82" s="38"/>
+      <c r="MD82" s="38"/>
+      <c r="ME82" s="38"/>
+      <c r="MF82" s="38"/>
+      <c r="MG82" s="38"/>
+      <c r="MH82" s="38"/>
+      <c r="MI82" s="38"/>
+      <c r="MJ82" s="38"/>
+      <c r="MK82" s="38"/>
+      <c r="ML82" s="38"/>
+      <c r="MM82" s="38"/>
+      <c r="MN82" s="38"/>
+      <c r="MO82" s="38"/>
+      <c r="MP82" s="38"/>
+      <c r="MQ82" s="38"/>
+      <c r="MR82" s="38"/>
+      <c r="MS82" s="38"/>
+      <c r="MT82" s="38"/>
+      <c r="MU82" s="38"/>
+      <c r="MV82" s="38"/>
+      <c r="MW82" s="38"/>
+      <c r="MX82" s="38"/>
+      <c r="MY82" s="38"/>
+      <c r="MZ82" s="38"/>
+      <c r="NA82" s="38"/>
+      <c r="NB82" s="38"/>
+      <c r="NC82" s="38"/>
+      <c r="ND82" s="38"/>
+      <c r="NE82" s="38"/>
+      <c r="NF82" s="38"/>
+      <c r="NG82" s="38"/>
+      <c r="NH82" s="38"/>
+      <c r="NI82" s="38"/>
+      <c r="NJ82" s="38"/>
+      <c r="NK82" s="38"/>
+      <c r="NL82" s="38"/>
+      <c r="NM82" s="38"/>
+      <c r="NN82" s="38"/>
+      <c r="NO82" s="38"/>
+      <c r="NP82" s="38"/>
+      <c r="NQ82" s="38"/>
+      <c r="NR82" s="38"/>
+      <c r="NS82" s="38"/>
+      <c r="NT82" s="38"/>
+      <c r="NU82" s="38"/>
+      <c r="NV82" s="38"/>
+      <c r="NW82" s="38"/>
+      <c r="NX82" s="38"/>
+      <c r="NY82" s="38"/>
+      <c r="NZ82" s="38"/>
+      <c r="OA82" s="38"/>
+      <c r="OB82" s="38"/>
+      <c r="OC82" s="38"/>
+      <c r="OD82" s="38"/>
+      <c r="OE82" s="38"/>
+      <c r="OF82" s="38"/>
+      <c r="OG82" s="38"/>
+      <c r="OH82" s="38"/>
+      <c r="OI82" s="38"/>
+      <c r="OJ82" s="38"/>
+      <c r="OK82" s="38"/>
+      <c r="OL82" s="38"/>
+      <c r="OM82" s="38"/>
+      <c r="ON82" s="38"/>
+      <c r="OO82" s="38"/>
+      <c r="OP82" s="38"/>
+      <c r="OQ82" s="38"/>
+      <c r="OR82" s="38"/>
+      <c r="OS82" s="38"/>
+      <c r="OT82" s="38"/>
+      <c r="OU82" s="38"/>
+      <c r="OV82" s="38"/>
+      <c r="OW82" s="38"/>
+      <c r="OX82" s="38"/>
+      <c r="OY82" s="38"/>
+      <c r="OZ82" s="38"/>
+      <c r="PA82" s="38"/>
+      <c r="PB82" s="38"/>
+      <c r="PC82" s="38"/>
+      <c r="PD82" s="38"/>
+      <c r="PE82" s="38"/>
+      <c r="PF82" s="38"/>
+      <c r="PG82" s="38"/>
+      <c r="PH82" s="38"/>
+      <c r="PI82" s="38"/>
+      <c r="PJ82" s="38"/>
+      <c r="PK82" s="38"/>
+      <c r="PL82" s="38"/>
+      <c r="PM82" s="38"/>
+      <c r="PN82" s="38"/>
+      <c r="PO82" s="38"/>
+      <c r="PP82" s="38"/>
+      <c r="PQ82" s="38"/>
+      <c r="PR82" s="38"/>
+      <c r="PS82" s="38"/>
+      <c r="PT82" s="38"/>
+      <c r="PU82" s="38"/>
+      <c r="PV82" s="38"/>
+      <c r="PW82" s="38"/>
+      <c r="PX82" s="38"/>
+      <c r="PY82" s="38"/>
+      <c r="PZ82" s="38"/>
+      <c r="QA82" s="38"/>
+      <c r="QB82" s="38"/>
+      <c r="QC82" s="38"/>
+      <c r="QD82" s="38"/>
+      <c r="QE82" s="38"/>
+      <c r="QF82" s="38"/>
+      <c r="QG82" s="38"/>
+      <c r="QH82" s="38"/>
+      <c r="QI82" s="38"/>
+      <c r="QJ82" s="38"/>
+      <c r="QK82" s="38"/>
+      <c r="QL82" s="38"/>
+      <c r="QM82" s="38"/>
+      <c r="QN82" s="38"/>
+      <c r="QO82" s="38"/>
+      <c r="QP82" s="38"/>
+      <c r="QQ82" s="38"/>
+      <c r="QR82" s="38"/>
+      <c r="QS82" s="38"/>
+      <c r="QT82" s="38"/>
+      <c r="QU82" s="38"/>
+      <c r="QV82" s="38"/>
+      <c r="QW82" s="38"/>
+      <c r="QX82" s="38"/>
+      <c r="QY82" s="38"/>
+      <c r="QZ82" s="38"/>
+      <c r="RA82" s="38"/>
+      <c r="RB82" s="38"/>
+      <c r="RC82" s="38"/>
+      <c r="RD82" s="38"/>
+      <c r="RE82" s="38"/>
+      <c r="RF82" s="38"/>
+      <c r="RG82" s="38"/>
+      <c r="RH82" s="38"/>
+      <c r="RI82" s="38"/>
+      <c r="RJ82" s="38"/>
+      <c r="RK82" s="38"/>
+      <c r="RL82" s="38"/>
+      <c r="RM82" s="38"/>
+      <c r="RN82" s="38"/>
+      <c r="RO82" s="38"/>
+      <c r="RP82" s="38"/>
+      <c r="RQ82" s="38"/>
+      <c r="RR82" s="38"/>
+      <c r="RS82" s="38"/>
+      <c r="RT82" s="38"/>
+      <c r="RU82" s="38"/>
+      <c r="RV82" s="38"/>
+      <c r="RW82" s="38"/>
+      <c r="RX82" s="38"/>
+      <c r="RY82" s="38"/>
+      <c r="RZ82" s="38"/>
+      <c r="SA82" s="38"/>
+      <c r="SB82" s="38"/>
+      <c r="SC82" s="38"/>
+      <c r="SD82" s="38"/>
+      <c r="SE82" s="38"/>
+      <c r="SF82" s="38"/>
+      <c r="SG82" s="38"/>
+      <c r="SH82" s="38"/>
+      <c r="SI82" s="38"/>
+      <c r="SJ82" s="38"/>
+      <c r="SK82" s="38"/>
+      <c r="SL82" s="38"/>
+      <c r="SM82" s="38"/>
+      <c r="SN82" s="38"/>
+      <c r="SO82" s="38"/>
+      <c r="SP82" s="38"/>
+      <c r="SQ82" s="38"/>
+      <c r="SR82" s="38"/>
+      <c r="SS82" s="38"/>
+      <c r="ST82" s="38"/>
+      <c r="SU82" s="38"/>
+      <c r="SV82" s="38"/>
+      <c r="SW82" s="38"/>
+      <c r="SX82" s="38"/>
+      <c r="SY82" s="38"/>
+      <c r="SZ82" s="38"/>
+      <c r="TA82" s="38"/>
+      <c r="TB82" s="38"/>
+      <c r="TC82" s="38"/>
+      <c r="TD82" s="38"/>
+      <c r="TE82" s="38"/>
+      <c r="TF82" s="38"/>
+      <c r="TG82" s="38"/>
+      <c r="TH82" s="38"/>
+      <c r="TI82" s="38"/>
+      <c r="TJ82" s="38"/>
+      <c r="TK82" s="38"/>
+      <c r="TL82" s="38"/>
+      <c r="TM82" s="38"/>
+      <c r="TN82" s="38"/>
+      <c r="TO82" s="38"/>
+      <c r="TP82" s="38"/>
+      <c r="TQ82" s="38"/>
+      <c r="TR82" s="38"/>
+      <c r="TS82" s="38"/>
+      <c r="TT82" s="38"/>
+      <c r="TU82" s="38"/>
+      <c r="TV82" s="38"/>
+      <c r="TW82" s="38"/>
+      <c r="TX82" s="38"/>
+      <c r="TY82" s="38"/>
+      <c r="TZ82" s="38"/>
+      <c r="UA82" s="38"/>
+      <c r="UB82" s="38"/>
+      <c r="UC82" s="38"/>
+      <c r="UD82" s="38"/>
+      <c r="UE82" s="38"/>
+      <c r="UF82" s="38"/>
+      <c r="UG82" s="38"/>
+      <c r="UH82" s="38"/>
+      <c r="UI82" s="38"/>
+      <c r="UJ82" s="38"/>
+      <c r="UK82" s="38"/>
+      <c r="UL82" s="38"/>
+      <c r="UM82" s="38"/>
+      <c r="UN82" s="38"/>
+      <c r="UO82" s="38"/>
+      <c r="UP82" s="38"/>
+      <c r="UQ82" s="38"/>
+      <c r="UR82" s="38"/>
+      <c r="US82" s="38"/>
+      <c r="UT82" s="38"/>
+      <c r="UU82" s="38"/>
+      <c r="UV82" s="38"/>
+      <c r="UW82" s="38"/>
+      <c r="UX82" s="38"/>
+      <c r="UY82" s="38"/>
+      <c r="UZ82" s="38"/>
+      <c r="VA82" s="38"/>
+      <c r="VB82" s="38"/>
+      <c r="VC82" s="38"/>
+      <c r="VD82" s="38"/>
+      <c r="VE82" s="38"/>
+      <c r="VF82" s="38"/>
+      <c r="VG82" s="38"/>
+      <c r="VH82" s="38"/>
+      <c r="VI82" s="38"/>
+      <c r="VJ82" s="38"/>
+      <c r="VK82" s="38"/>
+      <c r="VL82" s="38"/>
+      <c r="VM82" s="38"/>
+      <c r="VN82" s="38"/>
+      <c r="VO82" s="38"/>
+      <c r="VP82" s="38"/>
+      <c r="VQ82" s="38"/>
+      <c r="VR82" s="38"/>
+      <c r="VS82" s="38"/>
+      <c r="VT82" s="38"/>
+      <c r="VU82" s="38"/>
+      <c r="VV82" s="38"/>
+      <c r="VW82" s="38"/>
+      <c r="VX82" s="38"/>
+      <c r="VY82" s="38"/>
+      <c r="VZ82" s="38"/>
+      <c r="WA82" s="38"/>
+      <c r="WB82" s="38"/>
+      <c r="WC82" s="38"/>
+      <c r="WD82" s="38"/>
+      <c r="WE82" s="38"/>
+      <c r="WF82" s="38"/>
+      <c r="WG82" s="38"/>
+      <c r="WH82" s="38"/>
+      <c r="WI82" s="38"/>
+      <c r="WJ82" s="38"/>
+      <c r="WK82" s="38"/>
+      <c r="WL82" s="38"/>
+      <c r="WM82" s="38"/>
+      <c r="WN82" s="38"/>
+      <c r="WO82" s="38"/>
+      <c r="WP82" s="38"/>
+      <c r="WQ82" s="38"/>
+      <c r="WR82" s="38"/>
+      <c r="WS82" s="38"/>
+      <c r="WT82" s="38"/>
+      <c r="WU82" s="38"/>
+      <c r="WV82" s="38"/>
+      <c r="WW82" s="38"/>
+      <c r="WX82" s="38"/>
+      <c r="WY82" s="38"/>
+      <c r="WZ82" s="38"/>
+      <c r="XA82" s="38"/>
+      <c r="XB82" s="38"/>
+      <c r="XC82" s="38"/>
+      <c r="XD82" s="38"/>
+      <c r="XE82" s="38"/>
+      <c r="XF82" s="38"/>
+      <c r="XG82" s="38"/>
+      <c r="XH82" s="38"/>
+      <c r="XI82" s="38"/>
+      <c r="XJ82" s="38"/>
+      <c r="XK82" s="38"/>
+      <c r="XL82" s="38"/>
+      <c r="XM82" s="38"/>
+      <c r="XN82" s="38"/>
+      <c r="XO82" s="38"/>
+      <c r="XP82" s="38"/>
+      <c r="XQ82" s="38"/>
+      <c r="XR82" s="38"/>
+      <c r="XS82" s="38"/>
+      <c r="XT82" s="38"/>
+      <c r="XU82" s="38"/>
+      <c r="XV82" s="38"/>
+      <c r="XW82" s="38"/>
+      <c r="XX82" s="38"/>
+      <c r="XY82" s="38"/>
+      <c r="XZ82" s="38"/>
+      <c r="YA82" s="38"/>
+      <c r="YB82" s="38"/>
+      <c r="YC82" s="38"/>
+      <c r="YD82" s="38"/>
+      <c r="YE82" s="38"/>
+      <c r="YF82" s="38"/>
+      <c r="YG82" s="38"/>
+      <c r="YH82" s="38"/>
+      <c r="YI82" s="38"/>
+      <c r="YJ82" s="38"/>
+      <c r="YK82" s="38"/>
+      <c r="YL82" s="38"/>
+      <c r="YM82" s="38"/>
+      <c r="YN82" s="38"/>
+      <c r="YO82" s="38"/>
+      <c r="YP82" s="38"/>
+      <c r="YQ82" s="38"/>
+      <c r="YR82" s="38"/>
+      <c r="YS82" s="38"/>
+      <c r="YT82" s="38"/>
+      <c r="YU82" s="38"/>
+      <c r="YV82" s="38"/>
+      <c r="YW82" s="38"/>
+      <c r="YX82" s="38"/>
+      <c r="YY82" s="38"/>
+      <c r="YZ82" s="38"/>
+      <c r="ZA82" s="38"/>
+      <c r="ZB82" s="38"/>
+      <c r="ZC82" s="38"/>
+      <c r="ZD82" s="38"/>
+      <c r="ZE82" s="38"/>
+      <c r="ZF82" s="38"/>
+      <c r="ZG82" s="38"/>
+      <c r="ZH82" s="38"/>
+      <c r="ZI82" s="38"/>
+      <c r="ZJ82" s="38"/>
+      <c r="ZK82" s="38"/>
+      <c r="ZL82" s="38"/>
+      <c r="ZM82" s="38"/>
+      <c r="ZN82" s="38"/>
+      <c r="ZO82" s="38"/>
+      <c r="ZP82" s="38"/>
+      <c r="ZQ82" s="38"/>
+      <c r="ZR82" s="38"/>
+      <c r="ZS82" s="38"/>
+      <c r="ZT82" s="38"/>
+      <c r="ZU82" s="38"/>
+      <c r="ZV82" s="38"/>
+      <c r="ZW82" s="38"/>
+      <c r="ZX82" s="38"/>
+      <c r="ZY82" s="38"/>
+      <c r="ZZ82" s="38"/>
+      <c r="AAA82" s="38"/>
+      <c r="AAB82" s="38"/>
+      <c r="AAC82" s="38"/>
+      <c r="AAD82" s="38"/>
+      <c r="AAE82" s="38"/>
+      <c r="AAF82" s="38"/>
+      <c r="AAG82" s="38"/>
+      <c r="AAH82" s="38"/>
+      <c r="AAI82" s="38"/>
+      <c r="AAJ82" s="38"/>
+      <c r="AAK82" s="38"/>
+      <c r="AAL82" s="38"/>
+      <c r="AAM82" s="38"/>
+      <c r="AAN82" s="38"/>
+      <c r="AAO82" s="38"/>
+      <c r="AAP82" s="38"/>
+      <c r="AAQ82" s="38"/>
+      <c r="AAR82" s="38"/>
+      <c r="AAS82" s="38"/>
+      <c r="AAT82" s="38"/>
+      <c r="AAU82" s="38"/>
+      <c r="AAV82" s="38"/>
+      <c r="AAW82" s="38"/>
+      <c r="AAX82" s="38"/>
+      <c r="AAY82" s="38"/>
+      <c r="AAZ82" s="38"/>
+      <c r="ABA82" s="38"/>
+      <c r="ABB82" s="38"/>
+      <c r="ABC82" s="38"/>
+      <c r="ABD82" s="38"/>
+      <c r="ABE82" s="38"/>
+      <c r="ABF82" s="38"/>
+      <c r="ABG82" s="38"/>
+      <c r="ABH82" s="38"/>
+      <c r="ABI82" s="38"/>
+      <c r="ABJ82" s="38"/>
+      <c r="ABK82" s="38"/>
+      <c r="ABL82" s="38"/>
+      <c r="ABM82" s="38"/>
+      <c r="ABN82" s="38"/>
+      <c r="ABO82" s="38"/>
+      <c r="ABP82" s="38"/>
+      <c r="ABQ82" s="38"/>
+      <c r="ABR82" s="38"/>
+      <c r="ABS82" s="38"/>
+      <c r="ABT82" s="38"/>
+      <c r="ABU82" s="38"/>
+      <c r="ABV82" s="38"/>
+      <c r="ABW82" s="38"/>
+      <c r="ABX82" s="38"/>
+      <c r="ABY82" s="38"/>
+      <c r="ABZ82" s="38"/>
+      <c r="ACA82" s="38"/>
+      <c r="ACB82" s="38"/>
+      <c r="ACC82" s="38"/>
+      <c r="ACD82" s="38"/>
+      <c r="ACE82" s="38"/>
+      <c r="ACF82" s="38"/>
+      <c r="ACG82" s="38"/>
+      <c r="ACH82" s="38"/>
+      <c r="ACI82" s="38"/>
+      <c r="ACJ82" s="38"/>
+      <c r="ACK82" s="38"/>
+      <c r="ACL82" s="38"/>
+      <c r="ACM82" s="38"/>
+      <c r="ACN82" s="38"/>
+      <c r="ACO82" s="38"/>
+      <c r="ACP82" s="38"/>
+      <c r="ACQ82" s="38"/>
+      <c r="ACR82" s="38"/>
+      <c r="ACS82" s="38"/>
+      <c r="ACT82" s="38"/>
+      <c r="ACU82" s="38"/>
+      <c r="ACV82" s="38"/>
+      <c r="ACW82" s="38"/>
+      <c r="ACX82" s="38"/>
+      <c r="ACY82" s="38"/>
+      <c r="ACZ82" s="38"/>
+      <c r="ADA82" s="38"/>
+      <c r="ADB82" s="38"/>
+      <c r="ADC82" s="38"/>
+      <c r="ADD82" s="38"/>
+      <c r="ADE82" s="38"/>
+      <c r="ADF82" s="38"/>
+      <c r="ADG82" s="38"/>
+      <c r="ADH82" s="38"/>
+      <c r="ADI82" s="38"/>
+      <c r="ADJ82" s="38"/>
+      <c r="ADK82" s="38"/>
+      <c r="ADL82" s="38"/>
+      <c r="ADM82" s="38"/>
+      <c r="ADN82" s="38"/>
+      <c r="ADO82" s="38"/>
+      <c r="ADP82" s="38"/>
+      <c r="ADQ82" s="38"/>
+      <c r="ADR82" s="38"/>
+      <c r="ADS82" s="38"/>
+      <c r="ADT82" s="38"/>
+      <c r="ADU82" s="38"/>
+      <c r="ADV82" s="38"/>
+      <c r="ADW82" s="38"/>
+      <c r="ADX82" s="38"/>
+      <c r="ADY82" s="38"/>
+      <c r="ADZ82" s="38"/>
+      <c r="AEA82" s="38"/>
+      <c r="AEB82" s="38"/>
+      <c r="AEC82" s="38"/>
+      <c r="AED82" s="38"/>
+      <c r="AEE82" s="38"/>
+      <c r="AEF82" s="38"/>
+      <c r="AEG82" s="38"/>
+      <c r="AEH82" s="38"/>
+      <c r="AEI82" s="38"/>
+      <c r="AEJ82" s="38"/>
+      <c r="AEK82" s="38"/>
+      <c r="AEL82" s="38"/>
+      <c r="AEM82" s="38"/>
+      <c r="AEN82" s="38"/>
+      <c r="AEO82" s="38"/>
+      <c r="AEP82" s="38"/>
+      <c r="AEQ82" s="38"/>
+      <c r="AER82" s="38"/>
+      <c r="AES82" s="38"/>
+      <c r="AET82" s="38"/>
+      <c r="AEU82" s="38"/>
+      <c r="AEV82" s="38"/>
+      <c r="AEW82" s="38"/>
+      <c r="AEX82" s="38"/>
+      <c r="AEY82" s="38"/>
+      <c r="AEZ82" s="38"/>
+      <c r="AFA82" s="38"/>
+      <c r="AFB82" s="38"/>
+      <c r="AFC82" s="38"/>
+      <c r="AFD82" s="38"/>
+      <c r="AFE82" s="38"/>
+      <c r="AFF82" s="38"/>
+      <c r="AFG82" s="38"/>
+      <c r="AFH82" s="38"/>
+      <c r="AFI82" s="38"/>
+      <c r="AFJ82" s="38"/>
+      <c r="AFK82" s="38"/>
+      <c r="AFL82" s="38"/>
+      <c r="AFM82" s="38"/>
+      <c r="AFN82" s="38"/>
+      <c r="AFO82" s="38"/>
+      <c r="AFP82" s="38"/>
+      <c r="AFQ82" s="38"/>
+      <c r="AFR82" s="38"/>
+      <c r="AFS82" s="38"/>
+      <c r="AFT82" s="38"/>
+      <c r="AFU82" s="38"/>
+      <c r="AFV82" s="38"/>
+      <c r="AFW82" s="38"/>
+      <c r="AFX82" s="38"/>
+      <c r="AFY82" s="38"/>
+      <c r="AFZ82" s="38"/>
+      <c r="AGA82" s="38"/>
+      <c r="AGB82" s="38"/>
+      <c r="AGC82" s="38"/>
+      <c r="AGD82" s="38"/>
+      <c r="AGE82" s="38"/>
+      <c r="AGF82" s="38"/>
+      <c r="AGG82" s="38"/>
+      <c r="AGH82" s="38"/>
+      <c r="AGI82" s="38"/>
+      <c r="AGJ82" s="38"/>
+      <c r="AGK82" s="38"/>
+      <c r="AGL82" s="38"/>
+      <c r="AGM82" s="38"/>
+      <c r="AGN82" s="38"/>
+      <c r="AGO82" s="38"/>
+      <c r="AGP82" s="38"/>
+      <c r="AGQ82" s="38"/>
+      <c r="AGR82" s="38"/>
+      <c r="AGS82" s="38"/>
+      <c r="AGT82" s="38"/>
+      <c r="AGU82" s="38"/>
+      <c r="AGV82" s="38"/>
+      <c r="AGW82" s="38"/>
+      <c r="AGX82" s="38"/>
+      <c r="AGY82" s="38"/>
+      <c r="AGZ82" s="38"/>
+      <c r="AHA82" s="38"/>
+      <c r="AHB82" s="38"/>
+      <c r="AHC82" s="38"/>
+      <c r="AHD82" s="38"/>
+      <c r="AHE82" s="38"/>
+      <c r="AHF82" s="38"/>
+      <c r="AHG82" s="38"/>
+      <c r="AHH82" s="38"/>
+      <c r="AHI82" s="38"/>
+      <c r="AHJ82" s="38"/>
+      <c r="AHK82" s="38"/>
+      <c r="AHL82" s="38"/>
+      <c r="AHM82" s="38"/>
+      <c r="AHN82" s="38"/>
+      <c r="AHO82" s="38"/>
+      <c r="AHP82" s="38"/>
+      <c r="AHQ82" s="38"/>
+      <c r="AHR82" s="38"/>
+      <c r="AHS82" s="38"/>
+      <c r="AHT82" s="38"/>
+      <c r="AHU82" s="38"/>
+      <c r="AHV82" s="38"/>
+      <c r="AHW82" s="38"/>
+      <c r="AHX82" s="38"/>
+      <c r="AHY82" s="38"/>
+      <c r="AHZ82" s="38"/>
+      <c r="AIA82" s="38"/>
+      <c r="AIB82" s="38"/>
+      <c r="AIC82" s="38"/>
+      <c r="AID82" s="38"/>
+      <c r="AIE82" s="38"/>
+      <c r="AIF82" s="38"/>
+      <c r="AIG82" s="38"/>
+      <c r="AIH82" s="38"/>
+      <c r="AII82" s="38"/>
+      <c r="AIJ82" s="38"/>
+      <c r="AIK82" s="38"/>
+      <c r="AIL82" s="38"/>
+      <c r="AIM82" s="38"/>
+      <c r="AIN82" s="38"/>
+      <c r="AIO82" s="38"/>
+      <c r="AIP82" s="38"/>
+      <c r="AIQ82" s="38"/>
+      <c r="AIR82" s="38"/>
+      <c r="AIS82" s="38"/>
+      <c r="AIT82" s="38"/>
+      <c r="AIU82" s="38"/>
+      <c r="AIV82" s="38"/>
+      <c r="AIW82" s="38"/>
+      <c r="AIX82" s="38"/>
+      <c r="AIY82" s="38"/>
+      <c r="AIZ82" s="38"/>
+      <c r="AJA82" s="38"/>
+      <c r="AJB82" s="38"/>
+      <c r="AJC82" s="38"/>
+      <c r="AJD82" s="38"/>
+      <c r="AJE82" s="38"/>
+      <c r="AJF82" s="38"/>
+      <c r="AJG82" s="38"/>
+      <c r="AJH82" s="38"/>
+      <c r="AJI82" s="38"/>
+      <c r="AJJ82" s="38"/>
+      <c r="AJK82" s="38"/>
+      <c r="AJL82" s="38"/>
+      <c r="AJM82" s="38"/>
+      <c r="AJN82" s="38"/>
+      <c r="AJO82" s="38"/>
+      <c r="AJP82" s="38"/>
+      <c r="AJQ82" s="38"/>
+      <c r="AJR82" s="38"/>
+      <c r="AJS82" s="38"/>
+      <c r="AJT82" s="38"/>
+      <c r="AJU82" s="38"/>
+      <c r="AJV82" s="38"/>
+      <c r="AJW82" s="38"/>
+      <c r="AJX82" s="38"/>
+      <c r="AJY82" s="38"/>
+      <c r="AJZ82" s="38"/>
+      <c r="AKA82" s="38"/>
+      <c r="AKB82" s="38"/>
+      <c r="AKC82" s="38"/>
+      <c r="AKD82" s="38"/>
+      <c r="AKE82" s="38"/>
+      <c r="AKF82" s="38"/>
+      <c r="AKG82" s="38"/>
+      <c r="AKH82" s="38"/>
+      <c r="AKI82" s="38"/>
+      <c r="AKJ82" s="38"/>
+      <c r="AKK82" s="38"/>
+      <c r="AKL82" s="38"/>
+      <c r="AKM82" s="38"/>
+      <c r="AKN82" s="38"/>
+      <c r="AKO82" s="38"/>
+      <c r="AKP82" s="38"/>
+      <c r="AKQ82" s="38"/>
+      <c r="AKR82" s="38"/>
+      <c r="AKS82" s="38"/>
+      <c r="AKT82" s="38"/>
+      <c r="AKU82" s="38"/>
+      <c r="AKV82" s="38"/>
+      <c r="AKW82" s="38"/>
+      <c r="AKX82" s="38"/>
+      <c r="AKY82" s="38"/>
+      <c r="AKZ82" s="38"/>
+      <c r="ALA82" s="38"/>
+      <c r="ALB82" s="38"/>
+      <c r="ALC82" s="38"/>
+      <c r="ALD82" s="38"/>
+      <c r="ALE82" s="38"/>
+      <c r="ALF82" s="38"/>
+      <c r="ALG82" s="38"/>
+      <c r="ALH82" s="38"/>
+      <c r="ALI82" s="38"/>
+      <c r="ALJ82" s="38"/>
+      <c r="ALK82" s="38"/>
+      <c r="ALL82" s="38"/>
+      <c r="ALM82" s="38"/>
+      <c r="ALN82" s="38"/>
+      <c r="ALO82" s="38"/>
+      <c r="ALP82" s="38"/>
+      <c r="ALQ82" s="38"/>
+      <c r="ALR82" s="38"/>
+      <c r="ALS82" s="38"/>
+      <c r="ALT82" s="38"/>
+      <c r="ALU82" s="38"/>
+      <c r="ALV82" s="38"/>
+      <c r="ALW82" s="38"/>
+      <c r="ALX82" s="38"/>
+      <c r="ALY82" s="38"/>
+      <c r="ALZ82" s="38"/>
+      <c r="AMA82" s="38"/>
+      <c r="AMB82" s="38"/>
+      <c r="AMC82" s="38"/>
+      <c r="AMD82" s="38"/>
+      <c r="AME82" s="38"/>
+      <c r="AMF82" s="38"/>
+      <c r="AMG82" s="38"/>
+      <c r="AMH82" s="38"/>
+      <c r="AMI82" s="38"/>
+      <c r="AMJ82" s="38"/>
+      <c r="AMK82" s="38"/>
+      <c r="AML82" s="38"/>
+      <c r="AMM82" s="38"/>
+      <c r="AMN82" s="38"/>
+      <c r="AMO82" s="38"/>
+      <c r="AMP82" s="38"/>
+      <c r="AMQ82" s="38"/>
+      <c r="AMR82" s="38"/>
+      <c r="AMS82" s="38"/>
+      <c r="AMT82" s="38"/>
+      <c r="AMU82" s="38"/>
+      <c r="AMV82" s="38"/>
+      <c r="AMW82" s="38"/>
+      <c r="AMX82" s="38"/>
+      <c r="AMY82" s="38"/>
+      <c r="AMZ82" s="38"/>
+      <c r="ANA82" s="38"/>
+      <c r="ANB82" s="38"/>
+      <c r="ANC82" s="38"/>
+      <c r="AND82" s="38"/>
+      <c r="ANE82" s="38"/>
+      <c r="ANF82" s="38"/>
+      <c r="ANG82" s="38"/>
+      <c r="ANH82" s="38"/>
+      <c r="ANI82" s="38"/>
+      <c r="ANJ82" s="38"/>
+      <c r="ANK82" s="38"/>
+      <c r="ANL82" s="38"/>
+      <c r="ANM82" s="38"/>
+      <c r="ANN82" s="38"/>
+      <c r="ANO82" s="38"/>
+      <c r="ANP82" s="38"/>
+      <c r="ANQ82" s="38"/>
+      <c r="ANR82" s="38"/>
+      <c r="ANS82" s="38"/>
+      <c r="ANT82" s="38"/>
+      <c r="ANU82" s="38"/>
+      <c r="ANV82" s="38"/>
+      <c r="ANW82" s="38"/>
+      <c r="ANX82" s="38"/>
+      <c r="ANY82" s="38"/>
+      <c r="ANZ82" s="38"/>
+      <c r="AOA82" s="38"/>
+      <c r="AOB82" s="38"/>
+      <c r="AOC82" s="38"/>
+      <c r="AOD82" s="38"/>
+      <c r="AOE82" s="38"/>
+      <c r="AOF82" s="38"/>
+      <c r="AOG82" s="38"/>
+      <c r="AOH82" s="38"/>
+      <c r="AOI82" s="38"/>
+      <c r="AOJ82" s="38"/>
+      <c r="AOK82" s="38"/>
+      <c r="AOL82" s="38"/>
+      <c r="AOM82" s="38"/>
+      <c r="AON82" s="38"/>
+      <c r="AOO82" s="38"/>
+      <c r="AOP82" s="38"/>
+      <c r="AOQ82" s="38"/>
+      <c r="AOR82" s="38"/>
+      <c r="AOS82" s="38"/>
+      <c r="AOT82" s="38"/>
+      <c r="AOU82" s="38"/>
+      <c r="AOV82" s="38"/>
+      <c r="AOW82" s="38"/>
+      <c r="AOX82" s="38"/>
+      <c r="AOY82" s="38"/>
+      <c r="AOZ82" s="38"/>
+      <c r="APA82" s="38"/>
+      <c r="APB82" s="38"/>
+      <c r="APC82" s="38"/>
+      <c r="APD82" s="38"/>
+      <c r="APE82" s="38"/>
+      <c r="APF82" s="38"/>
+      <c r="APG82" s="38"/>
+      <c r="APH82" s="38"/>
+      <c r="API82" s="38"/>
+      <c r="APJ82" s="38"/>
+      <c r="APK82" s="38"/>
+      <c r="APL82" s="38"/>
+      <c r="APM82" s="38"/>
+      <c r="APN82" s="38"/>
+      <c r="APO82" s="38"/>
+      <c r="APP82" s="38"/>
+      <c r="APQ82" s="38"/>
+      <c r="APR82" s="38"/>
+      <c r="APS82" s="38"/>
+      <c r="APT82" s="38"/>
+      <c r="APU82" s="38"/>
+      <c r="APV82" s="38"/>
+      <c r="APW82" s="38"/>
+      <c r="APX82" s="38"/>
+      <c r="APY82" s="38"/>
+      <c r="APZ82" s="38"/>
+      <c r="AQA82" s="38"/>
+      <c r="AQB82" s="38"/>
+      <c r="AQC82" s="38"/>
+      <c r="AQD82" s="38"/>
+      <c r="AQE82" s="38"/>
+      <c r="AQF82" s="38"/>
+      <c r="AQG82" s="38"/>
+      <c r="AQH82" s="38"/>
+      <c r="AQI82" s="38"/>
+      <c r="AQJ82" s="38"/>
+      <c r="AQK82" s="38"/>
+      <c r="AQL82" s="38"/>
+      <c r="AQM82" s="38"/>
+      <c r="AQN82" s="38"/>
+      <c r="AQO82" s="38"/>
+      <c r="AQP82" s="38"/>
+      <c r="AQQ82" s="38"/>
+      <c r="AQR82" s="38"/>
+      <c r="AQS82" s="38"/>
+      <c r="AQT82" s="38"/>
+      <c r="AQU82" s="38"/>
+      <c r="AQV82" s="38"/>
+      <c r="AQW82" s="38"/>
+      <c r="AQX82" s="38"/>
+      <c r="AQY82" s="38"/>
+      <c r="AQZ82" s="38"/>
+      <c r="ARA82" s="38"/>
+      <c r="ARB82" s="38"/>
+      <c r="ARC82" s="38"/>
+      <c r="ARD82" s="38"/>
+      <c r="ARE82" s="38"/>
+      <c r="ARF82" s="38"/>
+      <c r="ARG82" s="38"/>
+      <c r="ARH82" s="38"/>
+      <c r="ARI82" s="38"/>
+      <c r="ARJ82" s="38"/>
+      <c r="ARK82" s="38"/>
+      <c r="ARL82" s="38"/>
+      <c r="ARM82" s="38"/>
+      <c r="ARN82" s="38"/>
+      <c r="ARO82" s="38"/>
+      <c r="ARP82" s="38"/>
+      <c r="ARQ82" s="38"/>
+      <c r="ARR82" s="38"/>
+      <c r="ARS82" s="38"/>
+      <c r="ART82" s="38"/>
+      <c r="ARU82" s="38"/>
+      <c r="ARV82" s="38"/>
+      <c r="ARW82" s="38"/>
+      <c r="ARX82" s="38"/>
+      <c r="ARY82" s="38"/>
+      <c r="ARZ82" s="38"/>
+      <c r="ASA82" s="38"/>
+      <c r="ASB82" s="38"/>
+      <c r="ASC82" s="38"/>
+      <c r="ASD82" s="38"/>
+      <c r="ASE82" s="38"/>
+      <c r="ASF82" s="38"/>
+      <c r="ASG82" s="38"/>
+      <c r="ASH82" s="38"/>
+      <c r="ASI82" s="38"/>
+      <c r="ASJ82" s="38"/>
+      <c r="ASK82" s="38"/>
+      <c r="ASL82" s="38"/>
+      <c r="ASM82" s="38"/>
+      <c r="ASN82" s="38"/>
+      <c r="ASO82" s="38"/>
+      <c r="ASP82" s="38"/>
+      <c r="ASQ82" s="38"/>
+      <c r="ASR82" s="38"/>
+      <c r="ASS82" s="38"/>
+      <c r="AST82" s="38"/>
+      <c r="ASU82" s="38"/>
+      <c r="ASV82" s="38"/>
+      <c r="ASW82" s="38"/>
+      <c r="ASX82" s="38"/>
+      <c r="ASY82" s="38"/>
+      <c r="ASZ82" s="38"/>
+      <c r="ATA82" s="38"/>
+      <c r="ATB82" s="38"/>
+      <c r="ATC82" s="38"/>
+      <c r="ATD82" s="38"/>
+      <c r="ATE82" s="38"/>
+      <c r="ATF82" s="38"/>
+      <c r="ATG82" s="38"/>
+      <c r="ATH82" s="38"/>
+      <c r="ATI82" s="38"/>
+      <c r="ATJ82" s="38"/>
+      <c r="ATK82" s="38"/>
+      <c r="ATL82" s="38"/>
+      <c r="ATM82" s="38"/>
+      <c r="ATN82" s="38"/>
+      <c r="ATO82" s="38"/>
+      <c r="ATP82" s="38"/>
+      <c r="ATQ82" s="38"/>
+      <c r="ATR82" s="38"/>
+      <c r="ATS82" s="38"/>
+      <c r="ATT82" s="38"/>
+      <c r="ATU82" s="38"/>
+      <c r="ATV82" s="38"/>
+      <c r="ATW82" s="38"/>
+      <c r="ATX82" s="38"/>
+      <c r="ATY82" s="38"/>
+      <c r="ATZ82" s="38"/>
+    </row>
+    <row r="83" spans="1:1222">
+      <c r="A83" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+    </row>
+    <row r="85" spans="1:1222">
+      <c r="A85" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="41"/>
+    </row>
+    <row r="86" spans="1:1222">
+      <c r="A86" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="52">
+        <v>3</v>
+      </c>
+      <c r="C86" s="42"/>
+    </row>
+    <row r="87" spans="1:1222" ht="26.4">
+      <c r="A87" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1222">
+      <c r="A88" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1222">
+      <c r="A89" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1222">
+      <c r="A90" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+    </row>
+    <row r="91" spans="1:1222">
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+    </row>
+    <row r="92" spans="1:1222">
+      <c r="A92" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="41"/>
+    </row>
+    <row r="93" spans="1:1222">
+      <c r="A93" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="52">
+        <v>1</v>
+      </c>
+      <c r="C93" s="42"/>
+    </row>
+    <row r="94" spans="1:1222" ht="26.4">
+      <c r="A94" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1222">
+      <c r="A95" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+    </row>
+    <row r="97" spans="1:1222">
+      <c r="A97" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="41"/>
+    </row>
+    <row r="98" spans="1:1222">
+      <c r="A98" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="52">
+        <v>1</v>
+      </c>
+      <c r="C98" s="42"/>
+    </row>
+    <row r="99" spans="1:1222" ht="26.4">
+      <c r="A99" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1222">
+      <c r="A100" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+    </row>
+    <row r="102" spans="1:1222">
+      <c r="A102" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="41"/>
+    </row>
+    <row r="103" spans="1:1222">
+      <c r="A103" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="52">
+        <v>1</v>
+      </c>
+      <c r="C103" s="42"/>
+    </row>
+    <row r="104" spans="1:1222">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+    </row>
+    <row r="105" spans="1:1222">
+      <c r="A105" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+    </row>
+    <row r="107" spans="1:1222">
+      <c r="A107" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="41"/>
+    </row>
+    <row r="108" spans="1:1222">
+      <c r="A108" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="52">
+        <v>4</v>
+      </c>
+      <c r="C108" s="42"/>
+    </row>
+    <row r="109" spans="1:1222" ht="26.4">
+      <c r="A109" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1222" s="37" customFormat="1">
+      <c r="A110" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="38"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
+      <c r="Q110" s="38"/>
+      <c r="R110" s="38"/>
+      <c r="S110" s="38"/>
+      <c r="T110" s="38"/>
+      <c r="U110" s="38"/>
+      <c r="V110" s="38"/>
+      <c r="W110" s="38"/>
+      <c r="X110" s="38"/>
+      <c r="Y110" s="38"/>
+      <c r="Z110" s="38"/>
+      <c r="AA110" s="38"/>
+      <c r="AB110" s="38"/>
+      <c r="AC110" s="38"/>
+      <c r="AD110" s="38"/>
+      <c r="AE110" s="38"/>
+      <c r="AF110" s="38"/>
+      <c r="AG110" s="38"/>
+      <c r="AH110" s="38"/>
+      <c r="AI110" s="38"/>
+      <c r="AJ110" s="38"/>
+      <c r="AK110" s="38"/>
+      <c r="AL110" s="38"/>
+      <c r="AM110" s="38"/>
+      <c r="AN110" s="38"/>
+      <c r="AO110" s="38"/>
+      <c r="AP110" s="38"/>
+      <c r="AQ110" s="38"/>
+      <c r="AR110" s="38"/>
+      <c r="AS110" s="38"/>
+      <c r="AT110" s="38"/>
+      <c r="AU110" s="38"/>
+      <c r="AV110" s="38"/>
+      <c r="AW110" s="38"/>
+      <c r="AX110" s="38"/>
+      <c r="AY110" s="38"/>
+      <c r="AZ110" s="38"/>
+      <c r="BA110" s="38"/>
+      <c r="BB110" s="38"/>
+      <c r="BC110" s="38"/>
+      <c r="BD110" s="38"/>
+      <c r="BE110" s="38"/>
+      <c r="BF110" s="38"/>
+      <c r="BG110" s="38"/>
+      <c r="BH110" s="38"/>
+      <c r="BI110" s="38"/>
+      <c r="BJ110" s="38"/>
+      <c r="BK110" s="38"/>
+      <c r="BL110" s="38"/>
+      <c r="BM110" s="38"/>
+      <c r="BN110" s="38"/>
+      <c r="BO110" s="38"/>
+      <c r="BP110" s="38"/>
+      <c r="BQ110" s="38"/>
+      <c r="BR110" s="38"/>
+      <c r="BS110" s="38"/>
+      <c r="BT110" s="38"/>
+      <c r="BU110" s="38"/>
+      <c r="BV110" s="38"/>
+      <c r="BW110" s="38"/>
+      <c r="BX110" s="38"/>
+      <c r="BY110" s="38"/>
+      <c r="BZ110" s="38"/>
+      <c r="CA110" s="38"/>
+      <c r="CB110" s="38"/>
+      <c r="CC110" s="38"/>
+      <c r="CD110" s="38"/>
+      <c r="CE110" s="38"/>
+      <c r="CF110" s="38"/>
+      <c r="CG110" s="38"/>
+      <c r="CH110" s="38"/>
+      <c r="CI110" s="38"/>
+      <c r="CJ110" s="38"/>
+      <c r="CK110" s="38"/>
+      <c r="CL110" s="38"/>
+      <c r="CM110" s="38"/>
+      <c r="CN110" s="38"/>
+      <c r="CO110" s="38"/>
+      <c r="CP110" s="38"/>
+      <c r="CQ110" s="38"/>
+      <c r="CR110" s="38"/>
+      <c r="CS110" s="38"/>
+      <c r="CT110" s="38"/>
+      <c r="CU110" s="38"/>
+      <c r="CV110" s="38"/>
+      <c r="CW110" s="38"/>
+      <c r="CX110" s="38"/>
+      <c r="CY110" s="38"/>
+      <c r="CZ110" s="38"/>
+      <c r="DA110" s="38"/>
+      <c r="DB110" s="38"/>
+      <c r="DC110" s="38"/>
+      <c r="DD110" s="38"/>
+      <c r="DE110" s="38"/>
+      <c r="DF110" s="38"/>
+      <c r="DG110" s="38"/>
+      <c r="DH110" s="38"/>
+      <c r="DI110" s="38"/>
+      <c r="DJ110" s="38"/>
+      <c r="DK110" s="38"/>
+      <c r="DL110" s="38"/>
+      <c r="DM110" s="38"/>
+      <c r="DN110" s="38"/>
+      <c r="DO110" s="38"/>
+      <c r="DP110" s="38"/>
+      <c r="DQ110" s="38"/>
+      <c r="DR110" s="38"/>
+      <c r="DS110" s="38"/>
+      <c r="DT110" s="38"/>
+      <c r="DU110" s="38"/>
+      <c r="DV110" s="38"/>
+      <c r="DW110" s="38"/>
+      <c r="DX110" s="38"/>
+      <c r="DY110" s="38"/>
+      <c r="DZ110" s="38"/>
+      <c r="EA110" s="38"/>
+      <c r="EB110" s="38"/>
+      <c r="EC110" s="38"/>
+      <c r="ED110" s="38"/>
+      <c r="EE110" s="38"/>
+      <c r="EF110" s="38"/>
+      <c r="EG110" s="38"/>
+      <c r="EH110" s="38"/>
+      <c r="EI110" s="38"/>
+      <c r="EJ110" s="38"/>
+      <c r="EK110" s="38"/>
+      <c r="EL110" s="38"/>
+      <c r="EM110" s="38"/>
+      <c r="EN110" s="38"/>
+      <c r="EO110" s="38"/>
+      <c r="EP110" s="38"/>
+      <c r="EQ110" s="38"/>
+      <c r="ER110" s="38"/>
+      <c r="ES110" s="38"/>
+      <c r="ET110" s="38"/>
+      <c r="EU110" s="38"/>
+      <c r="EV110" s="38"/>
+      <c r="EW110" s="38"/>
+      <c r="EX110" s="38"/>
+      <c r="EY110" s="38"/>
+      <c r="EZ110" s="38"/>
+      <c r="FA110" s="38"/>
+      <c r="FB110" s="38"/>
+      <c r="FC110" s="38"/>
+      <c r="FD110" s="38"/>
+      <c r="FE110" s="38"/>
+      <c r="FF110" s="38"/>
+      <c r="FG110" s="38"/>
+      <c r="FH110" s="38"/>
+      <c r="FI110" s="38"/>
+      <c r="FJ110" s="38"/>
+      <c r="FK110" s="38"/>
+      <c r="FL110" s="38"/>
+      <c r="FM110" s="38"/>
+      <c r="FN110" s="38"/>
+      <c r="FO110" s="38"/>
+      <c r="FP110" s="38"/>
+      <c r="FQ110" s="38"/>
+      <c r="FR110" s="38"/>
+      <c r="FS110" s="38"/>
+      <c r="FT110" s="38"/>
+      <c r="FU110" s="38"/>
+      <c r="FV110" s="38"/>
+      <c r="FW110" s="38"/>
+      <c r="FX110" s="38"/>
+      <c r="FY110" s="38"/>
+      <c r="FZ110" s="38"/>
+      <c r="GA110" s="38"/>
+      <c r="GB110" s="38"/>
+      <c r="GC110" s="38"/>
+      <c r="GD110" s="38"/>
+      <c r="GE110" s="38"/>
+      <c r="GF110" s="38"/>
+      <c r="GG110" s="38"/>
+      <c r="GH110" s="38"/>
+      <c r="GI110" s="38"/>
+      <c r="GJ110" s="38"/>
+      <c r="GK110" s="38"/>
+      <c r="GL110" s="38"/>
+      <c r="GM110" s="38"/>
+      <c r="GN110" s="38"/>
+      <c r="GO110" s="38"/>
+      <c r="GP110" s="38"/>
+      <c r="GQ110" s="38"/>
+      <c r="GR110" s="38"/>
+      <c r="GS110" s="38"/>
+      <c r="GT110" s="38"/>
+      <c r="GU110" s="38"/>
+      <c r="GV110" s="38"/>
+      <c r="GW110" s="38"/>
+      <c r="GX110" s="38"/>
+      <c r="GY110" s="38"/>
+      <c r="GZ110" s="38"/>
+      <c r="HA110" s="38"/>
+      <c r="HB110" s="38"/>
+      <c r="HC110" s="38"/>
+      <c r="HD110" s="38"/>
+      <c r="HE110" s="38"/>
+      <c r="HF110" s="38"/>
+      <c r="HG110" s="38"/>
+      <c r="HH110" s="38"/>
+      <c r="HI110" s="38"/>
+      <c r="HJ110" s="38"/>
+      <c r="HK110" s="38"/>
+      <c r="HL110" s="38"/>
+      <c r="HM110" s="38"/>
+      <c r="HN110" s="38"/>
+      <c r="HO110" s="38"/>
+      <c r="HP110" s="38"/>
+      <c r="HQ110" s="38"/>
+      <c r="HR110" s="38"/>
+      <c r="HS110" s="38"/>
+      <c r="HT110" s="38"/>
+      <c r="HU110" s="38"/>
+      <c r="HV110" s="38"/>
+      <c r="HW110" s="38"/>
+      <c r="HX110" s="38"/>
+      <c r="HY110" s="38"/>
+      <c r="HZ110" s="38"/>
+      <c r="IA110" s="38"/>
+      <c r="IB110" s="38"/>
+      <c r="IC110" s="38"/>
+      <c r="ID110" s="38"/>
+      <c r="IE110" s="38"/>
+      <c r="IF110" s="38"/>
+      <c r="IG110" s="38"/>
+      <c r="IH110" s="38"/>
+      <c r="II110" s="38"/>
+      <c r="IJ110" s="38"/>
+      <c r="IK110" s="38"/>
+      <c r="IL110" s="38"/>
+      <c r="IM110" s="38"/>
+      <c r="IN110" s="38"/>
+      <c r="IO110" s="38"/>
+      <c r="IP110" s="38"/>
+      <c r="IQ110" s="38"/>
+      <c r="IR110" s="38"/>
+      <c r="IS110" s="38"/>
+      <c r="IT110" s="38"/>
+      <c r="IU110" s="38"/>
+      <c r="IV110" s="38"/>
+      <c r="IW110" s="38"/>
+      <c r="IX110" s="38"/>
+      <c r="IY110" s="38"/>
+      <c r="IZ110" s="38"/>
+      <c r="JA110" s="38"/>
+      <c r="JB110" s="38"/>
+      <c r="JC110" s="38"/>
+      <c r="JD110" s="38"/>
+      <c r="JE110" s="38"/>
+      <c r="JF110" s="38"/>
+      <c r="JG110" s="38"/>
+      <c r="JH110" s="38"/>
+      <c r="JI110" s="38"/>
+      <c r="JJ110" s="38"/>
+      <c r="JK110" s="38"/>
+      <c r="JL110" s="38"/>
+      <c r="JM110" s="38"/>
+      <c r="JN110" s="38"/>
+      <c r="JO110" s="38"/>
+      <c r="JP110" s="38"/>
+      <c r="JQ110" s="38"/>
+      <c r="JR110" s="38"/>
+      <c r="JS110" s="38"/>
+      <c r="JT110" s="38"/>
+      <c r="JU110" s="38"/>
+      <c r="JV110" s="38"/>
+      <c r="JW110" s="38"/>
+      <c r="JX110" s="38"/>
+      <c r="JY110" s="38"/>
+      <c r="JZ110" s="38"/>
+      <c r="KA110" s="38"/>
+      <c r="KB110" s="38"/>
+      <c r="KC110" s="38"/>
+      <c r="KD110" s="38"/>
+      <c r="KE110" s="38"/>
+      <c r="KF110" s="38"/>
+      <c r="KG110" s="38"/>
+      <c r="KH110" s="38"/>
+      <c r="KI110" s="38"/>
+      <c r="KJ110" s="38"/>
+      <c r="KK110" s="38"/>
+      <c r="KL110" s="38"/>
+      <c r="KM110" s="38"/>
+      <c r="KN110" s="38"/>
+      <c r="KO110" s="38"/>
+      <c r="KP110" s="38"/>
+      <c r="KQ110" s="38"/>
+      <c r="KR110" s="38"/>
+      <c r="KS110" s="38"/>
+      <c r="KT110" s="38"/>
+      <c r="KU110" s="38"/>
+      <c r="KV110" s="38"/>
+      <c r="KW110" s="38"/>
+      <c r="KX110" s="38"/>
+      <c r="KY110" s="38"/>
+      <c r="KZ110" s="38"/>
+      <c r="LA110" s="38"/>
+      <c r="LB110" s="38"/>
+      <c r="LC110" s="38"/>
+      <c r="LD110" s="38"/>
+      <c r="LE110" s="38"/>
+      <c r="LF110" s="38"/>
+      <c r="LG110" s="38"/>
+      <c r="LH110" s="38"/>
+      <c r="LI110" s="38"/>
+      <c r="LJ110" s="38"/>
+      <c r="LK110" s="38"/>
+      <c r="LL110" s="38"/>
+      <c r="LM110" s="38"/>
+      <c r="LN110" s="38"/>
+      <c r="LO110" s="38"/>
+      <c r="LP110" s="38"/>
+      <c r="LQ110" s="38"/>
+      <c r="LR110" s="38"/>
+      <c r="LS110" s="38"/>
+      <c r="LT110" s="38"/>
+      <c r="LU110" s="38"/>
+      <c r="LV110" s="38"/>
+      <c r="LW110" s="38"/>
+      <c r="LX110" s="38"/>
+      <c r="LY110" s="38"/>
+      <c r="LZ110" s="38"/>
+      <c r="MA110" s="38"/>
+      <c r="MB110" s="38"/>
+      <c r="MC110" s="38"/>
+      <c r="MD110" s="38"/>
+      <c r="ME110" s="38"/>
+      <c r="MF110" s="38"/>
+      <c r="MG110" s="38"/>
+      <c r="MH110" s="38"/>
+      <c r="MI110" s="38"/>
+      <c r="MJ110" s="38"/>
+      <c r="MK110" s="38"/>
+      <c r="ML110" s="38"/>
+      <c r="MM110" s="38"/>
+      <c r="MN110" s="38"/>
+      <c r="MO110" s="38"/>
+      <c r="MP110" s="38"/>
+      <c r="MQ110" s="38"/>
+      <c r="MR110" s="38"/>
+      <c r="MS110" s="38"/>
+      <c r="MT110" s="38"/>
+      <c r="MU110" s="38"/>
+      <c r="MV110" s="38"/>
+      <c r="MW110" s="38"/>
+      <c r="MX110" s="38"/>
+      <c r="MY110" s="38"/>
+      <c r="MZ110" s="38"/>
+      <c r="NA110" s="38"/>
+      <c r="NB110" s="38"/>
+      <c r="NC110" s="38"/>
+      <c r="ND110" s="38"/>
+      <c r="NE110" s="38"/>
+      <c r="NF110" s="38"/>
+      <c r="NG110" s="38"/>
+      <c r="NH110" s="38"/>
+      <c r="NI110" s="38"/>
+      <c r="NJ110" s="38"/>
+      <c r="NK110" s="38"/>
+      <c r="NL110" s="38"/>
+      <c r="NM110" s="38"/>
+      <c r="NN110" s="38"/>
+      <c r="NO110" s="38"/>
+      <c r="NP110" s="38"/>
+      <c r="NQ110" s="38"/>
+      <c r="NR110" s="38"/>
+      <c r="NS110" s="38"/>
+      <c r="NT110" s="38"/>
+      <c r="NU110" s="38"/>
+      <c r="NV110" s="38"/>
+      <c r="NW110" s="38"/>
+      <c r="NX110" s="38"/>
+      <c r="NY110" s="38"/>
+      <c r="NZ110" s="38"/>
+      <c r="OA110" s="38"/>
+      <c r="OB110" s="38"/>
+      <c r="OC110" s="38"/>
+      <c r="OD110" s="38"/>
+      <c r="OE110" s="38"/>
+      <c r="OF110" s="38"/>
+      <c r="OG110" s="38"/>
+      <c r="OH110" s="38"/>
+      <c r="OI110" s="38"/>
+      <c r="OJ110" s="38"/>
+      <c r="OK110" s="38"/>
+      <c r="OL110" s="38"/>
+      <c r="OM110" s="38"/>
+      <c r="ON110" s="38"/>
+      <c r="OO110" s="38"/>
+      <c r="OP110" s="38"/>
+      <c r="OQ110" s="38"/>
+      <c r="OR110" s="38"/>
+      <c r="OS110" s="38"/>
+      <c r="OT110" s="38"/>
+      <c r="OU110" s="38"/>
+      <c r="OV110" s="38"/>
+      <c r="OW110" s="38"/>
+      <c r="OX110" s="38"/>
+      <c r="OY110" s="38"/>
+      <c r="OZ110" s="38"/>
+      <c r="PA110" s="38"/>
+      <c r="PB110" s="38"/>
+      <c r="PC110" s="38"/>
+      <c r="PD110" s="38"/>
+      <c r="PE110" s="38"/>
+      <c r="PF110" s="38"/>
+      <c r="PG110" s="38"/>
+      <c r="PH110" s="38"/>
+      <c r="PI110" s="38"/>
+      <c r="PJ110" s="38"/>
+      <c r="PK110" s="38"/>
+      <c r="PL110" s="38"/>
+      <c r="PM110" s="38"/>
+      <c r="PN110" s="38"/>
+      <c r="PO110" s="38"/>
+      <c r="PP110" s="38"/>
+      <c r="PQ110" s="38"/>
+      <c r="PR110" s="38"/>
+      <c r="PS110" s="38"/>
+      <c r="PT110" s="38"/>
+      <c r="PU110" s="38"/>
+      <c r="PV110" s="38"/>
+      <c r="PW110" s="38"/>
+      <c r="PX110" s="38"/>
+      <c r="PY110" s="38"/>
+      <c r="PZ110" s="38"/>
+      <c r="QA110" s="38"/>
+      <c r="QB110" s="38"/>
+      <c r="QC110" s="38"/>
+      <c r="QD110" s="38"/>
+      <c r="QE110" s="38"/>
+      <c r="QF110" s="38"/>
+      <c r="QG110" s="38"/>
+      <c r="QH110" s="38"/>
+      <c r="QI110" s="38"/>
+      <c r="QJ110" s="38"/>
+      <c r="QK110" s="38"/>
+      <c r="QL110" s="38"/>
+      <c r="QM110" s="38"/>
+      <c r="QN110" s="38"/>
+      <c r="QO110" s="38"/>
+      <c r="QP110" s="38"/>
+      <c r="QQ110" s="38"/>
+      <c r="QR110" s="38"/>
+      <c r="QS110" s="38"/>
+      <c r="QT110" s="38"/>
+      <c r="QU110" s="38"/>
+      <c r="QV110" s="38"/>
+      <c r="QW110" s="38"/>
+      <c r="QX110" s="38"/>
+      <c r="QY110" s="38"/>
+      <c r="QZ110" s="38"/>
+      <c r="RA110" s="38"/>
+      <c r="RB110" s="38"/>
+      <c r="RC110" s="38"/>
+      <c r="RD110" s="38"/>
+      <c r="RE110" s="38"/>
+      <c r="RF110" s="38"/>
+      <c r="RG110" s="38"/>
+      <c r="RH110" s="38"/>
+      <c r="RI110" s="38"/>
+      <c r="RJ110" s="38"/>
+      <c r="RK110" s="38"/>
+      <c r="RL110" s="38"/>
+      <c r="RM110" s="38"/>
+      <c r="RN110" s="38"/>
+      <c r="RO110" s="38"/>
+      <c r="RP110" s="38"/>
+      <c r="RQ110" s="38"/>
+      <c r="RR110" s="38"/>
+      <c r="RS110" s="38"/>
+      <c r="RT110" s="38"/>
+      <c r="RU110" s="38"/>
+      <c r="RV110" s="38"/>
+      <c r="RW110" s="38"/>
+      <c r="RX110" s="38"/>
+      <c r="RY110" s="38"/>
+      <c r="RZ110" s="38"/>
+      <c r="SA110" s="38"/>
+      <c r="SB110" s="38"/>
+      <c r="SC110" s="38"/>
+      <c r="SD110" s="38"/>
+      <c r="SE110" s="38"/>
+      <c r="SF110" s="38"/>
+      <c r="SG110" s="38"/>
+      <c r="SH110" s="38"/>
+      <c r="SI110" s="38"/>
+      <c r="SJ110" s="38"/>
+      <c r="SK110" s="38"/>
+      <c r="SL110" s="38"/>
+      <c r="SM110" s="38"/>
+      <c r="SN110" s="38"/>
+      <c r="SO110" s="38"/>
+      <c r="SP110" s="38"/>
+      <c r="SQ110" s="38"/>
+      <c r="SR110" s="38"/>
+      <c r="SS110" s="38"/>
+      <c r="ST110" s="38"/>
+      <c r="SU110" s="38"/>
+      <c r="SV110" s="38"/>
+      <c r="SW110" s="38"/>
+      <c r="SX110" s="38"/>
+      <c r="SY110" s="38"/>
+      <c r="SZ110" s="38"/>
+      <c r="TA110" s="38"/>
+      <c r="TB110" s="38"/>
+      <c r="TC110" s="38"/>
+      <c r="TD110" s="38"/>
+      <c r="TE110" s="38"/>
+      <c r="TF110" s="38"/>
+      <c r="TG110" s="38"/>
+      <c r="TH110" s="38"/>
+      <c r="TI110" s="38"/>
+      <c r="TJ110" s="38"/>
+      <c r="TK110" s="38"/>
+      <c r="TL110" s="38"/>
+      <c r="TM110" s="38"/>
+      <c r="TN110" s="38"/>
+      <c r="TO110" s="38"/>
+      <c r="TP110" s="38"/>
+      <c r="TQ110" s="38"/>
+      <c r="TR110" s="38"/>
+      <c r="TS110" s="38"/>
+      <c r="TT110" s="38"/>
+      <c r="TU110" s="38"/>
+      <c r="TV110" s="38"/>
+      <c r="TW110" s="38"/>
+      <c r="TX110" s="38"/>
+      <c r="TY110" s="38"/>
+      <c r="TZ110" s="38"/>
+      <c r="UA110" s="38"/>
+      <c r="UB110" s="38"/>
+      <c r="UC110" s="38"/>
+      <c r="UD110" s="38"/>
+      <c r="UE110" s="38"/>
+      <c r="UF110" s="38"/>
+      <c r="UG110" s="38"/>
+      <c r="UH110" s="38"/>
+      <c r="UI110" s="38"/>
+      <c r="UJ110" s="38"/>
+      <c r="UK110" s="38"/>
+      <c r="UL110" s="38"/>
+      <c r="UM110" s="38"/>
+      <c r="UN110" s="38"/>
+      <c r="UO110" s="38"/>
+      <c r="UP110" s="38"/>
+      <c r="UQ110" s="38"/>
+      <c r="UR110" s="38"/>
+      <c r="US110" s="38"/>
+      <c r="UT110" s="38"/>
+      <c r="UU110" s="38"/>
+      <c r="UV110" s="38"/>
+      <c r="UW110" s="38"/>
+      <c r="UX110" s="38"/>
+      <c r="UY110" s="38"/>
+      <c r="UZ110" s="38"/>
+      <c r="VA110" s="38"/>
+      <c r="VB110" s="38"/>
+      <c r="VC110" s="38"/>
+      <c r="VD110" s="38"/>
+      <c r="VE110" s="38"/>
+      <c r="VF110" s="38"/>
+      <c r="VG110" s="38"/>
+      <c r="VH110" s="38"/>
+      <c r="VI110" s="38"/>
+      <c r="VJ110" s="38"/>
+      <c r="VK110" s="38"/>
+      <c r="VL110" s="38"/>
+      <c r="VM110" s="38"/>
+      <c r="VN110" s="38"/>
+      <c r="VO110" s="38"/>
+      <c r="VP110" s="38"/>
+      <c r="VQ110" s="38"/>
+      <c r="VR110" s="38"/>
+      <c r="VS110" s="38"/>
+      <c r="VT110" s="38"/>
+      <c r="VU110" s="38"/>
+      <c r="VV110" s="38"/>
+      <c r="VW110" s="38"/>
+      <c r="VX110" s="38"/>
+      <c r="VY110" s="38"/>
+      <c r="VZ110" s="38"/>
+      <c r="WA110" s="38"/>
+      <c r="WB110" s="38"/>
+      <c r="WC110" s="38"/>
+      <c r="WD110" s="38"/>
+      <c r="WE110" s="38"/>
+      <c r="WF110" s="38"/>
+      <c r="WG110" s="38"/>
+      <c r="WH110" s="38"/>
+      <c r="WI110" s="38"/>
+      <c r="WJ110" s="38"/>
+      <c r="WK110" s="38"/>
+      <c r="WL110" s="38"/>
+      <c r="WM110" s="38"/>
+      <c r="WN110" s="38"/>
+      <c r="WO110" s="38"/>
+      <c r="WP110" s="38"/>
+      <c r="WQ110" s="38"/>
+      <c r="WR110" s="38"/>
+      <c r="WS110" s="38"/>
+      <c r="WT110" s="38"/>
+      <c r="WU110" s="38"/>
+      <c r="WV110" s="38"/>
+      <c r="WW110" s="38"/>
+      <c r="WX110" s="38"/>
+      <c r="WY110" s="38"/>
+      <c r="WZ110" s="38"/>
+      <c r="XA110" s="38"/>
+      <c r="XB110" s="38"/>
+      <c r="XC110" s="38"/>
+      <c r="XD110" s="38"/>
+      <c r="XE110" s="38"/>
+      <c r="XF110" s="38"/>
+      <c r="XG110" s="38"/>
+      <c r="XH110" s="38"/>
+      <c r="XI110" s="38"/>
+      <c r="XJ110" s="38"/>
+      <c r="XK110" s="38"/>
+      <c r="XL110" s="38"/>
+      <c r="XM110" s="38"/>
+      <c r="XN110" s="38"/>
+      <c r="XO110" s="38"/>
+      <c r="XP110" s="38"/>
+      <c r="XQ110" s="38"/>
+      <c r="XR110" s="38"/>
+      <c r="XS110" s="38"/>
+      <c r="XT110" s="38"/>
+      <c r="XU110" s="38"/>
+      <c r="XV110" s="38"/>
+      <c r="XW110" s="38"/>
+      <c r="XX110" s="38"/>
+      <c r="XY110" s="38"/>
+      <c r="XZ110" s="38"/>
+      <c r="YA110" s="38"/>
+      <c r="YB110" s="38"/>
+      <c r="YC110" s="38"/>
+      <c r="YD110" s="38"/>
+      <c r="YE110" s="38"/>
+      <c r="YF110" s="38"/>
+      <c r="YG110" s="38"/>
+      <c r="YH110" s="38"/>
+      <c r="YI110" s="38"/>
+      <c r="YJ110" s="38"/>
+      <c r="YK110" s="38"/>
+      <c r="YL110" s="38"/>
+      <c r="YM110" s="38"/>
+      <c r="YN110" s="38"/>
+      <c r="YO110" s="38"/>
+      <c r="YP110" s="38"/>
+      <c r="YQ110" s="38"/>
+      <c r="YR110" s="38"/>
+      <c r="YS110" s="38"/>
+      <c r="YT110" s="38"/>
+      <c r="YU110" s="38"/>
+      <c r="YV110" s="38"/>
+      <c r="YW110" s="38"/>
+      <c r="YX110" s="38"/>
+      <c r="YY110" s="38"/>
+      <c r="YZ110" s="38"/>
+      <c r="ZA110" s="38"/>
+      <c r="ZB110" s="38"/>
+      <c r="ZC110" s="38"/>
+      <c r="ZD110" s="38"/>
+      <c r="ZE110" s="38"/>
+      <c r="ZF110" s="38"/>
+      <c r="ZG110" s="38"/>
+      <c r="ZH110" s="38"/>
+      <c r="ZI110" s="38"/>
+      <c r="ZJ110" s="38"/>
+      <c r="ZK110" s="38"/>
+      <c r="ZL110" s="38"/>
+      <c r="ZM110" s="38"/>
+      <c r="ZN110" s="38"/>
+      <c r="ZO110" s="38"/>
+      <c r="ZP110" s="38"/>
+      <c r="ZQ110" s="38"/>
+      <c r="ZR110" s="38"/>
+      <c r="ZS110" s="38"/>
+      <c r="ZT110" s="38"/>
+      <c r="ZU110" s="38"/>
+      <c r="ZV110" s="38"/>
+      <c r="ZW110" s="38"/>
+      <c r="ZX110" s="38"/>
+      <c r="ZY110" s="38"/>
+      <c r="ZZ110" s="38"/>
+      <c r="AAA110" s="38"/>
+      <c r="AAB110" s="38"/>
+      <c r="AAC110" s="38"/>
+      <c r="AAD110" s="38"/>
+      <c r="AAE110" s="38"/>
+      <c r="AAF110" s="38"/>
+      <c r="AAG110" s="38"/>
+      <c r="AAH110" s="38"/>
+      <c r="AAI110" s="38"/>
+      <c r="AAJ110" s="38"/>
+      <c r="AAK110" s="38"/>
+      <c r="AAL110" s="38"/>
+      <c r="AAM110" s="38"/>
+      <c r="AAN110" s="38"/>
+      <c r="AAO110" s="38"/>
+      <c r="AAP110" s="38"/>
+      <c r="AAQ110" s="38"/>
+      <c r="AAR110" s="38"/>
+      <c r="AAS110" s="38"/>
+      <c r="AAT110" s="38"/>
+      <c r="AAU110" s="38"/>
+      <c r="AAV110" s="38"/>
+      <c r="AAW110" s="38"/>
+      <c r="AAX110" s="38"/>
+      <c r="AAY110" s="38"/>
+      <c r="AAZ110" s="38"/>
+      <c r="ABA110" s="38"/>
+      <c r="ABB110" s="38"/>
+      <c r="ABC110" s="38"/>
+      <c r="ABD110" s="38"/>
+      <c r="ABE110" s="38"/>
+      <c r="ABF110" s="38"/>
+      <c r="ABG110" s="38"/>
+      <c r="ABH110" s="38"/>
+      <c r="ABI110" s="38"/>
+      <c r="ABJ110" s="38"/>
+      <c r="ABK110" s="38"/>
+      <c r="ABL110" s="38"/>
+      <c r="ABM110" s="38"/>
+      <c r="ABN110" s="38"/>
+      <c r="ABO110" s="38"/>
+      <c r="ABP110" s="38"/>
+      <c r="ABQ110" s="38"/>
+      <c r="ABR110" s="38"/>
+      <c r="ABS110" s="38"/>
+      <c r="ABT110" s="38"/>
+      <c r="ABU110" s="38"/>
+      <c r="ABV110" s="38"/>
+      <c r="ABW110" s="38"/>
+      <c r="ABX110" s="38"/>
+      <c r="ABY110" s="38"/>
+      <c r="ABZ110" s="38"/>
+      <c r="ACA110" s="38"/>
+      <c r="ACB110" s="38"/>
+      <c r="ACC110" s="38"/>
+      <c r="ACD110" s="38"/>
+      <c r="ACE110" s="38"/>
+      <c r="ACF110" s="38"/>
+      <c r="ACG110" s="38"/>
+      <c r="ACH110" s="38"/>
+      <c r="ACI110" s="38"/>
+      <c r="ACJ110" s="38"/>
+      <c r="ACK110" s="38"/>
+      <c r="ACL110" s="38"/>
+      <c r="ACM110" s="38"/>
+      <c r="ACN110" s="38"/>
+      <c r="ACO110" s="38"/>
+      <c r="ACP110" s="38"/>
+      <c r="ACQ110" s="38"/>
+      <c r="ACR110" s="38"/>
+      <c r="ACS110" s="38"/>
+      <c r="ACT110" s="38"/>
+      <c r="ACU110" s="38"/>
+      <c r="ACV110" s="38"/>
+      <c r="ACW110" s="38"/>
+      <c r="ACX110" s="38"/>
+      <c r="ACY110" s="38"/>
+      <c r="ACZ110" s="38"/>
+      <c r="ADA110" s="38"/>
+      <c r="ADB110" s="38"/>
+      <c r="ADC110" s="38"/>
+      <c r="ADD110" s="38"/>
+      <c r="ADE110" s="38"/>
+      <c r="ADF110" s="38"/>
+      <c r="ADG110" s="38"/>
+      <c r="ADH110" s="38"/>
+      <c r="ADI110" s="38"/>
+      <c r="ADJ110" s="38"/>
+      <c r="ADK110" s="38"/>
+      <c r="ADL110" s="38"/>
+      <c r="ADM110" s="38"/>
+      <c r="ADN110" s="38"/>
+      <c r="ADO110" s="38"/>
+      <c r="ADP110" s="38"/>
+      <c r="ADQ110" s="38"/>
+      <c r="ADR110" s="38"/>
+      <c r="ADS110" s="38"/>
+      <c r="ADT110" s="38"/>
+      <c r="ADU110" s="38"/>
+      <c r="ADV110" s="38"/>
+      <c r="ADW110" s="38"/>
+      <c r="ADX110" s="38"/>
+      <c r="ADY110" s="38"/>
+      <c r="ADZ110" s="38"/>
+      <c r="AEA110" s="38"/>
+      <c r="AEB110" s="38"/>
+      <c r="AEC110" s="38"/>
+      <c r="AED110" s="38"/>
+      <c r="AEE110" s="38"/>
+      <c r="AEF110" s="38"/>
+      <c r="AEG110" s="38"/>
+      <c r="AEH110" s="38"/>
+      <c r="AEI110" s="38"/>
+      <c r="AEJ110" s="38"/>
+      <c r="AEK110" s="38"/>
+      <c r="AEL110" s="38"/>
+      <c r="AEM110" s="38"/>
+      <c r="AEN110" s="38"/>
+      <c r="AEO110" s="38"/>
+      <c r="AEP110" s="38"/>
+      <c r="AEQ110" s="38"/>
+      <c r="AER110" s="38"/>
+      <c r="AES110" s="38"/>
+      <c r="AET110" s="38"/>
+      <c r="AEU110" s="38"/>
+      <c r="AEV110" s="38"/>
+      <c r="AEW110" s="38"/>
+      <c r="AEX110" s="38"/>
+      <c r="AEY110" s="38"/>
+      <c r="AEZ110" s="38"/>
+      <c r="AFA110" s="38"/>
+      <c r="AFB110" s="38"/>
+      <c r="AFC110" s="38"/>
+      <c r="AFD110" s="38"/>
+      <c r="AFE110" s="38"/>
+      <c r="AFF110" s="38"/>
+      <c r="AFG110" s="38"/>
+      <c r="AFH110" s="38"/>
+      <c r="AFI110" s="38"/>
+      <c r="AFJ110" s="38"/>
+      <c r="AFK110" s="38"/>
+      <c r="AFL110" s="38"/>
+      <c r="AFM110" s="38"/>
+      <c r="AFN110" s="38"/>
+      <c r="AFO110" s="38"/>
+      <c r="AFP110" s="38"/>
+      <c r="AFQ110" s="38"/>
+      <c r="AFR110" s="38"/>
+      <c r="AFS110" s="38"/>
+      <c r="AFT110" s="38"/>
+      <c r="AFU110" s="38"/>
+      <c r="AFV110" s="38"/>
+      <c r="AFW110" s="38"/>
+      <c r="AFX110" s="38"/>
+      <c r="AFY110" s="38"/>
+      <c r="AFZ110" s="38"/>
+      <c r="AGA110" s="38"/>
+      <c r="AGB110" s="38"/>
+      <c r="AGC110" s="38"/>
+      <c r="AGD110" s="38"/>
+      <c r="AGE110" s="38"/>
+      <c r="AGF110" s="38"/>
+      <c r="AGG110" s="38"/>
+      <c r="AGH110" s="38"/>
+      <c r="AGI110" s="38"/>
+      <c r="AGJ110" s="38"/>
+      <c r="AGK110" s="38"/>
+      <c r="AGL110" s="38"/>
+      <c r="AGM110" s="38"/>
+      <c r="AGN110" s="38"/>
+      <c r="AGO110" s="38"/>
+      <c r="AGP110" s="38"/>
+      <c r="AGQ110" s="38"/>
+      <c r="AGR110" s="38"/>
+      <c r="AGS110" s="38"/>
+      <c r="AGT110" s="38"/>
+      <c r="AGU110" s="38"/>
+      <c r="AGV110" s="38"/>
+      <c r="AGW110" s="38"/>
+      <c r="AGX110" s="38"/>
+      <c r="AGY110" s="38"/>
+      <c r="AGZ110" s="38"/>
+      <c r="AHA110" s="38"/>
+      <c r="AHB110" s="38"/>
+      <c r="AHC110" s="38"/>
+      <c r="AHD110" s="38"/>
+      <c r="AHE110" s="38"/>
+      <c r="AHF110" s="38"/>
+      <c r="AHG110" s="38"/>
+      <c r="AHH110" s="38"/>
+      <c r="AHI110" s="38"/>
+      <c r="AHJ110" s="38"/>
+      <c r="AHK110" s="38"/>
+      <c r="AHL110" s="38"/>
+      <c r="AHM110" s="38"/>
+      <c r="AHN110" s="38"/>
+      <c r="AHO110" s="38"/>
+      <c r="AHP110" s="38"/>
+      <c r="AHQ110" s="38"/>
+      <c r="AHR110" s="38"/>
+      <c r="AHS110" s="38"/>
+      <c r="AHT110" s="38"/>
+      <c r="AHU110" s="38"/>
+      <c r="AHV110" s="38"/>
+      <c r="AHW110" s="38"/>
+      <c r="AHX110" s="38"/>
+      <c r="AHY110" s="38"/>
+      <c r="AHZ110" s="38"/>
+      <c r="AIA110" s="38"/>
+      <c r="AIB110" s="38"/>
+      <c r="AIC110" s="38"/>
+      <c r="AID110" s="38"/>
+      <c r="AIE110" s="38"/>
+      <c r="AIF110" s="38"/>
+      <c r="AIG110" s="38"/>
+      <c r="AIH110" s="38"/>
+      <c r="AII110" s="38"/>
+      <c r="AIJ110" s="38"/>
+      <c r="AIK110" s="38"/>
+      <c r="AIL110" s="38"/>
+      <c r="AIM110" s="38"/>
+      <c r="AIN110" s="38"/>
+      <c r="AIO110" s="38"/>
+      <c r="AIP110" s="38"/>
+      <c r="AIQ110" s="38"/>
+      <c r="AIR110" s="38"/>
+      <c r="AIS110" s="38"/>
+      <c r="AIT110" s="38"/>
+      <c r="AIU110" s="38"/>
+      <c r="AIV110" s="38"/>
+      <c r="AIW110" s="38"/>
+      <c r="AIX110" s="38"/>
+      <c r="AIY110" s="38"/>
+      <c r="AIZ110" s="38"/>
+      <c r="AJA110" s="38"/>
+      <c r="AJB110" s="38"/>
+      <c r="AJC110" s="38"/>
+      <c r="AJD110" s="38"/>
+      <c r="AJE110" s="38"/>
+      <c r="AJF110" s="38"/>
+      <c r="AJG110" s="38"/>
+      <c r="AJH110" s="38"/>
+      <c r="AJI110" s="38"/>
+      <c r="AJJ110" s="38"/>
+      <c r="AJK110" s="38"/>
+      <c r="AJL110" s="38"/>
+      <c r="AJM110" s="38"/>
+      <c r="AJN110" s="38"/>
+      <c r="AJO110" s="38"/>
+      <c r="AJP110" s="38"/>
+      <c r="AJQ110" s="38"/>
+      <c r="AJR110" s="38"/>
+      <c r="AJS110" s="38"/>
+      <c r="AJT110" s="38"/>
+      <c r="AJU110" s="38"/>
+      <c r="AJV110" s="38"/>
+      <c r="AJW110" s="38"/>
+      <c r="AJX110" s="38"/>
+      <c r="AJY110" s="38"/>
+      <c r="AJZ110" s="38"/>
+      <c r="AKA110" s="38"/>
+      <c r="AKB110" s="38"/>
+      <c r="AKC110" s="38"/>
+      <c r="AKD110" s="38"/>
+      <c r="AKE110" s="38"/>
+      <c r="AKF110" s="38"/>
+      <c r="AKG110" s="38"/>
+      <c r="AKH110" s="38"/>
+      <c r="AKI110" s="38"/>
+      <c r="AKJ110" s="38"/>
+      <c r="AKK110" s="38"/>
+      <c r="AKL110" s="38"/>
+      <c r="AKM110" s="38"/>
+      <c r="AKN110" s="38"/>
+      <c r="AKO110" s="38"/>
+      <c r="AKP110" s="38"/>
+      <c r="AKQ110" s="38"/>
+      <c r="AKR110" s="38"/>
+      <c r="AKS110" s="38"/>
+      <c r="AKT110" s="38"/>
+      <c r="AKU110" s="38"/>
+      <c r="AKV110" s="38"/>
+      <c r="AKW110" s="38"/>
+      <c r="AKX110" s="38"/>
+      <c r="AKY110" s="38"/>
+      <c r="AKZ110" s="38"/>
+      <c r="ALA110" s="38"/>
+      <c r="ALB110" s="38"/>
+      <c r="ALC110" s="38"/>
+      <c r="ALD110" s="38"/>
+      <c r="ALE110" s="38"/>
+      <c r="ALF110" s="38"/>
+      <c r="ALG110" s="38"/>
+      <c r="ALH110" s="38"/>
+      <c r="ALI110" s="38"/>
+      <c r="ALJ110" s="38"/>
+      <c r="ALK110" s="38"/>
+      <c r="ALL110" s="38"/>
+      <c r="ALM110" s="38"/>
+      <c r="ALN110" s="38"/>
+      <c r="ALO110" s="38"/>
+      <c r="ALP110" s="38"/>
+      <c r="ALQ110" s="38"/>
+      <c r="ALR110" s="38"/>
+      <c r="ALS110" s="38"/>
+      <c r="ALT110" s="38"/>
+      <c r="ALU110" s="38"/>
+      <c r="ALV110" s="38"/>
+      <c r="ALW110" s="38"/>
+      <c r="ALX110" s="38"/>
+      <c r="ALY110" s="38"/>
+      <c r="ALZ110" s="38"/>
+      <c r="AMA110" s="38"/>
+      <c r="AMB110" s="38"/>
+      <c r="AMC110" s="38"/>
+      <c r="AMD110" s="38"/>
+      <c r="AME110" s="38"/>
+      <c r="AMF110" s="38"/>
+      <c r="AMG110" s="38"/>
+      <c r="AMH110" s="38"/>
+      <c r="AMI110" s="38"/>
+      <c r="AMJ110" s="38"/>
+      <c r="AMK110" s="38"/>
+      <c r="AML110" s="38"/>
+      <c r="AMM110" s="38"/>
+      <c r="AMN110" s="38"/>
+      <c r="AMO110" s="38"/>
+      <c r="AMP110" s="38"/>
+      <c r="AMQ110" s="38"/>
+      <c r="AMR110" s="38"/>
+      <c r="AMS110" s="38"/>
+      <c r="AMT110" s="38"/>
+      <c r="AMU110" s="38"/>
+      <c r="AMV110" s="38"/>
+      <c r="AMW110" s="38"/>
+      <c r="AMX110" s="38"/>
+      <c r="AMY110" s="38"/>
+      <c r="AMZ110" s="38"/>
+      <c r="ANA110" s="38"/>
+      <c r="ANB110" s="38"/>
+      <c r="ANC110" s="38"/>
+      <c r="AND110" s="38"/>
+      <c r="ANE110" s="38"/>
+      <c r="ANF110" s="38"/>
+      <c r="ANG110" s="38"/>
+      <c r="ANH110" s="38"/>
+      <c r="ANI110" s="38"/>
+      <c r="ANJ110" s="38"/>
+      <c r="ANK110" s="38"/>
+      <c r="ANL110" s="38"/>
+      <c r="ANM110" s="38"/>
+      <c r="ANN110" s="38"/>
+      <c r="ANO110" s="38"/>
+      <c r="ANP110" s="38"/>
+      <c r="ANQ110" s="38"/>
+      <c r="ANR110" s="38"/>
+      <c r="ANS110" s="38"/>
+      <c r="ANT110" s="38"/>
+      <c r="ANU110" s="38"/>
+      <c r="ANV110" s="38"/>
+      <c r="ANW110" s="38"/>
+      <c r="ANX110" s="38"/>
+      <c r="ANY110" s="38"/>
+      <c r="ANZ110" s="38"/>
+      <c r="AOA110" s="38"/>
+      <c r="AOB110" s="38"/>
+      <c r="AOC110" s="38"/>
+      <c r="AOD110" s="38"/>
+      <c r="AOE110" s="38"/>
+      <c r="AOF110" s="38"/>
+      <c r="AOG110" s="38"/>
+      <c r="AOH110" s="38"/>
+      <c r="AOI110" s="38"/>
+      <c r="AOJ110" s="38"/>
+      <c r="AOK110" s="38"/>
+      <c r="AOL110" s="38"/>
+      <c r="AOM110" s="38"/>
+      <c r="AON110" s="38"/>
+      <c r="AOO110" s="38"/>
+      <c r="AOP110" s="38"/>
+      <c r="AOQ110" s="38"/>
+      <c r="AOR110" s="38"/>
+      <c r="AOS110" s="38"/>
+      <c r="AOT110" s="38"/>
+      <c r="AOU110" s="38"/>
+      <c r="AOV110" s="38"/>
+      <c r="AOW110" s="38"/>
+      <c r="AOX110" s="38"/>
+      <c r="AOY110" s="38"/>
+      <c r="AOZ110" s="38"/>
+      <c r="APA110" s="38"/>
+      <c r="APB110" s="38"/>
+      <c r="APC110" s="38"/>
+      <c r="APD110" s="38"/>
+      <c r="APE110" s="38"/>
+      <c r="APF110" s="38"/>
+      <c r="APG110" s="38"/>
+      <c r="APH110" s="38"/>
+      <c r="API110" s="38"/>
+      <c r="APJ110" s="38"/>
+      <c r="APK110" s="38"/>
+      <c r="APL110" s="38"/>
+      <c r="APM110" s="38"/>
+      <c r="APN110" s="38"/>
+      <c r="APO110" s="38"/>
+      <c r="APP110" s="38"/>
+      <c r="APQ110" s="38"/>
+      <c r="APR110" s="38"/>
+      <c r="APS110" s="38"/>
+      <c r="APT110" s="38"/>
+      <c r="APU110" s="38"/>
+      <c r="APV110" s="38"/>
+      <c r="APW110" s="38"/>
+      <c r="APX110" s="38"/>
+      <c r="APY110" s="38"/>
+      <c r="APZ110" s="38"/>
+      <c r="AQA110" s="38"/>
+      <c r="AQB110" s="38"/>
+      <c r="AQC110" s="38"/>
+      <c r="AQD110" s="38"/>
+      <c r="AQE110" s="38"/>
+      <c r="AQF110" s="38"/>
+      <c r="AQG110" s="38"/>
+      <c r="AQH110" s="38"/>
+      <c r="AQI110" s="38"/>
+      <c r="AQJ110" s="38"/>
+      <c r="AQK110" s="38"/>
+      <c r="AQL110" s="38"/>
+      <c r="AQM110" s="38"/>
+      <c r="AQN110" s="38"/>
+      <c r="AQO110" s="38"/>
+      <c r="AQP110" s="38"/>
+      <c r="AQQ110" s="38"/>
+      <c r="AQR110" s="38"/>
+      <c r="AQS110" s="38"/>
+      <c r="AQT110" s="38"/>
+      <c r="AQU110" s="38"/>
+      <c r="AQV110" s="38"/>
+      <c r="AQW110" s="38"/>
+      <c r="AQX110" s="38"/>
+      <c r="AQY110" s="38"/>
+      <c r="AQZ110" s="38"/>
+      <c r="ARA110" s="38"/>
+      <c r="ARB110" s="38"/>
+      <c r="ARC110" s="38"/>
+      <c r="ARD110" s="38"/>
+      <c r="ARE110" s="38"/>
+      <c r="ARF110" s="38"/>
+      <c r="ARG110" s="38"/>
+      <c r="ARH110" s="38"/>
+      <c r="ARI110" s="38"/>
+      <c r="ARJ110" s="38"/>
+      <c r="ARK110" s="38"/>
+      <c r="ARL110" s="38"/>
+      <c r="ARM110" s="38"/>
+      <c r="ARN110" s="38"/>
+      <c r="ARO110" s="38"/>
+      <c r="ARP110" s="38"/>
+      <c r="ARQ110" s="38"/>
+      <c r="ARR110" s="38"/>
+      <c r="ARS110" s="38"/>
+      <c r="ART110" s="38"/>
+      <c r="ARU110" s="38"/>
+      <c r="ARV110" s="38"/>
+      <c r="ARW110" s="38"/>
+      <c r="ARX110" s="38"/>
+      <c r="ARY110" s="38"/>
+      <c r="ARZ110" s="38"/>
+      <c r="ASA110" s="38"/>
+      <c r="ASB110" s="38"/>
+      <c r="ASC110" s="38"/>
+      <c r="ASD110" s="38"/>
+      <c r="ASE110" s="38"/>
+      <c r="ASF110" s="38"/>
+      <c r="ASG110" s="38"/>
+      <c r="ASH110" s="38"/>
+      <c r="ASI110" s="38"/>
+      <c r="ASJ110" s="38"/>
+      <c r="ASK110" s="38"/>
+      <c r="ASL110" s="38"/>
+      <c r="ASM110" s="38"/>
+      <c r="ASN110" s="38"/>
+      <c r="ASO110" s="38"/>
+      <c r="ASP110" s="38"/>
+      <c r="ASQ110" s="38"/>
+      <c r="ASR110" s="38"/>
+      <c r="ASS110" s="38"/>
+      <c r="AST110" s="38"/>
+      <c r="ASU110" s="38"/>
+      <c r="ASV110" s="38"/>
+      <c r="ASW110" s="38"/>
+      <c r="ASX110" s="38"/>
+      <c r="ASY110" s="38"/>
+      <c r="ASZ110" s="38"/>
+      <c r="ATA110" s="38"/>
+      <c r="ATB110" s="38"/>
+      <c r="ATC110" s="38"/>
+      <c r="ATD110" s="38"/>
+      <c r="ATE110" s="38"/>
+      <c r="ATF110" s="38"/>
+      <c r="ATG110" s="38"/>
+      <c r="ATH110" s="38"/>
+      <c r="ATI110" s="38"/>
+      <c r="ATJ110" s="38"/>
+      <c r="ATK110" s="38"/>
+      <c r="ATL110" s="38"/>
+      <c r="ATM110" s="38"/>
+      <c r="ATN110" s="38"/>
+      <c r="ATO110" s="38"/>
+      <c r="ATP110" s="38"/>
+      <c r="ATQ110" s="38"/>
+      <c r="ATR110" s="38"/>
+      <c r="ATS110" s="38"/>
+      <c r="ATT110" s="38"/>
+      <c r="ATU110" s="38"/>
+      <c r="ATV110" s="38"/>
+      <c r="ATW110" s="38"/>
+      <c r="ATX110" s="38"/>
+      <c r="ATY110" s="38"/>
+      <c r="ATZ110" s="38"/>
+    </row>
+    <row r="111" spans="1:1222" s="37" customFormat="1">
+      <c r="A111" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="38"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="38"/>
+      <c r="O111" s="38"/>
+      <c r="P111" s="38"/>
+      <c r="Q111" s="38"/>
+      <c r="R111" s="38"/>
+      <c r="S111" s="38"/>
+      <c r="T111" s="38"/>
+      <c r="U111" s="38"/>
+      <c r="V111" s="38"/>
+      <c r="W111" s="38"/>
+      <c r="X111" s="38"/>
+      <c r="Y111" s="38"/>
+      <c r="Z111" s="38"/>
+      <c r="AA111" s="38"/>
+      <c r="AB111" s="38"/>
+      <c r="AC111" s="38"/>
+      <c r="AD111" s="38"/>
+      <c r="AE111" s="38"/>
+      <c r="AF111" s="38"/>
+      <c r="AG111" s="38"/>
+      <c r="AH111" s="38"/>
+      <c r="AI111" s="38"/>
+      <c r="AJ111" s="38"/>
+      <c r="AK111" s="38"/>
+      <c r="AL111" s="38"/>
+      <c r="AM111" s="38"/>
+      <c r="AN111" s="38"/>
+      <c r="AO111" s="38"/>
+      <c r="AP111" s="38"/>
+      <c r="AQ111" s="38"/>
+      <c r="AR111" s="38"/>
+      <c r="AS111" s="38"/>
+      <c r="AT111" s="38"/>
+      <c r="AU111" s="38"/>
+      <c r="AV111" s="38"/>
+      <c r="AW111" s="38"/>
+      <c r="AX111" s="38"/>
+      <c r="AY111" s="38"/>
+      <c r="AZ111" s="38"/>
+      <c r="BA111" s="38"/>
+      <c r="BB111" s="38"/>
+      <c r="BC111" s="38"/>
+      <c r="BD111" s="38"/>
+      <c r="BE111" s="38"/>
+      <c r="BF111" s="38"/>
+      <c r="BG111" s="38"/>
+      <c r="BH111" s="38"/>
+      <c r="BI111" s="38"/>
+      <c r="BJ111" s="38"/>
+      <c r="BK111" s="38"/>
+      <c r="BL111" s="38"/>
+      <c r="BM111" s="38"/>
+      <c r="BN111" s="38"/>
+      <c r="BO111" s="38"/>
+      <c r="BP111" s="38"/>
+      <c r="BQ111" s="38"/>
+      <c r="BR111" s="38"/>
+      <c r="BS111" s="38"/>
+      <c r="BT111" s="38"/>
+      <c r="BU111" s="38"/>
+      <c r="BV111" s="38"/>
+      <c r="BW111" s="38"/>
+      <c r="BX111" s="38"/>
+      <c r="BY111" s="38"/>
+      <c r="BZ111" s="38"/>
+      <c r="CA111" s="38"/>
+      <c r="CB111" s="38"/>
+      <c r="CC111" s="38"/>
+      <c r="CD111" s="38"/>
+      <c r="CE111" s="38"/>
+      <c r="CF111" s="38"/>
+      <c r="CG111" s="38"/>
+      <c r="CH111" s="38"/>
+      <c r="CI111" s="38"/>
+      <c r="CJ111" s="38"/>
+      <c r="CK111" s="38"/>
+      <c r="CL111" s="38"/>
+      <c r="CM111" s="38"/>
+      <c r="CN111" s="38"/>
+      <c r="CO111" s="38"/>
+      <c r="CP111" s="38"/>
+      <c r="CQ111" s="38"/>
+      <c r="CR111" s="38"/>
+      <c r="CS111" s="38"/>
+      <c r="CT111" s="38"/>
+      <c r="CU111" s="38"/>
+      <c r="CV111" s="38"/>
+      <c r="CW111" s="38"/>
+      <c r="CX111" s="38"/>
+      <c r="CY111" s="38"/>
+      <c r="CZ111" s="38"/>
+      <c r="DA111" s="38"/>
+      <c r="DB111" s="38"/>
+      <c r="DC111" s="38"/>
+      <c r="DD111" s="38"/>
+      <c r="DE111" s="38"/>
+      <c r="DF111" s="38"/>
+      <c r="DG111" s="38"/>
+      <c r="DH111" s="38"/>
+      <c r="DI111" s="38"/>
+      <c r="DJ111" s="38"/>
+      <c r="DK111" s="38"/>
+      <c r="DL111" s="38"/>
+      <c r="DM111" s="38"/>
+      <c r="DN111" s="38"/>
+      <c r="DO111" s="38"/>
+      <c r="DP111" s="38"/>
+      <c r="DQ111" s="38"/>
+      <c r="DR111" s="38"/>
+      <c r="DS111" s="38"/>
+      <c r="DT111" s="38"/>
+      <c r="DU111" s="38"/>
+      <c r="DV111" s="38"/>
+      <c r="DW111" s="38"/>
+      <c r="DX111" s="38"/>
+      <c r="DY111" s="38"/>
+      <c r="DZ111" s="38"/>
+      <c r="EA111" s="38"/>
+      <c r="EB111" s="38"/>
+      <c r="EC111" s="38"/>
+      <c r="ED111" s="38"/>
+      <c r="EE111" s="38"/>
+      <c r="EF111" s="38"/>
+      <c r="EG111" s="38"/>
+      <c r="EH111" s="38"/>
+      <c r="EI111" s="38"/>
+      <c r="EJ111" s="38"/>
+      <c r="EK111" s="38"/>
+      <c r="EL111" s="38"/>
+      <c r="EM111" s="38"/>
+      <c r="EN111" s="38"/>
+      <c r="EO111" s="38"/>
+      <c r="EP111" s="38"/>
+      <c r="EQ111" s="38"/>
+      <c r="ER111" s="38"/>
+      <c r="ES111" s="38"/>
+      <c r="ET111" s="38"/>
+      <c r="EU111" s="38"/>
+      <c r="EV111" s="38"/>
+      <c r="EW111" s="38"/>
+      <c r="EX111" s="38"/>
+      <c r="EY111" s="38"/>
+      <c r="EZ111" s="38"/>
+      <c r="FA111" s="38"/>
+      <c r="FB111" s="38"/>
+      <c r="FC111" s="38"/>
+      <c r="FD111" s="38"/>
+      <c r="FE111" s="38"/>
+      <c r="FF111" s="38"/>
+      <c r="FG111" s="38"/>
+      <c r="FH111" s="38"/>
+      <c r="FI111" s="38"/>
+      <c r="FJ111" s="38"/>
+      <c r="FK111" s="38"/>
+      <c r="FL111" s="38"/>
+      <c r="FM111" s="38"/>
+      <c r="FN111" s="38"/>
+      <c r="FO111" s="38"/>
+      <c r="FP111" s="38"/>
+      <c r="FQ111" s="38"/>
+      <c r="FR111" s="38"/>
+      <c r="FS111" s="38"/>
+      <c r="FT111" s="38"/>
+      <c r="FU111" s="38"/>
+      <c r="FV111" s="38"/>
+      <c r="FW111" s="38"/>
+      <c r="FX111" s="38"/>
+      <c r="FY111" s="38"/>
+      <c r="FZ111" s="38"/>
+      <c r="GA111" s="38"/>
+      <c r="GB111" s="38"/>
+      <c r="GC111" s="38"/>
+      <c r="GD111" s="38"/>
+      <c r="GE111" s="38"/>
+      <c r="GF111" s="38"/>
+      <c r="GG111" s="38"/>
+      <c r="GH111" s="38"/>
+      <c r="GI111" s="38"/>
+      <c r="GJ111" s="38"/>
+      <c r="GK111" s="38"/>
+      <c r="GL111" s="38"/>
+      <c r="GM111" s="38"/>
+      <c r="GN111" s="38"/>
+      <c r="GO111" s="38"/>
+      <c r="GP111" s="38"/>
+      <c r="GQ111" s="38"/>
+      <c r="GR111" s="38"/>
+      <c r="GS111" s="38"/>
+      <c r="GT111" s="38"/>
+      <c r="GU111" s="38"/>
+      <c r="GV111" s="38"/>
+      <c r="GW111" s="38"/>
+      <c r="GX111" s="38"/>
+      <c r="GY111" s="38"/>
+      <c r="GZ111" s="38"/>
+      <c r="HA111" s="38"/>
+      <c r="HB111" s="38"/>
+      <c r="HC111" s="38"/>
+      <c r="HD111" s="38"/>
+      <c r="HE111" s="38"/>
+      <c r="HF111" s="38"/>
+      <c r="HG111" s="38"/>
+      <c r="HH111" s="38"/>
+      <c r="HI111" s="38"/>
+      <c r="HJ111" s="38"/>
+      <c r="HK111" s="38"/>
+      <c r="HL111" s="38"/>
+      <c r="HM111" s="38"/>
+      <c r="HN111" s="38"/>
+      <c r="HO111" s="38"/>
+      <c r="HP111" s="38"/>
+      <c r="HQ111" s="38"/>
+      <c r="HR111" s="38"/>
+      <c r="HS111" s="38"/>
+      <c r="HT111" s="38"/>
+      <c r="HU111" s="38"/>
+      <c r="HV111" s="38"/>
+      <c r="HW111" s="38"/>
+      <c r="HX111" s="38"/>
+      <c r="HY111" s="38"/>
+      <c r="HZ111" s="38"/>
+      <c r="IA111" s="38"/>
+      <c r="IB111" s="38"/>
+      <c r="IC111" s="38"/>
+      <c r="ID111" s="38"/>
+      <c r="IE111" s="38"/>
+      <c r="IF111" s="38"/>
+      <c r="IG111" s="38"/>
+      <c r="IH111" s="38"/>
+      <c r="II111" s="38"/>
+      <c r="IJ111" s="38"/>
+      <c r="IK111" s="38"/>
+      <c r="IL111" s="38"/>
+      <c r="IM111" s="38"/>
+      <c r="IN111" s="38"/>
+      <c r="IO111" s="38"/>
+      <c r="IP111" s="38"/>
+      <c r="IQ111" s="38"/>
+      <c r="IR111" s="38"/>
+      <c r="IS111" s="38"/>
+      <c r="IT111" s="38"/>
+      <c r="IU111" s="38"/>
+      <c r="IV111" s="38"/>
+      <c r="IW111" s="38"/>
+      <c r="IX111" s="38"/>
+      <c r="IY111" s="38"/>
+      <c r="IZ111" s="38"/>
+      <c r="JA111" s="38"/>
+      <c r="JB111" s="38"/>
+      <c r="JC111" s="38"/>
+      <c r="JD111" s="38"/>
+      <c r="JE111" s="38"/>
+      <c r="JF111" s="38"/>
+      <c r="JG111" s="38"/>
+      <c r="JH111" s="38"/>
+      <c r="JI111" s="38"/>
+      <c r="JJ111" s="38"/>
+      <c r="JK111" s="38"/>
+      <c r="JL111" s="38"/>
+      <c r="JM111" s="38"/>
+      <c r="JN111" s="38"/>
+      <c r="JO111" s="38"/>
+      <c r="JP111" s="38"/>
+      <c r="JQ111" s="38"/>
+      <c r="JR111" s="38"/>
+      <c r="JS111" s="38"/>
+      <c r="JT111" s="38"/>
+      <c r="JU111" s="38"/>
+      <c r="JV111" s="38"/>
+      <c r="JW111" s="38"/>
+      <c r="JX111" s="38"/>
+      <c r="JY111" s="38"/>
+      <c r="JZ111" s="38"/>
+      <c r="KA111" s="38"/>
+      <c r="KB111" s="38"/>
+      <c r="KC111" s="38"/>
+      <c r="KD111" s="38"/>
+      <c r="KE111" s="38"/>
+      <c r="KF111" s="38"/>
+      <c r="KG111" s="38"/>
+      <c r="KH111" s="38"/>
+      <c r="KI111" s="38"/>
+      <c r="KJ111" s="38"/>
+      <c r="KK111" s="38"/>
+      <c r="KL111" s="38"/>
+      <c r="KM111" s="38"/>
+      <c r="KN111" s="38"/>
+      <c r="KO111" s="38"/>
+      <c r="KP111" s="38"/>
+      <c r="KQ111" s="38"/>
+      <c r="KR111" s="38"/>
+      <c r="KS111" s="38"/>
+      <c r="KT111" s="38"/>
+      <c r="KU111" s="38"/>
+      <c r="KV111" s="38"/>
+      <c r="KW111" s="38"/>
+      <c r="KX111" s="38"/>
+      <c r="KY111" s="38"/>
+      <c r="KZ111" s="38"/>
+      <c r="LA111" s="38"/>
+      <c r="LB111" s="38"/>
+      <c r="LC111" s="38"/>
+      <c r="LD111" s="38"/>
+      <c r="LE111" s="38"/>
+      <c r="LF111" s="38"/>
+      <c r="LG111" s="38"/>
+      <c r="LH111" s="38"/>
+      <c r="LI111" s="38"/>
+      <c r="LJ111" s="38"/>
+      <c r="LK111" s="38"/>
+      <c r="LL111" s="38"/>
+      <c r="LM111" s="38"/>
+      <c r="LN111" s="38"/>
+      <c r="LO111" s="38"/>
+      <c r="LP111" s="38"/>
+      <c r="LQ111" s="38"/>
+      <c r="LR111" s="38"/>
+      <c r="LS111" s="38"/>
+      <c r="LT111" s="38"/>
+      <c r="LU111" s="38"/>
+      <c r="LV111" s="38"/>
+      <c r="LW111" s="38"/>
+      <c r="LX111" s="38"/>
+      <c r="LY111" s="38"/>
+      <c r="LZ111" s="38"/>
+      <c r="MA111" s="38"/>
+      <c r="MB111" s="38"/>
+      <c r="MC111" s="38"/>
+      <c r="MD111" s="38"/>
+      <c r="ME111" s="38"/>
+      <c r="MF111" s="38"/>
+      <c r="MG111" s="38"/>
+      <c r="MH111" s="38"/>
+      <c r="MI111" s="38"/>
+      <c r="MJ111" s="38"/>
+      <c r="MK111" s="38"/>
+      <c r="ML111" s="38"/>
+      <c r="MM111" s="38"/>
+      <c r="MN111" s="38"/>
+      <c r="MO111" s="38"/>
+      <c r="MP111" s="38"/>
+      <c r="MQ111" s="38"/>
+      <c r="MR111" s="38"/>
+      <c r="MS111" s="38"/>
+      <c r="MT111" s="38"/>
+      <c r="MU111" s="38"/>
+      <c r="MV111" s="38"/>
+      <c r="MW111" s="38"/>
+      <c r="MX111" s="38"/>
+      <c r="MY111" s="38"/>
+      <c r="MZ111" s="38"/>
+      <c r="NA111" s="38"/>
+      <c r="NB111" s="38"/>
+      <c r="NC111" s="38"/>
+      <c r="ND111" s="38"/>
+      <c r="NE111" s="38"/>
+      <c r="NF111" s="38"/>
+      <c r="NG111" s="38"/>
+      <c r="NH111" s="38"/>
+      <c r="NI111" s="38"/>
+      <c r="NJ111" s="38"/>
+      <c r="NK111" s="38"/>
+      <c r="NL111" s="38"/>
+      <c r="NM111" s="38"/>
+      <c r="NN111" s="38"/>
+      <c r="NO111" s="38"/>
+      <c r="NP111" s="38"/>
+      <c r="NQ111" s="38"/>
+      <c r="NR111" s="38"/>
+      <c r="NS111" s="38"/>
+      <c r="NT111" s="38"/>
+      <c r="NU111" s="38"/>
+      <c r="NV111" s="38"/>
+      <c r="NW111" s="38"/>
+      <c r="NX111" s="38"/>
+      <c r="NY111" s="38"/>
+      <c r="NZ111" s="38"/>
+      <c r="OA111" s="38"/>
+      <c r="OB111" s="38"/>
+      <c r="OC111" s="38"/>
+      <c r="OD111" s="38"/>
+      <c r="OE111" s="38"/>
+      <c r="OF111" s="38"/>
+      <c r="OG111" s="38"/>
+      <c r="OH111" s="38"/>
+      <c r="OI111" s="38"/>
+      <c r="OJ111" s="38"/>
+      <c r="OK111" s="38"/>
+      <c r="OL111" s="38"/>
+      <c r="OM111" s="38"/>
+      <c r="ON111" s="38"/>
+      <c r="OO111" s="38"/>
+      <c r="OP111" s="38"/>
+      <c r="OQ111" s="38"/>
+      <c r="OR111" s="38"/>
+      <c r="OS111" s="38"/>
+      <c r="OT111" s="38"/>
+      <c r="OU111" s="38"/>
+      <c r="OV111" s="38"/>
+      <c r="OW111" s="38"/>
+      <c r="OX111" s="38"/>
+      <c r="OY111" s="38"/>
+      <c r="OZ111" s="38"/>
+      <c r="PA111" s="38"/>
+      <c r="PB111" s="38"/>
+      <c r="PC111" s="38"/>
+      <c r="PD111" s="38"/>
+      <c r="PE111" s="38"/>
+      <c r="PF111" s="38"/>
+      <c r="PG111" s="38"/>
+      <c r="PH111" s="38"/>
+      <c r="PI111" s="38"/>
+      <c r="PJ111" s="38"/>
+      <c r="PK111" s="38"/>
+      <c r="PL111" s="38"/>
+      <c r="PM111" s="38"/>
+      <c r="PN111" s="38"/>
+      <c r="PO111" s="38"/>
+      <c r="PP111" s="38"/>
+      <c r="PQ111" s="38"/>
+      <c r="PR111" s="38"/>
+      <c r="PS111" s="38"/>
+      <c r="PT111" s="38"/>
+      <c r="PU111" s="38"/>
+      <c r="PV111" s="38"/>
+      <c r="PW111" s="38"/>
+      <c r="PX111" s="38"/>
+      <c r="PY111" s="38"/>
+      <c r="PZ111" s="38"/>
+      <c r="QA111" s="38"/>
+      <c r="QB111" s="38"/>
+      <c r="QC111" s="38"/>
+      <c r="QD111" s="38"/>
+      <c r="QE111" s="38"/>
+      <c r="QF111" s="38"/>
+      <c r="QG111" s="38"/>
+      <c r="QH111" s="38"/>
+      <c r="QI111" s="38"/>
+      <c r="QJ111" s="38"/>
+      <c r="QK111" s="38"/>
+      <c r="QL111" s="38"/>
+      <c r="QM111" s="38"/>
+      <c r="QN111" s="38"/>
+      <c r="QO111" s="38"/>
+      <c r="QP111" s="38"/>
+      <c r="QQ111" s="38"/>
+      <c r="QR111" s="38"/>
+      <c r="QS111" s="38"/>
+      <c r="QT111" s="38"/>
+      <c r="QU111" s="38"/>
+      <c r="QV111" s="38"/>
+      <c r="QW111" s="38"/>
+      <c r="QX111" s="38"/>
+      <c r="QY111" s="38"/>
+      <c r="QZ111" s="38"/>
+      <c r="RA111" s="38"/>
+      <c r="RB111" s="38"/>
+      <c r="RC111" s="38"/>
+      <c r="RD111" s="38"/>
+      <c r="RE111" s="38"/>
+      <c r="RF111" s="38"/>
+      <c r="RG111" s="38"/>
+      <c r="RH111" s="38"/>
+      <c r="RI111" s="38"/>
+      <c r="RJ111" s="38"/>
+      <c r="RK111" s="38"/>
+      <c r="RL111" s="38"/>
+      <c r="RM111" s="38"/>
+      <c r="RN111" s="38"/>
+      <c r="RO111" s="38"/>
+      <c r="RP111" s="38"/>
+      <c r="RQ111" s="38"/>
+      <c r="RR111" s="38"/>
+      <c r="RS111" s="38"/>
+      <c r="RT111" s="38"/>
+      <c r="RU111" s="38"/>
+      <c r="RV111" s="38"/>
+      <c r="RW111" s="38"/>
+      <c r="RX111" s="38"/>
+      <c r="RY111" s="38"/>
+      <c r="RZ111" s="38"/>
+      <c r="SA111" s="38"/>
+      <c r="SB111" s="38"/>
+      <c r="SC111" s="38"/>
+      <c r="SD111" s="38"/>
+      <c r="SE111" s="38"/>
+      <c r="SF111" s="38"/>
+      <c r="SG111" s="38"/>
+      <c r="SH111" s="38"/>
+      <c r="SI111" s="38"/>
+      <c r="SJ111" s="38"/>
+      <c r="SK111" s="38"/>
+      <c r="SL111" s="38"/>
+      <c r="SM111" s="38"/>
+      <c r="SN111" s="38"/>
+      <c r="SO111" s="38"/>
+      <c r="SP111" s="38"/>
+      <c r="SQ111" s="38"/>
+      <c r="SR111" s="38"/>
+      <c r="SS111" s="38"/>
+      <c r="ST111" s="38"/>
+      <c r="SU111" s="38"/>
+      <c r="SV111" s="38"/>
+      <c r="SW111" s="38"/>
+      <c r="SX111" s="38"/>
+      <c r="SY111" s="38"/>
+      <c r="SZ111" s="38"/>
+      <c r="TA111" s="38"/>
+      <c r="TB111" s="38"/>
+      <c r="TC111" s="38"/>
+      <c r="TD111" s="38"/>
+      <c r="TE111" s="38"/>
+      <c r="TF111" s="38"/>
+      <c r="TG111" s="38"/>
+      <c r="TH111" s="38"/>
+      <c r="TI111" s="38"/>
+      <c r="TJ111" s="38"/>
+      <c r="TK111" s="38"/>
+      <c r="TL111" s="38"/>
+      <c r="TM111" s="38"/>
+      <c r="TN111" s="38"/>
+      <c r="TO111" s="38"/>
+      <c r="TP111" s="38"/>
+      <c r="TQ111" s="38"/>
+      <c r="TR111" s="38"/>
+      <c r="TS111" s="38"/>
+      <c r="TT111" s="38"/>
+      <c r="TU111" s="38"/>
+      <c r="TV111" s="38"/>
+      <c r="TW111" s="38"/>
+      <c r="TX111" s="38"/>
+      <c r="TY111" s="38"/>
+      <c r="TZ111" s="38"/>
+      <c r="UA111" s="38"/>
+      <c r="UB111" s="38"/>
+      <c r="UC111" s="38"/>
+      <c r="UD111" s="38"/>
+      <c r="UE111" s="38"/>
+      <c r="UF111" s="38"/>
+      <c r="UG111" s="38"/>
+      <c r="UH111" s="38"/>
+      <c r="UI111" s="38"/>
+      <c r="UJ111" s="38"/>
+      <c r="UK111" s="38"/>
+      <c r="UL111" s="38"/>
+      <c r="UM111" s="38"/>
+      <c r="UN111" s="38"/>
+      <c r="UO111" s="38"/>
+      <c r="UP111" s="38"/>
+      <c r="UQ111" s="38"/>
+      <c r="UR111" s="38"/>
+      <c r="US111" s="38"/>
+      <c r="UT111" s="38"/>
+      <c r="UU111" s="38"/>
+      <c r="UV111" s="38"/>
+      <c r="UW111" s="38"/>
+      <c r="UX111" s="38"/>
+      <c r="UY111" s="38"/>
+      <c r="UZ111" s="38"/>
+      <c r="VA111" s="38"/>
+      <c r="VB111" s="38"/>
+      <c r="VC111" s="38"/>
+      <c r="VD111" s="38"/>
+      <c r="VE111" s="38"/>
+      <c r="VF111" s="38"/>
+      <c r="VG111" s="38"/>
+      <c r="VH111" s="38"/>
+      <c r="VI111" s="38"/>
+      <c r="VJ111" s="38"/>
+      <c r="VK111" s="38"/>
+      <c r="VL111" s="38"/>
+      <c r="VM111" s="38"/>
+      <c r="VN111" s="38"/>
+      <c r="VO111" s="38"/>
+      <c r="VP111" s="38"/>
+      <c r="VQ111" s="38"/>
+      <c r="VR111" s="38"/>
+      <c r="VS111" s="38"/>
+      <c r="VT111" s="38"/>
+      <c r="VU111" s="38"/>
+      <c r="VV111" s="38"/>
+      <c r="VW111" s="38"/>
+      <c r="VX111" s="38"/>
+      <c r="VY111" s="38"/>
+      <c r="VZ111" s="38"/>
+      <c r="WA111" s="38"/>
+      <c r="WB111" s="38"/>
+      <c r="WC111" s="38"/>
+      <c r="WD111" s="38"/>
+      <c r="WE111" s="38"/>
+      <c r="WF111" s="38"/>
+      <c r="WG111" s="38"/>
+      <c r="WH111" s="38"/>
+      <c r="WI111" s="38"/>
+      <c r="WJ111" s="38"/>
+      <c r="WK111" s="38"/>
+      <c r="WL111" s="38"/>
+      <c r="WM111" s="38"/>
+      <c r="WN111" s="38"/>
+      <c r="WO111" s="38"/>
+      <c r="WP111" s="38"/>
+      <c r="WQ111" s="38"/>
+      <c r="WR111" s="38"/>
+      <c r="WS111" s="38"/>
+      <c r="WT111" s="38"/>
+      <c r="WU111" s="38"/>
+      <c r="WV111" s="38"/>
+      <c r="WW111" s="38"/>
+      <c r="WX111" s="38"/>
+      <c r="WY111" s="38"/>
+      <c r="WZ111" s="38"/>
+      <c r="XA111" s="38"/>
+      <c r="XB111" s="38"/>
+      <c r="XC111" s="38"/>
+      <c r="XD111" s="38"/>
+      <c r="XE111" s="38"/>
+      <c r="XF111" s="38"/>
+      <c r="XG111" s="38"/>
+      <c r="XH111" s="38"/>
+      <c r="XI111" s="38"/>
+      <c r="XJ111" s="38"/>
+      <c r="XK111" s="38"/>
+      <c r="XL111" s="38"/>
+      <c r="XM111" s="38"/>
+      <c r="XN111" s="38"/>
+      <c r="XO111" s="38"/>
+      <c r="XP111" s="38"/>
+      <c r="XQ111" s="38"/>
+      <c r="XR111" s="38"/>
+      <c r="XS111" s="38"/>
+      <c r="XT111" s="38"/>
+      <c r="XU111" s="38"/>
+      <c r="XV111" s="38"/>
+      <c r="XW111" s="38"/>
+      <c r="XX111" s="38"/>
+      <c r="XY111" s="38"/>
+      <c r="XZ111" s="38"/>
+      <c r="YA111" s="38"/>
+      <c r="YB111" s="38"/>
+      <c r="YC111" s="38"/>
+      <c r="YD111" s="38"/>
+      <c r="YE111" s="38"/>
+      <c r="YF111" s="38"/>
+      <c r="YG111" s="38"/>
+      <c r="YH111" s="38"/>
+      <c r="YI111" s="38"/>
+      <c r="YJ111" s="38"/>
+      <c r="YK111" s="38"/>
+      <c r="YL111" s="38"/>
+      <c r="YM111" s="38"/>
+      <c r="YN111" s="38"/>
+      <c r="YO111" s="38"/>
+      <c r="YP111" s="38"/>
+      <c r="YQ111" s="38"/>
+      <c r="YR111" s="38"/>
+      <c r="YS111" s="38"/>
+      <c r="YT111" s="38"/>
+      <c r="YU111" s="38"/>
+      <c r="YV111" s="38"/>
+      <c r="YW111" s="38"/>
+      <c r="YX111" s="38"/>
+      <c r="YY111" s="38"/>
+      <c r="YZ111" s="38"/>
+      <c r="ZA111" s="38"/>
+      <c r="ZB111" s="38"/>
+      <c r="ZC111" s="38"/>
+      <c r="ZD111" s="38"/>
+      <c r="ZE111" s="38"/>
+      <c r="ZF111" s="38"/>
+      <c r="ZG111" s="38"/>
+      <c r="ZH111" s="38"/>
+      <c r="ZI111" s="38"/>
+      <c r="ZJ111" s="38"/>
+      <c r="ZK111" s="38"/>
+      <c r="ZL111" s="38"/>
+      <c r="ZM111" s="38"/>
+      <c r="ZN111" s="38"/>
+      <c r="ZO111" s="38"/>
+      <c r="ZP111" s="38"/>
+      <c r="ZQ111" s="38"/>
+      <c r="ZR111" s="38"/>
+      <c r="ZS111" s="38"/>
+      <c r="ZT111" s="38"/>
+      <c r="ZU111" s="38"/>
+      <c r="ZV111" s="38"/>
+      <c r="ZW111" s="38"/>
+      <c r="ZX111" s="38"/>
+      <c r="ZY111" s="38"/>
+      <c r="ZZ111" s="38"/>
+      <c r="AAA111" s="38"/>
+      <c r="AAB111" s="38"/>
+      <c r="AAC111" s="38"/>
+      <c r="AAD111" s="38"/>
+      <c r="AAE111" s="38"/>
+      <c r="AAF111" s="38"/>
+      <c r="AAG111" s="38"/>
+      <c r="AAH111" s="38"/>
+      <c r="AAI111" s="38"/>
+      <c r="AAJ111" s="38"/>
+      <c r="AAK111" s="38"/>
+      <c r="AAL111" s="38"/>
+      <c r="AAM111" s="38"/>
+      <c r="AAN111" s="38"/>
+      <c r="AAO111" s="38"/>
+      <c r="AAP111" s="38"/>
+      <c r="AAQ111" s="38"/>
+      <c r="AAR111" s="38"/>
+      <c r="AAS111" s="38"/>
+      <c r="AAT111" s="38"/>
+      <c r="AAU111" s="38"/>
+      <c r="AAV111" s="38"/>
+      <c r="AAW111" s="38"/>
+      <c r="AAX111" s="38"/>
+      <c r="AAY111" s="38"/>
+      <c r="AAZ111" s="38"/>
+      <c r="ABA111" s="38"/>
+      <c r="ABB111" s="38"/>
+      <c r="ABC111" s="38"/>
+      <c r="ABD111" s="38"/>
+      <c r="ABE111" s="38"/>
+      <c r="ABF111" s="38"/>
+      <c r="ABG111" s="38"/>
+      <c r="ABH111" s="38"/>
+      <c r="ABI111" s="38"/>
+      <c r="ABJ111" s="38"/>
+      <c r="ABK111" s="38"/>
+      <c r="ABL111" s="38"/>
+      <c r="ABM111" s="38"/>
+      <c r="ABN111" s="38"/>
+      <c r="ABO111" s="38"/>
+      <c r="ABP111" s="38"/>
+      <c r="ABQ111" s="38"/>
+      <c r="ABR111" s="38"/>
+      <c r="ABS111" s="38"/>
+      <c r="ABT111" s="38"/>
+      <c r="ABU111" s="38"/>
+      <c r="ABV111" s="38"/>
+      <c r="ABW111" s="38"/>
+      <c r="ABX111" s="38"/>
+      <c r="ABY111" s="38"/>
+      <c r="ABZ111" s="38"/>
+      <c r="ACA111" s="38"/>
+      <c r="ACB111" s="38"/>
+      <c r="ACC111" s="38"/>
+      <c r="ACD111" s="38"/>
+      <c r="ACE111" s="38"/>
+      <c r="ACF111" s="38"/>
+      <c r="ACG111" s="38"/>
+      <c r="ACH111" s="38"/>
+      <c r="ACI111" s="38"/>
+      <c r="ACJ111" s="38"/>
+      <c r="ACK111" s="38"/>
+      <c r="ACL111" s="38"/>
+      <c r="ACM111" s="38"/>
+      <c r="ACN111" s="38"/>
+      <c r="ACO111" s="38"/>
+      <c r="ACP111" s="38"/>
+      <c r="ACQ111" s="38"/>
+      <c r="ACR111" s="38"/>
+      <c r="ACS111" s="38"/>
+      <c r="ACT111" s="38"/>
+      <c r="ACU111" s="38"/>
+      <c r="ACV111" s="38"/>
+      <c r="ACW111" s="38"/>
+      <c r="ACX111" s="38"/>
+      <c r="ACY111" s="38"/>
+      <c r="ACZ111" s="38"/>
+      <c r="ADA111" s="38"/>
+      <c r="ADB111" s="38"/>
+      <c r="ADC111" s="38"/>
+      <c r="ADD111" s="38"/>
+      <c r="ADE111" s="38"/>
+      <c r="ADF111" s="38"/>
+      <c r="ADG111" s="38"/>
+      <c r="ADH111" s="38"/>
+      <c r="ADI111" s="38"/>
+      <c r="ADJ111" s="38"/>
+      <c r="ADK111" s="38"/>
+      <c r="ADL111" s="38"/>
+      <c r="ADM111" s="38"/>
+      <c r="ADN111" s="38"/>
+      <c r="ADO111" s="38"/>
+      <c r="ADP111" s="38"/>
+      <c r="ADQ111" s="38"/>
+      <c r="ADR111" s="38"/>
+      <c r="ADS111" s="38"/>
+      <c r="ADT111" s="38"/>
+      <c r="ADU111" s="38"/>
+      <c r="ADV111" s="38"/>
+      <c r="ADW111" s="38"/>
+      <c r="ADX111" s="38"/>
+      <c r="ADY111" s="38"/>
+      <c r="ADZ111" s="38"/>
+      <c r="AEA111" s="38"/>
+      <c r="AEB111" s="38"/>
+      <c r="AEC111" s="38"/>
+      <c r="AED111" s="38"/>
+      <c r="AEE111" s="38"/>
+      <c r="AEF111" s="38"/>
+      <c r="AEG111" s="38"/>
+      <c r="AEH111" s="38"/>
+      <c r="AEI111" s="38"/>
+      <c r="AEJ111" s="38"/>
+      <c r="AEK111" s="38"/>
+      <c r="AEL111" s="38"/>
+      <c r="AEM111" s="38"/>
+      <c r="AEN111" s="38"/>
+      <c r="AEO111" s="38"/>
+      <c r="AEP111" s="38"/>
+      <c r="AEQ111" s="38"/>
+      <c r="AER111" s="38"/>
+      <c r="AES111" s="38"/>
+      <c r="AET111" s="38"/>
+      <c r="AEU111" s="38"/>
+      <c r="AEV111" s="38"/>
+      <c r="AEW111" s="38"/>
+      <c r="AEX111" s="38"/>
+      <c r="AEY111" s="38"/>
+      <c r="AEZ111" s="38"/>
+      <c r="AFA111" s="38"/>
+      <c r="AFB111" s="38"/>
+      <c r="AFC111" s="38"/>
+      <c r="AFD111" s="38"/>
+      <c r="AFE111" s="38"/>
+      <c r="AFF111" s="38"/>
+      <c r="AFG111" s="38"/>
+      <c r="AFH111" s="38"/>
+      <c r="AFI111" s="38"/>
+      <c r="AFJ111" s="38"/>
+      <c r="AFK111" s="38"/>
+      <c r="AFL111" s="38"/>
+      <c r="AFM111" s="38"/>
+      <c r="AFN111" s="38"/>
+      <c r="AFO111" s="38"/>
+      <c r="AFP111" s="38"/>
+      <c r="AFQ111" s="38"/>
+      <c r="AFR111" s="38"/>
+      <c r="AFS111" s="38"/>
+      <c r="AFT111" s="38"/>
+      <c r="AFU111" s="38"/>
+      <c r="AFV111" s="38"/>
+      <c r="AFW111" s="38"/>
+      <c r="AFX111" s="38"/>
+      <c r="AFY111" s="38"/>
+      <c r="AFZ111" s="38"/>
+      <c r="AGA111" s="38"/>
+      <c r="AGB111" s="38"/>
+      <c r="AGC111" s="38"/>
+      <c r="AGD111" s="38"/>
+      <c r="AGE111" s="38"/>
+      <c r="AGF111" s="38"/>
+      <c r="AGG111" s="38"/>
+      <c r="AGH111" s="38"/>
+      <c r="AGI111" s="38"/>
+      <c r="AGJ111" s="38"/>
+      <c r="AGK111" s="38"/>
+      <c r="AGL111" s="38"/>
+      <c r="AGM111" s="38"/>
+      <c r="AGN111" s="38"/>
+      <c r="AGO111" s="38"/>
+      <c r="AGP111" s="38"/>
+      <c r="AGQ111" s="38"/>
+      <c r="AGR111" s="38"/>
+      <c r="AGS111" s="38"/>
+      <c r="AGT111" s="38"/>
+      <c r="AGU111" s="38"/>
+      <c r="AGV111" s="38"/>
+      <c r="AGW111" s="38"/>
+      <c r="AGX111" s="38"/>
+      <c r="AGY111" s="38"/>
+      <c r="AGZ111" s="38"/>
+      <c r="AHA111" s="38"/>
+      <c r="AHB111" s="38"/>
+      <c r="AHC111" s="38"/>
+      <c r="AHD111" s="38"/>
+      <c r="AHE111" s="38"/>
+      <c r="AHF111" s="38"/>
+      <c r="AHG111" s="38"/>
+      <c r="AHH111" s="38"/>
+      <c r="AHI111" s="38"/>
+      <c r="AHJ111" s="38"/>
+      <c r="AHK111" s="38"/>
+      <c r="AHL111" s="38"/>
+      <c r="AHM111" s="38"/>
+      <c r="AHN111" s="38"/>
+      <c r="AHO111" s="38"/>
+      <c r="AHP111" s="38"/>
+      <c r="AHQ111" s="38"/>
+      <c r="AHR111" s="38"/>
+      <c r="AHS111" s="38"/>
+      <c r="AHT111" s="38"/>
+      <c r="AHU111" s="38"/>
+      <c r="AHV111" s="38"/>
+      <c r="AHW111" s="38"/>
+      <c r="AHX111" s="38"/>
+      <c r="AHY111" s="38"/>
+      <c r="AHZ111" s="38"/>
+      <c r="AIA111" s="38"/>
+      <c r="AIB111" s="38"/>
+      <c r="AIC111" s="38"/>
+      <c r="AID111" s="38"/>
+      <c r="AIE111" s="38"/>
+      <c r="AIF111" s="38"/>
+      <c r="AIG111" s="38"/>
+      <c r="AIH111" s="38"/>
+      <c r="AII111" s="38"/>
+      <c r="AIJ111" s="38"/>
+      <c r="AIK111" s="38"/>
+      <c r="AIL111" s="38"/>
+      <c r="AIM111" s="38"/>
+      <c r="AIN111" s="38"/>
+      <c r="AIO111" s="38"/>
+      <c r="AIP111" s="38"/>
+      <c r="AIQ111" s="38"/>
+      <c r="AIR111" s="38"/>
+      <c r="AIS111" s="38"/>
+      <c r="AIT111" s="38"/>
+      <c r="AIU111" s="38"/>
+      <c r="AIV111" s="38"/>
+      <c r="AIW111" s="38"/>
+      <c r="AIX111" s="38"/>
+      <c r="AIY111" s="38"/>
+      <c r="AIZ111" s="38"/>
+      <c r="AJA111" s="38"/>
+      <c r="AJB111" s="38"/>
+      <c r="AJC111" s="38"/>
+      <c r="AJD111" s="38"/>
+      <c r="AJE111" s="38"/>
+      <c r="AJF111" s="38"/>
+      <c r="AJG111" s="38"/>
+      <c r="AJH111" s="38"/>
+      <c r="AJI111" s="38"/>
+      <c r="AJJ111" s="38"/>
+      <c r="AJK111" s="38"/>
+      <c r="AJL111" s="38"/>
+      <c r="AJM111" s="38"/>
+      <c r="AJN111" s="38"/>
+      <c r="AJO111" s="38"/>
+      <c r="AJP111" s="38"/>
+      <c r="AJQ111" s="38"/>
+      <c r="AJR111" s="38"/>
+      <c r="AJS111" s="38"/>
+      <c r="AJT111" s="38"/>
+      <c r="AJU111" s="38"/>
+      <c r="AJV111" s="38"/>
+      <c r="AJW111" s="38"/>
+      <c r="AJX111" s="38"/>
+      <c r="AJY111" s="38"/>
+      <c r="AJZ111" s="38"/>
+      <c r="AKA111" s="38"/>
+      <c r="AKB111" s="38"/>
+      <c r="AKC111" s="38"/>
+      <c r="AKD111" s="38"/>
+      <c r="AKE111" s="38"/>
+      <c r="AKF111" s="38"/>
+      <c r="AKG111" s="38"/>
+      <c r="AKH111" s="38"/>
+      <c r="AKI111" s="38"/>
+      <c r="AKJ111" s="38"/>
+      <c r="AKK111" s="38"/>
+      <c r="AKL111" s="38"/>
+      <c r="AKM111" s="38"/>
+      <c r="AKN111" s="38"/>
+      <c r="AKO111" s="38"/>
+      <c r="AKP111" s="38"/>
+      <c r="AKQ111" s="38"/>
+      <c r="AKR111" s="38"/>
+      <c r="AKS111" s="38"/>
+      <c r="AKT111" s="38"/>
+      <c r="AKU111" s="38"/>
+      <c r="AKV111" s="38"/>
+      <c r="AKW111" s="38"/>
+      <c r="AKX111" s="38"/>
+      <c r="AKY111" s="38"/>
+      <c r="AKZ111" s="38"/>
+      <c r="ALA111" s="38"/>
+      <c r="ALB111" s="38"/>
+      <c r="ALC111" s="38"/>
+      <c r="ALD111" s="38"/>
+      <c r="ALE111" s="38"/>
+      <c r="ALF111" s="38"/>
+      <c r="ALG111" s="38"/>
+      <c r="ALH111" s="38"/>
+      <c r="ALI111" s="38"/>
+      <c r="ALJ111" s="38"/>
+      <c r="ALK111" s="38"/>
+      <c r="ALL111" s="38"/>
+      <c r="ALM111" s="38"/>
+      <c r="ALN111" s="38"/>
+      <c r="ALO111" s="38"/>
+      <c r="ALP111" s="38"/>
+      <c r="ALQ111" s="38"/>
+      <c r="ALR111" s="38"/>
+      <c r="ALS111" s="38"/>
+      <c r="ALT111" s="38"/>
+      <c r="ALU111" s="38"/>
+      <c r="ALV111" s="38"/>
+      <c r="ALW111" s="38"/>
+      <c r="ALX111" s="38"/>
+      <c r="ALY111" s="38"/>
+      <c r="ALZ111" s="38"/>
+      <c r="AMA111" s="38"/>
+      <c r="AMB111" s="38"/>
+      <c r="AMC111" s="38"/>
+      <c r="AMD111" s="38"/>
+      <c r="AME111" s="38"/>
+      <c r="AMF111" s="38"/>
+      <c r="AMG111" s="38"/>
+      <c r="AMH111" s="38"/>
+      <c r="AMI111" s="38"/>
+      <c r="AMJ111" s="38"/>
+      <c r="AMK111" s="38"/>
+      <c r="AML111" s="38"/>
+      <c r="AMM111" s="38"/>
+      <c r="AMN111" s="38"/>
+      <c r="AMO111" s="38"/>
+      <c r="AMP111" s="38"/>
+      <c r="AMQ111" s="38"/>
+      <c r="AMR111" s="38"/>
+      <c r="AMS111" s="38"/>
+      <c r="AMT111" s="38"/>
+      <c r="AMU111" s="38"/>
+      <c r="AMV111" s="38"/>
+      <c r="AMW111" s="38"/>
+      <c r="AMX111" s="38"/>
+      <c r="AMY111" s="38"/>
+      <c r="AMZ111" s="38"/>
+      <c r="ANA111" s="38"/>
+      <c r="ANB111" s="38"/>
+      <c r="ANC111" s="38"/>
+      <c r="AND111" s="38"/>
+      <c r="ANE111" s="38"/>
+      <c r="ANF111" s="38"/>
+      <c r="ANG111" s="38"/>
+      <c r="ANH111" s="38"/>
+      <c r="ANI111" s="38"/>
+      <c r="ANJ111" s="38"/>
+      <c r="ANK111" s="38"/>
+      <c r="ANL111" s="38"/>
+      <c r="ANM111" s="38"/>
+      <c r="ANN111" s="38"/>
+      <c r="ANO111" s="38"/>
+      <c r="ANP111" s="38"/>
+      <c r="ANQ111" s="38"/>
+      <c r="ANR111" s="38"/>
+      <c r="ANS111" s="38"/>
+      <c r="ANT111" s="38"/>
+      <c r="ANU111" s="38"/>
+      <c r="ANV111" s="38"/>
+      <c r="ANW111" s="38"/>
+      <c r="ANX111" s="38"/>
+      <c r="ANY111" s="38"/>
+      <c r="ANZ111" s="38"/>
+      <c r="AOA111" s="38"/>
+      <c r="AOB111" s="38"/>
+      <c r="AOC111" s="38"/>
+      <c r="AOD111" s="38"/>
+      <c r="AOE111" s="38"/>
+      <c r="AOF111" s="38"/>
+      <c r="AOG111" s="38"/>
+      <c r="AOH111" s="38"/>
+      <c r="AOI111" s="38"/>
+      <c r="AOJ111" s="38"/>
+      <c r="AOK111" s="38"/>
+      <c r="AOL111" s="38"/>
+      <c r="AOM111" s="38"/>
+      <c r="AON111" s="38"/>
+      <c r="AOO111" s="38"/>
+      <c r="AOP111" s="38"/>
+      <c r="AOQ111" s="38"/>
+      <c r="AOR111" s="38"/>
+      <c r="AOS111" s="38"/>
+      <c r="AOT111" s="38"/>
+      <c r="AOU111" s="38"/>
+      <c r="AOV111" s="38"/>
+      <c r="AOW111" s="38"/>
+      <c r="AOX111" s="38"/>
+      <c r="AOY111" s="38"/>
+      <c r="AOZ111" s="38"/>
+      <c r="APA111" s="38"/>
+      <c r="APB111" s="38"/>
+      <c r="APC111" s="38"/>
+      <c r="APD111" s="38"/>
+      <c r="APE111" s="38"/>
+      <c r="APF111" s="38"/>
+      <c r="APG111" s="38"/>
+      <c r="APH111" s="38"/>
+      <c r="API111" s="38"/>
+      <c r="APJ111" s="38"/>
+      <c r="APK111" s="38"/>
+      <c r="APL111" s="38"/>
+      <c r="APM111" s="38"/>
+      <c r="APN111" s="38"/>
+      <c r="APO111" s="38"/>
+      <c r="APP111" s="38"/>
+      <c r="APQ111" s="38"/>
+      <c r="APR111" s="38"/>
+      <c r="APS111" s="38"/>
+      <c r="APT111" s="38"/>
+      <c r="APU111" s="38"/>
+      <c r="APV111" s="38"/>
+      <c r="APW111" s="38"/>
+      <c r="APX111" s="38"/>
+      <c r="APY111" s="38"/>
+      <c r="APZ111" s="38"/>
+      <c r="AQA111" s="38"/>
+      <c r="AQB111" s="38"/>
+      <c r="AQC111" s="38"/>
+      <c r="AQD111" s="38"/>
+      <c r="AQE111" s="38"/>
+      <c r="AQF111" s="38"/>
+      <c r="AQG111" s="38"/>
+      <c r="AQH111" s="38"/>
+      <c r="AQI111" s="38"/>
+      <c r="AQJ111" s="38"/>
+      <c r="AQK111" s="38"/>
+      <c r="AQL111" s="38"/>
+      <c r="AQM111" s="38"/>
+      <c r="AQN111" s="38"/>
+      <c r="AQO111" s="38"/>
+      <c r="AQP111" s="38"/>
+      <c r="AQQ111" s="38"/>
+      <c r="AQR111" s="38"/>
+      <c r="AQS111" s="38"/>
+      <c r="AQT111" s="38"/>
+      <c r="AQU111" s="38"/>
+      <c r="AQV111" s="38"/>
+      <c r="AQW111" s="38"/>
+      <c r="AQX111" s="38"/>
+      <c r="AQY111" s="38"/>
+      <c r="AQZ111" s="38"/>
+      <c r="ARA111" s="38"/>
+      <c r="ARB111" s="38"/>
+      <c r="ARC111" s="38"/>
+      <c r="ARD111" s="38"/>
+      <c r="ARE111" s="38"/>
+      <c r="ARF111" s="38"/>
+      <c r="ARG111" s="38"/>
+      <c r="ARH111" s="38"/>
+      <c r="ARI111" s="38"/>
+      <c r="ARJ111" s="38"/>
+      <c r="ARK111" s="38"/>
+      <c r="ARL111" s="38"/>
+      <c r="ARM111" s="38"/>
+      <c r="ARN111" s="38"/>
+      <c r="ARO111" s="38"/>
+      <c r="ARP111" s="38"/>
+      <c r="ARQ111" s="38"/>
+      <c r="ARR111" s="38"/>
+      <c r="ARS111" s="38"/>
+      <c r="ART111" s="38"/>
+      <c r="ARU111" s="38"/>
+      <c r="ARV111" s="38"/>
+      <c r="ARW111" s="38"/>
+      <c r="ARX111" s="38"/>
+      <c r="ARY111" s="38"/>
+      <c r="ARZ111" s="38"/>
+      <c r="ASA111" s="38"/>
+      <c r="ASB111" s="38"/>
+      <c r="ASC111" s="38"/>
+      <c r="ASD111" s="38"/>
+      <c r="ASE111" s="38"/>
+      <c r="ASF111" s="38"/>
+      <c r="ASG111" s="38"/>
+      <c r="ASH111" s="38"/>
+      <c r="ASI111" s="38"/>
+      <c r="ASJ111" s="38"/>
+      <c r="ASK111" s="38"/>
+      <c r="ASL111" s="38"/>
+      <c r="ASM111" s="38"/>
+      <c r="ASN111" s="38"/>
+      <c r="ASO111" s="38"/>
+      <c r="ASP111" s="38"/>
+      <c r="ASQ111" s="38"/>
+      <c r="ASR111" s="38"/>
+      <c r="ASS111" s="38"/>
+      <c r="AST111" s="38"/>
+      <c r="ASU111" s="38"/>
+      <c r="ASV111" s="38"/>
+      <c r="ASW111" s="38"/>
+      <c r="ASX111" s="38"/>
+      <c r="ASY111" s="38"/>
+      <c r="ASZ111" s="38"/>
+      <c r="ATA111" s="38"/>
+      <c r="ATB111" s="38"/>
+      <c r="ATC111" s="38"/>
+      <c r="ATD111" s="38"/>
+      <c r="ATE111" s="38"/>
+      <c r="ATF111" s="38"/>
+      <c r="ATG111" s="38"/>
+      <c r="ATH111" s="38"/>
+      <c r="ATI111" s="38"/>
+      <c r="ATJ111" s="38"/>
+      <c r="ATK111" s="38"/>
+      <c r="ATL111" s="38"/>
+      <c r="ATM111" s="38"/>
+      <c r="ATN111" s="38"/>
+      <c r="ATO111" s="38"/>
+      <c r="ATP111" s="38"/>
+      <c r="ATQ111" s="38"/>
+      <c r="ATR111" s="38"/>
+      <c r="ATS111" s="38"/>
+      <c r="ATT111" s="38"/>
+      <c r="ATU111" s="38"/>
+      <c r="ATV111" s="38"/>
+      <c r="ATW111" s="38"/>
+      <c r="ATX111" s="38"/>
+      <c r="ATY111" s="38"/>
+      <c r="ATZ111" s="38"/>
+    </row>
+    <row r="112" spans="1:1222" s="37" customFormat="1">
+      <c r="A112" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="38"/>
+      <c r="O112" s="38"/>
+      <c r="P112" s="38"/>
+      <c r="Q112" s="38"/>
+      <c r="R112" s="38"/>
+      <c r="S112" s="38"/>
+      <c r="T112" s="38"/>
+      <c r="U112" s="38"/>
+      <c r="V112" s="38"/>
+      <c r="W112" s="38"/>
+      <c r="X112" s="38"/>
+      <c r="Y112" s="38"/>
+      <c r="Z112" s="38"/>
+      <c r="AA112" s="38"/>
+      <c r="AB112" s="38"/>
+      <c r="AC112" s="38"/>
+      <c r="AD112" s="38"/>
+      <c r="AE112" s="38"/>
+      <c r="AF112" s="38"/>
+      <c r="AG112" s="38"/>
+      <c r="AH112" s="38"/>
+      <c r="AI112" s="38"/>
+      <c r="AJ112" s="38"/>
+      <c r="AK112" s="38"/>
+      <c r="AL112" s="38"/>
+      <c r="AM112" s="38"/>
+      <c r="AN112" s="38"/>
+      <c r="AO112" s="38"/>
+      <c r="AP112" s="38"/>
+      <c r="AQ112" s="38"/>
+      <c r="AR112" s="38"/>
+      <c r="AS112" s="38"/>
+      <c r="AT112" s="38"/>
+      <c r="AU112" s="38"/>
+      <c r="AV112" s="38"/>
+      <c r="AW112" s="38"/>
+      <c r="AX112" s="38"/>
+      <c r="AY112" s="38"/>
+      <c r="AZ112" s="38"/>
+      <c r="BA112" s="38"/>
+      <c r="BB112" s="38"/>
+      <c r="BC112" s="38"/>
+      <c r="BD112" s="38"/>
+      <c r="BE112" s="38"/>
+      <c r="BF112" s="38"/>
+      <c r="BG112" s="38"/>
+      <c r="BH112" s="38"/>
+      <c r="BI112" s="38"/>
+      <c r="BJ112" s="38"/>
+      <c r="BK112" s="38"/>
+      <c r="BL112" s="38"/>
+      <c r="BM112" s="38"/>
+      <c r="BN112" s="38"/>
+      <c r="BO112" s="38"/>
+      <c r="BP112" s="38"/>
+      <c r="BQ112" s="38"/>
+      <c r="BR112" s="38"/>
+      <c r="BS112" s="38"/>
+      <c r="BT112" s="38"/>
+      <c r="BU112" s="38"/>
+      <c r="BV112" s="38"/>
+      <c r="BW112" s="38"/>
+      <c r="BX112" s="38"/>
+      <c r="BY112" s="38"/>
+      <c r="BZ112" s="38"/>
+      <c r="CA112" s="38"/>
+      <c r="CB112" s="38"/>
+      <c r="CC112" s="38"/>
+      <c r="CD112" s="38"/>
+      <c r="CE112" s="38"/>
+      <c r="CF112" s="38"/>
+      <c r="CG112" s="38"/>
+      <c r="CH112" s="38"/>
+      <c r="CI112" s="38"/>
+      <c r="CJ112" s="38"/>
+      <c r="CK112" s="38"/>
+      <c r="CL112" s="38"/>
+      <c r="CM112" s="38"/>
+      <c r="CN112" s="38"/>
+      <c r="CO112" s="38"/>
+      <c r="CP112" s="38"/>
+      <c r="CQ112" s="38"/>
+      <c r="CR112" s="38"/>
+      <c r="CS112" s="38"/>
+      <c r="CT112" s="38"/>
+      <c r="CU112" s="38"/>
+      <c r="CV112" s="38"/>
+      <c r="CW112" s="38"/>
+      <c r="CX112" s="38"/>
+      <c r="CY112" s="38"/>
+      <c r="CZ112" s="38"/>
+      <c r="DA112" s="38"/>
+      <c r="DB112" s="38"/>
+      <c r="DC112" s="38"/>
+      <c r="DD112" s="38"/>
+      <c r="DE112" s="38"/>
+      <c r="DF112" s="38"/>
+      <c r="DG112" s="38"/>
+      <c r="DH112" s="38"/>
+      <c r="DI112" s="38"/>
+      <c r="DJ112" s="38"/>
+      <c r="DK112" s="38"/>
+      <c r="DL112" s="38"/>
+      <c r="DM112" s="38"/>
+      <c r="DN112" s="38"/>
+      <c r="DO112" s="38"/>
+      <c r="DP112" s="38"/>
+      <c r="DQ112" s="38"/>
+      <c r="DR112" s="38"/>
+      <c r="DS112" s="38"/>
+      <c r="DT112" s="38"/>
+      <c r="DU112" s="38"/>
+      <c r="DV112" s="38"/>
+      <c r="DW112" s="38"/>
+      <c r="DX112" s="38"/>
+      <c r="DY112" s="38"/>
+      <c r="DZ112" s="38"/>
+      <c r="EA112" s="38"/>
+      <c r="EB112" s="38"/>
+      <c r="EC112" s="38"/>
+      <c r="ED112" s="38"/>
+      <c r="EE112" s="38"/>
+      <c r="EF112" s="38"/>
+      <c r="EG112" s="38"/>
+      <c r="EH112" s="38"/>
+      <c r="EI112" s="38"/>
+      <c r="EJ112" s="38"/>
+      <c r="EK112" s="38"/>
+      <c r="EL112" s="38"/>
+      <c r="EM112" s="38"/>
+      <c r="EN112" s="38"/>
+      <c r="EO112" s="38"/>
+      <c r="EP112" s="38"/>
+      <c r="EQ112" s="38"/>
+      <c r="ER112" s="38"/>
+      <c r="ES112" s="38"/>
+      <c r="ET112" s="38"/>
+      <c r="EU112" s="38"/>
+      <c r="EV112" s="38"/>
+      <c r="EW112" s="38"/>
+      <c r="EX112" s="38"/>
+      <c r="EY112" s="38"/>
+      <c r="EZ112" s="38"/>
+      <c r="FA112" s="38"/>
+      <c r="FB112" s="38"/>
+      <c r="FC112" s="38"/>
+      <c r="FD112" s="38"/>
+      <c r="FE112" s="38"/>
+      <c r="FF112" s="38"/>
+      <c r="FG112" s="38"/>
+      <c r="FH112" s="38"/>
+      <c r="FI112" s="38"/>
+      <c r="FJ112" s="38"/>
+      <c r="FK112" s="38"/>
+      <c r="FL112" s="38"/>
+      <c r="FM112" s="38"/>
+      <c r="FN112" s="38"/>
+      <c r="FO112" s="38"/>
+      <c r="FP112" s="38"/>
+      <c r="FQ112" s="38"/>
+      <c r="FR112" s="38"/>
+      <c r="FS112" s="38"/>
+      <c r="FT112" s="38"/>
+      <c r="FU112" s="38"/>
+      <c r="FV112" s="38"/>
+      <c r="FW112" s="38"/>
+      <c r="FX112" s="38"/>
+      <c r="FY112" s="38"/>
+      <c r="FZ112" s="38"/>
+      <c r="GA112" s="38"/>
+      <c r="GB112" s="38"/>
+      <c r="GC112" s="38"/>
+      <c r="GD112" s="38"/>
+      <c r="GE112" s="38"/>
+      <c r="GF112" s="38"/>
+      <c r="GG112" s="38"/>
+      <c r="GH112" s="38"/>
+      <c r="GI112" s="38"/>
+      <c r="GJ112" s="38"/>
+      <c r="GK112" s="38"/>
+      <c r="GL112" s="38"/>
+      <c r="GM112" s="38"/>
+      <c r="GN112" s="38"/>
+      <c r="GO112" s="38"/>
+      <c r="GP112" s="38"/>
+      <c r="GQ112" s="38"/>
+      <c r="GR112" s="38"/>
+      <c r="GS112" s="38"/>
+      <c r="GT112" s="38"/>
+      <c r="GU112" s="38"/>
+      <c r="GV112" s="38"/>
+      <c r="GW112" s="38"/>
+      <c r="GX112" s="38"/>
+      <c r="GY112" s="38"/>
+      <c r="GZ112" s="38"/>
+      <c r="HA112" s="38"/>
+      <c r="HB112" s="38"/>
+      <c r="HC112" s="38"/>
+      <c r="HD112" s="38"/>
+      <c r="HE112" s="38"/>
+      <c r="HF112" s="38"/>
+      <c r="HG112" s="38"/>
+      <c r="HH112" s="38"/>
+      <c r="HI112" s="38"/>
+      <c r="HJ112" s="38"/>
+      <c r="HK112" s="38"/>
+      <c r="HL112" s="38"/>
+      <c r="HM112" s="38"/>
+      <c r="HN112" s="38"/>
+      <c r="HO112" s="38"/>
+      <c r="HP112" s="38"/>
+      <c r="HQ112" s="38"/>
+      <c r="HR112" s="38"/>
+      <c r="HS112" s="38"/>
+      <c r="HT112" s="38"/>
+      <c r="HU112" s="38"/>
+      <c r="HV112" s="38"/>
+      <c r="HW112" s="38"/>
+      <c r="HX112" s="38"/>
+      <c r="HY112" s="38"/>
+      <c r="HZ112" s="38"/>
+      <c r="IA112" s="38"/>
+      <c r="IB112" s="38"/>
+      <c r="IC112" s="38"/>
+      <c r="ID112" s="38"/>
+      <c r="IE112" s="38"/>
+      <c r="IF112" s="38"/>
+      <c r="IG112" s="38"/>
+      <c r="IH112" s="38"/>
+      <c r="II112" s="38"/>
+      <c r="IJ112" s="38"/>
+      <c r="IK112" s="38"/>
+      <c r="IL112" s="38"/>
+      <c r="IM112" s="38"/>
+      <c r="IN112" s="38"/>
+      <c r="IO112" s="38"/>
+      <c r="IP112" s="38"/>
+      <c r="IQ112" s="38"/>
+      <c r="IR112" s="38"/>
+      <c r="IS112" s="38"/>
+      <c r="IT112" s="38"/>
+      <c r="IU112" s="38"/>
+      <c r="IV112" s="38"/>
+      <c r="IW112" s="38"/>
+      <c r="IX112" s="38"/>
+      <c r="IY112" s="38"/>
+      <c r="IZ112" s="38"/>
+      <c r="JA112" s="38"/>
+      <c r="JB112" s="38"/>
+      <c r="JC112" s="38"/>
+      <c r="JD112" s="38"/>
+      <c r="JE112" s="38"/>
+      <c r="JF112" s="38"/>
+      <c r="JG112" s="38"/>
+      <c r="JH112" s="38"/>
+      <c r="JI112" s="38"/>
+      <c r="JJ112" s="38"/>
+      <c r="JK112" s="38"/>
+      <c r="JL112" s="38"/>
+      <c r="JM112" s="38"/>
+      <c r="JN112" s="38"/>
+      <c r="JO112" s="38"/>
+      <c r="JP112" s="38"/>
+      <c r="JQ112" s="38"/>
+      <c r="JR112" s="38"/>
+      <c r="JS112" s="38"/>
+      <c r="JT112" s="38"/>
+      <c r="JU112" s="38"/>
+      <c r="JV112" s="38"/>
+      <c r="JW112" s="38"/>
+      <c r="JX112" s="38"/>
+      <c r="JY112" s="38"/>
+      <c r="JZ112" s="38"/>
+      <c r="KA112" s="38"/>
+      <c r="KB112" s="38"/>
+      <c r="KC112" s="38"/>
+      <c r="KD112" s="38"/>
+      <c r="KE112" s="38"/>
+      <c r="KF112" s="38"/>
+      <c r="KG112" s="38"/>
+      <c r="KH112" s="38"/>
+      <c r="KI112" s="38"/>
+      <c r="KJ112" s="38"/>
+      <c r="KK112" s="38"/>
+      <c r="KL112" s="38"/>
+      <c r="KM112" s="38"/>
+      <c r="KN112" s="38"/>
+      <c r="KO112" s="38"/>
+      <c r="KP112" s="38"/>
+      <c r="KQ112" s="38"/>
+      <c r="KR112" s="38"/>
+      <c r="KS112" s="38"/>
+      <c r="KT112" s="38"/>
+      <c r="KU112" s="38"/>
+      <c r="KV112" s="38"/>
+      <c r="KW112" s="38"/>
+      <c r="KX112" s="38"/>
+      <c r="KY112" s="38"/>
+      <c r="KZ112" s="38"/>
+      <c r="LA112" s="38"/>
+      <c r="LB112" s="38"/>
+      <c r="LC112" s="38"/>
+      <c r="LD112" s="38"/>
+      <c r="LE112" s="38"/>
+      <c r="LF112" s="38"/>
+      <c r="LG112" s="38"/>
+      <c r="LH112" s="38"/>
+      <c r="LI112" s="38"/>
+      <c r="LJ112" s="38"/>
+      <c r="LK112" s="38"/>
+      <c r="LL112" s="38"/>
+      <c r="LM112" s="38"/>
+      <c r="LN112" s="38"/>
+      <c r="LO112" s="38"/>
+      <c r="LP112" s="38"/>
+      <c r="LQ112" s="38"/>
+      <c r="LR112" s="38"/>
+      <c r="LS112" s="38"/>
+      <c r="LT112" s="38"/>
+      <c r="LU112" s="38"/>
+      <c r="LV112" s="38"/>
+      <c r="LW112" s="38"/>
+      <c r="LX112" s="38"/>
+      <c r="LY112" s="38"/>
+      <c r="LZ112" s="38"/>
+      <c r="MA112" s="38"/>
+      <c r="MB112" s="38"/>
+      <c r="MC112" s="38"/>
+      <c r="MD112" s="38"/>
+      <c r="ME112" s="38"/>
+      <c r="MF112" s="38"/>
+      <c r="MG112" s="38"/>
+      <c r="MH112" s="38"/>
+      <c r="MI112" s="38"/>
+      <c r="MJ112" s="38"/>
+      <c r="MK112" s="38"/>
+      <c r="ML112" s="38"/>
+      <c r="MM112" s="38"/>
+      <c r="MN112" s="38"/>
+      <c r="MO112" s="38"/>
+      <c r="MP112" s="38"/>
+      <c r="MQ112" s="38"/>
+      <c r="MR112" s="38"/>
+      <c r="MS112" s="38"/>
+      <c r="MT112" s="38"/>
+      <c r="MU112" s="38"/>
+      <c r="MV112" s="38"/>
+      <c r="MW112" s="38"/>
+      <c r="MX112" s="38"/>
+      <c r="MY112" s="38"/>
+      <c r="MZ112" s="38"/>
+      <c r="NA112" s="38"/>
+      <c r="NB112" s="38"/>
+      <c r="NC112" s="38"/>
+      <c r="ND112" s="38"/>
+      <c r="NE112" s="38"/>
+      <c r="NF112" s="38"/>
+      <c r="NG112" s="38"/>
+      <c r="NH112" s="38"/>
+      <c r="NI112" s="38"/>
+      <c r="NJ112" s="38"/>
+      <c r="NK112" s="38"/>
+      <c r="NL112" s="38"/>
+      <c r="NM112" s="38"/>
+      <c r="NN112" s="38"/>
+      <c r="NO112" s="38"/>
+      <c r="NP112" s="38"/>
+      <c r="NQ112" s="38"/>
+      <c r="NR112" s="38"/>
+      <c r="NS112" s="38"/>
+      <c r="NT112" s="38"/>
+      <c r="NU112" s="38"/>
+      <c r="NV112" s="38"/>
+      <c r="NW112" s="38"/>
+      <c r="NX112" s="38"/>
+      <c r="NY112" s="38"/>
+      <c r="NZ112" s="38"/>
+      <c r="OA112" s="38"/>
+      <c r="OB112" s="38"/>
+      <c r="OC112" s="38"/>
+      <c r="OD112" s="38"/>
+      <c r="OE112" s="38"/>
+      <c r="OF112" s="38"/>
+      <c r="OG112" s="38"/>
+      <c r="OH112" s="38"/>
+      <c r="OI112" s="38"/>
+      <c r="OJ112" s="38"/>
+      <c r="OK112" s="38"/>
+      <c r="OL112" s="38"/>
+      <c r="OM112" s="38"/>
+      <c r="ON112" s="38"/>
+      <c r="OO112" s="38"/>
+      <c r="OP112" s="38"/>
+      <c r="OQ112" s="38"/>
+      <c r="OR112" s="38"/>
+      <c r="OS112" s="38"/>
+      <c r="OT112" s="38"/>
+      <c r="OU112" s="38"/>
+      <c r="OV112" s="38"/>
+      <c r="OW112" s="38"/>
+      <c r="OX112" s="38"/>
+      <c r="OY112" s="38"/>
+      <c r="OZ112" s="38"/>
+      <c r="PA112" s="38"/>
+      <c r="PB112" s="38"/>
+      <c r="PC112" s="38"/>
+      <c r="PD112" s="38"/>
+      <c r="PE112" s="38"/>
+      <c r="PF112" s="38"/>
+      <c r="PG112" s="38"/>
+      <c r="PH112" s="38"/>
+      <c r="PI112" s="38"/>
+      <c r="PJ112" s="38"/>
+      <c r="PK112" s="38"/>
+      <c r="PL112" s="38"/>
+      <c r="PM112" s="38"/>
+      <c r="PN112" s="38"/>
+      <c r="PO112" s="38"/>
+      <c r="PP112" s="38"/>
+      <c r="PQ112" s="38"/>
+      <c r="PR112" s="38"/>
+      <c r="PS112" s="38"/>
+      <c r="PT112" s="38"/>
+      <c r="PU112" s="38"/>
+      <c r="PV112" s="38"/>
+      <c r="PW112" s="38"/>
+      <c r="PX112" s="38"/>
+      <c r="PY112" s="38"/>
+      <c r="PZ112" s="38"/>
+      <c r="QA112" s="38"/>
+      <c r="QB112" s="38"/>
+      <c r="QC112" s="38"/>
+      <c r="QD112" s="38"/>
+      <c r="QE112" s="38"/>
+      <c r="QF112" s="38"/>
+      <c r="QG112" s="38"/>
+      <c r="QH112" s="38"/>
+      <c r="QI112" s="38"/>
+      <c r="QJ112" s="38"/>
+      <c r="QK112" s="38"/>
+      <c r="QL112" s="38"/>
+      <c r="QM112" s="38"/>
+      <c r="QN112" s="38"/>
+      <c r="QO112" s="38"/>
+      <c r="QP112" s="38"/>
+      <c r="QQ112" s="38"/>
+      <c r="QR112" s="38"/>
+      <c r="QS112" s="38"/>
+      <c r="QT112" s="38"/>
+      <c r="QU112" s="38"/>
+      <c r="QV112" s="38"/>
+      <c r="QW112" s="38"/>
+      <c r="QX112" s="38"/>
+      <c r="QY112" s="38"/>
+      <c r="QZ112" s="38"/>
+      <c r="RA112" s="38"/>
+      <c r="RB112" s="38"/>
+      <c r="RC112" s="38"/>
+      <c r="RD112" s="38"/>
+      <c r="RE112" s="38"/>
+      <c r="RF112" s="38"/>
+      <c r="RG112" s="38"/>
+      <c r="RH112" s="38"/>
+      <c r="RI112" s="38"/>
+      <c r="RJ112" s="38"/>
+      <c r="RK112" s="38"/>
+      <c r="RL112" s="38"/>
+      <c r="RM112" s="38"/>
+      <c r="RN112" s="38"/>
+      <c r="RO112" s="38"/>
+      <c r="RP112" s="38"/>
+      <c r="RQ112" s="38"/>
+      <c r="RR112" s="38"/>
+      <c r="RS112" s="38"/>
+      <c r="RT112" s="38"/>
+      <c r="RU112" s="38"/>
+      <c r="RV112" s="38"/>
+      <c r="RW112" s="38"/>
+      <c r="RX112" s="38"/>
+      <c r="RY112" s="38"/>
+      <c r="RZ112" s="38"/>
+      <c r="SA112" s="38"/>
+      <c r="SB112" s="38"/>
+      <c r="SC112" s="38"/>
+      <c r="SD112" s="38"/>
+      <c r="SE112" s="38"/>
+      <c r="SF112" s="38"/>
+      <c r="SG112" s="38"/>
+      <c r="SH112" s="38"/>
+      <c r="SI112" s="38"/>
+      <c r="SJ112" s="38"/>
+      <c r="SK112" s="38"/>
+      <c r="SL112" s="38"/>
+      <c r="SM112" s="38"/>
+      <c r="SN112" s="38"/>
+      <c r="SO112" s="38"/>
+      <c r="SP112" s="38"/>
+      <c r="SQ112" s="38"/>
+      <c r="SR112" s="38"/>
+      <c r="SS112" s="38"/>
+      <c r="ST112" s="38"/>
+      <c r="SU112" s="38"/>
+      <c r="SV112" s="38"/>
+      <c r="SW112" s="38"/>
+      <c r="SX112" s="38"/>
+      <c r="SY112" s="38"/>
+      <c r="SZ112" s="38"/>
+      <c r="TA112" s="38"/>
+      <c r="TB112" s="38"/>
+      <c r="TC112" s="38"/>
+      <c r="TD112" s="38"/>
+      <c r="TE112" s="38"/>
+      <c r="TF112" s="38"/>
+      <c r="TG112" s="38"/>
+      <c r="TH112" s="38"/>
+      <c r="TI112" s="38"/>
+      <c r="TJ112" s="38"/>
+      <c r="TK112" s="38"/>
+      <c r="TL112" s="38"/>
+      <c r="TM112" s="38"/>
+      <c r="TN112" s="38"/>
+      <c r="TO112" s="38"/>
+      <c r="TP112" s="38"/>
+      <c r="TQ112" s="38"/>
+      <c r="TR112" s="38"/>
+      <c r="TS112" s="38"/>
+      <c r="TT112" s="38"/>
+      <c r="TU112" s="38"/>
+      <c r="TV112" s="38"/>
+      <c r="TW112" s="38"/>
+      <c r="TX112" s="38"/>
+      <c r="TY112" s="38"/>
+      <c r="TZ112" s="38"/>
+      <c r="UA112" s="38"/>
+      <c r="UB112" s="38"/>
+      <c r="UC112" s="38"/>
+      <c r="UD112" s="38"/>
+      <c r="UE112" s="38"/>
+      <c r="UF112" s="38"/>
+      <c r="UG112" s="38"/>
+      <c r="UH112" s="38"/>
+      <c r="UI112" s="38"/>
+      <c r="UJ112" s="38"/>
+      <c r="UK112" s="38"/>
+      <c r="UL112" s="38"/>
+      <c r="UM112" s="38"/>
+      <c r="UN112" s="38"/>
+      <c r="UO112" s="38"/>
+      <c r="UP112" s="38"/>
+      <c r="UQ112" s="38"/>
+      <c r="UR112" s="38"/>
+      <c r="US112" s="38"/>
+      <c r="UT112" s="38"/>
+      <c r="UU112" s="38"/>
+      <c r="UV112" s="38"/>
+      <c r="UW112" s="38"/>
+      <c r="UX112" s="38"/>
+      <c r="UY112" s="38"/>
+      <c r="UZ112" s="38"/>
+      <c r="VA112" s="38"/>
+      <c r="VB112" s="38"/>
+      <c r="VC112" s="38"/>
+      <c r="VD112" s="38"/>
+      <c r="VE112" s="38"/>
+      <c r="VF112" s="38"/>
+      <c r="VG112" s="38"/>
+      <c r="VH112" s="38"/>
+      <c r="VI112" s="38"/>
+      <c r="VJ112" s="38"/>
+      <c r="VK112" s="38"/>
+      <c r="VL112" s="38"/>
+      <c r="VM112" s="38"/>
+      <c r="VN112" s="38"/>
+      <c r="VO112" s="38"/>
+      <c r="VP112" s="38"/>
+      <c r="VQ112" s="38"/>
+      <c r="VR112" s="38"/>
+      <c r="VS112" s="38"/>
+      <c r="VT112" s="38"/>
+      <c r="VU112" s="38"/>
+      <c r="VV112" s="38"/>
+      <c r="VW112" s="38"/>
+      <c r="VX112" s="38"/>
+      <c r="VY112" s="38"/>
+      <c r="VZ112" s="38"/>
+      <c r="WA112" s="38"/>
+      <c r="WB112" s="38"/>
+      <c r="WC112" s="38"/>
+      <c r="WD112" s="38"/>
+      <c r="WE112" s="38"/>
+      <c r="WF112" s="38"/>
+      <c r="WG112" s="38"/>
+      <c r="WH112" s="38"/>
+      <c r="WI112" s="38"/>
+      <c r="WJ112" s="38"/>
+      <c r="WK112" s="38"/>
+      <c r="WL112" s="38"/>
+      <c r="WM112" s="38"/>
+      <c r="WN112" s="38"/>
+      <c r="WO112" s="38"/>
+      <c r="WP112" s="38"/>
+      <c r="WQ112" s="38"/>
+      <c r="WR112" s="38"/>
+      <c r="WS112" s="38"/>
+      <c r="WT112" s="38"/>
+      <c r="WU112" s="38"/>
+      <c r="WV112" s="38"/>
+      <c r="WW112" s="38"/>
+      <c r="WX112" s="38"/>
+      <c r="WY112" s="38"/>
+      <c r="WZ112" s="38"/>
+      <c r="XA112" s="38"/>
+      <c r="XB112" s="38"/>
+      <c r="XC112" s="38"/>
+      <c r="XD112" s="38"/>
+      <c r="XE112" s="38"/>
+      <c r="XF112" s="38"/>
+      <c r="XG112" s="38"/>
+      <c r="XH112" s="38"/>
+      <c r="XI112" s="38"/>
+      <c r="XJ112" s="38"/>
+      <c r="XK112" s="38"/>
+      <c r="XL112" s="38"/>
+      <c r="XM112" s="38"/>
+      <c r="XN112" s="38"/>
+      <c r="XO112" s="38"/>
+      <c r="XP112" s="38"/>
+      <c r="XQ112" s="38"/>
+      <c r="XR112" s="38"/>
+      <c r="XS112" s="38"/>
+      <c r="XT112" s="38"/>
+      <c r="XU112" s="38"/>
+      <c r="XV112" s="38"/>
+      <c r="XW112" s="38"/>
+      <c r="XX112" s="38"/>
+      <c r="XY112" s="38"/>
+      <c r="XZ112" s="38"/>
+      <c r="YA112" s="38"/>
+      <c r="YB112" s="38"/>
+      <c r="YC112" s="38"/>
+      <c r="YD112" s="38"/>
+      <c r="YE112" s="38"/>
+      <c r="YF112" s="38"/>
+      <c r="YG112" s="38"/>
+      <c r="YH112" s="38"/>
+      <c r="YI112" s="38"/>
+      <c r="YJ112" s="38"/>
+      <c r="YK112" s="38"/>
+      <c r="YL112" s="38"/>
+      <c r="YM112" s="38"/>
+      <c r="YN112" s="38"/>
+      <c r="YO112" s="38"/>
+      <c r="YP112" s="38"/>
+      <c r="YQ112" s="38"/>
+      <c r="YR112" s="38"/>
+      <c r="YS112" s="38"/>
+      <c r="YT112" s="38"/>
+      <c r="YU112" s="38"/>
+      <c r="YV112" s="38"/>
+      <c r="YW112" s="38"/>
+      <c r="YX112" s="38"/>
+      <c r="YY112" s="38"/>
+      <c r="YZ112" s="38"/>
+      <c r="ZA112" s="38"/>
+      <c r="ZB112" s="38"/>
+      <c r="ZC112" s="38"/>
+      <c r="ZD112" s="38"/>
+      <c r="ZE112" s="38"/>
+      <c r="ZF112" s="38"/>
+      <c r="ZG112" s="38"/>
+      <c r="ZH112" s="38"/>
+      <c r="ZI112" s="38"/>
+      <c r="ZJ112" s="38"/>
+      <c r="ZK112" s="38"/>
+      <c r="ZL112" s="38"/>
+      <c r="ZM112" s="38"/>
+      <c r="ZN112" s="38"/>
+      <c r="ZO112" s="38"/>
+      <c r="ZP112" s="38"/>
+      <c r="ZQ112" s="38"/>
+      <c r="ZR112" s="38"/>
+      <c r="ZS112" s="38"/>
+      <c r="ZT112" s="38"/>
+      <c r="ZU112" s="38"/>
+      <c r="ZV112" s="38"/>
+      <c r="ZW112" s="38"/>
+      <c r="ZX112" s="38"/>
+      <c r="ZY112" s="38"/>
+      <c r="ZZ112" s="38"/>
+      <c r="AAA112" s="38"/>
+      <c r="AAB112" s="38"/>
+      <c r="AAC112" s="38"/>
+      <c r="AAD112" s="38"/>
+      <c r="AAE112" s="38"/>
+      <c r="AAF112" s="38"/>
+      <c r="AAG112" s="38"/>
+      <c r="AAH112" s="38"/>
+      <c r="AAI112" s="38"/>
+      <c r="AAJ112" s="38"/>
+      <c r="AAK112" s="38"/>
+      <c r="AAL112" s="38"/>
+      <c r="AAM112" s="38"/>
+      <c r="AAN112" s="38"/>
+      <c r="AAO112" s="38"/>
+      <c r="AAP112" s="38"/>
+      <c r="AAQ112" s="38"/>
+      <c r="AAR112" s="38"/>
+      <c r="AAS112" s="38"/>
+      <c r="AAT112" s="38"/>
+      <c r="AAU112" s="38"/>
+      <c r="AAV112" s="38"/>
+      <c r="AAW112" s="38"/>
+      <c r="AAX112" s="38"/>
+      <c r="AAY112" s="38"/>
+      <c r="AAZ112" s="38"/>
+      <c r="ABA112" s="38"/>
+      <c r="ABB112" s="38"/>
+      <c r="ABC112" s="38"/>
+      <c r="ABD112" s="38"/>
+      <c r="ABE112" s="38"/>
+      <c r="ABF112" s="38"/>
+      <c r="ABG112" s="38"/>
+      <c r="ABH112" s="38"/>
+      <c r="ABI112" s="38"/>
+      <c r="ABJ112" s="38"/>
+      <c r="ABK112" s="38"/>
+      <c r="ABL112" s="38"/>
+      <c r="ABM112" s="38"/>
+      <c r="ABN112" s="38"/>
+      <c r="ABO112" s="38"/>
+      <c r="ABP112" s="38"/>
+      <c r="ABQ112" s="38"/>
+      <c r="ABR112" s="38"/>
+      <c r="ABS112" s="38"/>
+      <c r="ABT112" s="38"/>
+      <c r="ABU112" s="38"/>
+      <c r="ABV112" s="38"/>
+      <c r="ABW112" s="38"/>
+      <c r="ABX112" s="38"/>
+      <c r="ABY112" s="38"/>
+      <c r="ABZ112" s="38"/>
+      <c r="ACA112" s="38"/>
+      <c r="ACB112" s="38"/>
+      <c r="ACC112" s="38"/>
+      <c r="ACD112" s="38"/>
+      <c r="ACE112" s="38"/>
+      <c r="ACF112" s="38"/>
+      <c r="ACG112" s="38"/>
+      <c r="ACH112" s="38"/>
+      <c r="ACI112" s="38"/>
+      <c r="ACJ112" s="38"/>
+      <c r="ACK112" s="38"/>
+      <c r="ACL112" s="38"/>
+      <c r="ACM112" s="38"/>
+      <c r="ACN112" s="38"/>
+      <c r="ACO112" s="38"/>
+      <c r="ACP112" s="38"/>
+      <c r="ACQ112" s="38"/>
+      <c r="ACR112" s="38"/>
+      <c r="ACS112" s="38"/>
+      <c r="ACT112" s="38"/>
+      <c r="ACU112" s="38"/>
+      <c r="ACV112" s="38"/>
+      <c r="ACW112" s="38"/>
+      <c r="ACX112" s="38"/>
+      <c r="ACY112" s="38"/>
+      <c r="ACZ112" s="38"/>
+      <c r="ADA112" s="38"/>
+      <c r="ADB112" s="38"/>
+      <c r="ADC112" s="38"/>
+      <c r="ADD112" s="38"/>
+      <c r="ADE112" s="38"/>
+      <c r="ADF112" s="38"/>
+      <c r="ADG112" s="38"/>
+      <c r="ADH112" s="38"/>
+      <c r="ADI112" s="38"/>
+      <c r="ADJ112" s="38"/>
+      <c r="ADK112" s="38"/>
+      <c r="ADL112" s="38"/>
+      <c r="ADM112" s="38"/>
+      <c r="ADN112" s="38"/>
+      <c r="ADO112" s="38"/>
+      <c r="ADP112" s="38"/>
+      <c r="ADQ112" s="38"/>
+      <c r="ADR112" s="38"/>
+      <c r="ADS112" s="38"/>
+      <c r="ADT112" s="38"/>
+      <c r="ADU112" s="38"/>
+      <c r="ADV112" s="38"/>
+      <c r="ADW112" s="38"/>
+      <c r="ADX112" s="38"/>
+      <c r="ADY112" s="38"/>
+      <c r="ADZ112" s="38"/>
+      <c r="AEA112" s="38"/>
+      <c r="AEB112" s="38"/>
+      <c r="AEC112" s="38"/>
+      <c r="AED112" s="38"/>
+      <c r="AEE112" s="38"/>
+      <c r="AEF112" s="38"/>
+      <c r="AEG112" s="38"/>
+      <c r="AEH112" s="38"/>
+      <c r="AEI112" s="38"/>
+      <c r="AEJ112" s="38"/>
+      <c r="AEK112" s="38"/>
+      <c r="AEL112" s="38"/>
+      <c r="AEM112" s="38"/>
+      <c r="AEN112" s="38"/>
+      <c r="AEO112" s="38"/>
+      <c r="AEP112" s="38"/>
+      <c r="AEQ112" s="38"/>
+      <c r="AER112" s="38"/>
+      <c r="AES112" s="38"/>
+      <c r="AET112" s="38"/>
+      <c r="AEU112" s="38"/>
+      <c r="AEV112" s="38"/>
+      <c r="AEW112" s="38"/>
+      <c r="AEX112" s="38"/>
+      <c r="AEY112" s="38"/>
+      <c r="AEZ112" s="38"/>
+      <c r="AFA112" s="38"/>
+      <c r="AFB112" s="38"/>
+      <c r="AFC112" s="38"/>
+      <c r="AFD112" s="38"/>
+      <c r="AFE112" s="38"/>
+      <c r="AFF112" s="38"/>
+      <c r="AFG112" s="38"/>
+      <c r="AFH112" s="38"/>
+      <c r="AFI112" s="38"/>
+      <c r="AFJ112" s="38"/>
+      <c r="AFK112" s="38"/>
+      <c r="AFL112" s="38"/>
+      <c r="AFM112" s="38"/>
+      <c r="AFN112" s="38"/>
+      <c r="AFO112" s="38"/>
+      <c r="AFP112" s="38"/>
+      <c r="AFQ112" s="38"/>
+      <c r="AFR112" s="38"/>
+      <c r="AFS112" s="38"/>
+      <c r="AFT112" s="38"/>
+      <c r="AFU112" s="38"/>
+      <c r="AFV112" s="38"/>
+      <c r="AFW112" s="38"/>
+      <c r="AFX112" s="38"/>
+      <c r="AFY112" s="38"/>
+      <c r="AFZ112" s="38"/>
+      <c r="AGA112" s="38"/>
+      <c r="AGB112" s="38"/>
+      <c r="AGC112" s="38"/>
+      <c r="AGD112" s="38"/>
+      <c r="AGE112" s="38"/>
+      <c r="AGF112" s="38"/>
+      <c r="AGG112" s="38"/>
+      <c r="AGH112" s="38"/>
+      <c r="AGI112" s="38"/>
+      <c r="AGJ112" s="38"/>
+      <c r="AGK112" s="38"/>
+      <c r="AGL112" s="38"/>
+      <c r="AGM112" s="38"/>
+      <c r="AGN112" s="38"/>
+      <c r="AGO112" s="38"/>
+      <c r="AGP112" s="38"/>
+      <c r="AGQ112" s="38"/>
+      <c r="AGR112" s="38"/>
+      <c r="AGS112" s="38"/>
+      <c r="AGT112" s="38"/>
+      <c r="AGU112" s="38"/>
+      <c r="AGV112" s="38"/>
+      <c r="AGW112" s="38"/>
+      <c r="AGX112" s="38"/>
+      <c r="AGY112" s="38"/>
+      <c r="AGZ112" s="38"/>
+      <c r="AHA112" s="38"/>
+      <c r="AHB112" s="38"/>
+      <c r="AHC112" s="38"/>
+      <c r="AHD112" s="38"/>
+      <c r="AHE112" s="38"/>
+      <c r="AHF112" s="38"/>
+      <c r="AHG112" s="38"/>
+      <c r="AHH112" s="38"/>
+      <c r="AHI112" s="38"/>
+      <c r="AHJ112" s="38"/>
+      <c r="AHK112" s="38"/>
+      <c r="AHL112" s="38"/>
+      <c r="AHM112" s="38"/>
+      <c r="AHN112" s="38"/>
+      <c r="AHO112" s="38"/>
+      <c r="AHP112" s="38"/>
+      <c r="AHQ112" s="38"/>
+      <c r="AHR112" s="38"/>
+      <c r="AHS112" s="38"/>
+      <c r="AHT112" s="38"/>
+      <c r="AHU112" s="38"/>
+      <c r="AHV112" s="38"/>
+      <c r="AHW112" s="38"/>
+      <c r="AHX112" s="38"/>
+      <c r="AHY112" s="38"/>
+      <c r="AHZ112" s="38"/>
+      <c r="AIA112" s="38"/>
+      <c r="AIB112" s="38"/>
+      <c r="AIC112" s="38"/>
+      <c r="AID112" s="38"/>
+      <c r="AIE112" s="38"/>
+      <c r="AIF112" s="38"/>
+      <c r="AIG112" s="38"/>
+      <c r="AIH112" s="38"/>
+      <c r="AII112" s="38"/>
+      <c r="AIJ112" s="38"/>
+      <c r="AIK112" s="38"/>
+      <c r="AIL112" s="38"/>
+      <c r="AIM112" s="38"/>
+      <c r="AIN112" s="38"/>
+      <c r="AIO112" s="38"/>
+      <c r="AIP112" s="38"/>
+      <c r="AIQ112" s="38"/>
+      <c r="AIR112" s="38"/>
+      <c r="AIS112" s="38"/>
+      <c r="AIT112" s="38"/>
+      <c r="AIU112" s="38"/>
+      <c r="AIV112" s="38"/>
+      <c r="AIW112" s="38"/>
+      <c r="AIX112" s="38"/>
+      <c r="AIY112" s="38"/>
+      <c r="AIZ112" s="38"/>
+      <c r="AJA112" s="38"/>
+      <c r="AJB112" s="38"/>
+      <c r="AJC112" s="38"/>
+      <c r="AJD112" s="38"/>
+      <c r="AJE112" s="38"/>
+      <c r="AJF112" s="38"/>
+      <c r="AJG112" s="38"/>
+      <c r="AJH112" s="38"/>
+      <c r="AJI112" s="38"/>
+      <c r="AJJ112" s="38"/>
+      <c r="AJK112" s="38"/>
+      <c r="AJL112" s="38"/>
+      <c r="AJM112" s="38"/>
+      <c r="AJN112" s="38"/>
+      <c r="AJO112" s="38"/>
+      <c r="AJP112" s="38"/>
+      <c r="AJQ112" s="38"/>
+      <c r="AJR112" s="38"/>
+      <c r="AJS112" s="38"/>
+      <c r="AJT112" s="38"/>
+      <c r="AJU112" s="38"/>
+      <c r="AJV112" s="38"/>
+      <c r="AJW112" s="38"/>
+      <c r="AJX112" s="38"/>
+      <c r="AJY112" s="38"/>
+      <c r="AJZ112" s="38"/>
+      <c r="AKA112" s="38"/>
+      <c r="AKB112" s="38"/>
+      <c r="AKC112" s="38"/>
+      <c r="AKD112" s="38"/>
+      <c r="AKE112" s="38"/>
+      <c r="AKF112" s="38"/>
+      <c r="AKG112" s="38"/>
+      <c r="AKH112" s="38"/>
+      <c r="AKI112" s="38"/>
+      <c r="AKJ112" s="38"/>
+      <c r="AKK112" s="38"/>
+      <c r="AKL112" s="38"/>
+      <c r="AKM112" s="38"/>
+      <c r="AKN112" s="38"/>
+      <c r="AKO112" s="38"/>
+      <c r="AKP112" s="38"/>
+      <c r="AKQ112" s="38"/>
+      <c r="AKR112" s="38"/>
+      <c r="AKS112" s="38"/>
+      <c r="AKT112" s="38"/>
+      <c r="AKU112" s="38"/>
+      <c r="AKV112" s="38"/>
+      <c r="AKW112" s="38"/>
+      <c r="AKX112" s="38"/>
+      <c r="AKY112" s="38"/>
+      <c r="AKZ112" s="38"/>
+      <c r="ALA112" s="38"/>
+      <c r="ALB112" s="38"/>
+      <c r="ALC112" s="38"/>
+      <c r="ALD112" s="38"/>
+      <c r="ALE112" s="38"/>
+      <c r="ALF112" s="38"/>
+      <c r="ALG112" s="38"/>
+      <c r="ALH112" s="38"/>
+      <c r="ALI112" s="38"/>
+      <c r="ALJ112" s="38"/>
+      <c r="ALK112" s="38"/>
+      <c r="ALL112" s="38"/>
+      <c r="ALM112" s="38"/>
+      <c r="ALN112" s="38"/>
+      <c r="ALO112" s="38"/>
+      <c r="ALP112" s="38"/>
+      <c r="ALQ112" s="38"/>
+      <c r="ALR112" s="38"/>
+      <c r="ALS112" s="38"/>
+      <c r="ALT112" s="38"/>
+      <c r="ALU112" s="38"/>
+      <c r="ALV112" s="38"/>
+      <c r="ALW112" s="38"/>
+      <c r="ALX112" s="38"/>
+      <c r="ALY112" s="38"/>
+      <c r="ALZ112" s="38"/>
+      <c r="AMA112" s="38"/>
+      <c r="AMB112" s="38"/>
+      <c r="AMC112" s="38"/>
+      <c r="AMD112" s="38"/>
+      <c r="AME112" s="38"/>
+      <c r="AMF112" s="38"/>
+      <c r="AMG112" s="38"/>
+      <c r="AMH112" s="38"/>
+      <c r="AMI112" s="38"/>
+      <c r="AMJ112" s="38"/>
+      <c r="AMK112" s="38"/>
+      <c r="AML112" s="38"/>
+      <c r="AMM112" s="38"/>
+      <c r="AMN112" s="38"/>
+      <c r="AMO112" s="38"/>
+      <c r="AMP112" s="38"/>
+      <c r="AMQ112" s="38"/>
+      <c r="AMR112" s="38"/>
+      <c r="AMS112" s="38"/>
+      <c r="AMT112" s="38"/>
+      <c r="AMU112" s="38"/>
+      <c r="AMV112" s="38"/>
+      <c r="AMW112" s="38"/>
+      <c r="AMX112" s="38"/>
+      <c r="AMY112" s="38"/>
+      <c r="AMZ112" s="38"/>
+      <c r="ANA112" s="38"/>
+      <c r="ANB112" s="38"/>
+      <c r="ANC112" s="38"/>
+      <c r="AND112" s="38"/>
+      <c r="ANE112" s="38"/>
+      <c r="ANF112" s="38"/>
+      <c r="ANG112" s="38"/>
+      <c r="ANH112" s="38"/>
+      <c r="ANI112" s="38"/>
+      <c r="ANJ112" s="38"/>
+      <c r="ANK112" s="38"/>
+      <c r="ANL112" s="38"/>
+      <c r="ANM112" s="38"/>
+      <c r="ANN112" s="38"/>
+      <c r="ANO112" s="38"/>
+      <c r="ANP112" s="38"/>
+      <c r="ANQ112" s="38"/>
+      <c r="ANR112" s="38"/>
+      <c r="ANS112" s="38"/>
+      <c r="ANT112" s="38"/>
+      <c r="ANU112" s="38"/>
+      <c r="ANV112" s="38"/>
+      <c r="ANW112" s="38"/>
+      <c r="ANX112" s="38"/>
+      <c r="ANY112" s="38"/>
+      <c r="ANZ112" s="38"/>
+      <c r="AOA112" s="38"/>
+      <c r="AOB112" s="38"/>
+      <c r="AOC112" s="38"/>
+      <c r="AOD112" s="38"/>
+      <c r="AOE112" s="38"/>
+      <c r="AOF112" s="38"/>
+      <c r="AOG112" s="38"/>
+      <c r="AOH112" s="38"/>
+      <c r="AOI112" s="38"/>
+      <c r="AOJ112" s="38"/>
+      <c r="AOK112" s="38"/>
+      <c r="AOL112" s="38"/>
+      <c r="AOM112" s="38"/>
+      <c r="AON112" s="38"/>
+      <c r="AOO112" s="38"/>
+      <c r="AOP112" s="38"/>
+      <c r="AOQ112" s="38"/>
+      <c r="AOR112" s="38"/>
+      <c r="AOS112" s="38"/>
+      <c r="AOT112" s="38"/>
+      <c r="AOU112" s="38"/>
+      <c r="AOV112" s="38"/>
+      <c r="AOW112" s="38"/>
+      <c r="AOX112" s="38"/>
+      <c r="AOY112" s="38"/>
+      <c r="AOZ112" s="38"/>
+      <c r="APA112" s="38"/>
+      <c r="APB112" s="38"/>
+      <c r="APC112" s="38"/>
+      <c r="APD112" s="38"/>
+      <c r="APE112" s="38"/>
+      <c r="APF112" s="38"/>
+      <c r="APG112" s="38"/>
+      <c r="APH112" s="38"/>
+      <c r="API112" s="38"/>
+      <c r="APJ112" s="38"/>
+      <c r="APK112" s="38"/>
+      <c r="APL112" s="38"/>
+      <c r="APM112" s="38"/>
+      <c r="APN112" s="38"/>
+      <c r="APO112" s="38"/>
+      <c r="APP112" s="38"/>
+      <c r="APQ112" s="38"/>
+      <c r="APR112" s="38"/>
+      <c r="APS112" s="38"/>
+      <c r="APT112" s="38"/>
+      <c r="APU112" s="38"/>
+      <c r="APV112" s="38"/>
+      <c r="APW112" s="38"/>
+      <c r="APX112" s="38"/>
+      <c r="APY112" s="38"/>
+      <c r="APZ112" s="38"/>
+      <c r="AQA112" s="38"/>
+      <c r="AQB112" s="38"/>
+      <c r="AQC112" s="38"/>
+      <c r="AQD112" s="38"/>
+      <c r="AQE112" s="38"/>
+      <c r="AQF112" s="38"/>
+      <c r="AQG112" s="38"/>
+      <c r="AQH112" s="38"/>
+      <c r="AQI112" s="38"/>
+      <c r="AQJ112" s="38"/>
+      <c r="AQK112" s="38"/>
+      <c r="AQL112" s="38"/>
+      <c r="AQM112" s="38"/>
+      <c r="AQN112" s="38"/>
+      <c r="AQO112" s="38"/>
+      <c r="AQP112" s="38"/>
+      <c r="AQQ112" s="38"/>
+      <c r="AQR112" s="38"/>
+      <c r="AQS112" s="38"/>
+      <c r="AQT112" s="38"/>
+      <c r="AQU112" s="38"/>
+      <c r="AQV112" s="38"/>
+      <c r="AQW112" s="38"/>
+      <c r="AQX112" s="38"/>
+      <c r="AQY112" s="38"/>
+      <c r="AQZ112" s="38"/>
+      <c r="ARA112" s="38"/>
+      <c r="ARB112" s="38"/>
+      <c r="ARC112" s="38"/>
+      <c r="ARD112" s="38"/>
+      <c r="ARE112" s="38"/>
+      <c r="ARF112" s="38"/>
+      <c r="ARG112" s="38"/>
+      <c r="ARH112" s="38"/>
+      <c r="ARI112" s="38"/>
+      <c r="ARJ112" s="38"/>
+      <c r="ARK112" s="38"/>
+      <c r="ARL112" s="38"/>
+      <c r="ARM112" s="38"/>
+      <c r="ARN112" s="38"/>
+      <c r="ARO112" s="38"/>
+      <c r="ARP112" s="38"/>
+      <c r="ARQ112" s="38"/>
+      <c r="ARR112" s="38"/>
+      <c r="ARS112" s="38"/>
+      <c r="ART112" s="38"/>
+      <c r="ARU112" s="38"/>
+      <c r="ARV112" s="38"/>
+      <c r="ARW112" s="38"/>
+      <c r="ARX112" s="38"/>
+      <c r="ARY112" s="38"/>
+      <c r="ARZ112" s="38"/>
+      <c r="ASA112" s="38"/>
+      <c r="ASB112" s="38"/>
+      <c r="ASC112" s="38"/>
+      <c r="ASD112" s="38"/>
+      <c r="ASE112" s="38"/>
+      <c r="ASF112" s="38"/>
+      <c r="ASG112" s="38"/>
+      <c r="ASH112" s="38"/>
+      <c r="ASI112" s="38"/>
+      <c r="ASJ112" s="38"/>
+      <c r="ASK112" s="38"/>
+      <c r="ASL112" s="38"/>
+      <c r="ASM112" s="38"/>
+      <c r="ASN112" s="38"/>
+      <c r="ASO112" s="38"/>
+      <c r="ASP112" s="38"/>
+      <c r="ASQ112" s="38"/>
+      <c r="ASR112" s="38"/>
+      <c r="ASS112" s="38"/>
+      <c r="AST112" s="38"/>
+      <c r="ASU112" s="38"/>
+      <c r="ASV112" s="38"/>
+      <c r="ASW112" s="38"/>
+      <c r="ASX112" s="38"/>
+      <c r="ASY112" s="38"/>
+      <c r="ASZ112" s="38"/>
+      <c r="ATA112" s="38"/>
+      <c r="ATB112" s="38"/>
+      <c r="ATC112" s="38"/>
+      <c r="ATD112" s="38"/>
+      <c r="ATE112" s="38"/>
+      <c r="ATF112" s="38"/>
+      <c r="ATG112" s="38"/>
+      <c r="ATH112" s="38"/>
+      <c r="ATI112" s="38"/>
+      <c r="ATJ112" s="38"/>
+      <c r="ATK112" s="38"/>
+      <c r="ATL112" s="38"/>
+      <c r="ATM112" s="38"/>
+      <c r="ATN112" s="38"/>
+      <c r="ATO112" s="38"/>
+      <c r="ATP112" s="38"/>
+      <c r="ATQ112" s="38"/>
+      <c r="ATR112" s="38"/>
+      <c r="ATS112" s="38"/>
+      <c r="ATT112" s="38"/>
+      <c r="ATU112" s="38"/>
+      <c r="ATV112" s="38"/>
+      <c r="ATW112" s="38"/>
+      <c r="ATX112" s="38"/>
+      <c r="ATY112" s="38"/>
+      <c r="ATZ112" s="38"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="41"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" s="52">
+        <v>1</v>
+      </c>
+      <c r="C116" s="42"/>
+    </row>
+    <row r="117" spans="1:3" ht="26.4">
+      <c r="A117" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="41"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="52">
+        <v>1</v>
+      </c>
+      <c r="C121" s="42"/>
+    </row>
+    <row r="122" spans="1:3" ht="26.4">
+      <c r="A122" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="41"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="52">
+        <v>1</v>
+      </c>
+      <c r="C126" s="42"/>
+    </row>
+    <row r="127" spans="1:3" ht="26.4">
+      <c r="A127" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="41"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" s="52">
+        <v>1</v>
+      </c>
+      <c r="C131" s="42"/>
+    </row>
+    <row r="132" spans="1:3" ht="26.4">
+      <c r="A132" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="41"/>
+      <c r="C133" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49336,8 +53677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.25" customHeight="1"/>

--- a/JSFDM/Framework.xlsx
+++ b/JSFDM/Framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="2220" windowHeight="2460" tabRatio="943" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="2220" windowHeight="2460" tabRatio="943" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="281">
   <si>
     <t>TestScenario</t>
   </si>
@@ -700,6 +700,192 @@
   </si>
   <si>
     <t>DeviceExplicitUnlock</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Get device state view</t>
+  </si>
+  <si>
+    <t>&lt;TC21&gt;</t>
+  </si>
+  <si>
+    <t>GetDeviceStateView</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>Attach system document</t>
+  </si>
+  <si>
+    <t>&lt;TC22&gt;</t>
+  </si>
+  <si>
+    <t>AttachSystemDocument</t>
+  </si>
+  <si>
+    <t>0906.fm8</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>Detach the system document</t>
+  </si>
+  <si>
+    <t>&lt;TC23&gt;</t>
+  </si>
+  <si>
+    <t>DetachSystemDocument</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>validate FDM device property option in entry point screen</t>
+  </si>
+  <si>
+    <t>&lt;TC24&gt;</t>
+  </si>
+  <si>
+    <t>CheckFDMDevicePropertyOption</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>Verify all created history for the device in "View history"</t>
+  </si>
+  <si>
+    <t>&lt;TC25&gt;</t>
+  </si>
+  <si>
+    <t>ValidateDeviceHistoryRecords</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>Opens device options, selects a specific DTM package, and configures the device with DTM (Online).</t>
+  </si>
+  <si>
+    <t>&lt;TC26&gt;</t>
+  </si>
+  <si>
+    <t>OptionsFunction</t>
+  </si>
+  <si>
+    <t>&lt;TC27&gt;</t>
+  </si>
+  <si>
+    <t>DeviceIconsCreateDisplayFilter</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>Navigates to Offline View, and creates Display Filter configuration.</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>Automates the creation of an offline DTM configuration in HCMClient.</t>
+  </si>
+  <si>
+    <t>&lt;TC28&gt;</t>
+  </si>
+  <si>
+    <t>DeviceICONSCreateDTMOfflineConfig</t>
+  </si>
+  <si>
+    <t>&lt;TC29&gt;</t>
+  </si>
+  <si>
+    <t>DeviceIconsDDOfflineView</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>Navigates to Offline View, and selects DD configuration.</t>
+  </si>
+  <si>
+    <t>&lt;TC30&gt;</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>Navigates to Device Icon and view library</t>
+  </si>
+  <si>
+    <t>DeviceIconsLibraryView</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>Creates a DD Offline Configuration using fixed input values and validates save.</t>
+  </si>
+  <si>
+    <t>&lt;TC31&gt;</t>
+  </si>
+  <si>
+    <t>sensorType</t>
+  </si>
+  <si>
+    <t>DeviceRevision</t>
+  </si>
+  <si>
+    <t>DDRevision</t>
+  </si>
+  <si>
+    <t>connectionType</t>
+  </si>
+  <si>
+    <t>Rosemount_38</t>
+  </si>
+  <si>
+    <t>644 Temperature*</t>
+  </si>
+  <si>
+    <t>Cu 10</t>
+  </si>
+  <si>
+    <t>3 Wire</t>
+  </si>
+  <si>
+    <t>OfflineDDCreateConfiguration</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>Validate to Launch Alert Monitoring Dashboard</t>
+  </si>
+  <si>
+    <t>Validate to Launch PAV Dashboard</t>
+  </si>
+  <si>
+    <t>&lt;TC32&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TC33&gt;</t>
+  </si>
+  <si>
+    <t>LaunchPAVDashboard</t>
+  </si>
+  <si>
+    <t>LaunchAlertMonitoring</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1676,6 +1862,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1775,7 +1970,7 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1917,6 +2112,7 @@
     <xf numFmtId="0" fontId="26" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="96">
     <cellStyle name="20% - Accent1" xfId="66" builtinId="30" customBuiltin="1"/>
@@ -2375,15 +2571,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="122.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="37"/>
+    <col min="1" max="1" width="30.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="122.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1">
@@ -2446,15 +2642,15 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="122.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="37"/>
+    <col min="1" max="1" width="30.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="122.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1">
@@ -2473,7 +2669,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>50</v>
@@ -2484,7 +2680,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>49</v>
@@ -2495,7 +2691,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>52</v>
@@ -2506,7 +2702,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>58</v>
@@ -2517,7 +2713,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>60</v>
@@ -2528,7 +2724,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>66</v>
@@ -2539,7 +2735,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>69</v>
@@ -2550,7 +2746,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>101</v>
@@ -2561,7 +2757,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>97</v>
@@ -2572,7 +2768,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>79</v>
@@ -2588,19 +2784,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AUC84"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.109375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="1225" width="9.109375" style="38"/>
-    <col min="1226" max="16384" width="9.109375" style="37"/>
+    <col min="1" max="1" width="54.140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="1225" width="9.140625" style="38"/>
+    <col min="1226" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1225" s="39" customFormat="1">
@@ -10582,18 +10778,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="122.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="37"/>
+    <col min="1" max="1" width="30.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="122.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1">
@@ -10827,6 +11023,149 @@
         <v>213</v>
       </c>
     </row>
+    <row r="22" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A22" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="62">
+        <v>0</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A23" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="62">
+        <v>0</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A24" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="62">
+        <v>0</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A25" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="62">
+        <v>0</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A26" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="62">
+        <v>0</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A27" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="62">
+        <v>0</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A28" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="62">
+        <v>0</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A29" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="62">
+        <v>0</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A30" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="62">
+        <v>0</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A31" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="62">
+        <v>0</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A32" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="62">
+        <v>0</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A33" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="B33" s="62">
+        <v>0</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A34" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" s="62">
+        <v>1</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10835,20 +11174,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ATZ133"/>
+  <dimension ref="A1:ATZ204"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView topLeftCell="A198" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.109375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="1222" width="9.109375" style="17"/>
+    <col min="1" max="1" width="54.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="1222" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1222" s="24" customFormat="1">
@@ -24347,7 +24686,7 @@
       </c>
       <c r="C13" s="41"/>
     </row>
-    <row r="14" spans="1:1222" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="14" spans="1:1222" ht="17.45" hidden="1" customHeight="1">
       <c r="A14" s="52" t="s">
         <v>110</v>
       </c>
@@ -32997,7 +33336,7 @@
       <c r="C28" s="42"/>
       <c r="E28" s="38"/>
     </row>
-    <row r="29" spans="1:1222" ht="26.4">
+    <row r="29" spans="1:1222" ht="25.5">
       <c r="A29" s="43" t="s">
         <v>133</v>
       </c>
@@ -35536,7 +35875,7 @@
       </c>
       <c r="C43" s="42"/>
     </row>
-    <row r="44" spans="1:1222" ht="26.4">
+    <row r="44" spans="1:1222" ht="25.5">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43" t="s">
@@ -40477,7 +40816,7 @@
       </c>
       <c r="C52" s="42"/>
     </row>
-    <row r="53" spans="1:1222" ht="26.4">
+    <row r="53" spans="1:1222" ht="25.5">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43" t="s">
@@ -49257,7 +49596,7 @@
       </c>
       <c r="C86" s="42"/>
     </row>
-    <row r="87" spans="1:1222" ht="26.4">
+    <row r="87" spans="1:1222" ht="25.5">
       <c r="A87" s="43" t="s">
         <v>133</v>
       </c>
@@ -49314,7 +49653,7 @@
       </c>
       <c r="C93" s="42"/>
     </row>
-    <row r="94" spans="1:1222" ht="26.4">
+    <row r="94" spans="1:1222" ht="25.5">
       <c r="A94" s="43" t="s">
         <v>133</v>
       </c>
@@ -49348,7 +49687,7 @@
       </c>
       <c r="C98" s="42"/>
     </row>
-    <row r="99" spans="1:1222" ht="26.4">
+    <row r="99" spans="1:1222" ht="25.5">
       <c r="A99" s="43" t="s">
         <v>133</v>
       </c>
@@ -49412,7 +49751,7 @@
       </c>
       <c r="C108" s="42"/>
     </row>
-    <row r="109" spans="1:1222" ht="26.4">
+    <row r="109" spans="1:1222" ht="25.5">
       <c r="A109" s="43" t="s">
         <v>133</v>
       </c>
@@ -53130,7 +53469,7 @@
       </c>
       <c r="C116" s="42"/>
     </row>
-    <row r="117" spans="1:3" ht="26.4">
+    <row r="117" spans="1:3" ht="25.5">
       <c r="A117" s="43" t="s">
         <v>133</v>
       </c>
@@ -53164,7 +53503,7 @@
       </c>
       <c r="C121" s="42"/>
     </row>
-    <row r="122" spans="1:3" ht="26.4">
+    <row r="122" spans="1:3" ht="25.5">
       <c r="A122" s="43" t="s">
         <v>133</v>
       </c>
@@ -53198,7 +53537,7 @@
       </c>
       <c r="C126" s="42"/>
     </row>
-    <row r="127" spans="1:3" ht="26.4">
+    <row r="127" spans="1:3" ht="25.5">
       <c r="A127" s="43" t="s">
         <v>133</v>
       </c>
@@ -53232,7 +53571,7 @@
       </c>
       <c r="C131" s="42"/>
     </row>
-    <row r="132" spans="1:3" ht="26.4">
+    <row r="132" spans="1:3" ht="25.5">
       <c r="A132" s="43" t="s">
         <v>133</v>
       </c>
@@ -53248,6 +53587,7788 @@
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
     </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B135" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="41"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="B136" s="52">
+        <v>1</v>
+      </c>
+      <c r="C136" s="42"/>
+    </row>
+    <row r="137" spans="1:3" ht="25.5">
+      <c r="A137" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B140" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" s="41"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" s="52">
+        <v>1</v>
+      </c>
+      <c r="C141" s="42"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B142" s="43"/>
+      <c r="C142" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B145" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="41"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" s="52">
+        <v>1</v>
+      </c>
+      <c r="C146" s="42"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="41"/>
+      <c r="C148" s="41"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B150" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="41"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B151" s="52">
+        <v>1</v>
+      </c>
+      <c r="C151" s="42"/>
+    </row>
+    <row r="152" spans="1:3" ht="25.5">
+      <c r="A152" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B152" s="43"/>
+      <c r="C152" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B155" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="41"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B156" s="52">
+        <v>1</v>
+      </c>
+      <c r="C156" s="42"/>
+    </row>
+    <row r="157" spans="1:3" ht="25.5">
+      <c r="A157" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="43"/>
+      <c r="C157" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="41"/>
+      <c r="C158" s="41"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B160" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="41"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B161" s="52">
+        <v>1</v>
+      </c>
+      <c r="C161" s="42"/>
+    </row>
+    <row r="162" spans="1:3" ht="25.5">
+      <c r="A162" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="41"/>
+      <c r="C163" s="41"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B165" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="41"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B166" s="52">
+        <v>1</v>
+      </c>
+      <c r="C166" s="42"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="43"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="43"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="41"/>
+      <c r="C168" s="41"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="B170" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" s="41"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B171" s="52">
+        <v>1</v>
+      </c>
+      <c r="C171" s="42"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="43"/>
+      <c r="B172" s="43"/>
+      <c r="C172" s="43"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B175" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175" s="41"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B176" s="52">
+        <v>1</v>
+      </c>
+      <c r="C176" s="42"/>
+    </row>
+    <row r="177" spans="1:1222">
+      <c r="A177" s="43"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="43"/>
+    </row>
+    <row r="178" spans="1:1222">
+      <c r="A178" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="41"/>
+      <c r="C178" s="41"/>
+    </row>
+    <row r="180" spans="1:1222">
+      <c r="A180" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B180" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" s="41"/>
+    </row>
+    <row r="181" spans="1:1222">
+      <c r="A181" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B181" s="52">
+        <v>1</v>
+      </c>
+      <c r="C181" s="42"/>
+    </row>
+    <row r="182" spans="1:1222">
+      <c r="A182" s="43"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="43"/>
+    </row>
+    <row r="183" spans="1:1222">
+      <c r="A183" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="41"/>
+      <c r="C183" s="41"/>
+    </row>
+    <row r="185" spans="1:1222">
+      <c r="A185" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B185" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" s="41"/>
+    </row>
+    <row r="186" spans="1:1222">
+      <c r="A186" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B186" s="52">
+        <v>7</v>
+      </c>
+      <c r="C186" s="42"/>
+    </row>
+    <row r="187" spans="1:1222">
+      <c r="A187" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B187" s="43"/>
+      <c r="C187" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1222" s="37" customFormat="1">
+      <c r="A188" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B188" s="43"/>
+      <c r="C188" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="D188" s="38"/>
+      <c r="E188" s="38"/>
+      <c r="F188" s="38"/>
+      <c r="G188" s="38"/>
+      <c r="H188" s="38"/>
+      <c r="I188" s="38"/>
+      <c r="J188" s="38"/>
+      <c r="K188" s="38"/>
+      <c r="L188" s="38"/>
+      <c r="M188" s="38"/>
+      <c r="N188" s="38"/>
+      <c r="O188" s="38"/>
+      <c r="P188" s="38"/>
+      <c r="Q188" s="38"/>
+      <c r="R188" s="38"/>
+      <c r="S188" s="38"/>
+      <c r="T188" s="38"/>
+      <c r="U188" s="38"/>
+      <c r="V188" s="38"/>
+      <c r="W188" s="38"/>
+      <c r="X188" s="38"/>
+      <c r="Y188" s="38"/>
+      <c r="Z188" s="38"/>
+      <c r="AA188" s="38"/>
+      <c r="AB188" s="38"/>
+      <c r="AC188" s="38"/>
+      <c r="AD188" s="38"/>
+      <c r="AE188" s="38"/>
+      <c r="AF188" s="38"/>
+      <c r="AG188" s="38"/>
+      <c r="AH188" s="38"/>
+      <c r="AI188" s="38"/>
+      <c r="AJ188" s="38"/>
+      <c r="AK188" s="38"/>
+      <c r="AL188" s="38"/>
+      <c r="AM188" s="38"/>
+      <c r="AN188" s="38"/>
+      <c r="AO188" s="38"/>
+      <c r="AP188" s="38"/>
+      <c r="AQ188" s="38"/>
+      <c r="AR188" s="38"/>
+      <c r="AS188" s="38"/>
+      <c r="AT188" s="38"/>
+      <c r="AU188" s="38"/>
+      <c r="AV188" s="38"/>
+      <c r="AW188" s="38"/>
+      <c r="AX188" s="38"/>
+      <c r="AY188" s="38"/>
+      <c r="AZ188" s="38"/>
+      <c r="BA188" s="38"/>
+      <c r="BB188" s="38"/>
+      <c r="BC188" s="38"/>
+      <c r="BD188" s="38"/>
+      <c r="BE188" s="38"/>
+      <c r="BF188" s="38"/>
+      <c r="BG188" s="38"/>
+      <c r="BH188" s="38"/>
+      <c r="BI188" s="38"/>
+      <c r="BJ188" s="38"/>
+      <c r="BK188" s="38"/>
+      <c r="BL188" s="38"/>
+      <c r="BM188" s="38"/>
+      <c r="BN188" s="38"/>
+      <c r="BO188" s="38"/>
+      <c r="BP188" s="38"/>
+      <c r="BQ188" s="38"/>
+      <c r="BR188" s="38"/>
+      <c r="BS188" s="38"/>
+      <c r="BT188" s="38"/>
+      <c r="BU188" s="38"/>
+      <c r="BV188" s="38"/>
+      <c r="BW188" s="38"/>
+      <c r="BX188" s="38"/>
+      <c r="BY188" s="38"/>
+      <c r="BZ188" s="38"/>
+      <c r="CA188" s="38"/>
+      <c r="CB188" s="38"/>
+      <c r="CC188" s="38"/>
+      <c r="CD188" s="38"/>
+      <c r="CE188" s="38"/>
+      <c r="CF188" s="38"/>
+      <c r="CG188" s="38"/>
+      <c r="CH188" s="38"/>
+      <c r="CI188" s="38"/>
+      <c r="CJ188" s="38"/>
+      <c r="CK188" s="38"/>
+      <c r="CL188" s="38"/>
+      <c r="CM188" s="38"/>
+      <c r="CN188" s="38"/>
+      <c r="CO188" s="38"/>
+      <c r="CP188" s="38"/>
+      <c r="CQ188" s="38"/>
+      <c r="CR188" s="38"/>
+      <c r="CS188" s="38"/>
+      <c r="CT188" s="38"/>
+      <c r="CU188" s="38"/>
+      <c r="CV188" s="38"/>
+      <c r="CW188" s="38"/>
+      <c r="CX188" s="38"/>
+      <c r="CY188" s="38"/>
+      <c r="CZ188" s="38"/>
+      <c r="DA188" s="38"/>
+      <c r="DB188" s="38"/>
+      <c r="DC188" s="38"/>
+      <c r="DD188" s="38"/>
+      <c r="DE188" s="38"/>
+      <c r="DF188" s="38"/>
+      <c r="DG188" s="38"/>
+      <c r="DH188" s="38"/>
+      <c r="DI188" s="38"/>
+      <c r="DJ188" s="38"/>
+      <c r="DK188" s="38"/>
+      <c r="DL188" s="38"/>
+      <c r="DM188" s="38"/>
+      <c r="DN188" s="38"/>
+      <c r="DO188" s="38"/>
+      <c r="DP188" s="38"/>
+      <c r="DQ188" s="38"/>
+      <c r="DR188" s="38"/>
+      <c r="DS188" s="38"/>
+      <c r="DT188" s="38"/>
+      <c r="DU188" s="38"/>
+      <c r="DV188" s="38"/>
+      <c r="DW188" s="38"/>
+      <c r="DX188" s="38"/>
+      <c r="DY188" s="38"/>
+      <c r="DZ188" s="38"/>
+      <c r="EA188" s="38"/>
+      <c r="EB188" s="38"/>
+      <c r="EC188" s="38"/>
+      <c r="ED188" s="38"/>
+      <c r="EE188" s="38"/>
+      <c r="EF188" s="38"/>
+      <c r="EG188" s="38"/>
+      <c r="EH188" s="38"/>
+      <c r="EI188" s="38"/>
+      <c r="EJ188" s="38"/>
+      <c r="EK188" s="38"/>
+      <c r="EL188" s="38"/>
+      <c r="EM188" s="38"/>
+      <c r="EN188" s="38"/>
+      <c r="EO188" s="38"/>
+      <c r="EP188" s="38"/>
+      <c r="EQ188" s="38"/>
+      <c r="ER188" s="38"/>
+      <c r="ES188" s="38"/>
+      <c r="ET188" s="38"/>
+      <c r="EU188" s="38"/>
+      <c r="EV188" s="38"/>
+      <c r="EW188" s="38"/>
+      <c r="EX188" s="38"/>
+      <c r="EY188" s="38"/>
+      <c r="EZ188" s="38"/>
+      <c r="FA188" s="38"/>
+      <c r="FB188" s="38"/>
+      <c r="FC188" s="38"/>
+      <c r="FD188" s="38"/>
+      <c r="FE188" s="38"/>
+      <c r="FF188" s="38"/>
+      <c r="FG188" s="38"/>
+      <c r="FH188" s="38"/>
+      <c r="FI188" s="38"/>
+      <c r="FJ188" s="38"/>
+      <c r="FK188" s="38"/>
+      <c r="FL188" s="38"/>
+      <c r="FM188" s="38"/>
+      <c r="FN188" s="38"/>
+      <c r="FO188" s="38"/>
+      <c r="FP188" s="38"/>
+      <c r="FQ188" s="38"/>
+      <c r="FR188" s="38"/>
+      <c r="FS188" s="38"/>
+      <c r="FT188" s="38"/>
+      <c r="FU188" s="38"/>
+      <c r="FV188" s="38"/>
+      <c r="FW188" s="38"/>
+      <c r="FX188" s="38"/>
+      <c r="FY188" s="38"/>
+      <c r="FZ188" s="38"/>
+      <c r="GA188" s="38"/>
+      <c r="GB188" s="38"/>
+      <c r="GC188" s="38"/>
+      <c r="GD188" s="38"/>
+      <c r="GE188" s="38"/>
+      <c r="GF188" s="38"/>
+      <c r="GG188" s="38"/>
+      <c r="GH188" s="38"/>
+      <c r="GI188" s="38"/>
+      <c r="GJ188" s="38"/>
+      <c r="GK188" s="38"/>
+      <c r="GL188" s="38"/>
+      <c r="GM188" s="38"/>
+      <c r="GN188" s="38"/>
+      <c r="GO188" s="38"/>
+      <c r="GP188" s="38"/>
+      <c r="GQ188" s="38"/>
+      <c r="GR188" s="38"/>
+      <c r="GS188" s="38"/>
+      <c r="GT188" s="38"/>
+      <c r="GU188" s="38"/>
+      <c r="GV188" s="38"/>
+      <c r="GW188" s="38"/>
+      <c r="GX188" s="38"/>
+      <c r="GY188" s="38"/>
+      <c r="GZ188" s="38"/>
+      <c r="HA188" s="38"/>
+      <c r="HB188" s="38"/>
+      <c r="HC188" s="38"/>
+      <c r="HD188" s="38"/>
+      <c r="HE188" s="38"/>
+      <c r="HF188" s="38"/>
+      <c r="HG188" s="38"/>
+      <c r="HH188" s="38"/>
+      <c r="HI188" s="38"/>
+      <c r="HJ188" s="38"/>
+      <c r="HK188" s="38"/>
+      <c r="HL188" s="38"/>
+      <c r="HM188" s="38"/>
+      <c r="HN188" s="38"/>
+      <c r="HO188" s="38"/>
+      <c r="HP188" s="38"/>
+      <c r="HQ188" s="38"/>
+      <c r="HR188" s="38"/>
+      <c r="HS188" s="38"/>
+      <c r="HT188" s="38"/>
+      <c r="HU188" s="38"/>
+      <c r="HV188" s="38"/>
+      <c r="HW188" s="38"/>
+      <c r="HX188" s="38"/>
+      <c r="HY188" s="38"/>
+      <c r="HZ188" s="38"/>
+      <c r="IA188" s="38"/>
+      <c r="IB188" s="38"/>
+      <c r="IC188" s="38"/>
+      <c r="ID188" s="38"/>
+      <c r="IE188" s="38"/>
+      <c r="IF188" s="38"/>
+      <c r="IG188" s="38"/>
+      <c r="IH188" s="38"/>
+      <c r="II188" s="38"/>
+      <c r="IJ188" s="38"/>
+      <c r="IK188" s="38"/>
+      <c r="IL188" s="38"/>
+      <c r="IM188" s="38"/>
+      <c r="IN188" s="38"/>
+      <c r="IO188" s="38"/>
+      <c r="IP188" s="38"/>
+      <c r="IQ188" s="38"/>
+      <c r="IR188" s="38"/>
+      <c r="IS188" s="38"/>
+      <c r="IT188" s="38"/>
+      <c r="IU188" s="38"/>
+      <c r="IV188" s="38"/>
+      <c r="IW188" s="38"/>
+      <c r="IX188" s="38"/>
+      <c r="IY188" s="38"/>
+      <c r="IZ188" s="38"/>
+      <c r="JA188" s="38"/>
+      <c r="JB188" s="38"/>
+      <c r="JC188" s="38"/>
+      <c r="JD188" s="38"/>
+      <c r="JE188" s="38"/>
+      <c r="JF188" s="38"/>
+      <c r="JG188" s="38"/>
+      <c r="JH188" s="38"/>
+      <c r="JI188" s="38"/>
+      <c r="JJ188" s="38"/>
+      <c r="JK188" s="38"/>
+      <c r="JL188" s="38"/>
+      <c r="JM188" s="38"/>
+      <c r="JN188" s="38"/>
+      <c r="JO188" s="38"/>
+      <c r="JP188" s="38"/>
+      <c r="JQ188" s="38"/>
+      <c r="JR188" s="38"/>
+      <c r="JS188" s="38"/>
+      <c r="JT188" s="38"/>
+      <c r="JU188" s="38"/>
+      <c r="JV188" s="38"/>
+      <c r="JW188" s="38"/>
+      <c r="JX188" s="38"/>
+      <c r="JY188" s="38"/>
+      <c r="JZ188" s="38"/>
+      <c r="KA188" s="38"/>
+      <c r="KB188" s="38"/>
+      <c r="KC188" s="38"/>
+      <c r="KD188" s="38"/>
+      <c r="KE188" s="38"/>
+      <c r="KF188" s="38"/>
+      <c r="KG188" s="38"/>
+      <c r="KH188" s="38"/>
+      <c r="KI188" s="38"/>
+      <c r="KJ188" s="38"/>
+      <c r="KK188" s="38"/>
+      <c r="KL188" s="38"/>
+      <c r="KM188" s="38"/>
+      <c r="KN188" s="38"/>
+      <c r="KO188" s="38"/>
+      <c r="KP188" s="38"/>
+      <c r="KQ188" s="38"/>
+      <c r="KR188" s="38"/>
+      <c r="KS188" s="38"/>
+      <c r="KT188" s="38"/>
+      <c r="KU188" s="38"/>
+      <c r="KV188" s="38"/>
+      <c r="KW188" s="38"/>
+      <c r="KX188" s="38"/>
+      <c r="KY188" s="38"/>
+      <c r="KZ188" s="38"/>
+      <c r="LA188" s="38"/>
+      <c r="LB188" s="38"/>
+      <c r="LC188" s="38"/>
+      <c r="LD188" s="38"/>
+      <c r="LE188" s="38"/>
+      <c r="LF188" s="38"/>
+      <c r="LG188" s="38"/>
+      <c r="LH188" s="38"/>
+      <c r="LI188" s="38"/>
+      <c r="LJ188" s="38"/>
+      <c r="LK188" s="38"/>
+      <c r="LL188" s="38"/>
+      <c r="LM188" s="38"/>
+      <c r="LN188" s="38"/>
+      <c r="LO188" s="38"/>
+      <c r="LP188" s="38"/>
+      <c r="LQ188" s="38"/>
+      <c r="LR188" s="38"/>
+      <c r="LS188" s="38"/>
+      <c r="LT188" s="38"/>
+      <c r="LU188" s="38"/>
+      <c r="LV188" s="38"/>
+      <c r="LW188" s="38"/>
+      <c r="LX188" s="38"/>
+      <c r="LY188" s="38"/>
+      <c r="LZ188" s="38"/>
+      <c r="MA188" s="38"/>
+      <c r="MB188" s="38"/>
+      <c r="MC188" s="38"/>
+      <c r="MD188" s="38"/>
+      <c r="ME188" s="38"/>
+      <c r="MF188" s="38"/>
+      <c r="MG188" s="38"/>
+      <c r="MH188" s="38"/>
+      <c r="MI188" s="38"/>
+      <c r="MJ188" s="38"/>
+      <c r="MK188" s="38"/>
+      <c r="ML188" s="38"/>
+      <c r="MM188" s="38"/>
+      <c r="MN188" s="38"/>
+      <c r="MO188" s="38"/>
+      <c r="MP188" s="38"/>
+      <c r="MQ188" s="38"/>
+      <c r="MR188" s="38"/>
+      <c r="MS188" s="38"/>
+      <c r="MT188" s="38"/>
+      <c r="MU188" s="38"/>
+      <c r="MV188" s="38"/>
+      <c r="MW188" s="38"/>
+      <c r="MX188" s="38"/>
+      <c r="MY188" s="38"/>
+      <c r="MZ188" s="38"/>
+      <c r="NA188" s="38"/>
+      <c r="NB188" s="38"/>
+      <c r="NC188" s="38"/>
+      <c r="ND188" s="38"/>
+      <c r="NE188" s="38"/>
+      <c r="NF188" s="38"/>
+      <c r="NG188" s="38"/>
+      <c r="NH188" s="38"/>
+      <c r="NI188" s="38"/>
+      <c r="NJ188" s="38"/>
+      <c r="NK188" s="38"/>
+      <c r="NL188" s="38"/>
+      <c r="NM188" s="38"/>
+      <c r="NN188" s="38"/>
+      <c r="NO188" s="38"/>
+      <c r="NP188" s="38"/>
+      <c r="NQ188" s="38"/>
+      <c r="NR188" s="38"/>
+      <c r="NS188" s="38"/>
+      <c r="NT188" s="38"/>
+      <c r="NU188" s="38"/>
+      <c r="NV188" s="38"/>
+      <c r="NW188" s="38"/>
+      <c r="NX188" s="38"/>
+      <c r="NY188" s="38"/>
+      <c r="NZ188" s="38"/>
+      <c r="OA188" s="38"/>
+      <c r="OB188" s="38"/>
+      <c r="OC188" s="38"/>
+      <c r="OD188" s="38"/>
+      <c r="OE188" s="38"/>
+      <c r="OF188" s="38"/>
+      <c r="OG188" s="38"/>
+      <c r="OH188" s="38"/>
+      <c r="OI188" s="38"/>
+      <c r="OJ188" s="38"/>
+      <c r="OK188" s="38"/>
+      <c r="OL188" s="38"/>
+      <c r="OM188" s="38"/>
+      <c r="ON188" s="38"/>
+      <c r="OO188" s="38"/>
+      <c r="OP188" s="38"/>
+      <c r="OQ188" s="38"/>
+      <c r="OR188" s="38"/>
+      <c r="OS188" s="38"/>
+      <c r="OT188" s="38"/>
+      <c r="OU188" s="38"/>
+      <c r="OV188" s="38"/>
+      <c r="OW188" s="38"/>
+      <c r="OX188" s="38"/>
+      <c r="OY188" s="38"/>
+      <c r="OZ188" s="38"/>
+      <c r="PA188" s="38"/>
+      <c r="PB188" s="38"/>
+      <c r="PC188" s="38"/>
+      <c r="PD188" s="38"/>
+      <c r="PE188" s="38"/>
+      <c r="PF188" s="38"/>
+      <c r="PG188" s="38"/>
+      <c r="PH188" s="38"/>
+      <c r="PI188" s="38"/>
+      <c r="PJ188" s="38"/>
+      <c r="PK188" s="38"/>
+      <c r="PL188" s="38"/>
+      <c r="PM188" s="38"/>
+      <c r="PN188" s="38"/>
+      <c r="PO188" s="38"/>
+      <c r="PP188" s="38"/>
+      <c r="PQ188" s="38"/>
+      <c r="PR188" s="38"/>
+      <c r="PS188" s="38"/>
+      <c r="PT188" s="38"/>
+      <c r="PU188" s="38"/>
+      <c r="PV188" s="38"/>
+      <c r="PW188" s="38"/>
+      <c r="PX188" s="38"/>
+      <c r="PY188" s="38"/>
+      <c r="PZ188" s="38"/>
+      <c r="QA188" s="38"/>
+      <c r="QB188" s="38"/>
+      <c r="QC188" s="38"/>
+      <c r="QD188" s="38"/>
+      <c r="QE188" s="38"/>
+      <c r="QF188" s="38"/>
+      <c r="QG188" s="38"/>
+      <c r="QH188" s="38"/>
+      <c r="QI188" s="38"/>
+      <c r="QJ188" s="38"/>
+      <c r="QK188" s="38"/>
+      <c r="QL188" s="38"/>
+      <c r="QM188" s="38"/>
+      <c r="QN188" s="38"/>
+      <c r="QO188" s="38"/>
+      <c r="QP188" s="38"/>
+      <c r="QQ188" s="38"/>
+      <c r="QR188" s="38"/>
+      <c r="QS188" s="38"/>
+      <c r="QT188" s="38"/>
+      <c r="QU188" s="38"/>
+      <c r="QV188" s="38"/>
+      <c r="QW188" s="38"/>
+      <c r="QX188" s="38"/>
+      <c r="QY188" s="38"/>
+      <c r="QZ188" s="38"/>
+      <c r="RA188" s="38"/>
+      <c r="RB188" s="38"/>
+      <c r="RC188" s="38"/>
+      <c r="RD188" s="38"/>
+      <c r="RE188" s="38"/>
+      <c r="RF188" s="38"/>
+      <c r="RG188" s="38"/>
+      <c r="RH188" s="38"/>
+      <c r="RI188" s="38"/>
+      <c r="RJ188" s="38"/>
+      <c r="RK188" s="38"/>
+      <c r="RL188" s="38"/>
+      <c r="RM188" s="38"/>
+      <c r="RN188" s="38"/>
+      <c r="RO188" s="38"/>
+      <c r="RP188" s="38"/>
+      <c r="RQ188" s="38"/>
+      <c r="RR188" s="38"/>
+      <c r="RS188" s="38"/>
+      <c r="RT188" s="38"/>
+      <c r="RU188" s="38"/>
+      <c r="RV188" s="38"/>
+      <c r="RW188" s="38"/>
+      <c r="RX188" s="38"/>
+      <c r="RY188" s="38"/>
+      <c r="RZ188" s="38"/>
+      <c r="SA188" s="38"/>
+      <c r="SB188" s="38"/>
+      <c r="SC188" s="38"/>
+      <c r="SD188" s="38"/>
+      <c r="SE188" s="38"/>
+      <c r="SF188" s="38"/>
+      <c r="SG188" s="38"/>
+      <c r="SH188" s="38"/>
+      <c r="SI188" s="38"/>
+      <c r="SJ188" s="38"/>
+      <c r="SK188" s="38"/>
+      <c r="SL188" s="38"/>
+      <c r="SM188" s="38"/>
+      <c r="SN188" s="38"/>
+      <c r="SO188" s="38"/>
+      <c r="SP188" s="38"/>
+      <c r="SQ188" s="38"/>
+      <c r="SR188" s="38"/>
+      <c r="SS188" s="38"/>
+      <c r="ST188" s="38"/>
+      <c r="SU188" s="38"/>
+      <c r="SV188" s="38"/>
+      <c r="SW188" s="38"/>
+      <c r="SX188" s="38"/>
+      <c r="SY188" s="38"/>
+      <c r="SZ188" s="38"/>
+      <c r="TA188" s="38"/>
+      <c r="TB188" s="38"/>
+      <c r="TC188" s="38"/>
+      <c r="TD188" s="38"/>
+      <c r="TE188" s="38"/>
+      <c r="TF188" s="38"/>
+      <c r="TG188" s="38"/>
+      <c r="TH188" s="38"/>
+      <c r="TI188" s="38"/>
+      <c r="TJ188" s="38"/>
+      <c r="TK188" s="38"/>
+      <c r="TL188" s="38"/>
+      <c r="TM188" s="38"/>
+      <c r="TN188" s="38"/>
+      <c r="TO188" s="38"/>
+      <c r="TP188" s="38"/>
+      <c r="TQ188" s="38"/>
+      <c r="TR188" s="38"/>
+      <c r="TS188" s="38"/>
+      <c r="TT188" s="38"/>
+      <c r="TU188" s="38"/>
+      <c r="TV188" s="38"/>
+      <c r="TW188" s="38"/>
+      <c r="TX188" s="38"/>
+      <c r="TY188" s="38"/>
+      <c r="TZ188" s="38"/>
+      <c r="UA188" s="38"/>
+      <c r="UB188" s="38"/>
+      <c r="UC188" s="38"/>
+      <c r="UD188" s="38"/>
+      <c r="UE188" s="38"/>
+      <c r="UF188" s="38"/>
+      <c r="UG188" s="38"/>
+      <c r="UH188" s="38"/>
+      <c r="UI188" s="38"/>
+      <c r="UJ188" s="38"/>
+      <c r="UK188" s="38"/>
+      <c r="UL188" s="38"/>
+      <c r="UM188" s="38"/>
+      <c r="UN188" s="38"/>
+      <c r="UO188" s="38"/>
+      <c r="UP188" s="38"/>
+      <c r="UQ188" s="38"/>
+      <c r="UR188" s="38"/>
+      <c r="US188" s="38"/>
+      <c r="UT188" s="38"/>
+      <c r="UU188" s="38"/>
+      <c r="UV188" s="38"/>
+      <c r="UW188" s="38"/>
+      <c r="UX188" s="38"/>
+      <c r="UY188" s="38"/>
+      <c r="UZ188" s="38"/>
+      <c r="VA188" s="38"/>
+      <c r="VB188" s="38"/>
+      <c r="VC188" s="38"/>
+      <c r="VD188" s="38"/>
+      <c r="VE188" s="38"/>
+      <c r="VF188" s="38"/>
+      <c r="VG188" s="38"/>
+      <c r="VH188" s="38"/>
+      <c r="VI188" s="38"/>
+      <c r="VJ188" s="38"/>
+      <c r="VK188" s="38"/>
+      <c r="VL188" s="38"/>
+      <c r="VM188" s="38"/>
+      <c r="VN188" s="38"/>
+      <c r="VO188" s="38"/>
+      <c r="VP188" s="38"/>
+      <c r="VQ188" s="38"/>
+      <c r="VR188" s="38"/>
+      <c r="VS188" s="38"/>
+      <c r="VT188" s="38"/>
+      <c r="VU188" s="38"/>
+      <c r="VV188" s="38"/>
+      <c r="VW188" s="38"/>
+      <c r="VX188" s="38"/>
+      <c r="VY188" s="38"/>
+      <c r="VZ188" s="38"/>
+      <c r="WA188" s="38"/>
+      <c r="WB188" s="38"/>
+      <c r="WC188" s="38"/>
+      <c r="WD188" s="38"/>
+      <c r="WE188" s="38"/>
+      <c r="WF188" s="38"/>
+      <c r="WG188" s="38"/>
+      <c r="WH188" s="38"/>
+      <c r="WI188" s="38"/>
+      <c r="WJ188" s="38"/>
+      <c r="WK188" s="38"/>
+      <c r="WL188" s="38"/>
+      <c r="WM188" s="38"/>
+      <c r="WN188" s="38"/>
+      <c r="WO188" s="38"/>
+      <c r="WP188" s="38"/>
+      <c r="WQ188" s="38"/>
+      <c r="WR188" s="38"/>
+      <c r="WS188" s="38"/>
+      <c r="WT188" s="38"/>
+      <c r="WU188" s="38"/>
+      <c r="WV188" s="38"/>
+      <c r="WW188" s="38"/>
+      <c r="WX188" s="38"/>
+      <c r="WY188" s="38"/>
+      <c r="WZ188" s="38"/>
+      <c r="XA188" s="38"/>
+      <c r="XB188" s="38"/>
+      <c r="XC188" s="38"/>
+      <c r="XD188" s="38"/>
+      <c r="XE188" s="38"/>
+      <c r="XF188" s="38"/>
+      <c r="XG188" s="38"/>
+      <c r="XH188" s="38"/>
+      <c r="XI188" s="38"/>
+      <c r="XJ188" s="38"/>
+      <c r="XK188" s="38"/>
+      <c r="XL188" s="38"/>
+      <c r="XM188" s="38"/>
+      <c r="XN188" s="38"/>
+      <c r="XO188" s="38"/>
+      <c r="XP188" s="38"/>
+      <c r="XQ188" s="38"/>
+      <c r="XR188" s="38"/>
+      <c r="XS188" s="38"/>
+      <c r="XT188" s="38"/>
+      <c r="XU188" s="38"/>
+      <c r="XV188" s="38"/>
+      <c r="XW188" s="38"/>
+      <c r="XX188" s="38"/>
+      <c r="XY188" s="38"/>
+      <c r="XZ188" s="38"/>
+      <c r="YA188" s="38"/>
+      <c r="YB188" s="38"/>
+      <c r="YC188" s="38"/>
+      <c r="YD188" s="38"/>
+      <c r="YE188" s="38"/>
+      <c r="YF188" s="38"/>
+      <c r="YG188" s="38"/>
+      <c r="YH188" s="38"/>
+      <c r="YI188" s="38"/>
+      <c r="YJ188" s="38"/>
+      <c r="YK188" s="38"/>
+      <c r="YL188" s="38"/>
+      <c r="YM188" s="38"/>
+      <c r="YN188" s="38"/>
+      <c r="YO188" s="38"/>
+      <c r="YP188" s="38"/>
+      <c r="YQ188" s="38"/>
+      <c r="YR188" s="38"/>
+      <c r="YS188" s="38"/>
+      <c r="YT188" s="38"/>
+      <c r="YU188" s="38"/>
+      <c r="YV188" s="38"/>
+      <c r="YW188" s="38"/>
+      <c r="YX188" s="38"/>
+      <c r="YY188" s="38"/>
+      <c r="YZ188" s="38"/>
+      <c r="ZA188" s="38"/>
+      <c r="ZB188" s="38"/>
+      <c r="ZC188" s="38"/>
+      <c r="ZD188" s="38"/>
+      <c r="ZE188" s="38"/>
+      <c r="ZF188" s="38"/>
+      <c r="ZG188" s="38"/>
+      <c r="ZH188" s="38"/>
+      <c r="ZI188" s="38"/>
+      <c r="ZJ188" s="38"/>
+      <c r="ZK188" s="38"/>
+      <c r="ZL188" s="38"/>
+      <c r="ZM188" s="38"/>
+      <c r="ZN188" s="38"/>
+      <c r="ZO188" s="38"/>
+      <c r="ZP188" s="38"/>
+      <c r="ZQ188" s="38"/>
+      <c r="ZR188" s="38"/>
+      <c r="ZS188" s="38"/>
+      <c r="ZT188" s="38"/>
+      <c r="ZU188" s="38"/>
+      <c r="ZV188" s="38"/>
+      <c r="ZW188" s="38"/>
+      <c r="ZX188" s="38"/>
+      <c r="ZY188" s="38"/>
+      <c r="ZZ188" s="38"/>
+      <c r="AAA188" s="38"/>
+      <c r="AAB188" s="38"/>
+      <c r="AAC188" s="38"/>
+      <c r="AAD188" s="38"/>
+      <c r="AAE188" s="38"/>
+      <c r="AAF188" s="38"/>
+      <c r="AAG188" s="38"/>
+      <c r="AAH188" s="38"/>
+      <c r="AAI188" s="38"/>
+      <c r="AAJ188" s="38"/>
+      <c r="AAK188" s="38"/>
+      <c r="AAL188" s="38"/>
+      <c r="AAM188" s="38"/>
+      <c r="AAN188" s="38"/>
+      <c r="AAO188" s="38"/>
+      <c r="AAP188" s="38"/>
+      <c r="AAQ188" s="38"/>
+      <c r="AAR188" s="38"/>
+      <c r="AAS188" s="38"/>
+      <c r="AAT188" s="38"/>
+      <c r="AAU188" s="38"/>
+      <c r="AAV188" s="38"/>
+      <c r="AAW188" s="38"/>
+      <c r="AAX188" s="38"/>
+      <c r="AAY188" s="38"/>
+      <c r="AAZ188" s="38"/>
+      <c r="ABA188" s="38"/>
+      <c r="ABB188" s="38"/>
+      <c r="ABC188" s="38"/>
+      <c r="ABD188" s="38"/>
+      <c r="ABE188" s="38"/>
+      <c r="ABF188" s="38"/>
+      <c r="ABG188" s="38"/>
+      <c r="ABH188" s="38"/>
+      <c r="ABI188" s="38"/>
+      <c r="ABJ188" s="38"/>
+      <c r="ABK188" s="38"/>
+      <c r="ABL188" s="38"/>
+      <c r="ABM188" s="38"/>
+      <c r="ABN188" s="38"/>
+      <c r="ABO188" s="38"/>
+      <c r="ABP188" s="38"/>
+      <c r="ABQ188" s="38"/>
+      <c r="ABR188" s="38"/>
+      <c r="ABS188" s="38"/>
+      <c r="ABT188" s="38"/>
+      <c r="ABU188" s="38"/>
+      <c r="ABV188" s="38"/>
+      <c r="ABW188" s="38"/>
+      <c r="ABX188" s="38"/>
+      <c r="ABY188" s="38"/>
+      <c r="ABZ188" s="38"/>
+      <c r="ACA188" s="38"/>
+      <c r="ACB188" s="38"/>
+      <c r="ACC188" s="38"/>
+      <c r="ACD188" s="38"/>
+      <c r="ACE188" s="38"/>
+      <c r="ACF188" s="38"/>
+      <c r="ACG188" s="38"/>
+      <c r="ACH188" s="38"/>
+      <c r="ACI188" s="38"/>
+      <c r="ACJ188" s="38"/>
+      <c r="ACK188" s="38"/>
+      <c r="ACL188" s="38"/>
+      <c r="ACM188" s="38"/>
+      <c r="ACN188" s="38"/>
+      <c r="ACO188" s="38"/>
+      <c r="ACP188" s="38"/>
+      <c r="ACQ188" s="38"/>
+      <c r="ACR188" s="38"/>
+      <c r="ACS188" s="38"/>
+      <c r="ACT188" s="38"/>
+      <c r="ACU188" s="38"/>
+      <c r="ACV188" s="38"/>
+      <c r="ACW188" s="38"/>
+      <c r="ACX188" s="38"/>
+      <c r="ACY188" s="38"/>
+      <c r="ACZ188" s="38"/>
+      <c r="ADA188" s="38"/>
+      <c r="ADB188" s="38"/>
+      <c r="ADC188" s="38"/>
+      <c r="ADD188" s="38"/>
+      <c r="ADE188" s="38"/>
+      <c r="ADF188" s="38"/>
+      <c r="ADG188" s="38"/>
+      <c r="ADH188" s="38"/>
+      <c r="ADI188" s="38"/>
+      <c r="ADJ188" s="38"/>
+      <c r="ADK188" s="38"/>
+      <c r="ADL188" s="38"/>
+      <c r="ADM188" s="38"/>
+      <c r="ADN188" s="38"/>
+      <c r="ADO188" s="38"/>
+      <c r="ADP188" s="38"/>
+      <c r="ADQ188" s="38"/>
+      <c r="ADR188" s="38"/>
+      <c r="ADS188" s="38"/>
+      <c r="ADT188" s="38"/>
+      <c r="ADU188" s="38"/>
+      <c r="ADV188" s="38"/>
+      <c r="ADW188" s="38"/>
+      <c r="ADX188" s="38"/>
+      <c r="ADY188" s="38"/>
+      <c r="ADZ188" s="38"/>
+      <c r="AEA188" s="38"/>
+      <c r="AEB188" s="38"/>
+      <c r="AEC188" s="38"/>
+      <c r="AED188" s="38"/>
+      <c r="AEE188" s="38"/>
+      <c r="AEF188" s="38"/>
+      <c r="AEG188" s="38"/>
+      <c r="AEH188" s="38"/>
+      <c r="AEI188" s="38"/>
+      <c r="AEJ188" s="38"/>
+      <c r="AEK188" s="38"/>
+      <c r="AEL188" s="38"/>
+      <c r="AEM188" s="38"/>
+      <c r="AEN188" s="38"/>
+      <c r="AEO188" s="38"/>
+      <c r="AEP188" s="38"/>
+      <c r="AEQ188" s="38"/>
+      <c r="AER188" s="38"/>
+      <c r="AES188" s="38"/>
+      <c r="AET188" s="38"/>
+      <c r="AEU188" s="38"/>
+      <c r="AEV188" s="38"/>
+      <c r="AEW188" s="38"/>
+      <c r="AEX188" s="38"/>
+      <c r="AEY188" s="38"/>
+      <c r="AEZ188" s="38"/>
+      <c r="AFA188" s="38"/>
+      <c r="AFB188" s="38"/>
+      <c r="AFC188" s="38"/>
+      <c r="AFD188" s="38"/>
+      <c r="AFE188" s="38"/>
+      <c r="AFF188" s="38"/>
+      <c r="AFG188" s="38"/>
+      <c r="AFH188" s="38"/>
+      <c r="AFI188" s="38"/>
+      <c r="AFJ188" s="38"/>
+      <c r="AFK188" s="38"/>
+      <c r="AFL188" s="38"/>
+      <c r="AFM188" s="38"/>
+      <c r="AFN188" s="38"/>
+      <c r="AFO188" s="38"/>
+      <c r="AFP188" s="38"/>
+      <c r="AFQ188" s="38"/>
+      <c r="AFR188" s="38"/>
+      <c r="AFS188" s="38"/>
+      <c r="AFT188" s="38"/>
+      <c r="AFU188" s="38"/>
+      <c r="AFV188" s="38"/>
+      <c r="AFW188" s="38"/>
+      <c r="AFX188" s="38"/>
+      <c r="AFY188" s="38"/>
+      <c r="AFZ188" s="38"/>
+      <c r="AGA188" s="38"/>
+      <c r="AGB188" s="38"/>
+      <c r="AGC188" s="38"/>
+      <c r="AGD188" s="38"/>
+      <c r="AGE188" s="38"/>
+      <c r="AGF188" s="38"/>
+      <c r="AGG188" s="38"/>
+      <c r="AGH188" s="38"/>
+      <c r="AGI188" s="38"/>
+      <c r="AGJ188" s="38"/>
+      <c r="AGK188" s="38"/>
+      <c r="AGL188" s="38"/>
+      <c r="AGM188" s="38"/>
+      <c r="AGN188" s="38"/>
+      <c r="AGO188" s="38"/>
+      <c r="AGP188" s="38"/>
+      <c r="AGQ188" s="38"/>
+      <c r="AGR188" s="38"/>
+      <c r="AGS188" s="38"/>
+      <c r="AGT188" s="38"/>
+      <c r="AGU188" s="38"/>
+      <c r="AGV188" s="38"/>
+      <c r="AGW188" s="38"/>
+      <c r="AGX188" s="38"/>
+      <c r="AGY188" s="38"/>
+      <c r="AGZ188" s="38"/>
+      <c r="AHA188" s="38"/>
+      <c r="AHB188" s="38"/>
+      <c r="AHC188" s="38"/>
+      <c r="AHD188" s="38"/>
+      <c r="AHE188" s="38"/>
+      <c r="AHF188" s="38"/>
+      <c r="AHG188" s="38"/>
+      <c r="AHH188" s="38"/>
+      <c r="AHI188" s="38"/>
+      <c r="AHJ188" s="38"/>
+      <c r="AHK188" s="38"/>
+      <c r="AHL188" s="38"/>
+      <c r="AHM188" s="38"/>
+      <c r="AHN188" s="38"/>
+      <c r="AHO188" s="38"/>
+      <c r="AHP188" s="38"/>
+      <c r="AHQ188" s="38"/>
+      <c r="AHR188" s="38"/>
+      <c r="AHS188" s="38"/>
+      <c r="AHT188" s="38"/>
+      <c r="AHU188" s="38"/>
+      <c r="AHV188" s="38"/>
+      <c r="AHW188" s="38"/>
+      <c r="AHX188" s="38"/>
+      <c r="AHY188" s="38"/>
+      <c r="AHZ188" s="38"/>
+      <c r="AIA188" s="38"/>
+      <c r="AIB188" s="38"/>
+      <c r="AIC188" s="38"/>
+      <c r="AID188" s="38"/>
+      <c r="AIE188" s="38"/>
+      <c r="AIF188" s="38"/>
+      <c r="AIG188" s="38"/>
+      <c r="AIH188" s="38"/>
+      <c r="AII188" s="38"/>
+      <c r="AIJ188" s="38"/>
+      <c r="AIK188" s="38"/>
+      <c r="AIL188" s="38"/>
+      <c r="AIM188" s="38"/>
+      <c r="AIN188" s="38"/>
+      <c r="AIO188" s="38"/>
+      <c r="AIP188" s="38"/>
+      <c r="AIQ188" s="38"/>
+      <c r="AIR188" s="38"/>
+      <c r="AIS188" s="38"/>
+      <c r="AIT188" s="38"/>
+      <c r="AIU188" s="38"/>
+      <c r="AIV188" s="38"/>
+      <c r="AIW188" s="38"/>
+      <c r="AIX188" s="38"/>
+      <c r="AIY188" s="38"/>
+      <c r="AIZ188" s="38"/>
+      <c r="AJA188" s="38"/>
+      <c r="AJB188" s="38"/>
+      <c r="AJC188" s="38"/>
+      <c r="AJD188" s="38"/>
+      <c r="AJE188" s="38"/>
+      <c r="AJF188" s="38"/>
+      <c r="AJG188" s="38"/>
+      <c r="AJH188" s="38"/>
+      <c r="AJI188" s="38"/>
+      <c r="AJJ188" s="38"/>
+      <c r="AJK188" s="38"/>
+      <c r="AJL188" s="38"/>
+      <c r="AJM188" s="38"/>
+      <c r="AJN188" s="38"/>
+      <c r="AJO188" s="38"/>
+      <c r="AJP188" s="38"/>
+      <c r="AJQ188" s="38"/>
+      <c r="AJR188" s="38"/>
+      <c r="AJS188" s="38"/>
+      <c r="AJT188" s="38"/>
+      <c r="AJU188" s="38"/>
+      <c r="AJV188" s="38"/>
+      <c r="AJW188" s="38"/>
+      <c r="AJX188" s="38"/>
+      <c r="AJY188" s="38"/>
+      <c r="AJZ188" s="38"/>
+      <c r="AKA188" s="38"/>
+      <c r="AKB188" s="38"/>
+      <c r="AKC188" s="38"/>
+      <c r="AKD188" s="38"/>
+      <c r="AKE188" s="38"/>
+      <c r="AKF188" s="38"/>
+      <c r="AKG188" s="38"/>
+      <c r="AKH188" s="38"/>
+      <c r="AKI188" s="38"/>
+      <c r="AKJ188" s="38"/>
+      <c r="AKK188" s="38"/>
+      <c r="AKL188" s="38"/>
+      <c r="AKM188" s="38"/>
+      <c r="AKN188" s="38"/>
+      <c r="AKO188" s="38"/>
+      <c r="AKP188" s="38"/>
+      <c r="AKQ188" s="38"/>
+      <c r="AKR188" s="38"/>
+      <c r="AKS188" s="38"/>
+      <c r="AKT188" s="38"/>
+      <c r="AKU188" s="38"/>
+      <c r="AKV188" s="38"/>
+      <c r="AKW188" s="38"/>
+      <c r="AKX188" s="38"/>
+      <c r="AKY188" s="38"/>
+      <c r="AKZ188" s="38"/>
+      <c r="ALA188" s="38"/>
+      <c r="ALB188" s="38"/>
+      <c r="ALC188" s="38"/>
+      <c r="ALD188" s="38"/>
+      <c r="ALE188" s="38"/>
+      <c r="ALF188" s="38"/>
+      <c r="ALG188" s="38"/>
+      <c r="ALH188" s="38"/>
+      <c r="ALI188" s="38"/>
+      <c r="ALJ188" s="38"/>
+      <c r="ALK188" s="38"/>
+      <c r="ALL188" s="38"/>
+      <c r="ALM188" s="38"/>
+      <c r="ALN188" s="38"/>
+      <c r="ALO188" s="38"/>
+      <c r="ALP188" s="38"/>
+      <c r="ALQ188" s="38"/>
+      <c r="ALR188" s="38"/>
+      <c r="ALS188" s="38"/>
+      <c r="ALT188" s="38"/>
+      <c r="ALU188" s="38"/>
+      <c r="ALV188" s="38"/>
+      <c r="ALW188" s="38"/>
+      <c r="ALX188" s="38"/>
+      <c r="ALY188" s="38"/>
+      <c r="ALZ188" s="38"/>
+      <c r="AMA188" s="38"/>
+      <c r="AMB188" s="38"/>
+      <c r="AMC188" s="38"/>
+      <c r="AMD188" s="38"/>
+      <c r="AME188" s="38"/>
+      <c r="AMF188" s="38"/>
+      <c r="AMG188" s="38"/>
+      <c r="AMH188" s="38"/>
+      <c r="AMI188" s="38"/>
+      <c r="AMJ188" s="38"/>
+      <c r="AMK188" s="38"/>
+      <c r="AML188" s="38"/>
+      <c r="AMM188" s="38"/>
+      <c r="AMN188" s="38"/>
+      <c r="AMO188" s="38"/>
+      <c r="AMP188" s="38"/>
+      <c r="AMQ188" s="38"/>
+      <c r="AMR188" s="38"/>
+      <c r="AMS188" s="38"/>
+      <c r="AMT188" s="38"/>
+      <c r="AMU188" s="38"/>
+      <c r="AMV188" s="38"/>
+      <c r="AMW188" s="38"/>
+      <c r="AMX188" s="38"/>
+      <c r="AMY188" s="38"/>
+      <c r="AMZ188" s="38"/>
+      <c r="ANA188" s="38"/>
+      <c r="ANB188" s="38"/>
+      <c r="ANC188" s="38"/>
+      <c r="AND188" s="38"/>
+      <c r="ANE188" s="38"/>
+      <c r="ANF188" s="38"/>
+      <c r="ANG188" s="38"/>
+      <c r="ANH188" s="38"/>
+      <c r="ANI188" s="38"/>
+      <c r="ANJ188" s="38"/>
+      <c r="ANK188" s="38"/>
+      <c r="ANL188" s="38"/>
+      <c r="ANM188" s="38"/>
+      <c r="ANN188" s="38"/>
+      <c r="ANO188" s="38"/>
+      <c r="ANP188" s="38"/>
+      <c r="ANQ188" s="38"/>
+      <c r="ANR188" s="38"/>
+      <c r="ANS188" s="38"/>
+      <c r="ANT188" s="38"/>
+      <c r="ANU188" s="38"/>
+      <c r="ANV188" s="38"/>
+      <c r="ANW188" s="38"/>
+      <c r="ANX188" s="38"/>
+      <c r="ANY188" s="38"/>
+      <c r="ANZ188" s="38"/>
+      <c r="AOA188" s="38"/>
+      <c r="AOB188" s="38"/>
+      <c r="AOC188" s="38"/>
+      <c r="AOD188" s="38"/>
+      <c r="AOE188" s="38"/>
+      <c r="AOF188" s="38"/>
+      <c r="AOG188" s="38"/>
+      <c r="AOH188" s="38"/>
+      <c r="AOI188" s="38"/>
+      <c r="AOJ188" s="38"/>
+      <c r="AOK188" s="38"/>
+      <c r="AOL188" s="38"/>
+      <c r="AOM188" s="38"/>
+      <c r="AON188" s="38"/>
+      <c r="AOO188" s="38"/>
+      <c r="AOP188" s="38"/>
+      <c r="AOQ188" s="38"/>
+      <c r="AOR188" s="38"/>
+      <c r="AOS188" s="38"/>
+      <c r="AOT188" s="38"/>
+      <c r="AOU188" s="38"/>
+      <c r="AOV188" s="38"/>
+      <c r="AOW188" s="38"/>
+      <c r="AOX188" s="38"/>
+      <c r="AOY188" s="38"/>
+      <c r="AOZ188" s="38"/>
+      <c r="APA188" s="38"/>
+      <c r="APB188" s="38"/>
+      <c r="APC188" s="38"/>
+      <c r="APD188" s="38"/>
+      <c r="APE188" s="38"/>
+      <c r="APF188" s="38"/>
+      <c r="APG188" s="38"/>
+      <c r="APH188" s="38"/>
+      <c r="API188" s="38"/>
+      <c r="APJ188" s="38"/>
+      <c r="APK188" s="38"/>
+      <c r="APL188" s="38"/>
+      <c r="APM188" s="38"/>
+      <c r="APN188" s="38"/>
+      <c r="APO188" s="38"/>
+      <c r="APP188" s="38"/>
+      <c r="APQ188" s="38"/>
+      <c r="APR188" s="38"/>
+      <c r="APS188" s="38"/>
+      <c r="APT188" s="38"/>
+      <c r="APU188" s="38"/>
+      <c r="APV188" s="38"/>
+      <c r="APW188" s="38"/>
+      <c r="APX188" s="38"/>
+      <c r="APY188" s="38"/>
+      <c r="APZ188" s="38"/>
+      <c r="AQA188" s="38"/>
+      <c r="AQB188" s="38"/>
+      <c r="AQC188" s="38"/>
+      <c r="AQD188" s="38"/>
+      <c r="AQE188" s="38"/>
+      <c r="AQF188" s="38"/>
+      <c r="AQG188" s="38"/>
+      <c r="AQH188" s="38"/>
+      <c r="AQI188" s="38"/>
+      <c r="AQJ188" s="38"/>
+      <c r="AQK188" s="38"/>
+      <c r="AQL188" s="38"/>
+      <c r="AQM188" s="38"/>
+      <c r="AQN188" s="38"/>
+      <c r="AQO188" s="38"/>
+      <c r="AQP188" s="38"/>
+      <c r="AQQ188" s="38"/>
+      <c r="AQR188" s="38"/>
+      <c r="AQS188" s="38"/>
+      <c r="AQT188" s="38"/>
+      <c r="AQU188" s="38"/>
+      <c r="AQV188" s="38"/>
+      <c r="AQW188" s="38"/>
+      <c r="AQX188" s="38"/>
+      <c r="AQY188" s="38"/>
+      <c r="AQZ188" s="38"/>
+      <c r="ARA188" s="38"/>
+      <c r="ARB188" s="38"/>
+      <c r="ARC188" s="38"/>
+      <c r="ARD188" s="38"/>
+      <c r="ARE188" s="38"/>
+      <c r="ARF188" s="38"/>
+      <c r="ARG188" s="38"/>
+      <c r="ARH188" s="38"/>
+      <c r="ARI188" s="38"/>
+      <c r="ARJ188" s="38"/>
+      <c r="ARK188" s="38"/>
+      <c r="ARL188" s="38"/>
+      <c r="ARM188" s="38"/>
+      <c r="ARN188" s="38"/>
+      <c r="ARO188" s="38"/>
+      <c r="ARP188" s="38"/>
+      <c r="ARQ188" s="38"/>
+      <c r="ARR188" s="38"/>
+      <c r="ARS188" s="38"/>
+      <c r="ART188" s="38"/>
+      <c r="ARU188" s="38"/>
+      <c r="ARV188" s="38"/>
+      <c r="ARW188" s="38"/>
+      <c r="ARX188" s="38"/>
+      <c r="ARY188" s="38"/>
+      <c r="ARZ188" s="38"/>
+      <c r="ASA188" s="38"/>
+      <c r="ASB188" s="38"/>
+      <c r="ASC188" s="38"/>
+      <c r="ASD188" s="38"/>
+      <c r="ASE188" s="38"/>
+      <c r="ASF188" s="38"/>
+      <c r="ASG188" s="38"/>
+      <c r="ASH188" s="38"/>
+      <c r="ASI188" s="38"/>
+      <c r="ASJ188" s="38"/>
+      <c r="ASK188" s="38"/>
+      <c r="ASL188" s="38"/>
+      <c r="ASM188" s="38"/>
+      <c r="ASN188" s="38"/>
+      <c r="ASO188" s="38"/>
+      <c r="ASP188" s="38"/>
+      <c r="ASQ188" s="38"/>
+      <c r="ASR188" s="38"/>
+      <c r="ASS188" s="38"/>
+      <c r="AST188" s="38"/>
+      <c r="ASU188" s="38"/>
+      <c r="ASV188" s="38"/>
+      <c r="ASW188" s="38"/>
+      <c r="ASX188" s="38"/>
+      <c r="ASY188" s="38"/>
+      <c r="ASZ188" s="38"/>
+      <c r="ATA188" s="38"/>
+      <c r="ATB188" s="38"/>
+      <c r="ATC188" s="38"/>
+      <c r="ATD188" s="38"/>
+      <c r="ATE188" s="38"/>
+      <c r="ATF188" s="38"/>
+      <c r="ATG188" s="38"/>
+      <c r="ATH188" s="38"/>
+      <c r="ATI188" s="38"/>
+      <c r="ATJ188" s="38"/>
+      <c r="ATK188" s="38"/>
+      <c r="ATL188" s="38"/>
+      <c r="ATM188" s="38"/>
+      <c r="ATN188" s="38"/>
+      <c r="ATO188" s="38"/>
+      <c r="ATP188" s="38"/>
+      <c r="ATQ188" s="38"/>
+      <c r="ATR188" s="38"/>
+      <c r="ATS188" s="38"/>
+      <c r="ATT188" s="38"/>
+      <c r="ATU188" s="38"/>
+      <c r="ATV188" s="38"/>
+      <c r="ATW188" s="38"/>
+      <c r="ATX188" s="38"/>
+      <c r="ATY188" s="38"/>
+      <c r="ATZ188" s="38"/>
+    </row>
+    <row r="189" spans="1:1222" s="37" customFormat="1">
+      <c r="A189" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B189" s="43"/>
+      <c r="C189" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D189" s="38"/>
+      <c r="E189" s="38"/>
+      <c r="F189" s="38"/>
+      <c r="G189" s="38"/>
+      <c r="H189" s="38"/>
+      <c r="I189" s="38"/>
+      <c r="J189" s="38"/>
+      <c r="K189" s="38"/>
+      <c r="L189" s="38"/>
+      <c r="M189" s="38"/>
+      <c r="N189" s="38"/>
+      <c r="O189" s="38"/>
+      <c r="P189" s="38"/>
+      <c r="Q189" s="38"/>
+      <c r="R189" s="38"/>
+      <c r="S189" s="38"/>
+      <c r="T189" s="38"/>
+      <c r="U189" s="38"/>
+      <c r="V189" s="38"/>
+      <c r="W189" s="38"/>
+      <c r="X189" s="38"/>
+      <c r="Y189" s="38"/>
+      <c r="Z189" s="38"/>
+      <c r="AA189" s="38"/>
+      <c r="AB189" s="38"/>
+      <c r="AC189" s="38"/>
+      <c r="AD189" s="38"/>
+      <c r="AE189" s="38"/>
+      <c r="AF189" s="38"/>
+      <c r="AG189" s="38"/>
+      <c r="AH189" s="38"/>
+      <c r="AI189" s="38"/>
+      <c r="AJ189" s="38"/>
+      <c r="AK189" s="38"/>
+      <c r="AL189" s="38"/>
+      <c r="AM189" s="38"/>
+      <c r="AN189" s="38"/>
+      <c r="AO189" s="38"/>
+      <c r="AP189" s="38"/>
+      <c r="AQ189" s="38"/>
+      <c r="AR189" s="38"/>
+      <c r="AS189" s="38"/>
+      <c r="AT189" s="38"/>
+      <c r="AU189" s="38"/>
+      <c r="AV189" s="38"/>
+      <c r="AW189" s="38"/>
+      <c r="AX189" s="38"/>
+      <c r="AY189" s="38"/>
+      <c r="AZ189" s="38"/>
+      <c r="BA189" s="38"/>
+      <c r="BB189" s="38"/>
+      <c r="BC189" s="38"/>
+      <c r="BD189" s="38"/>
+      <c r="BE189" s="38"/>
+      <c r="BF189" s="38"/>
+      <c r="BG189" s="38"/>
+      <c r="BH189" s="38"/>
+      <c r="BI189" s="38"/>
+      <c r="BJ189" s="38"/>
+      <c r="BK189" s="38"/>
+      <c r="BL189" s="38"/>
+      <c r="BM189" s="38"/>
+      <c r="BN189" s="38"/>
+      <c r="BO189" s="38"/>
+      <c r="BP189" s="38"/>
+      <c r="BQ189" s="38"/>
+      <c r="BR189" s="38"/>
+      <c r="BS189" s="38"/>
+      <c r="BT189" s="38"/>
+      <c r="BU189" s="38"/>
+      <c r="BV189" s="38"/>
+      <c r="BW189" s="38"/>
+      <c r="BX189" s="38"/>
+      <c r="BY189" s="38"/>
+      <c r="BZ189" s="38"/>
+      <c r="CA189" s="38"/>
+      <c r="CB189" s="38"/>
+      <c r="CC189" s="38"/>
+      <c r="CD189" s="38"/>
+      <c r="CE189" s="38"/>
+      <c r="CF189" s="38"/>
+      <c r="CG189" s="38"/>
+      <c r="CH189" s="38"/>
+      <c r="CI189" s="38"/>
+      <c r="CJ189" s="38"/>
+      <c r="CK189" s="38"/>
+      <c r="CL189" s="38"/>
+      <c r="CM189" s="38"/>
+      <c r="CN189" s="38"/>
+      <c r="CO189" s="38"/>
+      <c r="CP189" s="38"/>
+      <c r="CQ189" s="38"/>
+      <c r="CR189" s="38"/>
+      <c r="CS189" s="38"/>
+      <c r="CT189" s="38"/>
+      <c r="CU189" s="38"/>
+      <c r="CV189" s="38"/>
+      <c r="CW189" s="38"/>
+      <c r="CX189" s="38"/>
+      <c r="CY189" s="38"/>
+      <c r="CZ189" s="38"/>
+      <c r="DA189" s="38"/>
+      <c r="DB189" s="38"/>
+      <c r="DC189" s="38"/>
+      <c r="DD189" s="38"/>
+      <c r="DE189" s="38"/>
+      <c r="DF189" s="38"/>
+      <c r="DG189" s="38"/>
+      <c r="DH189" s="38"/>
+      <c r="DI189" s="38"/>
+      <c r="DJ189" s="38"/>
+      <c r="DK189" s="38"/>
+      <c r="DL189" s="38"/>
+      <c r="DM189" s="38"/>
+      <c r="DN189" s="38"/>
+      <c r="DO189" s="38"/>
+      <c r="DP189" s="38"/>
+      <c r="DQ189" s="38"/>
+      <c r="DR189" s="38"/>
+      <c r="DS189" s="38"/>
+      <c r="DT189" s="38"/>
+      <c r="DU189" s="38"/>
+      <c r="DV189" s="38"/>
+      <c r="DW189" s="38"/>
+      <c r="DX189" s="38"/>
+      <c r="DY189" s="38"/>
+      <c r="DZ189" s="38"/>
+      <c r="EA189" s="38"/>
+      <c r="EB189" s="38"/>
+      <c r="EC189" s="38"/>
+      <c r="ED189" s="38"/>
+      <c r="EE189" s="38"/>
+      <c r="EF189" s="38"/>
+      <c r="EG189" s="38"/>
+      <c r="EH189" s="38"/>
+      <c r="EI189" s="38"/>
+      <c r="EJ189" s="38"/>
+      <c r="EK189" s="38"/>
+      <c r="EL189" s="38"/>
+      <c r="EM189" s="38"/>
+      <c r="EN189" s="38"/>
+      <c r="EO189" s="38"/>
+      <c r="EP189" s="38"/>
+      <c r="EQ189" s="38"/>
+      <c r="ER189" s="38"/>
+      <c r="ES189" s="38"/>
+      <c r="ET189" s="38"/>
+      <c r="EU189" s="38"/>
+      <c r="EV189" s="38"/>
+      <c r="EW189" s="38"/>
+      <c r="EX189" s="38"/>
+      <c r="EY189" s="38"/>
+      <c r="EZ189" s="38"/>
+      <c r="FA189" s="38"/>
+      <c r="FB189" s="38"/>
+      <c r="FC189" s="38"/>
+      <c r="FD189" s="38"/>
+      <c r="FE189" s="38"/>
+      <c r="FF189" s="38"/>
+      <c r="FG189" s="38"/>
+      <c r="FH189" s="38"/>
+      <c r="FI189" s="38"/>
+      <c r="FJ189" s="38"/>
+      <c r="FK189" s="38"/>
+      <c r="FL189" s="38"/>
+      <c r="FM189" s="38"/>
+      <c r="FN189" s="38"/>
+      <c r="FO189" s="38"/>
+      <c r="FP189" s="38"/>
+      <c r="FQ189" s="38"/>
+      <c r="FR189" s="38"/>
+      <c r="FS189" s="38"/>
+      <c r="FT189" s="38"/>
+      <c r="FU189" s="38"/>
+      <c r="FV189" s="38"/>
+      <c r="FW189" s="38"/>
+      <c r="FX189" s="38"/>
+      <c r="FY189" s="38"/>
+      <c r="FZ189" s="38"/>
+      <c r="GA189" s="38"/>
+      <c r="GB189" s="38"/>
+      <c r="GC189" s="38"/>
+      <c r="GD189" s="38"/>
+      <c r="GE189" s="38"/>
+      <c r="GF189" s="38"/>
+      <c r="GG189" s="38"/>
+      <c r="GH189" s="38"/>
+      <c r="GI189" s="38"/>
+      <c r="GJ189" s="38"/>
+      <c r="GK189" s="38"/>
+      <c r="GL189" s="38"/>
+      <c r="GM189" s="38"/>
+      <c r="GN189" s="38"/>
+      <c r="GO189" s="38"/>
+      <c r="GP189" s="38"/>
+      <c r="GQ189" s="38"/>
+      <c r="GR189" s="38"/>
+      <c r="GS189" s="38"/>
+      <c r="GT189" s="38"/>
+      <c r="GU189" s="38"/>
+      <c r="GV189" s="38"/>
+      <c r="GW189" s="38"/>
+      <c r="GX189" s="38"/>
+      <c r="GY189" s="38"/>
+      <c r="GZ189" s="38"/>
+      <c r="HA189" s="38"/>
+      <c r="HB189" s="38"/>
+      <c r="HC189" s="38"/>
+      <c r="HD189" s="38"/>
+      <c r="HE189" s="38"/>
+      <c r="HF189" s="38"/>
+      <c r="HG189" s="38"/>
+      <c r="HH189" s="38"/>
+      <c r="HI189" s="38"/>
+      <c r="HJ189" s="38"/>
+      <c r="HK189" s="38"/>
+      <c r="HL189" s="38"/>
+      <c r="HM189" s="38"/>
+      <c r="HN189" s="38"/>
+      <c r="HO189" s="38"/>
+      <c r="HP189" s="38"/>
+      <c r="HQ189" s="38"/>
+      <c r="HR189" s="38"/>
+      <c r="HS189" s="38"/>
+      <c r="HT189" s="38"/>
+      <c r="HU189" s="38"/>
+      <c r="HV189" s="38"/>
+      <c r="HW189" s="38"/>
+      <c r="HX189" s="38"/>
+      <c r="HY189" s="38"/>
+      <c r="HZ189" s="38"/>
+      <c r="IA189" s="38"/>
+      <c r="IB189" s="38"/>
+      <c r="IC189" s="38"/>
+      <c r="ID189" s="38"/>
+      <c r="IE189" s="38"/>
+      <c r="IF189" s="38"/>
+      <c r="IG189" s="38"/>
+      <c r="IH189" s="38"/>
+      <c r="II189" s="38"/>
+      <c r="IJ189" s="38"/>
+      <c r="IK189" s="38"/>
+      <c r="IL189" s="38"/>
+      <c r="IM189" s="38"/>
+      <c r="IN189" s="38"/>
+      <c r="IO189" s="38"/>
+      <c r="IP189" s="38"/>
+      <c r="IQ189" s="38"/>
+      <c r="IR189" s="38"/>
+      <c r="IS189" s="38"/>
+      <c r="IT189" s="38"/>
+      <c r="IU189" s="38"/>
+      <c r="IV189" s="38"/>
+      <c r="IW189" s="38"/>
+      <c r="IX189" s="38"/>
+      <c r="IY189" s="38"/>
+      <c r="IZ189" s="38"/>
+      <c r="JA189" s="38"/>
+      <c r="JB189" s="38"/>
+      <c r="JC189" s="38"/>
+      <c r="JD189" s="38"/>
+      <c r="JE189" s="38"/>
+      <c r="JF189" s="38"/>
+      <c r="JG189" s="38"/>
+      <c r="JH189" s="38"/>
+      <c r="JI189" s="38"/>
+      <c r="JJ189" s="38"/>
+      <c r="JK189" s="38"/>
+      <c r="JL189" s="38"/>
+      <c r="JM189" s="38"/>
+      <c r="JN189" s="38"/>
+      <c r="JO189" s="38"/>
+      <c r="JP189" s="38"/>
+      <c r="JQ189" s="38"/>
+      <c r="JR189" s="38"/>
+      <c r="JS189" s="38"/>
+      <c r="JT189" s="38"/>
+      <c r="JU189" s="38"/>
+      <c r="JV189" s="38"/>
+      <c r="JW189" s="38"/>
+      <c r="JX189" s="38"/>
+      <c r="JY189" s="38"/>
+      <c r="JZ189" s="38"/>
+      <c r="KA189" s="38"/>
+      <c r="KB189" s="38"/>
+      <c r="KC189" s="38"/>
+      <c r="KD189" s="38"/>
+      <c r="KE189" s="38"/>
+      <c r="KF189" s="38"/>
+      <c r="KG189" s="38"/>
+      <c r="KH189" s="38"/>
+      <c r="KI189" s="38"/>
+      <c r="KJ189" s="38"/>
+      <c r="KK189" s="38"/>
+      <c r="KL189" s="38"/>
+      <c r="KM189" s="38"/>
+      <c r="KN189" s="38"/>
+      <c r="KO189" s="38"/>
+      <c r="KP189" s="38"/>
+      <c r="KQ189" s="38"/>
+      <c r="KR189" s="38"/>
+      <c r="KS189" s="38"/>
+      <c r="KT189" s="38"/>
+      <c r="KU189" s="38"/>
+      <c r="KV189" s="38"/>
+      <c r="KW189" s="38"/>
+      <c r="KX189" s="38"/>
+      <c r="KY189" s="38"/>
+      <c r="KZ189" s="38"/>
+      <c r="LA189" s="38"/>
+      <c r="LB189" s="38"/>
+      <c r="LC189" s="38"/>
+      <c r="LD189" s="38"/>
+      <c r="LE189" s="38"/>
+      <c r="LF189" s="38"/>
+      <c r="LG189" s="38"/>
+      <c r="LH189" s="38"/>
+      <c r="LI189" s="38"/>
+      <c r="LJ189" s="38"/>
+      <c r="LK189" s="38"/>
+      <c r="LL189" s="38"/>
+      <c r="LM189" s="38"/>
+      <c r="LN189" s="38"/>
+      <c r="LO189" s="38"/>
+      <c r="LP189" s="38"/>
+      <c r="LQ189" s="38"/>
+      <c r="LR189" s="38"/>
+      <c r="LS189" s="38"/>
+      <c r="LT189" s="38"/>
+      <c r="LU189" s="38"/>
+      <c r="LV189" s="38"/>
+      <c r="LW189" s="38"/>
+      <c r="LX189" s="38"/>
+      <c r="LY189" s="38"/>
+      <c r="LZ189" s="38"/>
+      <c r="MA189" s="38"/>
+      <c r="MB189" s="38"/>
+      <c r="MC189" s="38"/>
+      <c r="MD189" s="38"/>
+      <c r="ME189" s="38"/>
+      <c r="MF189" s="38"/>
+      <c r="MG189" s="38"/>
+      <c r="MH189" s="38"/>
+      <c r="MI189" s="38"/>
+      <c r="MJ189" s="38"/>
+      <c r="MK189" s="38"/>
+      <c r="ML189" s="38"/>
+      <c r="MM189" s="38"/>
+      <c r="MN189" s="38"/>
+      <c r="MO189" s="38"/>
+      <c r="MP189" s="38"/>
+      <c r="MQ189" s="38"/>
+      <c r="MR189" s="38"/>
+      <c r="MS189" s="38"/>
+      <c r="MT189" s="38"/>
+      <c r="MU189" s="38"/>
+      <c r="MV189" s="38"/>
+      <c r="MW189" s="38"/>
+      <c r="MX189" s="38"/>
+      <c r="MY189" s="38"/>
+      <c r="MZ189" s="38"/>
+      <c r="NA189" s="38"/>
+      <c r="NB189" s="38"/>
+      <c r="NC189" s="38"/>
+      <c r="ND189" s="38"/>
+      <c r="NE189" s="38"/>
+      <c r="NF189" s="38"/>
+      <c r="NG189" s="38"/>
+      <c r="NH189" s="38"/>
+      <c r="NI189" s="38"/>
+      <c r="NJ189" s="38"/>
+      <c r="NK189" s="38"/>
+      <c r="NL189" s="38"/>
+      <c r="NM189" s="38"/>
+      <c r="NN189" s="38"/>
+      <c r="NO189" s="38"/>
+      <c r="NP189" s="38"/>
+      <c r="NQ189" s="38"/>
+      <c r="NR189" s="38"/>
+      <c r="NS189" s="38"/>
+      <c r="NT189" s="38"/>
+      <c r="NU189" s="38"/>
+      <c r="NV189" s="38"/>
+      <c r="NW189" s="38"/>
+      <c r="NX189" s="38"/>
+      <c r="NY189" s="38"/>
+      <c r="NZ189" s="38"/>
+      <c r="OA189" s="38"/>
+      <c r="OB189" s="38"/>
+      <c r="OC189" s="38"/>
+      <c r="OD189" s="38"/>
+      <c r="OE189" s="38"/>
+      <c r="OF189" s="38"/>
+      <c r="OG189" s="38"/>
+      <c r="OH189" s="38"/>
+      <c r="OI189" s="38"/>
+      <c r="OJ189" s="38"/>
+      <c r="OK189" s="38"/>
+      <c r="OL189" s="38"/>
+      <c r="OM189" s="38"/>
+      <c r="ON189" s="38"/>
+      <c r="OO189" s="38"/>
+      <c r="OP189" s="38"/>
+      <c r="OQ189" s="38"/>
+      <c r="OR189" s="38"/>
+      <c r="OS189" s="38"/>
+      <c r="OT189" s="38"/>
+      <c r="OU189" s="38"/>
+      <c r="OV189" s="38"/>
+      <c r="OW189" s="38"/>
+      <c r="OX189" s="38"/>
+      <c r="OY189" s="38"/>
+      <c r="OZ189" s="38"/>
+      <c r="PA189" s="38"/>
+      <c r="PB189" s="38"/>
+      <c r="PC189" s="38"/>
+      <c r="PD189" s="38"/>
+      <c r="PE189" s="38"/>
+      <c r="PF189" s="38"/>
+      <c r="PG189" s="38"/>
+      <c r="PH189" s="38"/>
+      <c r="PI189" s="38"/>
+      <c r="PJ189" s="38"/>
+      <c r="PK189" s="38"/>
+      <c r="PL189" s="38"/>
+      <c r="PM189" s="38"/>
+      <c r="PN189" s="38"/>
+      <c r="PO189" s="38"/>
+      <c r="PP189" s="38"/>
+      <c r="PQ189" s="38"/>
+      <c r="PR189" s="38"/>
+      <c r="PS189" s="38"/>
+      <c r="PT189" s="38"/>
+      <c r="PU189" s="38"/>
+      <c r="PV189" s="38"/>
+      <c r="PW189" s="38"/>
+      <c r="PX189" s="38"/>
+      <c r="PY189" s="38"/>
+      <c r="PZ189" s="38"/>
+      <c r="QA189" s="38"/>
+      <c r="QB189" s="38"/>
+      <c r="QC189" s="38"/>
+      <c r="QD189" s="38"/>
+      <c r="QE189" s="38"/>
+      <c r="QF189" s="38"/>
+      <c r="QG189" s="38"/>
+      <c r="QH189" s="38"/>
+      <c r="QI189" s="38"/>
+      <c r="QJ189" s="38"/>
+      <c r="QK189" s="38"/>
+      <c r="QL189" s="38"/>
+      <c r="QM189" s="38"/>
+      <c r="QN189" s="38"/>
+      <c r="QO189" s="38"/>
+      <c r="QP189" s="38"/>
+      <c r="QQ189" s="38"/>
+      <c r="QR189" s="38"/>
+      <c r="QS189" s="38"/>
+      <c r="QT189" s="38"/>
+      <c r="QU189" s="38"/>
+      <c r="QV189" s="38"/>
+      <c r="QW189" s="38"/>
+      <c r="QX189" s="38"/>
+      <c r="QY189" s="38"/>
+      <c r="QZ189" s="38"/>
+      <c r="RA189" s="38"/>
+      <c r="RB189" s="38"/>
+      <c r="RC189" s="38"/>
+      <c r="RD189" s="38"/>
+      <c r="RE189" s="38"/>
+      <c r="RF189" s="38"/>
+      <c r="RG189" s="38"/>
+      <c r="RH189" s="38"/>
+      <c r="RI189" s="38"/>
+      <c r="RJ189" s="38"/>
+      <c r="RK189" s="38"/>
+      <c r="RL189" s="38"/>
+      <c r="RM189" s="38"/>
+      <c r="RN189" s="38"/>
+      <c r="RO189" s="38"/>
+      <c r="RP189" s="38"/>
+      <c r="RQ189" s="38"/>
+      <c r="RR189" s="38"/>
+      <c r="RS189" s="38"/>
+      <c r="RT189" s="38"/>
+      <c r="RU189" s="38"/>
+      <c r="RV189" s="38"/>
+      <c r="RW189" s="38"/>
+      <c r="RX189" s="38"/>
+      <c r="RY189" s="38"/>
+      <c r="RZ189" s="38"/>
+      <c r="SA189" s="38"/>
+      <c r="SB189" s="38"/>
+      <c r="SC189" s="38"/>
+      <c r="SD189" s="38"/>
+      <c r="SE189" s="38"/>
+      <c r="SF189" s="38"/>
+      <c r="SG189" s="38"/>
+      <c r="SH189" s="38"/>
+      <c r="SI189" s="38"/>
+      <c r="SJ189" s="38"/>
+      <c r="SK189" s="38"/>
+      <c r="SL189" s="38"/>
+      <c r="SM189" s="38"/>
+      <c r="SN189" s="38"/>
+      <c r="SO189" s="38"/>
+      <c r="SP189" s="38"/>
+      <c r="SQ189" s="38"/>
+      <c r="SR189" s="38"/>
+      <c r="SS189" s="38"/>
+      <c r="ST189" s="38"/>
+      <c r="SU189" s="38"/>
+      <c r="SV189" s="38"/>
+      <c r="SW189" s="38"/>
+      <c r="SX189" s="38"/>
+      <c r="SY189" s="38"/>
+      <c r="SZ189" s="38"/>
+      <c r="TA189" s="38"/>
+      <c r="TB189" s="38"/>
+      <c r="TC189" s="38"/>
+      <c r="TD189" s="38"/>
+      <c r="TE189" s="38"/>
+      <c r="TF189" s="38"/>
+      <c r="TG189" s="38"/>
+      <c r="TH189" s="38"/>
+      <c r="TI189" s="38"/>
+      <c r="TJ189" s="38"/>
+      <c r="TK189" s="38"/>
+      <c r="TL189" s="38"/>
+      <c r="TM189" s="38"/>
+      <c r="TN189" s="38"/>
+      <c r="TO189" s="38"/>
+      <c r="TP189" s="38"/>
+      <c r="TQ189" s="38"/>
+      <c r="TR189" s="38"/>
+      <c r="TS189" s="38"/>
+      <c r="TT189" s="38"/>
+      <c r="TU189" s="38"/>
+      <c r="TV189" s="38"/>
+      <c r="TW189" s="38"/>
+      <c r="TX189" s="38"/>
+      <c r="TY189" s="38"/>
+      <c r="TZ189" s="38"/>
+      <c r="UA189" s="38"/>
+      <c r="UB189" s="38"/>
+      <c r="UC189" s="38"/>
+      <c r="UD189" s="38"/>
+      <c r="UE189" s="38"/>
+      <c r="UF189" s="38"/>
+      <c r="UG189" s="38"/>
+      <c r="UH189" s="38"/>
+      <c r="UI189" s="38"/>
+      <c r="UJ189" s="38"/>
+      <c r="UK189" s="38"/>
+      <c r="UL189" s="38"/>
+      <c r="UM189" s="38"/>
+      <c r="UN189" s="38"/>
+      <c r="UO189" s="38"/>
+      <c r="UP189" s="38"/>
+      <c r="UQ189" s="38"/>
+      <c r="UR189" s="38"/>
+      <c r="US189" s="38"/>
+      <c r="UT189" s="38"/>
+      <c r="UU189" s="38"/>
+      <c r="UV189" s="38"/>
+      <c r="UW189" s="38"/>
+      <c r="UX189" s="38"/>
+      <c r="UY189" s="38"/>
+      <c r="UZ189" s="38"/>
+      <c r="VA189" s="38"/>
+      <c r="VB189" s="38"/>
+      <c r="VC189" s="38"/>
+      <c r="VD189" s="38"/>
+      <c r="VE189" s="38"/>
+      <c r="VF189" s="38"/>
+      <c r="VG189" s="38"/>
+      <c r="VH189" s="38"/>
+      <c r="VI189" s="38"/>
+      <c r="VJ189" s="38"/>
+      <c r="VK189" s="38"/>
+      <c r="VL189" s="38"/>
+      <c r="VM189" s="38"/>
+      <c r="VN189" s="38"/>
+      <c r="VO189" s="38"/>
+      <c r="VP189" s="38"/>
+      <c r="VQ189" s="38"/>
+      <c r="VR189" s="38"/>
+      <c r="VS189" s="38"/>
+      <c r="VT189" s="38"/>
+      <c r="VU189" s="38"/>
+      <c r="VV189" s="38"/>
+      <c r="VW189" s="38"/>
+      <c r="VX189" s="38"/>
+      <c r="VY189" s="38"/>
+      <c r="VZ189" s="38"/>
+      <c r="WA189" s="38"/>
+      <c r="WB189" s="38"/>
+      <c r="WC189" s="38"/>
+      <c r="WD189" s="38"/>
+      <c r="WE189" s="38"/>
+      <c r="WF189" s="38"/>
+      <c r="WG189" s="38"/>
+      <c r="WH189" s="38"/>
+      <c r="WI189" s="38"/>
+      <c r="WJ189" s="38"/>
+      <c r="WK189" s="38"/>
+      <c r="WL189" s="38"/>
+      <c r="WM189" s="38"/>
+      <c r="WN189" s="38"/>
+      <c r="WO189" s="38"/>
+      <c r="WP189" s="38"/>
+      <c r="WQ189" s="38"/>
+      <c r="WR189" s="38"/>
+      <c r="WS189" s="38"/>
+      <c r="WT189" s="38"/>
+      <c r="WU189" s="38"/>
+      <c r="WV189" s="38"/>
+      <c r="WW189" s="38"/>
+      <c r="WX189" s="38"/>
+      <c r="WY189" s="38"/>
+      <c r="WZ189" s="38"/>
+      <c r="XA189" s="38"/>
+      <c r="XB189" s="38"/>
+      <c r="XC189" s="38"/>
+      <c r="XD189" s="38"/>
+      <c r="XE189" s="38"/>
+      <c r="XF189" s="38"/>
+      <c r="XG189" s="38"/>
+      <c r="XH189" s="38"/>
+      <c r="XI189" s="38"/>
+      <c r="XJ189" s="38"/>
+      <c r="XK189" s="38"/>
+      <c r="XL189" s="38"/>
+      <c r="XM189" s="38"/>
+      <c r="XN189" s="38"/>
+      <c r="XO189" s="38"/>
+      <c r="XP189" s="38"/>
+      <c r="XQ189" s="38"/>
+      <c r="XR189" s="38"/>
+      <c r="XS189" s="38"/>
+      <c r="XT189" s="38"/>
+      <c r="XU189" s="38"/>
+      <c r="XV189" s="38"/>
+      <c r="XW189" s="38"/>
+      <c r="XX189" s="38"/>
+      <c r="XY189" s="38"/>
+      <c r="XZ189" s="38"/>
+      <c r="YA189" s="38"/>
+      <c r="YB189" s="38"/>
+      <c r="YC189" s="38"/>
+      <c r="YD189" s="38"/>
+      <c r="YE189" s="38"/>
+      <c r="YF189" s="38"/>
+      <c r="YG189" s="38"/>
+      <c r="YH189" s="38"/>
+      <c r="YI189" s="38"/>
+      <c r="YJ189" s="38"/>
+      <c r="YK189" s="38"/>
+      <c r="YL189" s="38"/>
+      <c r="YM189" s="38"/>
+      <c r="YN189" s="38"/>
+      <c r="YO189" s="38"/>
+      <c r="YP189" s="38"/>
+      <c r="YQ189" s="38"/>
+      <c r="YR189" s="38"/>
+      <c r="YS189" s="38"/>
+      <c r="YT189" s="38"/>
+      <c r="YU189" s="38"/>
+      <c r="YV189" s="38"/>
+      <c r="YW189" s="38"/>
+      <c r="YX189" s="38"/>
+      <c r="YY189" s="38"/>
+      <c r="YZ189" s="38"/>
+      <c r="ZA189" s="38"/>
+      <c r="ZB189" s="38"/>
+      <c r="ZC189" s="38"/>
+      <c r="ZD189" s="38"/>
+      <c r="ZE189" s="38"/>
+      <c r="ZF189" s="38"/>
+      <c r="ZG189" s="38"/>
+      <c r="ZH189" s="38"/>
+      <c r="ZI189" s="38"/>
+      <c r="ZJ189" s="38"/>
+      <c r="ZK189" s="38"/>
+      <c r="ZL189" s="38"/>
+      <c r="ZM189" s="38"/>
+      <c r="ZN189" s="38"/>
+      <c r="ZO189" s="38"/>
+      <c r="ZP189" s="38"/>
+      <c r="ZQ189" s="38"/>
+      <c r="ZR189" s="38"/>
+      <c r="ZS189" s="38"/>
+      <c r="ZT189" s="38"/>
+      <c r="ZU189" s="38"/>
+      <c r="ZV189" s="38"/>
+      <c r="ZW189" s="38"/>
+      <c r="ZX189" s="38"/>
+      <c r="ZY189" s="38"/>
+      <c r="ZZ189" s="38"/>
+      <c r="AAA189" s="38"/>
+      <c r="AAB189" s="38"/>
+      <c r="AAC189" s="38"/>
+      <c r="AAD189" s="38"/>
+      <c r="AAE189" s="38"/>
+      <c r="AAF189" s="38"/>
+      <c r="AAG189" s="38"/>
+      <c r="AAH189" s="38"/>
+      <c r="AAI189" s="38"/>
+      <c r="AAJ189" s="38"/>
+      <c r="AAK189" s="38"/>
+      <c r="AAL189" s="38"/>
+      <c r="AAM189" s="38"/>
+      <c r="AAN189" s="38"/>
+      <c r="AAO189" s="38"/>
+      <c r="AAP189" s="38"/>
+      <c r="AAQ189" s="38"/>
+      <c r="AAR189" s="38"/>
+      <c r="AAS189" s="38"/>
+      <c r="AAT189" s="38"/>
+      <c r="AAU189" s="38"/>
+      <c r="AAV189" s="38"/>
+      <c r="AAW189" s="38"/>
+      <c r="AAX189" s="38"/>
+      <c r="AAY189" s="38"/>
+      <c r="AAZ189" s="38"/>
+      <c r="ABA189" s="38"/>
+      <c r="ABB189" s="38"/>
+      <c r="ABC189" s="38"/>
+      <c r="ABD189" s="38"/>
+      <c r="ABE189" s="38"/>
+      <c r="ABF189" s="38"/>
+      <c r="ABG189" s="38"/>
+      <c r="ABH189" s="38"/>
+      <c r="ABI189" s="38"/>
+      <c r="ABJ189" s="38"/>
+      <c r="ABK189" s="38"/>
+      <c r="ABL189" s="38"/>
+      <c r="ABM189" s="38"/>
+      <c r="ABN189" s="38"/>
+      <c r="ABO189" s="38"/>
+      <c r="ABP189" s="38"/>
+      <c r="ABQ189" s="38"/>
+      <c r="ABR189" s="38"/>
+      <c r="ABS189" s="38"/>
+      <c r="ABT189" s="38"/>
+      <c r="ABU189" s="38"/>
+      <c r="ABV189" s="38"/>
+      <c r="ABW189" s="38"/>
+      <c r="ABX189" s="38"/>
+      <c r="ABY189" s="38"/>
+      <c r="ABZ189" s="38"/>
+      <c r="ACA189" s="38"/>
+      <c r="ACB189" s="38"/>
+      <c r="ACC189" s="38"/>
+      <c r="ACD189" s="38"/>
+      <c r="ACE189" s="38"/>
+      <c r="ACF189" s="38"/>
+      <c r="ACG189" s="38"/>
+      <c r="ACH189" s="38"/>
+      <c r="ACI189" s="38"/>
+      <c r="ACJ189" s="38"/>
+      <c r="ACK189" s="38"/>
+      <c r="ACL189" s="38"/>
+      <c r="ACM189" s="38"/>
+      <c r="ACN189" s="38"/>
+      <c r="ACO189" s="38"/>
+      <c r="ACP189" s="38"/>
+      <c r="ACQ189" s="38"/>
+      <c r="ACR189" s="38"/>
+      <c r="ACS189" s="38"/>
+      <c r="ACT189" s="38"/>
+      <c r="ACU189" s="38"/>
+      <c r="ACV189" s="38"/>
+      <c r="ACW189" s="38"/>
+      <c r="ACX189" s="38"/>
+      <c r="ACY189" s="38"/>
+      <c r="ACZ189" s="38"/>
+      <c r="ADA189" s="38"/>
+      <c r="ADB189" s="38"/>
+      <c r="ADC189" s="38"/>
+      <c r="ADD189" s="38"/>
+      <c r="ADE189" s="38"/>
+      <c r="ADF189" s="38"/>
+      <c r="ADG189" s="38"/>
+      <c r="ADH189" s="38"/>
+      <c r="ADI189" s="38"/>
+      <c r="ADJ189" s="38"/>
+      <c r="ADK189" s="38"/>
+      <c r="ADL189" s="38"/>
+      <c r="ADM189" s="38"/>
+      <c r="ADN189" s="38"/>
+      <c r="ADO189" s="38"/>
+      <c r="ADP189" s="38"/>
+      <c r="ADQ189" s="38"/>
+      <c r="ADR189" s="38"/>
+      <c r="ADS189" s="38"/>
+      <c r="ADT189" s="38"/>
+      <c r="ADU189" s="38"/>
+      <c r="ADV189" s="38"/>
+      <c r="ADW189" s="38"/>
+      <c r="ADX189" s="38"/>
+      <c r="ADY189" s="38"/>
+      <c r="ADZ189" s="38"/>
+      <c r="AEA189" s="38"/>
+      <c r="AEB189" s="38"/>
+      <c r="AEC189" s="38"/>
+      <c r="AED189" s="38"/>
+      <c r="AEE189" s="38"/>
+      <c r="AEF189" s="38"/>
+      <c r="AEG189" s="38"/>
+      <c r="AEH189" s="38"/>
+      <c r="AEI189" s="38"/>
+      <c r="AEJ189" s="38"/>
+      <c r="AEK189" s="38"/>
+      <c r="AEL189" s="38"/>
+      <c r="AEM189" s="38"/>
+      <c r="AEN189" s="38"/>
+      <c r="AEO189" s="38"/>
+      <c r="AEP189" s="38"/>
+      <c r="AEQ189" s="38"/>
+      <c r="AER189" s="38"/>
+      <c r="AES189" s="38"/>
+      <c r="AET189" s="38"/>
+      <c r="AEU189" s="38"/>
+      <c r="AEV189" s="38"/>
+      <c r="AEW189" s="38"/>
+      <c r="AEX189" s="38"/>
+      <c r="AEY189" s="38"/>
+      <c r="AEZ189" s="38"/>
+      <c r="AFA189" s="38"/>
+      <c r="AFB189" s="38"/>
+      <c r="AFC189" s="38"/>
+      <c r="AFD189" s="38"/>
+      <c r="AFE189" s="38"/>
+      <c r="AFF189" s="38"/>
+      <c r="AFG189" s="38"/>
+      <c r="AFH189" s="38"/>
+      <c r="AFI189" s="38"/>
+      <c r="AFJ189" s="38"/>
+      <c r="AFK189" s="38"/>
+      <c r="AFL189" s="38"/>
+      <c r="AFM189" s="38"/>
+      <c r="AFN189" s="38"/>
+      <c r="AFO189" s="38"/>
+      <c r="AFP189" s="38"/>
+      <c r="AFQ189" s="38"/>
+      <c r="AFR189" s="38"/>
+      <c r="AFS189" s="38"/>
+      <c r="AFT189" s="38"/>
+      <c r="AFU189" s="38"/>
+      <c r="AFV189" s="38"/>
+      <c r="AFW189" s="38"/>
+      <c r="AFX189" s="38"/>
+      <c r="AFY189" s="38"/>
+      <c r="AFZ189" s="38"/>
+      <c r="AGA189" s="38"/>
+      <c r="AGB189" s="38"/>
+      <c r="AGC189" s="38"/>
+      <c r="AGD189" s="38"/>
+      <c r="AGE189" s="38"/>
+      <c r="AGF189" s="38"/>
+      <c r="AGG189" s="38"/>
+      <c r="AGH189" s="38"/>
+      <c r="AGI189" s="38"/>
+      <c r="AGJ189" s="38"/>
+      <c r="AGK189" s="38"/>
+      <c r="AGL189" s="38"/>
+      <c r="AGM189" s="38"/>
+      <c r="AGN189" s="38"/>
+      <c r="AGO189" s="38"/>
+      <c r="AGP189" s="38"/>
+      <c r="AGQ189" s="38"/>
+      <c r="AGR189" s="38"/>
+      <c r="AGS189" s="38"/>
+      <c r="AGT189" s="38"/>
+      <c r="AGU189" s="38"/>
+      <c r="AGV189" s="38"/>
+      <c r="AGW189" s="38"/>
+      <c r="AGX189" s="38"/>
+      <c r="AGY189" s="38"/>
+      <c r="AGZ189" s="38"/>
+      <c r="AHA189" s="38"/>
+      <c r="AHB189" s="38"/>
+      <c r="AHC189" s="38"/>
+      <c r="AHD189" s="38"/>
+      <c r="AHE189" s="38"/>
+      <c r="AHF189" s="38"/>
+      <c r="AHG189" s="38"/>
+      <c r="AHH189" s="38"/>
+      <c r="AHI189" s="38"/>
+      <c r="AHJ189" s="38"/>
+      <c r="AHK189" s="38"/>
+      <c r="AHL189" s="38"/>
+      <c r="AHM189" s="38"/>
+      <c r="AHN189" s="38"/>
+      <c r="AHO189" s="38"/>
+      <c r="AHP189" s="38"/>
+      <c r="AHQ189" s="38"/>
+      <c r="AHR189" s="38"/>
+      <c r="AHS189" s="38"/>
+      <c r="AHT189" s="38"/>
+      <c r="AHU189" s="38"/>
+      <c r="AHV189" s="38"/>
+      <c r="AHW189" s="38"/>
+      <c r="AHX189" s="38"/>
+      <c r="AHY189" s="38"/>
+      <c r="AHZ189" s="38"/>
+      <c r="AIA189" s="38"/>
+      <c r="AIB189" s="38"/>
+      <c r="AIC189" s="38"/>
+      <c r="AID189" s="38"/>
+      <c r="AIE189" s="38"/>
+      <c r="AIF189" s="38"/>
+      <c r="AIG189" s="38"/>
+      <c r="AIH189" s="38"/>
+      <c r="AII189" s="38"/>
+      <c r="AIJ189" s="38"/>
+      <c r="AIK189" s="38"/>
+      <c r="AIL189" s="38"/>
+      <c r="AIM189" s="38"/>
+      <c r="AIN189" s="38"/>
+      <c r="AIO189" s="38"/>
+      <c r="AIP189" s="38"/>
+      <c r="AIQ189" s="38"/>
+      <c r="AIR189" s="38"/>
+      <c r="AIS189" s="38"/>
+      <c r="AIT189" s="38"/>
+      <c r="AIU189" s="38"/>
+      <c r="AIV189" s="38"/>
+      <c r="AIW189" s="38"/>
+      <c r="AIX189" s="38"/>
+      <c r="AIY189" s="38"/>
+      <c r="AIZ189" s="38"/>
+      <c r="AJA189" s="38"/>
+      <c r="AJB189" s="38"/>
+      <c r="AJC189" s="38"/>
+      <c r="AJD189" s="38"/>
+      <c r="AJE189" s="38"/>
+      <c r="AJF189" s="38"/>
+      <c r="AJG189" s="38"/>
+      <c r="AJH189" s="38"/>
+      <c r="AJI189" s="38"/>
+      <c r="AJJ189" s="38"/>
+      <c r="AJK189" s="38"/>
+      <c r="AJL189" s="38"/>
+      <c r="AJM189" s="38"/>
+      <c r="AJN189" s="38"/>
+      <c r="AJO189" s="38"/>
+      <c r="AJP189" s="38"/>
+      <c r="AJQ189" s="38"/>
+      <c r="AJR189" s="38"/>
+      <c r="AJS189" s="38"/>
+      <c r="AJT189" s="38"/>
+      <c r="AJU189" s="38"/>
+      <c r="AJV189" s="38"/>
+      <c r="AJW189" s="38"/>
+      <c r="AJX189" s="38"/>
+      <c r="AJY189" s="38"/>
+      <c r="AJZ189" s="38"/>
+      <c r="AKA189" s="38"/>
+      <c r="AKB189" s="38"/>
+      <c r="AKC189" s="38"/>
+      <c r="AKD189" s="38"/>
+      <c r="AKE189" s="38"/>
+      <c r="AKF189" s="38"/>
+      <c r="AKG189" s="38"/>
+      <c r="AKH189" s="38"/>
+      <c r="AKI189" s="38"/>
+      <c r="AKJ189" s="38"/>
+      <c r="AKK189" s="38"/>
+      <c r="AKL189" s="38"/>
+      <c r="AKM189" s="38"/>
+      <c r="AKN189" s="38"/>
+      <c r="AKO189" s="38"/>
+      <c r="AKP189" s="38"/>
+      <c r="AKQ189" s="38"/>
+      <c r="AKR189" s="38"/>
+      <c r="AKS189" s="38"/>
+      <c r="AKT189" s="38"/>
+      <c r="AKU189" s="38"/>
+      <c r="AKV189" s="38"/>
+      <c r="AKW189" s="38"/>
+      <c r="AKX189" s="38"/>
+      <c r="AKY189" s="38"/>
+      <c r="AKZ189" s="38"/>
+      <c r="ALA189" s="38"/>
+      <c r="ALB189" s="38"/>
+      <c r="ALC189" s="38"/>
+      <c r="ALD189" s="38"/>
+      <c r="ALE189" s="38"/>
+      <c r="ALF189" s="38"/>
+      <c r="ALG189" s="38"/>
+      <c r="ALH189" s="38"/>
+      <c r="ALI189" s="38"/>
+      <c r="ALJ189" s="38"/>
+      <c r="ALK189" s="38"/>
+      <c r="ALL189" s="38"/>
+      <c r="ALM189" s="38"/>
+      <c r="ALN189" s="38"/>
+      <c r="ALO189" s="38"/>
+      <c r="ALP189" s="38"/>
+      <c r="ALQ189" s="38"/>
+      <c r="ALR189" s="38"/>
+      <c r="ALS189" s="38"/>
+      <c r="ALT189" s="38"/>
+      <c r="ALU189" s="38"/>
+      <c r="ALV189" s="38"/>
+      <c r="ALW189" s="38"/>
+      <c r="ALX189" s="38"/>
+      <c r="ALY189" s="38"/>
+      <c r="ALZ189" s="38"/>
+      <c r="AMA189" s="38"/>
+      <c r="AMB189" s="38"/>
+      <c r="AMC189" s="38"/>
+      <c r="AMD189" s="38"/>
+      <c r="AME189" s="38"/>
+      <c r="AMF189" s="38"/>
+      <c r="AMG189" s="38"/>
+      <c r="AMH189" s="38"/>
+      <c r="AMI189" s="38"/>
+      <c r="AMJ189" s="38"/>
+      <c r="AMK189" s="38"/>
+      <c r="AML189" s="38"/>
+      <c r="AMM189" s="38"/>
+      <c r="AMN189" s="38"/>
+      <c r="AMO189" s="38"/>
+      <c r="AMP189" s="38"/>
+      <c r="AMQ189" s="38"/>
+      <c r="AMR189" s="38"/>
+      <c r="AMS189" s="38"/>
+      <c r="AMT189" s="38"/>
+      <c r="AMU189" s="38"/>
+      <c r="AMV189" s="38"/>
+      <c r="AMW189" s="38"/>
+      <c r="AMX189" s="38"/>
+      <c r="AMY189" s="38"/>
+      <c r="AMZ189" s="38"/>
+      <c r="ANA189" s="38"/>
+      <c r="ANB189" s="38"/>
+      <c r="ANC189" s="38"/>
+      <c r="AND189" s="38"/>
+      <c r="ANE189" s="38"/>
+      <c r="ANF189" s="38"/>
+      <c r="ANG189" s="38"/>
+      <c r="ANH189" s="38"/>
+      <c r="ANI189" s="38"/>
+      <c r="ANJ189" s="38"/>
+      <c r="ANK189" s="38"/>
+      <c r="ANL189" s="38"/>
+      <c r="ANM189" s="38"/>
+      <c r="ANN189" s="38"/>
+      <c r="ANO189" s="38"/>
+      <c r="ANP189" s="38"/>
+      <c r="ANQ189" s="38"/>
+      <c r="ANR189" s="38"/>
+      <c r="ANS189" s="38"/>
+      <c r="ANT189" s="38"/>
+      <c r="ANU189" s="38"/>
+      <c r="ANV189" s="38"/>
+      <c r="ANW189" s="38"/>
+      <c r="ANX189" s="38"/>
+      <c r="ANY189" s="38"/>
+      <c r="ANZ189" s="38"/>
+      <c r="AOA189" s="38"/>
+      <c r="AOB189" s="38"/>
+      <c r="AOC189" s="38"/>
+      <c r="AOD189" s="38"/>
+      <c r="AOE189" s="38"/>
+      <c r="AOF189" s="38"/>
+      <c r="AOG189" s="38"/>
+      <c r="AOH189" s="38"/>
+      <c r="AOI189" s="38"/>
+      <c r="AOJ189" s="38"/>
+      <c r="AOK189" s="38"/>
+      <c r="AOL189" s="38"/>
+      <c r="AOM189" s="38"/>
+      <c r="AON189" s="38"/>
+      <c r="AOO189" s="38"/>
+      <c r="AOP189" s="38"/>
+      <c r="AOQ189" s="38"/>
+      <c r="AOR189" s="38"/>
+      <c r="AOS189" s="38"/>
+      <c r="AOT189" s="38"/>
+      <c r="AOU189" s="38"/>
+      <c r="AOV189" s="38"/>
+      <c r="AOW189" s="38"/>
+      <c r="AOX189" s="38"/>
+      <c r="AOY189" s="38"/>
+      <c r="AOZ189" s="38"/>
+      <c r="APA189" s="38"/>
+      <c r="APB189" s="38"/>
+      <c r="APC189" s="38"/>
+      <c r="APD189" s="38"/>
+      <c r="APE189" s="38"/>
+      <c r="APF189" s="38"/>
+      <c r="APG189" s="38"/>
+      <c r="APH189" s="38"/>
+      <c r="API189" s="38"/>
+      <c r="APJ189" s="38"/>
+      <c r="APK189" s="38"/>
+      <c r="APL189" s="38"/>
+      <c r="APM189" s="38"/>
+      <c r="APN189" s="38"/>
+      <c r="APO189" s="38"/>
+      <c r="APP189" s="38"/>
+      <c r="APQ189" s="38"/>
+      <c r="APR189" s="38"/>
+      <c r="APS189" s="38"/>
+      <c r="APT189" s="38"/>
+      <c r="APU189" s="38"/>
+      <c r="APV189" s="38"/>
+      <c r="APW189" s="38"/>
+      <c r="APX189" s="38"/>
+      <c r="APY189" s="38"/>
+      <c r="APZ189" s="38"/>
+      <c r="AQA189" s="38"/>
+      <c r="AQB189" s="38"/>
+      <c r="AQC189" s="38"/>
+      <c r="AQD189" s="38"/>
+      <c r="AQE189" s="38"/>
+      <c r="AQF189" s="38"/>
+      <c r="AQG189" s="38"/>
+      <c r="AQH189" s="38"/>
+      <c r="AQI189" s="38"/>
+      <c r="AQJ189" s="38"/>
+      <c r="AQK189" s="38"/>
+      <c r="AQL189" s="38"/>
+      <c r="AQM189" s="38"/>
+      <c r="AQN189" s="38"/>
+      <c r="AQO189" s="38"/>
+      <c r="AQP189" s="38"/>
+      <c r="AQQ189" s="38"/>
+      <c r="AQR189" s="38"/>
+      <c r="AQS189" s="38"/>
+      <c r="AQT189" s="38"/>
+      <c r="AQU189" s="38"/>
+      <c r="AQV189" s="38"/>
+      <c r="AQW189" s="38"/>
+      <c r="AQX189" s="38"/>
+      <c r="AQY189" s="38"/>
+      <c r="AQZ189" s="38"/>
+      <c r="ARA189" s="38"/>
+      <c r="ARB189" s="38"/>
+      <c r="ARC189" s="38"/>
+      <c r="ARD189" s="38"/>
+      <c r="ARE189" s="38"/>
+      <c r="ARF189" s="38"/>
+      <c r="ARG189" s="38"/>
+      <c r="ARH189" s="38"/>
+      <c r="ARI189" s="38"/>
+      <c r="ARJ189" s="38"/>
+      <c r="ARK189" s="38"/>
+      <c r="ARL189" s="38"/>
+      <c r="ARM189" s="38"/>
+      <c r="ARN189" s="38"/>
+      <c r="ARO189" s="38"/>
+      <c r="ARP189" s="38"/>
+      <c r="ARQ189" s="38"/>
+      <c r="ARR189" s="38"/>
+      <c r="ARS189" s="38"/>
+      <c r="ART189" s="38"/>
+      <c r="ARU189" s="38"/>
+      <c r="ARV189" s="38"/>
+      <c r="ARW189" s="38"/>
+      <c r="ARX189" s="38"/>
+      <c r="ARY189" s="38"/>
+      <c r="ARZ189" s="38"/>
+      <c r="ASA189" s="38"/>
+      <c r="ASB189" s="38"/>
+      <c r="ASC189" s="38"/>
+      <c r="ASD189" s="38"/>
+      <c r="ASE189" s="38"/>
+      <c r="ASF189" s="38"/>
+      <c r="ASG189" s="38"/>
+      <c r="ASH189" s="38"/>
+      <c r="ASI189" s="38"/>
+      <c r="ASJ189" s="38"/>
+      <c r="ASK189" s="38"/>
+      <c r="ASL189" s="38"/>
+      <c r="ASM189" s="38"/>
+      <c r="ASN189" s="38"/>
+      <c r="ASO189" s="38"/>
+      <c r="ASP189" s="38"/>
+      <c r="ASQ189" s="38"/>
+      <c r="ASR189" s="38"/>
+      <c r="ASS189" s="38"/>
+      <c r="AST189" s="38"/>
+      <c r="ASU189" s="38"/>
+      <c r="ASV189" s="38"/>
+      <c r="ASW189" s="38"/>
+      <c r="ASX189" s="38"/>
+      <c r="ASY189" s="38"/>
+      <c r="ASZ189" s="38"/>
+      <c r="ATA189" s="38"/>
+      <c r="ATB189" s="38"/>
+      <c r="ATC189" s="38"/>
+      <c r="ATD189" s="38"/>
+      <c r="ATE189" s="38"/>
+      <c r="ATF189" s="38"/>
+      <c r="ATG189" s="38"/>
+      <c r="ATH189" s="38"/>
+      <c r="ATI189" s="38"/>
+      <c r="ATJ189" s="38"/>
+      <c r="ATK189" s="38"/>
+      <c r="ATL189" s="38"/>
+      <c r="ATM189" s="38"/>
+      <c r="ATN189" s="38"/>
+      <c r="ATO189" s="38"/>
+      <c r="ATP189" s="38"/>
+      <c r="ATQ189" s="38"/>
+      <c r="ATR189" s="38"/>
+      <c r="ATS189" s="38"/>
+      <c r="ATT189" s="38"/>
+      <c r="ATU189" s="38"/>
+      <c r="ATV189" s="38"/>
+      <c r="ATW189" s="38"/>
+      <c r="ATX189" s="38"/>
+      <c r="ATY189" s="38"/>
+      <c r="ATZ189" s="38"/>
+    </row>
+    <row r="190" spans="1:1222" s="37" customFormat="1">
+      <c r="A190" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="B190" s="43"/>
+      <c r="C190" s="43">
+        <v>9</v>
+      </c>
+      <c r="D190" s="38"/>
+      <c r="E190" s="38"/>
+      <c r="F190" s="38"/>
+      <c r="G190" s="38"/>
+      <c r="H190" s="38"/>
+      <c r="I190" s="38"/>
+      <c r="J190" s="38"/>
+      <c r="K190" s="38"/>
+      <c r="L190" s="38"/>
+      <c r="M190" s="38"/>
+      <c r="N190" s="38"/>
+      <c r="O190" s="38"/>
+      <c r="P190" s="38"/>
+      <c r="Q190" s="38"/>
+      <c r="R190" s="38"/>
+      <c r="S190" s="38"/>
+      <c r="T190" s="38"/>
+      <c r="U190" s="38"/>
+      <c r="V190" s="38"/>
+      <c r="W190" s="38"/>
+      <c r="X190" s="38"/>
+      <c r="Y190" s="38"/>
+      <c r="Z190" s="38"/>
+      <c r="AA190" s="38"/>
+      <c r="AB190" s="38"/>
+      <c r="AC190" s="38"/>
+      <c r="AD190" s="38"/>
+      <c r="AE190" s="38"/>
+      <c r="AF190" s="38"/>
+      <c r="AG190" s="38"/>
+      <c r="AH190" s="38"/>
+      <c r="AI190" s="38"/>
+      <c r="AJ190" s="38"/>
+      <c r="AK190" s="38"/>
+      <c r="AL190" s="38"/>
+      <c r="AM190" s="38"/>
+      <c r="AN190" s="38"/>
+      <c r="AO190" s="38"/>
+      <c r="AP190" s="38"/>
+      <c r="AQ190" s="38"/>
+      <c r="AR190" s="38"/>
+      <c r="AS190" s="38"/>
+      <c r="AT190" s="38"/>
+      <c r="AU190" s="38"/>
+      <c r="AV190" s="38"/>
+      <c r="AW190" s="38"/>
+      <c r="AX190" s="38"/>
+      <c r="AY190" s="38"/>
+      <c r="AZ190" s="38"/>
+      <c r="BA190" s="38"/>
+      <c r="BB190" s="38"/>
+      <c r="BC190" s="38"/>
+      <c r="BD190" s="38"/>
+      <c r="BE190" s="38"/>
+      <c r="BF190" s="38"/>
+      <c r="BG190" s="38"/>
+      <c r="BH190" s="38"/>
+      <c r="BI190" s="38"/>
+      <c r="BJ190" s="38"/>
+      <c r="BK190" s="38"/>
+      <c r="BL190" s="38"/>
+      <c r="BM190" s="38"/>
+      <c r="BN190" s="38"/>
+      <c r="BO190" s="38"/>
+      <c r="BP190" s="38"/>
+      <c r="BQ190" s="38"/>
+      <c r="BR190" s="38"/>
+      <c r="BS190" s="38"/>
+      <c r="BT190" s="38"/>
+      <c r="BU190" s="38"/>
+      <c r="BV190" s="38"/>
+      <c r="BW190" s="38"/>
+      <c r="BX190" s="38"/>
+      <c r="BY190" s="38"/>
+      <c r="BZ190" s="38"/>
+      <c r="CA190" s="38"/>
+      <c r="CB190" s="38"/>
+      <c r="CC190" s="38"/>
+      <c r="CD190" s="38"/>
+      <c r="CE190" s="38"/>
+      <c r="CF190" s="38"/>
+      <c r="CG190" s="38"/>
+      <c r="CH190" s="38"/>
+      <c r="CI190" s="38"/>
+      <c r="CJ190" s="38"/>
+      <c r="CK190" s="38"/>
+      <c r="CL190" s="38"/>
+      <c r="CM190" s="38"/>
+      <c r="CN190" s="38"/>
+      <c r="CO190" s="38"/>
+      <c r="CP190" s="38"/>
+      <c r="CQ190" s="38"/>
+      <c r="CR190" s="38"/>
+      <c r="CS190" s="38"/>
+      <c r="CT190" s="38"/>
+      <c r="CU190" s="38"/>
+      <c r="CV190" s="38"/>
+      <c r="CW190" s="38"/>
+      <c r="CX190" s="38"/>
+      <c r="CY190" s="38"/>
+      <c r="CZ190" s="38"/>
+      <c r="DA190" s="38"/>
+      <c r="DB190" s="38"/>
+      <c r="DC190" s="38"/>
+      <c r="DD190" s="38"/>
+      <c r="DE190" s="38"/>
+      <c r="DF190" s="38"/>
+      <c r="DG190" s="38"/>
+      <c r="DH190" s="38"/>
+      <c r="DI190" s="38"/>
+      <c r="DJ190" s="38"/>
+      <c r="DK190" s="38"/>
+      <c r="DL190" s="38"/>
+      <c r="DM190" s="38"/>
+      <c r="DN190" s="38"/>
+      <c r="DO190" s="38"/>
+      <c r="DP190" s="38"/>
+      <c r="DQ190" s="38"/>
+      <c r="DR190" s="38"/>
+      <c r="DS190" s="38"/>
+      <c r="DT190" s="38"/>
+      <c r="DU190" s="38"/>
+      <c r="DV190" s="38"/>
+      <c r="DW190" s="38"/>
+      <c r="DX190" s="38"/>
+      <c r="DY190" s="38"/>
+      <c r="DZ190" s="38"/>
+      <c r="EA190" s="38"/>
+      <c r="EB190" s="38"/>
+      <c r="EC190" s="38"/>
+      <c r="ED190" s="38"/>
+      <c r="EE190" s="38"/>
+      <c r="EF190" s="38"/>
+      <c r="EG190" s="38"/>
+      <c r="EH190" s="38"/>
+      <c r="EI190" s="38"/>
+      <c r="EJ190" s="38"/>
+      <c r="EK190" s="38"/>
+      <c r="EL190" s="38"/>
+      <c r="EM190" s="38"/>
+      <c r="EN190" s="38"/>
+      <c r="EO190" s="38"/>
+      <c r="EP190" s="38"/>
+      <c r="EQ190" s="38"/>
+      <c r="ER190" s="38"/>
+      <c r="ES190" s="38"/>
+      <c r="ET190" s="38"/>
+      <c r="EU190" s="38"/>
+      <c r="EV190" s="38"/>
+      <c r="EW190" s="38"/>
+      <c r="EX190" s="38"/>
+      <c r="EY190" s="38"/>
+      <c r="EZ190" s="38"/>
+      <c r="FA190" s="38"/>
+      <c r="FB190" s="38"/>
+      <c r="FC190" s="38"/>
+      <c r="FD190" s="38"/>
+      <c r="FE190" s="38"/>
+      <c r="FF190" s="38"/>
+      <c r="FG190" s="38"/>
+      <c r="FH190" s="38"/>
+      <c r="FI190" s="38"/>
+      <c r="FJ190" s="38"/>
+      <c r="FK190" s="38"/>
+      <c r="FL190" s="38"/>
+      <c r="FM190" s="38"/>
+      <c r="FN190" s="38"/>
+      <c r="FO190" s="38"/>
+      <c r="FP190" s="38"/>
+      <c r="FQ190" s="38"/>
+      <c r="FR190" s="38"/>
+      <c r="FS190" s="38"/>
+      <c r="FT190" s="38"/>
+      <c r="FU190" s="38"/>
+      <c r="FV190" s="38"/>
+      <c r="FW190" s="38"/>
+      <c r="FX190" s="38"/>
+      <c r="FY190" s="38"/>
+      <c r="FZ190" s="38"/>
+      <c r="GA190" s="38"/>
+      <c r="GB190" s="38"/>
+      <c r="GC190" s="38"/>
+      <c r="GD190" s="38"/>
+      <c r="GE190" s="38"/>
+      <c r="GF190" s="38"/>
+      <c r="GG190" s="38"/>
+      <c r="GH190" s="38"/>
+      <c r="GI190" s="38"/>
+      <c r="GJ190" s="38"/>
+      <c r="GK190" s="38"/>
+      <c r="GL190" s="38"/>
+      <c r="GM190" s="38"/>
+      <c r="GN190" s="38"/>
+      <c r="GO190" s="38"/>
+      <c r="GP190" s="38"/>
+      <c r="GQ190" s="38"/>
+      <c r="GR190" s="38"/>
+      <c r="GS190" s="38"/>
+      <c r="GT190" s="38"/>
+      <c r="GU190" s="38"/>
+      <c r="GV190" s="38"/>
+      <c r="GW190" s="38"/>
+      <c r="GX190" s="38"/>
+      <c r="GY190" s="38"/>
+      <c r="GZ190" s="38"/>
+      <c r="HA190" s="38"/>
+      <c r="HB190" s="38"/>
+      <c r="HC190" s="38"/>
+      <c r="HD190" s="38"/>
+      <c r="HE190" s="38"/>
+      <c r="HF190" s="38"/>
+      <c r="HG190" s="38"/>
+      <c r="HH190" s="38"/>
+      <c r="HI190" s="38"/>
+      <c r="HJ190" s="38"/>
+      <c r="HK190" s="38"/>
+      <c r="HL190" s="38"/>
+      <c r="HM190" s="38"/>
+      <c r="HN190" s="38"/>
+      <c r="HO190" s="38"/>
+      <c r="HP190" s="38"/>
+      <c r="HQ190" s="38"/>
+      <c r="HR190" s="38"/>
+      <c r="HS190" s="38"/>
+      <c r="HT190" s="38"/>
+      <c r="HU190" s="38"/>
+      <c r="HV190" s="38"/>
+      <c r="HW190" s="38"/>
+      <c r="HX190" s="38"/>
+      <c r="HY190" s="38"/>
+      <c r="HZ190" s="38"/>
+      <c r="IA190" s="38"/>
+      <c r="IB190" s="38"/>
+      <c r="IC190" s="38"/>
+      <c r="ID190" s="38"/>
+      <c r="IE190" s="38"/>
+      <c r="IF190" s="38"/>
+      <c r="IG190" s="38"/>
+      <c r="IH190" s="38"/>
+      <c r="II190" s="38"/>
+      <c r="IJ190" s="38"/>
+      <c r="IK190" s="38"/>
+      <c r="IL190" s="38"/>
+      <c r="IM190" s="38"/>
+      <c r="IN190" s="38"/>
+      <c r="IO190" s="38"/>
+      <c r="IP190" s="38"/>
+      <c r="IQ190" s="38"/>
+      <c r="IR190" s="38"/>
+      <c r="IS190" s="38"/>
+      <c r="IT190" s="38"/>
+      <c r="IU190" s="38"/>
+      <c r="IV190" s="38"/>
+      <c r="IW190" s="38"/>
+      <c r="IX190" s="38"/>
+      <c r="IY190" s="38"/>
+      <c r="IZ190" s="38"/>
+      <c r="JA190" s="38"/>
+      <c r="JB190" s="38"/>
+      <c r="JC190" s="38"/>
+      <c r="JD190" s="38"/>
+      <c r="JE190" s="38"/>
+      <c r="JF190" s="38"/>
+      <c r="JG190" s="38"/>
+      <c r="JH190" s="38"/>
+      <c r="JI190" s="38"/>
+      <c r="JJ190" s="38"/>
+      <c r="JK190" s="38"/>
+      <c r="JL190" s="38"/>
+      <c r="JM190" s="38"/>
+      <c r="JN190" s="38"/>
+      <c r="JO190" s="38"/>
+      <c r="JP190" s="38"/>
+      <c r="JQ190" s="38"/>
+      <c r="JR190" s="38"/>
+      <c r="JS190" s="38"/>
+      <c r="JT190" s="38"/>
+      <c r="JU190" s="38"/>
+      <c r="JV190" s="38"/>
+      <c r="JW190" s="38"/>
+      <c r="JX190" s="38"/>
+      <c r="JY190" s="38"/>
+      <c r="JZ190" s="38"/>
+      <c r="KA190" s="38"/>
+      <c r="KB190" s="38"/>
+      <c r="KC190" s="38"/>
+      <c r="KD190" s="38"/>
+      <c r="KE190" s="38"/>
+      <c r="KF190" s="38"/>
+      <c r="KG190" s="38"/>
+      <c r="KH190" s="38"/>
+      <c r="KI190" s="38"/>
+      <c r="KJ190" s="38"/>
+      <c r="KK190" s="38"/>
+      <c r="KL190" s="38"/>
+      <c r="KM190" s="38"/>
+      <c r="KN190" s="38"/>
+      <c r="KO190" s="38"/>
+      <c r="KP190" s="38"/>
+      <c r="KQ190" s="38"/>
+      <c r="KR190" s="38"/>
+      <c r="KS190" s="38"/>
+      <c r="KT190" s="38"/>
+      <c r="KU190" s="38"/>
+      <c r="KV190" s="38"/>
+      <c r="KW190" s="38"/>
+      <c r="KX190" s="38"/>
+      <c r="KY190" s="38"/>
+      <c r="KZ190" s="38"/>
+      <c r="LA190" s="38"/>
+      <c r="LB190" s="38"/>
+      <c r="LC190" s="38"/>
+      <c r="LD190" s="38"/>
+      <c r="LE190" s="38"/>
+      <c r="LF190" s="38"/>
+      <c r="LG190" s="38"/>
+      <c r="LH190" s="38"/>
+      <c r="LI190" s="38"/>
+      <c r="LJ190" s="38"/>
+      <c r="LK190" s="38"/>
+      <c r="LL190" s="38"/>
+      <c r="LM190" s="38"/>
+      <c r="LN190" s="38"/>
+      <c r="LO190" s="38"/>
+      <c r="LP190" s="38"/>
+      <c r="LQ190" s="38"/>
+      <c r="LR190" s="38"/>
+      <c r="LS190" s="38"/>
+      <c r="LT190" s="38"/>
+      <c r="LU190" s="38"/>
+      <c r="LV190" s="38"/>
+      <c r="LW190" s="38"/>
+      <c r="LX190" s="38"/>
+      <c r="LY190" s="38"/>
+      <c r="LZ190" s="38"/>
+      <c r="MA190" s="38"/>
+      <c r="MB190" s="38"/>
+      <c r="MC190" s="38"/>
+      <c r="MD190" s="38"/>
+      <c r="ME190" s="38"/>
+      <c r="MF190" s="38"/>
+      <c r="MG190" s="38"/>
+      <c r="MH190" s="38"/>
+      <c r="MI190" s="38"/>
+      <c r="MJ190" s="38"/>
+      <c r="MK190" s="38"/>
+      <c r="ML190" s="38"/>
+      <c r="MM190" s="38"/>
+      <c r="MN190" s="38"/>
+      <c r="MO190" s="38"/>
+      <c r="MP190" s="38"/>
+      <c r="MQ190" s="38"/>
+      <c r="MR190" s="38"/>
+      <c r="MS190" s="38"/>
+      <c r="MT190" s="38"/>
+      <c r="MU190" s="38"/>
+      <c r="MV190" s="38"/>
+      <c r="MW190" s="38"/>
+      <c r="MX190" s="38"/>
+      <c r="MY190" s="38"/>
+      <c r="MZ190" s="38"/>
+      <c r="NA190" s="38"/>
+      <c r="NB190" s="38"/>
+      <c r="NC190" s="38"/>
+      <c r="ND190" s="38"/>
+      <c r="NE190" s="38"/>
+      <c r="NF190" s="38"/>
+      <c r="NG190" s="38"/>
+      <c r="NH190" s="38"/>
+      <c r="NI190" s="38"/>
+      <c r="NJ190" s="38"/>
+      <c r="NK190" s="38"/>
+      <c r="NL190" s="38"/>
+      <c r="NM190" s="38"/>
+      <c r="NN190" s="38"/>
+      <c r="NO190" s="38"/>
+      <c r="NP190" s="38"/>
+      <c r="NQ190" s="38"/>
+      <c r="NR190" s="38"/>
+      <c r="NS190" s="38"/>
+      <c r="NT190" s="38"/>
+      <c r="NU190" s="38"/>
+      <c r="NV190" s="38"/>
+      <c r="NW190" s="38"/>
+      <c r="NX190" s="38"/>
+      <c r="NY190" s="38"/>
+      <c r="NZ190" s="38"/>
+      <c r="OA190" s="38"/>
+      <c r="OB190" s="38"/>
+      <c r="OC190" s="38"/>
+      <c r="OD190" s="38"/>
+      <c r="OE190" s="38"/>
+      <c r="OF190" s="38"/>
+      <c r="OG190" s="38"/>
+      <c r="OH190" s="38"/>
+      <c r="OI190" s="38"/>
+      <c r="OJ190" s="38"/>
+      <c r="OK190" s="38"/>
+      <c r="OL190" s="38"/>
+      <c r="OM190" s="38"/>
+      <c r="ON190" s="38"/>
+      <c r="OO190" s="38"/>
+      <c r="OP190" s="38"/>
+      <c r="OQ190" s="38"/>
+      <c r="OR190" s="38"/>
+      <c r="OS190" s="38"/>
+      <c r="OT190" s="38"/>
+      <c r="OU190" s="38"/>
+      <c r="OV190" s="38"/>
+      <c r="OW190" s="38"/>
+      <c r="OX190" s="38"/>
+      <c r="OY190" s="38"/>
+      <c r="OZ190" s="38"/>
+      <c r="PA190" s="38"/>
+      <c r="PB190" s="38"/>
+      <c r="PC190" s="38"/>
+      <c r="PD190" s="38"/>
+      <c r="PE190" s="38"/>
+      <c r="PF190" s="38"/>
+      <c r="PG190" s="38"/>
+      <c r="PH190" s="38"/>
+      <c r="PI190" s="38"/>
+      <c r="PJ190" s="38"/>
+      <c r="PK190" s="38"/>
+      <c r="PL190" s="38"/>
+      <c r="PM190" s="38"/>
+      <c r="PN190" s="38"/>
+      <c r="PO190" s="38"/>
+      <c r="PP190" s="38"/>
+      <c r="PQ190" s="38"/>
+      <c r="PR190" s="38"/>
+      <c r="PS190" s="38"/>
+      <c r="PT190" s="38"/>
+      <c r="PU190" s="38"/>
+      <c r="PV190" s="38"/>
+      <c r="PW190" s="38"/>
+      <c r="PX190" s="38"/>
+      <c r="PY190" s="38"/>
+      <c r="PZ190" s="38"/>
+      <c r="QA190" s="38"/>
+      <c r="QB190" s="38"/>
+      <c r="QC190" s="38"/>
+      <c r="QD190" s="38"/>
+      <c r="QE190" s="38"/>
+      <c r="QF190" s="38"/>
+      <c r="QG190" s="38"/>
+      <c r="QH190" s="38"/>
+      <c r="QI190" s="38"/>
+      <c r="QJ190" s="38"/>
+      <c r="QK190" s="38"/>
+      <c r="QL190" s="38"/>
+      <c r="QM190" s="38"/>
+      <c r="QN190" s="38"/>
+      <c r="QO190" s="38"/>
+      <c r="QP190" s="38"/>
+      <c r="QQ190" s="38"/>
+      <c r="QR190" s="38"/>
+      <c r="QS190" s="38"/>
+      <c r="QT190" s="38"/>
+      <c r="QU190" s="38"/>
+      <c r="QV190" s="38"/>
+      <c r="QW190" s="38"/>
+      <c r="QX190" s="38"/>
+      <c r="QY190" s="38"/>
+      <c r="QZ190" s="38"/>
+      <c r="RA190" s="38"/>
+      <c r="RB190" s="38"/>
+      <c r="RC190" s="38"/>
+      <c r="RD190" s="38"/>
+      <c r="RE190" s="38"/>
+      <c r="RF190" s="38"/>
+      <c r="RG190" s="38"/>
+      <c r="RH190" s="38"/>
+      <c r="RI190" s="38"/>
+      <c r="RJ190" s="38"/>
+      <c r="RK190" s="38"/>
+      <c r="RL190" s="38"/>
+      <c r="RM190" s="38"/>
+      <c r="RN190" s="38"/>
+      <c r="RO190" s="38"/>
+      <c r="RP190" s="38"/>
+      <c r="RQ190" s="38"/>
+      <c r="RR190" s="38"/>
+      <c r="RS190" s="38"/>
+      <c r="RT190" s="38"/>
+      <c r="RU190" s="38"/>
+      <c r="RV190" s="38"/>
+      <c r="RW190" s="38"/>
+      <c r="RX190" s="38"/>
+      <c r="RY190" s="38"/>
+      <c r="RZ190" s="38"/>
+      <c r="SA190" s="38"/>
+      <c r="SB190" s="38"/>
+      <c r="SC190" s="38"/>
+      <c r="SD190" s="38"/>
+      <c r="SE190" s="38"/>
+      <c r="SF190" s="38"/>
+      <c r="SG190" s="38"/>
+      <c r="SH190" s="38"/>
+      <c r="SI190" s="38"/>
+      <c r="SJ190" s="38"/>
+      <c r="SK190" s="38"/>
+      <c r="SL190" s="38"/>
+      <c r="SM190" s="38"/>
+      <c r="SN190" s="38"/>
+      <c r="SO190" s="38"/>
+      <c r="SP190" s="38"/>
+      <c r="SQ190" s="38"/>
+      <c r="SR190" s="38"/>
+      <c r="SS190" s="38"/>
+      <c r="ST190" s="38"/>
+      <c r="SU190" s="38"/>
+      <c r="SV190" s="38"/>
+      <c r="SW190" s="38"/>
+      <c r="SX190" s="38"/>
+      <c r="SY190" s="38"/>
+      <c r="SZ190" s="38"/>
+      <c r="TA190" s="38"/>
+      <c r="TB190" s="38"/>
+      <c r="TC190" s="38"/>
+      <c r="TD190" s="38"/>
+      <c r="TE190" s="38"/>
+      <c r="TF190" s="38"/>
+      <c r="TG190" s="38"/>
+      <c r="TH190" s="38"/>
+      <c r="TI190" s="38"/>
+      <c r="TJ190" s="38"/>
+      <c r="TK190" s="38"/>
+      <c r="TL190" s="38"/>
+      <c r="TM190" s="38"/>
+      <c r="TN190" s="38"/>
+      <c r="TO190" s="38"/>
+      <c r="TP190" s="38"/>
+      <c r="TQ190" s="38"/>
+      <c r="TR190" s="38"/>
+      <c r="TS190" s="38"/>
+      <c r="TT190" s="38"/>
+      <c r="TU190" s="38"/>
+      <c r="TV190" s="38"/>
+      <c r="TW190" s="38"/>
+      <c r="TX190" s="38"/>
+      <c r="TY190" s="38"/>
+      <c r="TZ190" s="38"/>
+      <c r="UA190" s="38"/>
+      <c r="UB190" s="38"/>
+      <c r="UC190" s="38"/>
+      <c r="UD190" s="38"/>
+      <c r="UE190" s="38"/>
+      <c r="UF190" s="38"/>
+      <c r="UG190" s="38"/>
+      <c r="UH190" s="38"/>
+      <c r="UI190" s="38"/>
+      <c r="UJ190" s="38"/>
+      <c r="UK190" s="38"/>
+      <c r="UL190" s="38"/>
+      <c r="UM190" s="38"/>
+      <c r="UN190" s="38"/>
+      <c r="UO190" s="38"/>
+      <c r="UP190" s="38"/>
+      <c r="UQ190" s="38"/>
+      <c r="UR190" s="38"/>
+      <c r="US190" s="38"/>
+      <c r="UT190" s="38"/>
+      <c r="UU190" s="38"/>
+      <c r="UV190" s="38"/>
+      <c r="UW190" s="38"/>
+      <c r="UX190" s="38"/>
+      <c r="UY190" s="38"/>
+      <c r="UZ190" s="38"/>
+      <c r="VA190" s="38"/>
+      <c r="VB190" s="38"/>
+      <c r="VC190" s="38"/>
+      <c r="VD190" s="38"/>
+      <c r="VE190" s="38"/>
+      <c r="VF190" s="38"/>
+      <c r="VG190" s="38"/>
+      <c r="VH190" s="38"/>
+      <c r="VI190" s="38"/>
+      <c r="VJ190" s="38"/>
+      <c r="VK190" s="38"/>
+      <c r="VL190" s="38"/>
+      <c r="VM190" s="38"/>
+      <c r="VN190" s="38"/>
+      <c r="VO190" s="38"/>
+      <c r="VP190" s="38"/>
+      <c r="VQ190" s="38"/>
+      <c r="VR190" s="38"/>
+      <c r="VS190" s="38"/>
+      <c r="VT190" s="38"/>
+      <c r="VU190" s="38"/>
+      <c r="VV190" s="38"/>
+      <c r="VW190" s="38"/>
+      <c r="VX190" s="38"/>
+      <c r="VY190" s="38"/>
+      <c r="VZ190" s="38"/>
+      <c r="WA190" s="38"/>
+      <c r="WB190" s="38"/>
+      <c r="WC190" s="38"/>
+      <c r="WD190" s="38"/>
+      <c r="WE190" s="38"/>
+      <c r="WF190" s="38"/>
+      <c r="WG190" s="38"/>
+      <c r="WH190" s="38"/>
+      <c r="WI190" s="38"/>
+      <c r="WJ190" s="38"/>
+      <c r="WK190" s="38"/>
+      <c r="WL190" s="38"/>
+      <c r="WM190" s="38"/>
+      <c r="WN190" s="38"/>
+      <c r="WO190" s="38"/>
+      <c r="WP190" s="38"/>
+      <c r="WQ190" s="38"/>
+      <c r="WR190" s="38"/>
+      <c r="WS190" s="38"/>
+      <c r="WT190" s="38"/>
+      <c r="WU190" s="38"/>
+      <c r="WV190" s="38"/>
+      <c r="WW190" s="38"/>
+      <c r="WX190" s="38"/>
+      <c r="WY190" s="38"/>
+      <c r="WZ190" s="38"/>
+      <c r="XA190" s="38"/>
+      <c r="XB190" s="38"/>
+      <c r="XC190" s="38"/>
+      <c r="XD190" s="38"/>
+      <c r="XE190" s="38"/>
+      <c r="XF190" s="38"/>
+      <c r="XG190" s="38"/>
+      <c r="XH190" s="38"/>
+      <c r="XI190" s="38"/>
+      <c r="XJ190" s="38"/>
+      <c r="XK190" s="38"/>
+      <c r="XL190" s="38"/>
+      <c r="XM190" s="38"/>
+      <c r="XN190" s="38"/>
+      <c r="XO190" s="38"/>
+      <c r="XP190" s="38"/>
+      <c r="XQ190" s="38"/>
+      <c r="XR190" s="38"/>
+      <c r="XS190" s="38"/>
+      <c r="XT190" s="38"/>
+      <c r="XU190" s="38"/>
+      <c r="XV190" s="38"/>
+      <c r="XW190" s="38"/>
+      <c r="XX190" s="38"/>
+      <c r="XY190" s="38"/>
+      <c r="XZ190" s="38"/>
+      <c r="YA190" s="38"/>
+      <c r="YB190" s="38"/>
+      <c r="YC190" s="38"/>
+      <c r="YD190" s="38"/>
+      <c r="YE190" s="38"/>
+      <c r="YF190" s="38"/>
+      <c r="YG190" s="38"/>
+      <c r="YH190" s="38"/>
+      <c r="YI190" s="38"/>
+      <c r="YJ190" s="38"/>
+      <c r="YK190" s="38"/>
+      <c r="YL190" s="38"/>
+      <c r="YM190" s="38"/>
+      <c r="YN190" s="38"/>
+      <c r="YO190" s="38"/>
+      <c r="YP190" s="38"/>
+      <c r="YQ190" s="38"/>
+      <c r="YR190" s="38"/>
+      <c r="YS190" s="38"/>
+      <c r="YT190" s="38"/>
+      <c r="YU190" s="38"/>
+      <c r="YV190" s="38"/>
+      <c r="YW190" s="38"/>
+      <c r="YX190" s="38"/>
+      <c r="YY190" s="38"/>
+      <c r="YZ190" s="38"/>
+      <c r="ZA190" s="38"/>
+      <c r="ZB190" s="38"/>
+      <c r="ZC190" s="38"/>
+      <c r="ZD190" s="38"/>
+      <c r="ZE190" s="38"/>
+      <c r="ZF190" s="38"/>
+      <c r="ZG190" s="38"/>
+      <c r="ZH190" s="38"/>
+      <c r="ZI190" s="38"/>
+      <c r="ZJ190" s="38"/>
+      <c r="ZK190" s="38"/>
+      <c r="ZL190" s="38"/>
+      <c r="ZM190" s="38"/>
+      <c r="ZN190" s="38"/>
+      <c r="ZO190" s="38"/>
+      <c r="ZP190" s="38"/>
+      <c r="ZQ190" s="38"/>
+      <c r="ZR190" s="38"/>
+      <c r="ZS190" s="38"/>
+      <c r="ZT190" s="38"/>
+      <c r="ZU190" s="38"/>
+      <c r="ZV190" s="38"/>
+      <c r="ZW190" s="38"/>
+      <c r="ZX190" s="38"/>
+      <c r="ZY190" s="38"/>
+      <c r="ZZ190" s="38"/>
+      <c r="AAA190" s="38"/>
+      <c r="AAB190" s="38"/>
+      <c r="AAC190" s="38"/>
+      <c r="AAD190" s="38"/>
+      <c r="AAE190" s="38"/>
+      <c r="AAF190" s="38"/>
+      <c r="AAG190" s="38"/>
+      <c r="AAH190" s="38"/>
+      <c r="AAI190" s="38"/>
+      <c r="AAJ190" s="38"/>
+      <c r="AAK190" s="38"/>
+      <c r="AAL190" s="38"/>
+      <c r="AAM190" s="38"/>
+      <c r="AAN190" s="38"/>
+      <c r="AAO190" s="38"/>
+      <c r="AAP190" s="38"/>
+      <c r="AAQ190" s="38"/>
+      <c r="AAR190" s="38"/>
+      <c r="AAS190" s="38"/>
+      <c r="AAT190" s="38"/>
+      <c r="AAU190" s="38"/>
+      <c r="AAV190" s="38"/>
+      <c r="AAW190" s="38"/>
+      <c r="AAX190" s="38"/>
+      <c r="AAY190" s="38"/>
+      <c r="AAZ190" s="38"/>
+      <c r="ABA190" s="38"/>
+      <c r="ABB190" s="38"/>
+      <c r="ABC190" s="38"/>
+      <c r="ABD190" s="38"/>
+      <c r="ABE190" s="38"/>
+      <c r="ABF190" s="38"/>
+      <c r="ABG190" s="38"/>
+      <c r="ABH190" s="38"/>
+      <c r="ABI190" s="38"/>
+      <c r="ABJ190" s="38"/>
+      <c r="ABK190" s="38"/>
+      <c r="ABL190" s="38"/>
+      <c r="ABM190" s="38"/>
+      <c r="ABN190" s="38"/>
+      <c r="ABO190" s="38"/>
+      <c r="ABP190" s="38"/>
+      <c r="ABQ190" s="38"/>
+      <c r="ABR190" s="38"/>
+      <c r="ABS190" s="38"/>
+      <c r="ABT190" s="38"/>
+      <c r="ABU190" s="38"/>
+      <c r="ABV190" s="38"/>
+      <c r="ABW190" s="38"/>
+      <c r="ABX190" s="38"/>
+      <c r="ABY190" s="38"/>
+      <c r="ABZ190" s="38"/>
+      <c r="ACA190" s="38"/>
+      <c r="ACB190" s="38"/>
+      <c r="ACC190" s="38"/>
+      <c r="ACD190" s="38"/>
+      <c r="ACE190" s="38"/>
+      <c r="ACF190" s="38"/>
+      <c r="ACG190" s="38"/>
+      <c r="ACH190" s="38"/>
+      <c r="ACI190" s="38"/>
+      <c r="ACJ190" s="38"/>
+      <c r="ACK190" s="38"/>
+      <c r="ACL190" s="38"/>
+      <c r="ACM190" s="38"/>
+      <c r="ACN190" s="38"/>
+      <c r="ACO190" s="38"/>
+      <c r="ACP190" s="38"/>
+      <c r="ACQ190" s="38"/>
+      <c r="ACR190" s="38"/>
+      <c r="ACS190" s="38"/>
+      <c r="ACT190" s="38"/>
+      <c r="ACU190" s="38"/>
+      <c r="ACV190" s="38"/>
+      <c r="ACW190" s="38"/>
+      <c r="ACX190" s="38"/>
+      <c r="ACY190" s="38"/>
+      <c r="ACZ190" s="38"/>
+      <c r="ADA190" s="38"/>
+      <c r="ADB190" s="38"/>
+      <c r="ADC190" s="38"/>
+      <c r="ADD190" s="38"/>
+      <c r="ADE190" s="38"/>
+      <c r="ADF190" s="38"/>
+      <c r="ADG190" s="38"/>
+      <c r="ADH190" s="38"/>
+      <c r="ADI190" s="38"/>
+      <c r="ADJ190" s="38"/>
+      <c r="ADK190" s="38"/>
+      <c r="ADL190" s="38"/>
+      <c r="ADM190" s="38"/>
+      <c r="ADN190" s="38"/>
+      <c r="ADO190" s="38"/>
+      <c r="ADP190" s="38"/>
+      <c r="ADQ190" s="38"/>
+      <c r="ADR190" s="38"/>
+      <c r="ADS190" s="38"/>
+      <c r="ADT190" s="38"/>
+      <c r="ADU190" s="38"/>
+      <c r="ADV190" s="38"/>
+      <c r="ADW190" s="38"/>
+      <c r="ADX190" s="38"/>
+      <c r="ADY190" s="38"/>
+      <c r="ADZ190" s="38"/>
+      <c r="AEA190" s="38"/>
+      <c r="AEB190" s="38"/>
+      <c r="AEC190" s="38"/>
+      <c r="AED190" s="38"/>
+      <c r="AEE190" s="38"/>
+      <c r="AEF190" s="38"/>
+      <c r="AEG190" s="38"/>
+      <c r="AEH190" s="38"/>
+      <c r="AEI190" s="38"/>
+      <c r="AEJ190" s="38"/>
+      <c r="AEK190" s="38"/>
+      <c r="AEL190" s="38"/>
+      <c r="AEM190" s="38"/>
+      <c r="AEN190" s="38"/>
+      <c r="AEO190" s="38"/>
+      <c r="AEP190" s="38"/>
+      <c r="AEQ190" s="38"/>
+      <c r="AER190" s="38"/>
+      <c r="AES190" s="38"/>
+      <c r="AET190" s="38"/>
+      <c r="AEU190" s="38"/>
+      <c r="AEV190" s="38"/>
+      <c r="AEW190" s="38"/>
+      <c r="AEX190" s="38"/>
+      <c r="AEY190" s="38"/>
+      <c r="AEZ190" s="38"/>
+      <c r="AFA190" s="38"/>
+      <c r="AFB190" s="38"/>
+      <c r="AFC190" s="38"/>
+      <c r="AFD190" s="38"/>
+      <c r="AFE190" s="38"/>
+      <c r="AFF190" s="38"/>
+      <c r="AFG190" s="38"/>
+      <c r="AFH190" s="38"/>
+      <c r="AFI190" s="38"/>
+      <c r="AFJ190" s="38"/>
+      <c r="AFK190" s="38"/>
+      <c r="AFL190" s="38"/>
+      <c r="AFM190" s="38"/>
+      <c r="AFN190" s="38"/>
+      <c r="AFO190" s="38"/>
+      <c r="AFP190" s="38"/>
+      <c r="AFQ190" s="38"/>
+      <c r="AFR190" s="38"/>
+      <c r="AFS190" s="38"/>
+      <c r="AFT190" s="38"/>
+      <c r="AFU190" s="38"/>
+      <c r="AFV190" s="38"/>
+      <c r="AFW190" s="38"/>
+      <c r="AFX190" s="38"/>
+      <c r="AFY190" s="38"/>
+      <c r="AFZ190" s="38"/>
+      <c r="AGA190" s="38"/>
+      <c r="AGB190" s="38"/>
+      <c r="AGC190" s="38"/>
+      <c r="AGD190" s="38"/>
+      <c r="AGE190" s="38"/>
+      <c r="AGF190" s="38"/>
+      <c r="AGG190" s="38"/>
+      <c r="AGH190" s="38"/>
+      <c r="AGI190" s="38"/>
+      <c r="AGJ190" s="38"/>
+      <c r="AGK190" s="38"/>
+      <c r="AGL190" s="38"/>
+      <c r="AGM190" s="38"/>
+      <c r="AGN190" s="38"/>
+      <c r="AGO190" s="38"/>
+      <c r="AGP190" s="38"/>
+      <c r="AGQ190" s="38"/>
+      <c r="AGR190" s="38"/>
+      <c r="AGS190" s="38"/>
+      <c r="AGT190" s="38"/>
+      <c r="AGU190" s="38"/>
+      <c r="AGV190" s="38"/>
+      <c r="AGW190" s="38"/>
+      <c r="AGX190" s="38"/>
+      <c r="AGY190" s="38"/>
+      <c r="AGZ190" s="38"/>
+      <c r="AHA190" s="38"/>
+      <c r="AHB190" s="38"/>
+      <c r="AHC190" s="38"/>
+      <c r="AHD190" s="38"/>
+      <c r="AHE190" s="38"/>
+      <c r="AHF190" s="38"/>
+      <c r="AHG190" s="38"/>
+      <c r="AHH190" s="38"/>
+      <c r="AHI190" s="38"/>
+      <c r="AHJ190" s="38"/>
+      <c r="AHK190" s="38"/>
+      <c r="AHL190" s="38"/>
+      <c r="AHM190" s="38"/>
+      <c r="AHN190" s="38"/>
+      <c r="AHO190" s="38"/>
+      <c r="AHP190" s="38"/>
+      <c r="AHQ190" s="38"/>
+      <c r="AHR190" s="38"/>
+      <c r="AHS190" s="38"/>
+      <c r="AHT190" s="38"/>
+      <c r="AHU190" s="38"/>
+      <c r="AHV190" s="38"/>
+      <c r="AHW190" s="38"/>
+      <c r="AHX190" s="38"/>
+      <c r="AHY190" s="38"/>
+      <c r="AHZ190" s="38"/>
+      <c r="AIA190" s="38"/>
+      <c r="AIB190" s="38"/>
+      <c r="AIC190" s="38"/>
+      <c r="AID190" s="38"/>
+      <c r="AIE190" s="38"/>
+      <c r="AIF190" s="38"/>
+      <c r="AIG190" s="38"/>
+      <c r="AIH190" s="38"/>
+      <c r="AII190" s="38"/>
+      <c r="AIJ190" s="38"/>
+      <c r="AIK190" s="38"/>
+      <c r="AIL190" s="38"/>
+      <c r="AIM190" s="38"/>
+      <c r="AIN190" s="38"/>
+      <c r="AIO190" s="38"/>
+      <c r="AIP190" s="38"/>
+      <c r="AIQ190" s="38"/>
+      <c r="AIR190" s="38"/>
+      <c r="AIS190" s="38"/>
+      <c r="AIT190" s="38"/>
+      <c r="AIU190" s="38"/>
+      <c r="AIV190" s="38"/>
+      <c r="AIW190" s="38"/>
+      <c r="AIX190" s="38"/>
+      <c r="AIY190" s="38"/>
+      <c r="AIZ190" s="38"/>
+      <c r="AJA190" s="38"/>
+      <c r="AJB190" s="38"/>
+      <c r="AJC190" s="38"/>
+      <c r="AJD190" s="38"/>
+      <c r="AJE190" s="38"/>
+      <c r="AJF190" s="38"/>
+      <c r="AJG190" s="38"/>
+      <c r="AJH190" s="38"/>
+      <c r="AJI190" s="38"/>
+      <c r="AJJ190" s="38"/>
+      <c r="AJK190" s="38"/>
+      <c r="AJL190" s="38"/>
+      <c r="AJM190" s="38"/>
+      <c r="AJN190" s="38"/>
+      <c r="AJO190" s="38"/>
+      <c r="AJP190" s="38"/>
+      <c r="AJQ190" s="38"/>
+      <c r="AJR190" s="38"/>
+      <c r="AJS190" s="38"/>
+      <c r="AJT190" s="38"/>
+      <c r="AJU190" s="38"/>
+      <c r="AJV190" s="38"/>
+      <c r="AJW190" s="38"/>
+      <c r="AJX190" s="38"/>
+      <c r="AJY190" s="38"/>
+      <c r="AJZ190" s="38"/>
+      <c r="AKA190" s="38"/>
+      <c r="AKB190" s="38"/>
+      <c r="AKC190" s="38"/>
+      <c r="AKD190" s="38"/>
+      <c r="AKE190" s="38"/>
+      <c r="AKF190" s="38"/>
+      <c r="AKG190" s="38"/>
+      <c r="AKH190" s="38"/>
+      <c r="AKI190" s="38"/>
+      <c r="AKJ190" s="38"/>
+      <c r="AKK190" s="38"/>
+      <c r="AKL190" s="38"/>
+      <c r="AKM190" s="38"/>
+      <c r="AKN190" s="38"/>
+      <c r="AKO190" s="38"/>
+      <c r="AKP190" s="38"/>
+      <c r="AKQ190" s="38"/>
+      <c r="AKR190" s="38"/>
+      <c r="AKS190" s="38"/>
+      <c r="AKT190" s="38"/>
+      <c r="AKU190" s="38"/>
+      <c r="AKV190" s="38"/>
+      <c r="AKW190" s="38"/>
+      <c r="AKX190" s="38"/>
+      <c r="AKY190" s="38"/>
+      <c r="AKZ190" s="38"/>
+      <c r="ALA190" s="38"/>
+      <c r="ALB190" s="38"/>
+      <c r="ALC190" s="38"/>
+      <c r="ALD190" s="38"/>
+      <c r="ALE190" s="38"/>
+      <c r="ALF190" s="38"/>
+      <c r="ALG190" s="38"/>
+      <c r="ALH190" s="38"/>
+      <c r="ALI190" s="38"/>
+      <c r="ALJ190" s="38"/>
+      <c r="ALK190" s="38"/>
+      <c r="ALL190" s="38"/>
+      <c r="ALM190" s="38"/>
+      <c r="ALN190" s="38"/>
+      <c r="ALO190" s="38"/>
+      <c r="ALP190" s="38"/>
+      <c r="ALQ190" s="38"/>
+      <c r="ALR190" s="38"/>
+      <c r="ALS190" s="38"/>
+      <c r="ALT190" s="38"/>
+      <c r="ALU190" s="38"/>
+      <c r="ALV190" s="38"/>
+      <c r="ALW190" s="38"/>
+      <c r="ALX190" s="38"/>
+      <c r="ALY190" s="38"/>
+      <c r="ALZ190" s="38"/>
+      <c r="AMA190" s="38"/>
+      <c r="AMB190" s="38"/>
+      <c r="AMC190" s="38"/>
+      <c r="AMD190" s="38"/>
+      <c r="AME190" s="38"/>
+      <c r="AMF190" s="38"/>
+      <c r="AMG190" s="38"/>
+      <c r="AMH190" s="38"/>
+      <c r="AMI190" s="38"/>
+      <c r="AMJ190" s="38"/>
+      <c r="AMK190" s="38"/>
+      <c r="AML190" s="38"/>
+      <c r="AMM190" s="38"/>
+      <c r="AMN190" s="38"/>
+      <c r="AMO190" s="38"/>
+      <c r="AMP190" s="38"/>
+      <c r="AMQ190" s="38"/>
+      <c r="AMR190" s="38"/>
+      <c r="AMS190" s="38"/>
+      <c r="AMT190" s="38"/>
+      <c r="AMU190" s="38"/>
+      <c r="AMV190" s="38"/>
+      <c r="AMW190" s="38"/>
+      <c r="AMX190" s="38"/>
+      <c r="AMY190" s="38"/>
+      <c r="AMZ190" s="38"/>
+      <c r="ANA190" s="38"/>
+      <c r="ANB190" s="38"/>
+      <c r="ANC190" s="38"/>
+      <c r="AND190" s="38"/>
+      <c r="ANE190" s="38"/>
+      <c r="ANF190" s="38"/>
+      <c r="ANG190" s="38"/>
+      <c r="ANH190" s="38"/>
+      <c r="ANI190" s="38"/>
+      <c r="ANJ190" s="38"/>
+      <c r="ANK190" s="38"/>
+      <c r="ANL190" s="38"/>
+      <c r="ANM190" s="38"/>
+      <c r="ANN190" s="38"/>
+      <c r="ANO190" s="38"/>
+      <c r="ANP190" s="38"/>
+      <c r="ANQ190" s="38"/>
+      <c r="ANR190" s="38"/>
+      <c r="ANS190" s="38"/>
+      <c r="ANT190" s="38"/>
+      <c r="ANU190" s="38"/>
+      <c r="ANV190" s="38"/>
+      <c r="ANW190" s="38"/>
+      <c r="ANX190" s="38"/>
+      <c r="ANY190" s="38"/>
+      <c r="ANZ190" s="38"/>
+      <c r="AOA190" s="38"/>
+      <c r="AOB190" s="38"/>
+      <c r="AOC190" s="38"/>
+      <c r="AOD190" s="38"/>
+      <c r="AOE190" s="38"/>
+      <c r="AOF190" s="38"/>
+      <c r="AOG190" s="38"/>
+      <c r="AOH190" s="38"/>
+      <c r="AOI190" s="38"/>
+      <c r="AOJ190" s="38"/>
+      <c r="AOK190" s="38"/>
+      <c r="AOL190" s="38"/>
+      <c r="AOM190" s="38"/>
+      <c r="AON190" s="38"/>
+      <c r="AOO190" s="38"/>
+      <c r="AOP190" s="38"/>
+      <c r="AOQ190" s="38"/>
+      <c r="AOR190" s="38"/>
+      <c r="AOS190" s="38"/>
+      <c r="AOT190" s="38"/>
+      <c r="AOU190" s="38"/>
+      <c r="AOV190" s="38"/>
+      <c r="AOW190" s="38"/>
+      <c r="AOX190" s="38"/>
+      <c r="AOY190" s="38"/>
+      <c r="AOZ190" s="38"/>
+      <c r="APA190" s="38"/>
+      <c r="APB190" s="38"/>
+      <c r="APC190" s="38"/>
+      <c r="APD190" s="38"/>
+      <c r="APE190" s="38"/>
+      <c r="APF190" s="38"/>
+      <c r="APG190" s="38"/>
+      <c r="APH190" s="38"/>
+      <c r="API190" s="38"/>
+      <c r="APJ190" s="38"/>
+      <c r="APK190" s="38"/>
+      <c r="APL190" s="38"/>
+      <c r="APM190" s="38"/>
+      <c r="APN190" s="38"/>
+      <c r="APO190" s="38"/>
+      <c r="APP190" s="38"/>
+      <c r="APQ190" s="38"/>
+      <c r="APR190" s="38"/>
+      <c r="APS190" s="38"/>
+      <c r="APT190" s="38"/>
+      <c r="APU190" s="38"/>
+      <c r="APV190" s="38"/>
+      <c r="APW190" s="38"/>
+      <c r="APX190" s="38"/>
+      <c r="APY190" s="38"/>
+      <c r="APZ190" s="38"/>
+      <c r="AQA190" s="38"/>
+      <c r="AQB190" s="38"/>
+      <c r="AQC190" s="38"/>
+      <c r="AQD190" s="38"/>
+      <c r="AQE190" s="38"/>
+      <c r="AQF190" s="38"/>
+      <c r="AQG190" s="38"/>
+      <c r="AQH190" s="38"/>
+      <c r="AQI190" s="38"/>
+      <c r="AQJ190" s="38"/>
+      <c r="AQK190" s="38"/>
+      <c r="AQL190" s="38"/>
+      <c r="AQM190" s="38"/>
+      <c r="AQN190" s="38"/>
+      <c r="AQO190" s="38"/>
+      <c r="AQP190" s="38"/>
+      <c r="AQQ190" s="38"/>
+      <c r="AQR190" s="38"/>
+      <c r="AQS190" s="38"/>
+      <c r="AQT190" s="38"/>
+      <c r="AQU190" s="38"/>
+      <c r="AQV190" s="38"/>
+      <c r="AQW190" s="38"/>
+      <c r="AQX190" s="38"/>
+      <c r="AQY190" s="38"/>
+      <c r="AQZ190" s="38"/>
+      <c r="ARA190" s="38"/>
+      <c r="ARB190" s="38"/>
+      <c r="ARC190" s="38"/>
+      <c r="ARD190" s="38"/>
+      <c r="ARE190" s="38"/>
+      <c r="ARF190" s="38"/>
+      <c r="ARG190" s="38"/>
+      <c r="ARH190" s="38"/>
+      <c r="ARI190" s="38"/>
+      <c r="ARJ190" s="38"/>
+      <c r="ARK190" s="38"/>
+      <c r="ARL190" s="38"/>
+      <c r="ARM190" s="38"/>
+      <c r="ARN190" s="38"/>
+      <c r="ARO190" s="38"/>
+      <c r="ARP190" s="38"/>
+      <c r="ARQ190" s="38"/>
+      <c r="ARR190" s="38"/>
+      <c r="ARS190" s="38"/>
+      <c r="ART190" s="38"/>
+      <c r="ARU190" s="38"/>
+      <c r="ARV190" s="38"/>
+      <c r="ARW190" s="38"/>
+      <c r="ARX190" s="38"/>
+      <c r="ARY190" s="38"/>
+      <c r="ARZ190" s="38"/>
+      <c r="ASA190" s="38"/>
+      <c r="ASB190" s="38"/>
+      <c r="ASC190" s="38"/>
+      <c r="ASD190" s="38"/>
+      <c r="ASE190" s="38"/>
+      <c r="ASF190" s="38"/>
+      <c r="ASG190" s="38"/>
+      <c r="ASH190" s="38"/>
+      <c r="ASI190" s="38"/>
+      <c r="ASJ190" s="38"/>
+      <c r="ASK190" s="38"/>
+      <c r="ASL190" s="38"/>
+      <c r="ASM190" s="38"/>
+      <c r="ASN190" s="38"/>
+      <c r="ASO190" s="38"/>
+      <c r="ASP190" s="38"/>
+      <c r="ASQ190" s="38"/>
+      <c r="ASR190" s="38"/>
+      <c r="ASS190" s="38"/>
+      <c r="AST190" s="38"/>
+      <c r="ASU190" s="38"/>
+      <c r="ASV190" s="38"/>
+      <c r="ASW190" s="38"/>
+      <c r="ASX190" s="38"/>
+      <c r="ASY190" s="38"/>
+      <c r="ASZ190" s="38"/>
+      <c r="ATA190" s="38"/>
+      <c r="ATB190" s="38"/>
+      <c r="ATC190" s="38"/>
+      <c r="ATD190" s="38"/>
+      <c r="ATE190" s="38"/>
+      <c r="ATF190" s="38"/>
+      <c r="ATG190" s="38"/>
+      <c r="ATH190" s="38"/>
+      <c r="ATI190" s="38"/>
+      <c r="ATJ190" s="38"/>
+      <c r="ATK190" s="38"/>
+      <c r="ATL190" s="38"/>
+      <c r="ATM190" s="38"/>
+      <c r="ATN190" s="38"/>
+      <c r="ATO190" s="38"/>
+      <c r="ATP190" s="38"/>
+      <c r="ATQ190" s="38"/>
+      <c r="ATR190" s="38"/>
+      <c r="ATS190" s="38"/>
+      <c r="ATT190" s="38"/>
+      <c r="ATU190" s="38"/>
+      <c r="ATV190" s="38"/>
+      <c r="ATW190" s="38"/>
+      <c r="ATX190" s="38"/>
+      <c r="ATY190" s="38"/>
+      <c r="ATZ190" s="38"/>
+    </row>
+    <row r="191" spans="1:1222" s="37" customFormat="1">
+      <c r="A191" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="B191" s="43"/>
+      <c r="C191" s="43">
+        <v>2</v>
+      </c>
+      <c r="D191" s="38"/>
+      <c r="E191" s="38"/>
+      <c r="F191" s="38"/>
+      <c r="G191" s="38"/>
+      <c r="H191" s="38"/>
+      <c r="I191" s="38"/>
+      <c r="J191" s="38"/>
+      <c r="K191" s="38"/>
+      <c r="L191" s="38"/>
+      <c r="M191" s="38"/>
+      <c r="N191" s="38"/>
+      <c r="O191" s="38"/>
+      <c r="P191" s="38"/>
+      <c r="Q191" s="38"/>
+      <c r="R191" s="38"/>
+      <c r="S191" s="38"/>
+      <c r="T191" s="38"/>
+      <c r="U191" s="38"/>
+      <c r="V191" s="38"/>
+      <c r="W191" s="38"/>
+      <c r="X191" s="38"/>
+      <c r="Y191" s="38"/>
+      <c r="Z191" s="38"/>
+      <c r="AA191" s="38"/>
+      <c r="AB191" s="38"/>
+      <c r="AC191" s="38"/>
+      <c r="AD191" s="38"/>
+      <c r="AE191" s="38"/>
+      <c r="AF191" s="38"/>
+      <c r="AG191" s="38"/>
+      <c r="AH191" s="38"/>
+      <c r="AI191" s="38"/>
+      <c r="AJ191" s="38"/>
+      <c r="AK191" s="38"/>
+      <c r="AL191" s="38"/>
+      <c r="AM191" s="38"/>
+      <c r="AN191" s="38"/>
+      <c r="AO191" s="38"/>
+      <c r="AP191" s="38"/>
+      <c r="AQ191" s="38"/>
+      <c r="AR191" s="38"/>
+      <c r="AS191" s="38"/>
+      <c r="AT191" s="38"/>
+      <c r="AU191" s="38"/>
+      <c r="AV191" s="38"/>
+      <c r="AW191" s="38"/>
+      <c r="AX191" s="38"/>
+      <c r="AY191" s="38"/>
+      <c r="AZ191" s="38"/>
+      <c r="BA191" s="38"/>
+      <c r="BB191" s="38"/>
+      <c r="BC191" s="38"/>
+      <c r="BD191" s="38"/>
+      <c r="BE191" s="38"/>
+      <c r="BF191" s="38"/>
+      <c r="BG191" s="38"/>
+      <c r="BH191" s="38"/>
+      <c r="BI191" s="38"/>
+      <c r="BJ191" s="38"/>
+      <c r="BK191" s="38"/>
+      <c r="BL191" s="38"/>
+      <c r="BM191" s="38"/>
+      <c r="BN191" s="38"/>
+      <c r="BO191" s="38"/>
+      <c r="BP191" s="38"/>
+      <c r="BQ191" s="38"/>
+      <c r="BR191" s="38"/>
+      <c r="BS191" s="38"/>
+      <c r="BT191" s="38"/>
+      <c r="BU191" s="38"/>
+      <c r="BV191" s="38"/>
+      <c r="BW191" s="38"/>
+      <c r="BX191" s="38"/>
+      <c r="BY191" s="38"/>
+      <c r="BZ191" s="38"/>
+      <c r="CA191" s="38"/>
+      <c r="CB191" s="38"/>
+      <c r="CC191" s="38"/>
+      <c r="CD191" s="38"/>
+      <c r="CE191" s="38"/>
+      <c r="CF191" s="38"/>
+      <c r="CG191" s="38"/>
+      <c r="CH191" s="38"/>
+      <c r="CI191" s="38"/>
+      <c r="CJ191" s="38"/>
+      <c r="CK191" s="38"/>
+      <c r="CL191" s="38"/>
+      <c r="CM191" s="38"/>
+      <c r="CN191" s="38"/>
+      <c r="CO191" s="38"/>
+      <c r="CP191" s="38"/>
+      <c r="CQ191" s="38"/>
+      <c r="CR191" s="38"/>
+      <c r="CS191" s="38"/>
+      <c r="CT191" s="38"/>
+      <c r="CU191" s="38"/>
+      <c r="CV191" s="38"/>
+      <c r="CW191" s="38"/>
+      <c r="CX191" s="38"/>
+      <c r="CY191" s="38"/>
+      <c r="CZ191" s="38"/>
+      <c r="DA191" s="38"/>
+      <c r="DB191" s="38"/>
+      <c r="DC191" s="38"/>
+      <c r="DD191" s="38"/>
+      <c r="DE191" s="38"/>
+      <c r="DF191" s="38"/>
+      <c r="DG191" s="38"/>
+      <c r="DH191" s="38"/>
+      <c r="DI191" s="38"/>
+      <c r="DJ191" s="38"/>
+      <c r="DK191" s="38"/>
+      <c r="DL191" s="38"/>
+      <c r="DM191" s="38"/>
+      <c r="DN191" s="38"/>
+      <c r="DO191" s="38"/>
+      <c r="DP191" s="38"/>
+      <c r="DQ191" s="38"/>
+      <c r="DR191" s="38"/>
+      <c r="DS191" s="38"/>
+      <c r="DT191" s="38"/>
+      <c r="DU191" s="38"/>
+      <c r="DV191" s="38"/>
+      <c r="DW191" s="38"/>
+      <c r="DX191" s="38"/>
+      <c r="DY191" s="38"/>
+      <c r="DZ191" s="38"/>
+      <c r="EA191" s="38"/>
+      <c r="EB191" s="38"/>
+      <c r="EC191" s="38"/>
+      <c r="ED191" s="38"/>
+      <c r="EE191" s="38"/>
+      <c r="EF191" s="38"/>
+      <c r="EG191" s="38"/>
+      <c r="EH191" s="38"/>
+      <c r="EI191" s="38"/>
+      <c r="EJ191" s="38"/>
+      <c r="EK191" s="38"/>
+      <c r="EL191" s="38"/>
+      <c r="EM191" s="38"/>
+      <c r="EN191" s="38"/>
+      <c r="EO191" s="38"/>
+      <c r="EP191" s="38"/>
+      <c r="EQ191" s="38"/>
+      <c r="ER191" s="38"/>
+      <c r="ES191" s="38"/>
+      <c r="ET191" s="38"/>
+      <c r="EU191" s="38"/>
+      <c r="EV191" s="38"/>
+      <c r="EW191" s="38"/>
+      <c r="EX191" s="38"/>
+      <c r="EY191" s="38"/>
+      <c r="EZ191" s="38"/>
+      <c r="FA191" s="38"/>
+      <c r="FB191" s="38"/>
+      <c r="FC191" s="38"/>
+      <c r="FD191" s="38"/>
+      <c r="FE191" s="38"/>
+      <c r="FF191" s="38"/>
+      <c r="FG191" s="38"/>
+      <c r="FH191" s="38"/>
+      <c r="FI191" s="38"/>
+      <c r="FJ191" s="38"/>
+      <c r="FK191" s="38"/>
+      <c r="FL191" s="38"/>
+      <c r="FM191" s="38"/>
+      <c r="FN191" s="38"/>
+      <c r="FO191" s="38"/>
+      <c r="FP191" s="38"/>
+      <c r="FQ191" s="38"/>
+      <c r="FR191" s="38"/>
+      <c r="FS191" s="38"/>
+      <c r="FT191" s="38"/>
+      <c r="FU191" s="38"/>
+      <c r="FV191" s="38"/>
+      <c r="FW191" s="38"/>
+      <c r="FX191" s="38"/>
+      <c r="FY191" s="38"/>
+      <c r="FZ191" s="38"/>
+      <c r="GA191" s="38"/>
+      <c r="GB191" s="38"/>
+      <c r="GC191" s="38"/>
+      <c r="GD191" s="38"/>
+      <c r="GE191" s="38"/>
+      <c r="GF191" s="38"/>
+      <c r="GG191" s="38"/>
+      <c r="GH191" s="38"/>
+      <c r="GI191" s="38"/>
+      <c r="GJ191" s="38"/>
+      <c r="GK191" s="38"/>
+      <c r="GL191" s="38"/>
+      <c r="GM191" s="38"/>
+      <c r="GN191" s="38"/>
+      <c r="GO191" s="38"/>
+      <c r="GP191" s="38"/>
+      <c r="GQ191" s="38"/>
+      <c r="GR191" s="38"/>
+      <c r="GS191" s="38"/>
+      <c r="GT191" s="38"/>
+      <c r="GU191" s="38"/>
+      <c r="GV191" s="38"/>
+      <c r="GW191" s="38"/>
+      <c r="GX191" s="38"/>
+      <c r="GY191" s="38"/>
+      <c r="GZ191" s="38"/>
+      <c r="HA191" s="38"/>
+      <c r="HB191" s="38"/>
+      <c r="HC191" s="38"/>
+      <c r="HD191" s="38"/>
+      <c r="HE191" s="38"/>
+      <c r="HF191" s="38"/>
+      <c r="HG191" s="38"/>
+      <c r="HH191" s="38"/>
+      <c r="HI191" s="38"/>
+      <c r="HJ191" s="38"/>
+      <c r="HK191" s="38"/>
+      <c r="HL191" s="38"/>
+      <c r="HM191" s="38"/>
+      <c r="HN191" s="38"/>
+      <c r="HO191" s="38"/>
+      <c r="HP191" s="38"/>
+      <c r="HQ191" s="38"/>
+      <c r="HR191" s="38"/>
+      <c r="HS191" s="38"/>
+      <c r="HT191" s="38"/>
+      <c r="HU191" s="38"/>
+      <c r="HV191" s="38"/>
+      <c r="HW191" s="38"/>
+      <c r="HX191" s="38"/>
+      <c r="HY191" s="38"/>
+      <c r="HZ191" s="38"/>
+      <c r="IA191" s="38"/>
+      <c r="IB191" s="38"/>
+      <c r="IC191" s="38"/>
+      <c r="ID191" s="38"/>
+      <c r="IE191" s="38"/>
+      <c r="IF191" s="38"/>
+      <c r="IG191" s="38"/>
+      <c r="IH191" s="38"/>
+      <c r="II191" s="38"/>
+      <c r="IJ191" s="38"/>
+      <c r="IK191" s="38"/>
+      <c r="IL191" s="38"/>
+      <c r="IM191" s="38"/>
+      <c r="IN191" s="38"/>
+      <c r="IO191" s="38"/>
+      <c r="IP191" s="38"/>
+      <c r="IQ191" s="38"/>
+      <c r="IR191" s="38"/>
+      <c r="IS191" s="38"/>
+      <c r="IT191" s="38"/>
+      <c r="IU191" s="38"/>
+      <c r="IV191" s="38"/>
+      <c r="IW191" s="38"/>
+      <c r="IX191" s="38"/>
+      <c r="IY191" s="38"/>
+      <c r="IZ191" s="38"/>
+      <c r="JA191" s="38"/>
+      <c r="JB191" s="38"/>
+      <c r="JC191" s="38"/>
+      <c r="JD191" s="38"/>
+      <c r="JE191" s="38"/>
+      <c r="JF191" s="38"/>
+      <c r="JG191" s="38"/>
+      <c r="JH191" s="38"/>
+      <c r="JI191" s="38"/>
+      <c r="JJ191" s="38"/>
+      <c r="JK191" s="38"/>
+      <c r="JL191" s="38"/>
+      <c r="JM191" s="38"/>
+      <c r="JN191" s="38"/>
+      <c r="JO191" s="38"/>
+      <c r="JP191" s="38"/>
+      <c r="JQ191" s="38"/>
+      <c r="JR191" s="38"/>
+      <c r="JS191" s="38"/>
+      <c r="JT191" s="38"/>
+      <c r="JU191" s="38"/>
+      <c r="JV191" s="38"/>
+      <c r="JW191" s="38"/>
+      <c r="JX191" s="38"/>
+      <c r="JY191" s="38"/>
+      <c r="JZ191" s="38"/>
+      <c r="KA191" s="38"/>
+      <c r="KB191" s="38"/>
+      <c r="KC191" s="38"/>
+      <c r="KD191" s="38"/>
+      <c r="KE191" s="38"/>
+      <c r="KF191" s="38"/>
+      <c r="KG191" s="38"/>
+      <c r="KH191" s="38"/>
+      <c r="KI191" s="38"/>
+      <c r="KJ191" s="38"/>
+      <c r="KK191" s="38"/>
+      <c r="KL191" s="38"/>
+      <c r="KM191" s="38"/>
+      <c r="KN191" s="38"/>
+      <c r="KO191" s="38"/>
+      <c r="KP191" s="38"/>
+      <c r="KQ191" s="38"/>
+      <c r="KR191" s="38"/>
+      <c r="KS191" s="38"/>
+      <c r="KT191" s="38"/>
+      <c r="KU191" s="38"/>
+      <c r="KV191" s="38"/>
+      <c r="KW191" s="38"/>
+      <c r="KX191" s="38"/>
+      <c r="KY191" s="38"/>
+      <c r="KZ191" s="38"/>
+      <c r="LA191" s="38"/>
+      <c r="LB191" s="38"/>
+      <c r="LC191" s="38"/>
+      <c r="LD191" s="38"/>
+      <c r="LE191" s="38"/>
+      <c r="LF191" s="38"/>
+      <c r="LG191" s="38"/>
+      <c r="LH191" s="38"/>
+      <c r="LI191" s="38"/>
+      <c r="LJ191" s="38"/>
+      <c r="LK191" s="38"/>
+      <c r="LL191" s="38"/>
+      <c r="LM191" s="38"/>
+      <c r="LN191" s="38"/>
+      <c r="LO191" s="38"/>
+      <c r="LP191" s="38"/>
+      <c r="LQ191" s="38"/>
+      <c r="LR191" s="38"/>
+      <c r="LS191" s="38"/>
+      <c r="LT191" s="38"/>
+      <c r="LU191" s="38"/>
+      <c r="LV191" s="38"/>
+      <c r="LW191" s="38"/>
+      <c r="LX191" s="38"/>
+      <c r="LY191" s="38"/>
+      <c r="LZ191" s="38"/>
+      <c r="MA191" s="38"/>
+      <c r="MB191" s="38"/>
+      <c r="MC191" s="38"/>
+      <c r="MD191" s="38"/>
+      <c r="ME191" s="38"/>
+      <c r="MF191" s="38"/>
+      <c r="MG191" s="38"/>
+      <c r="MH191" s="38"/>
+      <c r="MI191" s="38"/>
+      <c r="MJ191" s="38"/>
+      <c r="MK191" s="38"/>
+      <c r="ML191" s="38"/>
+      <c r="MM191" s="38"/>
+      <c r="MN191" s="38"/>
+      <c r="MO191" s="38"/>
+      <c r="MP191" s="38"/>
+      <c r="MQ191" s="38"/>
+      <c r="MR191" s="38"/>
+      <c r="MS191" s="38"/>
+      <c r="MT191" s="38"/>
+      <c r="MU191" s="38"/>
+      <c r="MV191" s="38"/>
+      <c r="MW191" s="38"/>
+      <c r="MX191" s="38"/>
+      <c r="MY191" s="38"/>
+      <c r="MZ191" s="38"/>
+      <c r="NA191" s="38"/>
+      <c r="NB191" s="38"/>
+      <c r="NC191" s="38"/>
+      <c r="ND191" s="38"/>
+      <c r="NE191" s="38"/>
+      <c r="NF191" s="38"/>
+      <c r="NG191" s="38"/>
+      <c r="NH191" s="38"/>
+      <c r="NI191" s="38"/>
+      <c r="NJ191" s="38"/>
+      <c r="NK191" s="38"/>
+      <c r="NL191" s="38"/>
+      <c r="NM191" s="38"/>
+      <c r="NN191" s="38"/>
+      <c r="NO191" s="38"/>
+      <c r="NP191" s="38"/>
+      <c r="NQ191" s="38"/>
+      <c r="NR191" s="38"/>
+      <c r="NS191" s="38"/>
+      <c r="NT191" s="38"/>
+      <c r="NU191" s="38"/>
+      <c r="NV191" s="38"/>
+      <c r="NW191" s="38"/>
+      <c r="NX191" s="38"/>
+      <c r="NY191" s="38"/>
+      <c r="NZ191" s="38"/>
+      <c r="OA191" s="38"/>
+      <c r="OB191" s="38"/>
+      <c r="OC191" s="38"/>
+      <c r="OD191" s="38"/>
+      <c r="OE191" s="38"/>
+      <c r="OF191" s="38"/>
+      <c r="OG191" s="38"/>
+      <c r="OH191" s="38"/>
+      <c r="OI191" s="38"/>
+      <c r="OJ191" s="38"/>
+      <c r="OK191" s="38"/>
+      <c r="OL191" s="38"/>
+      <c r="OM191" s="38"/>
+      <c r="ON191" s="38"/>
+      <c r="OO191" s="38"/>
+      <c r="OP191" s="38"/>
+      <c r="OQ191" s="38"/>
+      <c r="OR191" s="38"/>
+      <c r="OS191" s="38"/>
+      <c r="OT191" s="38"/>
+      <c r="OU191" s="38"/>
+      <c r="OV191" s="38"/>
+      <c r="OW191" s="38"/>
+      <c r="OX191" s="38"/>
+      <c r="OY191" s="38"/>
+      <c r="OZ191" s="38"/>
+      <c r="PA191" s="38"/>
+      <c r="PB191" s="38"/>
+      <c r="PC191" s="38"/>
+      <c r="PD191" s="38"/>
+      <c r="PE191" s="38"/>
+      <c r="PF191" s="38"/>
+      <c r="PG191" s="38"/>
+      <c r="PH191" s="38"/>
+      <c r="PI191" s="38"/>
+      <c r="PJ191" s="38"/>
+      <c r="PK191" s="38"/>
+      <c r="PL191" s="38"/>
+      <c r="PM191" s="38"/>
+      <c r="PN191" s="38"/>
+      <c r="PO191" s="38"/>
+      <c r="PP191" s="38"/>
+      <c r="PQ191" s="38"/>
+      <c r="PR191" s="38"/>
+      <c r="PS191" s="38"/>
+      <c r="PT191" s="38"/>
+      <c r="PU191" s="38"/>
+      <c r="PV191" s="38"/>
+      <c r="PW191" s="38"/>
+      <c r="PX191" s="38"/>
+      <c r="PY191" s="38"/>
+      <c r="PZ191" s="38"/>
+      <c r="QA191" s="38"/>
+      <c r="QB191" s="38"/>
+      <c r="QC191" s="38"/>
+      <c r="QD191" s="38"/>
+      <c r="QE191" s="38"/>
+      <c r="QF191" s="38"/>
+      <c r="QG191" s="38"/>
+      <c r="QH191" s="38"/>
+      <c r="QI191" s="38"/>
+      <c r="QJ191" s="38"/>
+      <c r="QK191" s="38"/>
+      <c r="QL191" s="38"/>
+      <c r="QM191" s="38"/>
+      <c r="QN191" s="38"/>
+      <c r="QO191" s="38"/>
+      <c r="QP191" s="38"/>
+      <c r="QQ191" s="38"/>
+      <c r="QR191" s="38"/>
+      <c r="QS191" s="38"/>
+      <c r="QT191" s="38"/>
+      <c r="QU191" s="38"/>
+      <c r="QV191" s="38"/>
+      <c r="QW191" s="38"/>
+      <c r="QX191" s="38"/>
+      <c r="QY191" s="38"/>
+      <c r="QZ191" s="38"/>
+      <c r="RA191" s="38"/>
+      <c r="RB191" s="38"/>
+      <c r="RC191" s="38"/>
+      <c r="RD191" s="38"/>
+      <c r="RE191" s="38"/>
+      <c r="RF191" s="38"/>
+      <c r="RG191" s="38"/>
+      <c r="RH191" s="38"/>
+      <c r="RI191" s="38"/>
+      <c r="RJ191" s="38"/>
+      <c r="RK191" s="38"/>
+      <c r="RL191" s="38"/>
+      <c r="RM191" s="38"/>
+      <c r="RN191" s="38"/>
+      <c r="RO191" s="38"/>
+      <c r="RP191" s="38"/>
+      <c r="RQ191" s="38"/>
+      <c r="RR191" s="38"/>
+      <c r="RS191" s="38"/>
+      <c r="RT191" s="38"/>
+      <c r="RU191" s="38"/>
+      <c r="RV191" s="38"/>
+      <c r="RW191" s="38"/>
+      <c r="RX191" s="38"/>
+      <c r="RY191" s="38"/>
+      <c r="RZ191" s="38"/>
+      <c r="SA191" s="38"/>
+      <c r="SB191" s="38"/>
+      <c r="SC191" s="38"/>
+      <c r="SD191" s="38"/>
+      <c r="SE191" s="38"/>
+      <c r="SF191" s="38"/>
+      <c r="SG191" s="38"/>
+      <c r="SH191" s="38"/>
+      <c r="SI191" s="38"/>
+      <c r="SJ191" s="38"/>
+      <c r="SK191" s="38"/>
+      <c r="SL191" s="38"/>
+      <c r="SM191" s="38"/>
+      <c r="SN191" s="38"/>
+      <c r="SO191" s="38"/>
+      <c r="SP191" s="38"/>
+      <c r="SQ191" s="38"/>
+      <c r="SR191" s="38"/>
+      <c r="SS191" s="38"/>
+      <c r="ST191" s="38"/>
+      <c r="SU191" s="38"/>
+      <c r="SV191" s="38"/>
+      <c r="SW191" s="38"/>
+      <c r="SX191" s="38"/>
+      <c r="SY191" s="38"/>
+      <c r="SZ191" s="38"/>
+      <c r="TA191" s="38"/>
+      <c r="TB191" s="38"/>
+      <c r="TC191" s="38"/>
+      <c r="TD191" s="38"/>
+      <c r="TE191" s="38"/>
+      <c r="TF191" s="38"/>
+      <c r="TG191" s="38"/>
+      <c r="TH191" s="38"/>
+      <c r="TI191" s="38"/>
+      <c r="TJ191" s="38"/>
+      <c r="TK191" s="38"/>
+      <c r="TL191" s="38"/>
+      <c r="TM191" s="38"/>
+      <c r="TN191" s="38"/>
+      <c r="TO191" s="38"/>
+      <c r="TP191" s="38"/>
+      <c r="TQ191" s="38"/>
+      <c r="TR191" s="38"/>
+      <c r="TS191" s="38"/>
+      <c r="TT191" s="38"/>
+      <c r="TU191" s="38"/>
+      <c r="TV191" s="38"/>
+      <c r="TW191" s="38"/>
+      <c r="TX191" s="38"/>
+      <c r="TY191" s="38"/>
+      <c r="TZ191" s="38"/>
+      <c r="UA191" s="38"/>
+      <c r="UB191" s="38"/>
+      <c r="UC191" s="38"/>
+      <c r="UD191" s="38"/>
+      <c r="UE191" s="38"/>
+      <c r="UF191" s="38"/>
+      <c r="UG191" s="38"/>
+      <c r="UH191" s="38"/>
+      <c r="UI191" s="38"/>
+      <c r="UJ191" s="38"/>
+      <c r="UK191" s="38"/>
+      <c r="UL191" s="38"/>
+      <c r="UM191" s="38"/>
+      <c r="UN191" s="38"/>
+      <c r="UO191" s="38"/>
+      <c r="UP191" s="38"/>
+      <c r="UQ191" s="38"/>
+      <c r="UR191" s="38"/>
+      <c r="US191" s="38"/>
+      <c r="UT191" s="38"/>
+      <c r="UU191" s="38"/>
+      <c r="UV191" s="38"/>
+      <c r="UW191" s="38"/>
+      <c r="UX191" s="38"/>
+      <c r="UY191" s="38"/>
+      <c r="UZ191" s="38"/>
+      <c r="VA191" s="38"/>
+      <c r="VB191" s="38"/>
+      <c r="VC191" s="38"/>
+      <c r="VD191" s="38"/>
+      <c r="VE191" s="38"/>
+      <c r="VF191" s="38"/>
+      <c r="VG191" s="38"/>
+      <c r="VH191" s="38"/>
+      <c r="VI191" s="38"/>
+      <c r="VJ191" s="38"/>
+      <c r="VK191" s="38"/>
+      <c r="VL191" s="38"/>
+      <c r="VM191" s="38"/>
+      <c r="VN191" s="38"/>
+      <c r="VO191" s="38"/>
+      <c r="VP191" s="38"/>
+      <c r="VQ191" s="38"/>
+      <c r="VR191" s="38"/>
+      <c r="VS191" s="38"/>
+      <c r="VT191" s="38"/>
+      <c r="VU191" s="38"/>
+      <c r="VV191" s="38"/>
+      <c r="VW191" s="38"/>
+      <c r="VX191" s="38"/>
+      <c r="VY191" s="38"/>
+      <c r="VZ191" s="38"/>
+      <c r="WA191" s="38"/>
+      <c r="WB191" s="38"/>
+      <c r="WC191" s="38"/>
+      <c r="WD191" s="38"/>
+      <c r="WE191" s="38"/>
+      <c r="WF191" s="38"/>
+      <c r="WG191" s="38"/>
+      <c r="WH191" s="38"/>
+      <c r="WI191" s="38"/>
+      <c r="WJ191" s="38"/>
+      <c r="WK191" s="38"/>
+      <c r="WL191" s="38"/>
+      <c r="WM191" s="38"/>
+      <c r="WN191" s="38"/>
+      <c r="WO191" s="38"/>
+      <c r="WP191" s="38"/>
+      <c r="WQ191" s="38"/>
+      <c r="WR191" s="38"/>
+      <c r="WS191" s="38"/>
+      <c r="WT191" s="38"/>
+      <c r="WU191" s="38"/>
+      <c r="WV191" s="38"/>
+      <c r="WW191" s="38"/>
+      <c r="WX191" s="38"/>
+      <c r="WY191" s="38"/>
+      <c r="WZ191" s="38"/>
+      <c r="XA191" s="38"/>
+      <c r="XB191" s="38"/>
+      <c r="XC191" s="38"/>
+      <c r="XD191" s="38"/>
+      <c r="XE191" s="38"/>
+      <c r="XF191" s="38"/>
+      <c r="XG191" s="38"/>
+      <c r="XH191" s="38"/>
+      <c r="XI191" s="38"/>
+      <c r="XJ191" s="38"/>
+      <c r="XK191" s="38"/>
+      <c r="XL191" s="38"/>
+      <c r="XM191" s="38"/>
+      <c r="XN191" s="38"/>
+      <c r="XO191" s="38"/>
+      <c r="XP191" s="38"/>
+      <c r="XQ191" s="38"/>
+      <c r="XR191" s="38"/>
+      <c r="XS191" s="38"/>
+      <c r="XT191" s="38"/>
+      <c r="XU191" s="38"/>
+      <c r="XV191" s="38"/>
+      <c r="XW191" s="38"/>
+      <c r="XX191" s="38"/>
+      <c r="XY191" s="38"/>
+      <c r="XZ191" s="38"/>
+      <c r="YA191" s="38"/>
+      <c r="YB191" s="38"/>
+      <c r="YC191" s="38"/>
+      <c r="YD191" s="38"/>
+      <c r="YE191" s="38"/>
+      <c r="YF191" s="38"/>
+      <c r="YG191" s="38"/>
+      <c r="YH191" s="38"/>
+      <c r="YI191" s="38"/>
+      <c r="YJ191" s="38"/>
+      <c r="YK191" s="38"/>
+      <c r="YL191" s="38"/>
+      <c r="YM191" s="38"/>
+      <c r="YN191" s="38"/>
+      <c r="YO191" s="38"/>
+      <c r="YP191" s="38"/>
+      <c r="YQ191" s="38"/>
+      <c r="YR191" s="38"/>
+      <c r="YS191" s="38"/>
+      <c r="YT191" s="38"/>
+      <c r="YU191" s="38"/>
+      <c r="YV191" s="38"/>
+      <c r="YW191" s="38"/>
+      <c r="YX191" s="38"/>
+      <c r="YY191" s="38"/>
+      <c r="YZ191" s="38"/>
+      <c r="ZA191" s="38"/>
+      <c r="ZB191" s="38"/>
+      <c r="ZC191" s="38"/>
+      <c r="ZD191" s="38"/>
+      <c r="ZE191" s="38"/>
+      <c r="ZF191" s="38"/>
+      <c r="ZG191" s="38"/>
+      <c r="ZH191" s="38"/>
+      <c r="ZI191" s="38"/>
+      <c r="ZJ191" s="38"/>
+      <c r="ZK191" s="38"/>
+      <c r="ZL191" s="38"/>
+      <c r="ZM191" s="38"/>
+      <c r="ZN191" s="38"/>
+      <c r="ZO191" s="38"/>
+      <c r="ZP191" s="38"/>
+      <c r="ZQ191" s="38"/>
+      <c r="ZR191" s="38"/>
+      <c r="ZS191" s="38"/>
+      <c r="ZT191" s="38"/>
+      <c r="ZU191" s="38"/>
+      <c r="ZV191" s="38"/>
+      <c r="ZW191" s="38"/>
+      <c r="ZX191" s="38"/>
+      <c r="ZY191" s="38"/>
+      <c r="ZZ191" s="38"/>
+      <c r="AAA191" s="38"/>
+      <c r="AAB191" s="38"/>
+      <c r="AAC191" s="38"/>
+      <c r="AAD191" s="38"/>
+      <c r="AAE191" s="38"/>
+      <c r="AAF191" s="38"/>
+      <c r="AAG191" s="38"/>
+      <c r="AAH191" s="38"/>
+      <c r="AAI191" s="38"/>
+      <c r="AAJ191" s="38"/>
+      <c r="AAK191" s="38"/>
+      <c r="AAL191" s="38"/>
+      <c r="AAM191" s="38"/>
+      <c r="AAN191" s="38"/>
+      <c r="AAO191" s="38"/>
+      <c r="AAP191" s="38"/>
+      <c r="AAQ191" s="38"/>
+      <c r="AAR191" s="38"/>
+      <c r="AAS191" s="38"/>
+      <c r="AAT191" s="38"/>
+      <c r="AAU191" s="38"/>
+      <c r="AAV191" s="38"/>
+      <c r="AAW191" s="38"/>
+      <c r="AAX191" s="38"/>
+      <c r="AAY191" s="38"/>
+      <c r="AAZ191" s="38"/>
+      <c r="ABA191" s="38"/>
+      <c r="ABB191" s="38"/>
+      <c r="ABC191" s="38"/>
+      <c r="ABD191" s="38"/>
+      <c r="ABE191" s="38"/>
+      <c r="ABF191" s="38"/>
+      <c r="ABG191" s="38"/>
+      <c r="ABH191" s="38"/>
+      <c r="ABI191" s="38"/>
+      <c r="ABJ191" s="38"/>
+      <c r="ABK191" s="38"/>
+      <c r="ABL191" s="38"/>
+      <c r="ABM191" s="38"/>
+      <c r="ABN191" s="38"/>
+      <c r="ABO191" s="38"/>
+      <c r="ABP191" s="38"/>
+      <c r="ABQ191" s="38"/>
+      <c r="ABR191" s="38"/>
+      <c r="ABS191" s="38"/>
+      <c r="ABT191" s="38"/>
+      <c r="ABU191" s="38"/>
+      <c r="ABV191" s="38"/>
+      <c r="ABW191" s="38"/>
+      <c r="ABX191" s="38"/>
+      <c r="ABY191" s="38"/>
+      <c r="ABZ191" s="38"/>
+      <c r="ACA191" s="38"/>
+      <c r="ACB191" s="38"/>
+      <c r="ACC191" s="38"/>
+      <c r="ACD191" s="38"/>
+      <c r="ACE191" s="38"/>
+      <c r="ACF191" s="38"/>
+      <c r="ACG191" s="38"/>
+      <c r="ACH191" s="38"/>
+      <c r="ACI191" s="38"/>
+      <c r="ACJ191" s="38"/>
+      <c r="ACK191" s="38"/>
+      <c r="ACL191" s="38"/>
+      <c r="ACM191" s="38"/>
+      <c r="ACN191" s="38"/>
+      <c r="ACO191" s="38"/>
+      <c r="ACP191" s="38"/>
+      <c r="ACQ191" s="38"/>
+      <c r="ACR191" s="38"/>
+      <c r="ACS191" s="38"/>
+      <c r="ACT191" s="38"/>
+      <c r="ACU191" s="38"/>
+      <c r="ACV191" s="38"/>
+      <c r="ACW191" s="38"/>
+      <c r="ACX191" s="38"/>
+      <c r="ACY191" s="38"/>
+      <c r="ACZ191" s="38"/>
+      <c r="ADA191" s="38"/>
+      <c r="ADB191" s="38"/>
+      <c r="ADC191" s="38"/>
+      <c r="ADD191" s="38"/>
+      <c r="ADE191" s="38"/>
+      <c r="ADF191" s="38"/>
+      <c r="ADG191" s="38"/>
+      <c r="ADH191" s="38"/>
+      <c r="ADI191" s="38"/>
+      <c r="ADJ191" s="38"/>
+      <c r="ADK191" s="38"/>
+      <c r="ADL191" s="38"/>
+      <c r="ADM191" s="38"/>
+      <c r="ADN191" s="38"/>
+      <c r="ADO191" s="38"/>
+      <c r="ADP191" s="38"/>
+      <c r="ADQ191" s="38"/>
+      <c r="ADR191" s="38"/>
+      <c r="ADS191" s="38"/>
+      <c r="ADT191" s="38"/>
+      <c r="ADU191" s="38"/>
+      <c r="ADV191" s="38"/>
+      <c r="ADW191" s="38"/>
+      <c r="ADX191" s="38"/>
+      <c r="ADY191" s="38"/>
+      <c r="ADZ191" s="38"/>
+      <c r="AEA191" s="38"/>
+      <c r="AEB191" s="38"/>
+      <c r="AEC191" s="38"/>
+      <c r="AED191" s="38"/>
+      <c r="AEE191" s="38"/>
+      <c r="AEF191" s="38"/>
+      <c r="AEG191" s="38"/>
+      <c r="AEH191" s="38"/>
+      <c r="AEI191" s="38"/>
+      <c r="AEJ191" s="38"/>
+      <c r="AEK191" s="38"/>
+      <c r="AEL191" s="38"/>
+      <c r="AEM191" s="38"/>
+      <c r="AEN191" s="38"/>
+      <c r="AEO191" s="38"/>
+      <c r="AEP191" s="38"/>
+      <c r="AEQ191" s="38"/>
+      <c r="AER191" s="38"/>
+      <c r="AES191" s="38"/>
+      <c r="AET191" s="38"/>
+      <c r="AEU191" s="38"/>
+      <c r="AEV191" s="38"/>
+      <c r="AEW191" s="38"/>
+      <c r="AEX191" s="38"/>
+      <c r="AEY191" s="38"/>
+      <c r="AEZ191" s="38"/>
+      <c r="AFA191" s="38"/>
+      <c r="AFB191" s="38"/>
+      <c r="AFC191" s="38"/>
+      <c r="AFD191" s="38"/>
+      <c r="AFE191" s="38"/>
+      <c r="AFF191" s="38"/>
+      <c r="AFG191" s="38"/>
+      <c r="AFH191" s="38"/>
+      <c r="AFI191" s="38"/>
+      <c r="AFJ191" s="38"/>
+      <c r="AFK191" s="38"/>
+      <c r="AFL191" s="38"/>
+      <c r="AFM191" s="38"/>
+      <c r="AFN191" s="38"/>
+      <c r="AFO191" s="38"/>
+      <c r="AFP191" s="38"/>
+      <c r="AFQ191" s="38"/>
+      <c r="AFR191" s="38"/>
+      <c r="AFS191" s="38"/>
+      <c r="AFT191" s="38"/>
+      <c r="AFU191" s="38"/>
+      <c r="AFV191" s="38"/>
+      <c r="AFW191" s="38"/>
+      <c r="AFX191" s="38"/>
+      <c r="AFY191" s="38"/>
+      <c r="AFZ191" s="38"/>
+      <c r="AGA191" s="38"/>
+      <c r="AGB191" s="38"/>
+      <c r="AGC191" s="38"/>
+      <c r="AGD191" s="38"/>
+      <c r="AGE191" s="38"/>
+      <c r="AGF191" s="38"/>
+      <c r="AGG191" s="38"/>
+      <c r="AGH191" s="38"/>
+      <c r="AGI191" s="38"/>
+      <c r="AGJ191" s="38"/>
+      <c r="AGK191" s="38"/>
+      <c r="AGL191" s="38"/>
+      <c r="AGM191" s="38"/>
+      <c r="AGN191" s="38"/>
+      <c r="AGO191" s="38"/>
+      <c r="AGP191" s="38"/>
+      <c r="AGQ191" s="38"/>
+      <c r="AGR191" s="38"/>
+      <c r="AGS191" s="38"/>
+      <c r="AGT191" s="38"/>
+      <c r="AGU191" s="38"/>
+      <c r="AGV191" s="38"/>
+      <c r="AGW191" s="38"/>
+      <c r="AGX191" s="38"/>
+      <c r="AGY191" s="38"/>
+      <c r="AGZ191" s="38"/>
+      <c r="AHA191" s="38"/>
+      <c r="AHB191" s="38"/>
+      <c r="AHC191" s="38"/>
+      <c r="AHD191" s="38"/>
+      <c r="AHE191" s="38"/>
+      <c r="AHF191" s="38"/>
+      <c r="AHG191" s="38"/>
+      <c r="AHH191" s="38"/>
+      <c r="AHI191" s="38"/>
+      <c r="AHJ191" s="38"/>
+      <c r="AHK191" s="38"/>
+      <c r="AHL191" s="38"/>
+      <c r="AHM191" s="38"/>
+      <c r="AHN191" s="38"/>
+      <c r="AHO191" s="38"/>
+      <c r="AHP191" s="38"/>
+      <c r="AHQ191" s="38"/>
+      <c r="AHR191" s="38"/>
+      <c r="AHS191" s="38"/>
+      <c r="AHT191" s="38"/>
+      <c r="AHU191" s="38"/>
+      <c r="AHV191" s="38"/>
+      <c r="AHW191" s="38"/>
+      <c r="AHX191" s="38"/>
+      <c r="AHY191" s="38"/>
+      <c r="AHZ191" s="38"/>
+      <c r="AIA191" s="38"/>
+      <c r="AIB191" s="38"/>
+      <c r="AIC191" s="38"/>
+      <c r="AID191" s="38"/>
+      <c r="AIE191" s="38"/>
+      <c r="AIF191" s="38"/>
+      <c r="AIG191" s="38"/>
+      <c r="AIH191" s="38"/>
+      <c r="AII191" s="38"/>
+      <c r="AIJ191" s="38"/>
+      <c r="AIK191" s="38"/>
+      <c r="AIL191" s="38"/>
+      <c r="AIM191" s="38"/>
+      <c r="AIN191" s="38"/>
+      <c r="AIO191" s="38"/>
+      <c r="AIP191" s="38"/>
+      <c r="AIQ191" s="38"/>
+      <c r="AIR191" s="38"/>
+      <c r="AIS191" s="38"/>
+      <c r="AIT191" s="38"/>
+      <c r="AIU191" s="38"/>
+      <c r="AIV191" s="38"/>
+      <c r="AIW191" s="38"/>
+      <c r="AIX191" s="38"/>
+      <c r="AIY191" s="38"/>
+      <c r="AIZ191" s="38"/>
+      <c r="AJA191" s="38"/>
+      <c r="AJB191" s="38"/>
+      <c r="AJC191" s="38"/>
+      <c r="AJD191" s="38"/>
+      <c r="AJE191" s="38"/>
+      <c r="AJF191" s="38"/>
+      <c r="AJG191" s="38"/>
+      <c r="AJH191" s="38"/>
+      <c r="AJI191" s="38"/>
+      <c r="AJJ191" s="38"/>
+      <c r="AJK191" s="38"/>
+      <c r="AJL191" s="38"/>
+      <c r="AJM191" s="38"/>
+      <c r="AJN191" s="38"/>
+      <c r="AJO191" s="38"/>
+      <c r="AJP191" s="38"/>
+      <c r="AJQ191" s="38"/>
+      <c r="AJR191" s="38"/>
+      <c r="AJS191" s="38"/>
+      <c r="AJT191" s="38"/>
+      <c r="AJU191" s="38"/>
+      <c r="AJV191" s="38"/>
+      <c r="AJW191" s="38"/>
+      <c r="AJX191" s="38"/>
+      <c r="AJY191" s="38"/>
+      <c r="AJZ191" s="38"/>
+      <c r="AKA191" s="38"/>
+      <c r="AKB191" s="38"/>
+      <c r="AKC191" s="38"/>
+      <c r="AKD191" s="38"/>
+      <c r="AKE191" s="38"/>
+      <c r="AKF191" s="38"/>
+      <c r="AKG191" s="38"/>
+      <c r="AKH191" s="38"/>
+      <c r="AKI191" s="38"/>
+      <c r="AKJ191" s="38"/>
+      <c r="AKK191" s="38"/>
+      <c r="AKL191" s="38"/>
+      <c r="AKM191" s="38"/>
+      <c r="AKN191" s="38"/>
+      <c r="AKO191" s="38"/>
+      <c r="AKP191" s="38"/>
+      <c r="AKQ191" s="38"/>
+      <c r="AKR191" s="38"/>
+      <c r="AKS191" s="38"/>
+      <c r="AKT191" s="38"/>
+      <c r="AKU191" s="38"/>
+      <c r="AKV191" s="38"/>
+      <c r="AKW191" s="38"/>
+      <c r="AKX191" s="38"/>
+      <c r="AKY191" s="38"/>
+      <c r="AKZ191" s="38"/>
+      <c r="ALA191" s="38"/>
+      <c r="ALB191" s="38"/>
+      <c r="ALC191" s="38"/>
+      <c r="ALD191" s="38"/>
+      <c r="ALE191" s="38"/>
+      <c r="ALF191" s="38"/>
+      <c r="ALG191" s="38"/>
+      <c r="ALH191" s="38"/>
+      <c r="ALI191" s="38"/>
+      <c r="ALJ191" s="38"/>
+      <c r="ALK191" s="38"/>
+      <c r="ALL191" s="38"/>
+      <c r="ALM191" s="38"/>
+      <c r="ALN191" s="38"/>
+      <c r="ALO191" s="38"/>
+      <c r="ALP191" s="38"/>
+      <c r="ALQ191" s="38"/>
+      <c r="ALR191" s="38"/>
+      <c r="ALS191" s="38"/>
+      <c r="ALT191" s="38"/>
+      <c r="ALU191" s="38"/>
+      <c r="ALV191" s="38"/>
+      <c r="ALW191" s="38"/>
+      <c r="ALX191" s="38"/>
+      <c r="ALY191" s="38"/>
+      <c r="ALZ191" s="38"/>
+      <c r="AMA191" s="38"/>
+      <c r="AMB191" s="38"/>
+      <c r="AMC191" s="38"/>
+      <c r="AMD191" s="38"/>
+      <c r="AME191" s="38"/>
+      <c r="AMF191" s="38"/>
+      <c r="AMG191" s="38"/>
+      <c r="AMH191" s="38"/>
+      <c r="AMI191" s="38"/>
+      <c r="AMJ191" s="38"/>
+      <c r="AMK191" s="38"/>
+      <c r="AML191" s="38"/>
+      <c r="AMM191" s="38"/>
+      <c r="AMN191" s="38"/>
+      <c r="AMO191" s="38"/>
+      <c r="AMP191" s="38"/>
+      <c r="AMQ191" s="38"/>
+      <c r="AMR191" s="38"/>
+      <c r="AMS191" s="38"/>
+      <c r="AMT191" s="38"/>
+      <c r="AMU191" s="38"/>
+      <c r="AMV191" s="38"/>
+      <c r="AMW191" s="38"/>
+      <c r="AMX191" s="38"/>
+      <c r="AMY191" s="38"/>
+      <c r="AMZ191" s="38"/>
+      <c r="ANA191" s="38"/>
+      <c r="ANB191" s="38"/>
+      <c r="ANC191" s="38"/>
+      <c r="AND191" s="38"/>
+      <c r="ANE191" s="38"/>
+      <c r="ANF191" s="38"/>
+      <c r="ANG191" s="38"/>
+      <c r="ANH191" s="38"/>
+      <c r="ANI191" s="38"/>
+      <c r="ANJ191" s="38"/>
+      <c r="ANK191" s="38"/>
+      <c r="ANL191" s="38"/>
+      <c r="ANM191" s="38"/>
+      <c r="ANN191" s="38"/>
+      <c r="ANO191" s="38"/>
+      <c r="ANP191" s="38"/>
+      <c r="ANQ191" s="38"/>
+      <c r="ANR191" s="38"/>
+      <c r="ANS191" s="38"/>
+      <c r="ANT191" s="38"/>
+      <c r="ANU191" s="38"/>
+      <c r="ANV191" s="38"/>
+      <c r="ANW191" s="38"/>
+      <c r="ANX191" s="38"/>
+      <c r="ANY191" s="38"/>
+      <c r="ANZ191" s="38"/>
+      <c r="AOA191" s="38"/>
+      <c r="AOB191" s="38"/>
+      <c r="AOC191" s="38"/>
+      <c r="AOD191" s="38"/>
+      <c r="AOE191" s="38"/>
+      <c r="AOF191" s="38"/>
+      <c r="AOG191" s="38"/>
+      <c r="AOH191" s="38"/>
+      <c r="AOI191" s="38"/>
+      <c r="AOJ191" s="38"/>
+      <c r="AOK191" s="38"/>
+      <c r="AOL191" s="38"/>
+      <c r="AOM191" s="38"/>
+      <c r="AON191" s="38"/>
+      <c r="AOO191" s="38"/>
+      <c r="AOP191" s="38"/>
+      <c r="AOQ191" s="38"/>
+      <c r="AOR191" s="38"/>
+      <c r="AOS191" s="38"/>
+      <c r="AOT191" s="38"/>
+      <c r="AOU191" s="38"/>
+      <c r="AOV191" s="38"/>
+      <c r="AOW191" s="38"/>
+      <c r="AOX191" s="38"/>
+      <c r="AOY191" s="38"/>
+      <c r="AOZ191" s="38"/>
+      <c r="APA191" s="38"/>
+      <c r="APB191" s="38"/>
+      <c r="APC191" s="38"/>
+      <c r="APD191" s="38"/>
+      <c r="APE191" s="38"/>
+      <c r="APF191" s="38"/>
+      <c r="APG191" s="38"/>
+      <c r="APH191" s="38"/>
+      <c r="API191" s="38"/>
+      <c r="APJ191" s="38"/>
+      <c r="APK191" s="38"/>
+      <c r="APL191" s="38"/>
+      <c r="APM191" s="38"/>
+      <c r="APN191" s="38"/>
+      <c r="APO191" s="38"/>
+      <c r="APP191" s="38"/>
+      <c r="APQ191" s="38"/>
+      <c r="APR191" s="38"/>
+      <c r="APS191" s="38"/>
+      <c r="APT191" s="38"/>
+      <c r="APU191" s="38"/>
+      <c r="APV191" s="38"/>
+      <c r="APW191" s="38"/>
+      <c r="APX191" s="38"/>
+      <c r="APY191" s="38"/>
+      <c r="APZ191" s="38"/>
+      <c r="AQA191" s="38"/>
+      <c r="AQB191" s="38"/>
+      <c r="AQC191" s="38"/>
+      <c r="AQD191" s="38"/>
+      <c r="AQE191" s="38"/>
+      <c r="AQF191" s="38"/>
+      <c r="AQG191" s="38"/>
+      <c r="AQH191" s="38"/>
+      <c r="AQI191" s="38"/>
+      <c r="AQJ191" s="38"/>
+      <c r="AQK191" s="38"/>
+      <c r="AQL191" s="38"/>
+      <c r="AQM191" s="38"/>
+      <c r="AQN191" s="38"/>
+      <c r="AQO191" s="38"/>
+      <c r="AQP191" s="38"/>
+      <c r="AQQ191" s="38"/>
+      <c r="AQR191" s="38"/>
+      <c r="AQS191" s="38"/>
+      <c r="AQT191" s="38"/>
+      <c r="AQU191" s="38"/>
+      <c r="AQV191" s="38"/>
+      <c r="AQW191" s="38"/>
+      <c r="AQX191" s="38"/>
+      <c r="AQY191" s="38"/>
+      <c r="AQZ191" s="38"/>
+      <c r="ARA191" s="38"/>
+      <c r="ARB191" s="38"/>
+      <c r="ARC191" s="38"/>
+      <c r="ARD191" s="38"/>
+      <c r="ARE191" s="38"/>
+      <c r="ARF191" s="38"/>
+      <c r="ARG191" s="38"/>
+      <c r="ARH191" s="38"/>
+      <c r="ARI191" s="38"/>
+      <c r="ARJ191" s="38"/>
+      <c r="ARK191" s="38"/>
+      <c r="ARL191" s="38"/>
+      <c r="ARM191" s="38"/>
+      <c r="ARN191" s="38"/>
+      <c r="ARO191" s="38"/>
+      <c r="ARP191" s="38"/>
+      <c r="ARQ191" s="38"/>
+      <c r="ARR191" s="38"/>
+      <c r="ARS191" s="38"/>
+      <c r="ART191" s="38"/>
+      <c r="ARU191" s="38"/>
+      <c r="ARV191" s="38"/>
+      <c r="ARW191" s="38"/>
+      <c r="ARX191" s="38"/>
+      <c r="ARY191" s="38"/>
+      <c r="ARZ191" s="38"/>
+      <c r="ASA191" s="38"/>
+      <c r="ASB191" s="38"/>
+      <c r="ASC191" s="38"/>
+      <c r="ASD191" s="38"/>
+      <c r="ASE191" s="38"/>
+      <c r="ASF191" s="38"/>
+      <c r="ASG191" s="38"/>
+      <c r="ASH191" s="38"/>
+      <c r="ASI191" s="38"/>
+      <c r="ASJ191" s="38"/>
+      <c r="ASK191" s="38"/>
+      <c r="ASL191" s="38"/>
+      <c r="ASM191" s="38"/>
+      <c r="ASN191" s="38"/>
+      <c r="ASO191" s="38"/>
+      <c r="ASP191" s="38"/>
+      <c r="ASQ191" s="38"/>
+      <c r="ASR191" s="38"/>
+      <c r="ASS191" s="38"/>
+      <c r="AST191" s="38"/>
+      <c r="ASU191" s="38"/>
+      <c r="ASV191" s="38"/>
+      <c r="ASW191" s="38"/>
+      <c r="ASX191" s="38"/>
+      <c r="ASY191" s="38"/>
+      <c r="ASZ191" s="38"/>
+      <c r="ATA191" s="38"/>
+      <c r="ATB191" s="38"/>
+      <c r="ATC191" s="38"/>
+      <c r="ATD191" s="38"/>
+      <c r="ATE191" s="38"/>
+      <c r="ATF191" s="38"/>
+      <c r="ATG191" s="38"/>
+      <c r="ATH191" s="38"/>
+      <c r="ATI191" s="38"/>
+      <c r="ATJ191" s="38"/>
+      <c r="ATK191" s="38"/>
+      <c r="ATL191" s="38"/>
+      <c r="ATM191" s="38"/>
+      <c r="ATN191" s="38"/>
+      <c r="ATO191" s="38"/>
+      <c r="ATP191" s="38"/>
+      <c r="ATQ191" s="38"/>
+      <c r="ATR191" s="38"/>
+      <c r="ATS191" s="38"/>
+      <c r="ATT191" s="38"/>
+      <c r="ATU191" s="38"/>
+      <c r="ATV191" s="38"/>
+      <c r="ATW191" s="38"/>
+      <c r="ATX191" s="38"/>
+      <c r="ATY191" s="38"/>
+      <c r="ATZ191" s="38"/>
+    </row>
+    <row r="192" spans="1:1222" s="37" customFormat="1">
+      <c r="A192" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B192" s="43"/>
+      <c r="C192" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D192" s="38"/>
+      <c r="E192" s="38"/>
+      <c r="F192" s="38"/>
+      <c r="G192" s="38"/>
+      <c r="H192" s="38"/>
+      <c r="I192" s="38"/>
+      <c r="J192" s="38"/>
+      <c r="K192" s="38"/>
+      <c r="L192" s="38"/>
+      <c r="M192" s="38"/>
+      <c r="N192" s="38"/>
+      <c r="O192" s="38"/>
+      <c r="P192" s="38"/>
+      <c r="Q192" s="38"/>
+      <c r="R192" s="38"/>
+      <c r="S192" s="38"/>
+      <c r="T192" s="38"/>
+      <c r="U192" s="38"/>
+      <c r="V192" s="38"/>
+      <c r="W192" s="38"/>
+      <c r="X192" s="38"/>
+      <c r="Y192" s="38"/>
+      <c r="Z192" s="38"/>
+      <c r="AA192" s="38"/>
+      <c r="AB192" s="38"/>
+      <c r="AC192" s="38"/>
+      <c r="AD192" s="38"/>
+      <c r="AE192" s="38"/>
+      <c r="AF192" s="38"/>
+      <c r="AG192" s="38"/>
+      <c r="AH192" s="38"/>
+      <c r="AI192" s="38"/>
+      <c r="AJ192" s="38"/>
+      <c r="AK192" s="38"/>
+      <c r="AL192" s="38"/>
+      <c r="AM192" s="38"/>
+      <c r="AN192" s="38"/>
+      <c r="AO192" s="38"/>
+      <c r="AP192" s="38"/>
+      <c r="AQ192" s="38"/>
+      <c r="AR192" s="38"/>
+      <c r="AS192" s="38"/>
+      <c r="AT192" s="38"/>
+      <c r="AU192" s="38"/>
+      <c r="AV192" s="38"/>
+      <c r="AW192" s="38"/>
+      <c r="AX192" s="38"/>
+      <c r="AY192" s="38"/>
+      <c r="AZ192" s="38"/>
+      <c r="BA192" s="38"/>
+      <c r="BB192" s="38"/>
+      <c r="BC192" s="38"/>
+      <c r="BD192" s="38"/>
+      <c r="BE192" s="38"/>
+      <c r="BF192" s="38"/>
+      <c r="BG192" s="38"/>
+      <c r="BH192" s="38"/>
+      <c r="BI192" s="38"/>
+      <c r="BJ192" s="38"/>
+      <c r="BK192" s="38"/>
+      <c r="BL192" s="38"/>
+      <c r="BM192" s="38"/>
+      <c r="BN192" s="38"/>
+      <c r="BO192" s="38"/>
+      <c r="BP192" s="38"/>
+      <c r="BQ192" s="38"/>
+      <c r="BR192" s="38"/>
+      <c r="BS192" s="38"/>
+      <c r="BT192" s="38"/>
+      <c r="BU192" s="38"/>
+      <c r="BV192" s="38"/>
+      <c r="BW192" s="38"/>
+      <c r="BX192" s="38"/>
+      <c r="BY192" s="38"/>
+      <c r="BZ192" s="38"/>
+      <c r="CA192" s="38"/>
+      <c r="CB192" s="38"/>
+      <c r="CC192" s="38"/>
+      <c r="CD192" s="38"/>
+      <c r="CE192" s="38"/>
+      <c r="CF192" s="38"/>
+      <c r="CG192" s="38"/>
+      <c r="CH192" s="38"/>
+      <c r="CI192" s="38"/>
+      <c r="CJ192" s="38"/>
+      <c r="CK192" s="38"/>
+      <c r="CL192" s="38"/>
+      <c r="CM192" s="38"/>
+      <c r="CN192" s="38"/>
+      <c r="CO192" s="38"/>
+      <c r="CP192" s="38"/>
+      <c r="CQ192" s="38"/>
+      <c r="CR192" s="38"/>
+      <c r="CS192" s="38"/>
+      <c r="CT192" s="38"/>
+      <c r="CU192" s="38"/>
+      <c r="CV192" s="38"/>
+      <c r="CW192" s="38"/>
+      <c r="CX192" s="38"/>
+      <c r="CY192" s="38"/>
+      <c r="CZ192" s="38"/>
+      <c r="DA192" s="38"/>
+      <c r="DB192" s="38"/>
+      <c r="DC192" s="38"/>
+      <c r="DD192" s="38"/>
+      <c r="DE192" s="38"/>
+      <c r="DF192" s="38"/>
+      <c r="DG192" s="38"/>
+      <c r="DH192" s="38"/>
+      <c r="DI192" s="38"/>
+      <c r="DJ192" s="38"/>
+      <c r="DK192" s="38"/>
+      <c r="DL192" s="38"/>
+      <c r="DM192" s="38"/>
+      <c r="DN192" s="38"/>
+      <c r="DO192" s="38"/>
+      <c r="DP192" s="38"/>
+      <c r="DQ192" s="38"/>
+      <c r="DR192" s="38"/>
+      <c r="DS192" s="38"/>
+      <c r="DT192" s="38"/>
+      <c r="DU192" s="38"/>
+      <c r="DV192" s="38"/>
+      <c r="DW192" s="38"/>
+      <c r="DX192" s="38"/>
+      <c r="DY192" s="38"/>
+      <c r="DZ192" s="38"/>
+      <c r="EA192" s="38"/>
+      <c r="EB192" s="38"/>
+      <c r="EC192" s="38"/>
+      <c r="ED192" s="38"/>
+      <c r="EE192" s="38"/>
+      <c r="EF192" s="38"/>
+      <c r="EG192" s="38"/>
+      <c r="EH192" s="38"/>
+      <c r="EI192" s="38"/>
+      <c r="EJ192" s="38"/>
+      <c r="EK192" s="38"/>
+      <c r="EL192" s="38"/>
+      <c r="EM192" s="38"/>
+      <c r="EN192" s="38"/>
+      <c r="EO192" s="38"/>
+      <c r="EP192" s="38"/>
+      <c r="EQ192" s="38"/>
+      <c r="ER192" s="38"/>
+      <c r="ES192" s="38"/>
+      <c r="ET192" s="38"/>
+      <c r="EU192" s="38"/>
+      <c r="EV192" s="38"/>
+      <c r="EW192" s="38"/>
+      <c r="EX192" s="38"/>
+      <c r="EY192" s="38"/>
+      <c r="EZ192" s="38"/>
+      <c r="FA192" s="38"/>
+      <c r="FB192" s="38"/>
+      <c r="FC192" s="38"/>
+      <c r="FD192" s="38"/>
+      <c r="FE192" s="38"/>
+      <c r="FF192" s="38"/>
+      <c r="FG192" s="38"/>
+      <c r="FH192" s="38"/>
+      <c r="FI192" s="38"/>
+      <c r="FJ192" s="38"/>
+      <c r="FK192" s="38"/>
+      <c r="FL192" s="38"/>
+      <c r="FM192" s="38"/>
+      <c r="FN192" s="38"/>
+      <c r="FO192" s="38"/>
+      <c r="FP192" s="38"/>
+      <c r="FQ192" s="38"/>
+      <c r="FR192" s="38"/>
+      <c r="FS192" s="38"/>
+      <c r="FT192" s="38"/>
+      <c r="FU192" s="38"/>
+      <c r="FV192" s="38"/>
+      <c r="FW192" s="38"/>
+      <c r="FX192" s="38"/>
+      <c r="FY192" s="38"/>
+      <c r="FZ192" s="38"/>
+      <c r="GA192" s="38"/>
+      <c r="GB192" s="38"/>
+      <c r="GC192" s="38"/>
+      <c r="GD192" s="38"/>
+      <c r="GE192" s="38"/>
+      <c r="GF192" s="38"/>
+      <c r="GG192" s="38"/>
+      <c r="GH192" s="38"/>
+      <c r="GI192" s="38"/>
+      <c r="GJ192" s="38"/>
+      <c r="GK192" s="38"/>
+      <c r="GL192" s="38"/>
+      <c r="GM192" s="38"/>
+      <c r="GN192" s="38"/>
+      <c r="GO192" s="38"/>
+      <c r="GP192" s="38"/>
+      <c r="GQ192" s="38"/>
+      <c r="GR192" s="38"/>
+      <c r="GS192" s="38"/>
+      <c r="GT192" s="38"/>
+      <c r="GU192" s="38"/>
+      <c r="GV192" s="38"/>
+      <c r="GW192" s="38"/>
+      <c r="GX192" s="38"/>
+      <c r="GY192" s="38"/>
+      <c r="GZ192" s="38"/>
+      <c r="HA192" s="38"/>
+      <c r="HB192" s="38"/>
+      <c r="HC192" s="38"/>
+      <c r="HD192" s="38"/>
+      <c r="HE192" s="38"/>
+      <c r="HF192" s="38"/>
+      <c r="HG192" s="38"/>
+      <c r="HH192" s="38"/>
+      <c r="HI192" s="38"/>
+      <c r="HJ192" s="38"/>
+      <c r="HK192" s="38"/>
+      <c r="HL192" s="38"/>
+      <c r="HM192" s="38"/>
+      <c r="HN192" s="38"/>
+      <c r="HO192" s="38"/>
+      <c r="HP192" s="38"/>
+      <c r="HQ192" s="38"/>
+      <c r="HR192" s="38"/>
+      <c r="HS192" s="38"/>
+      <c r="HT192" s="38"/>
+      <c r="HU192" s="38"/>
+      <c r="HV192" s="38"/>
+      <c r="HW192" s="38"/>
+      <c r="HX192" s="38"/>
+      <c r="HY192" s="38"/>
+      <c r="HZ192" s="38"/>
+      <c r="IA192" s="38"/>
+      <c r="IB192" s="38"/>
+      <c r="IC192" s="38"/>
+      <c r="ID192" s="38"/>
+      <c r="IE192" s="38"/>
+      <c r="IF192" s="38"/>
+      <c r="IG192" s="38"/>
+      <c r="IH192" s="38"/>
+      <c r="II192" s="38"/>
+      <c r="IJ192" s="38"/>
+      <c r="IK192" s="38"/>
+      <c r="IL192" s="38"/>
+      <c r="IM192" s="38"/>
+      <c r="IN192" s="38"/>
+      <c r="IO192" s="38"/>
+      <c r="IP192" s="38"/>
+      <c r="IQ192" s="38"/>
+      <c r="IR192" s="38"/>
+      <c r="IS192" s="38"/>
+      <c r="IT192" s="38"/>
+      <c r="IU192" s="38"/>
+      <c r="IV192" s="38"/>
+      <c r="IW192" s="38"/>
+      <c r="IX192" s="38"/>
+      <c r="IY192" s="38"/>
+      <c r="IZ192" s="38"/>
+      <c r="JA192" s="38"/>
+      <c r="JB192" s="38"/>
+      <c r="JC192" s="38"/>
+      <c r="JD192" s="38"/>
+      <c r="JE192" s="38"/>
+      <c r="JF192" s="38"/>
+      <c r="JG192" s="38"/>
+      <c r="JH192" s="38"/>
+      <c r="JI192" s="38"/>
+      <c r="JJ192" s="38"/>
+      <c r="JK192" s="38"/>
+      <c r="JL192" s="38"/>
+      <c r="JM192" s="38"/>
+      <c r="JN192" s="38"/>
+      <c r="JO192" s="38"/>
+      <c r="JP192" s="38"/>
+      <c r="JQ192" s="38"/>
+      <c r="JR192" s="38"/>
+      <c r="JS192" s="38"/>
+      <c r="JT192" s="38"/>
+      <c r="JU192" s="38"/>
+      <c r="JV192" s="38"/>
+      <c r="JW192" s="38"/>
+      <c r="JX192" s="38"/>
+      <c r="JY192" s="38"/>
+      <c r="JZ192" s="38"/>
+      <c r="KA192" s="38"/>
+      <c r="KB192" s="38"/>
+      <c r="KC192" s="38"/>
+      <c r="KD192" s="38"/>
+      <c r="KE192" s="38"/>
+      <c r="KF192" s="38"/>
+      <c r="KG192" s="38"/>
+      <c r="KH192" s="38"/>
+      <c r="KI192" s="38"/>
+      <c r="KJ192" s="38"/>
+      <c r="KK192" s="38"/>
+      <c r="KL192" s="38"/>
+      <c r="KM192" s="38"/>
+      <c r="KN192" s="38"/>
+      <c r="KO192" s="38"/>
+      <c r="KP192" s="38"/>
+      <c r="KQ192" s="38"/>
+      <c r="KR192" s="38"/>
+      <c r="KS192" s="38"/>
+      <c r="KT192" s="38"/>
+      <c r="KU192" s="38"/>
+      <c r="KV192" s="38"/>
+      <c r="KW192" s="38"/>
+      <c r="KX192" s="38"/>
+      <c r="KY192" s="38"/>
+      <c r="KZ192" s="38"/>
+      <c r="LA192" s="38"/>
+      <c r="LB192" s="38"/>
+      <c r="LC192" s="38"/>
+      <c r="LD192" s="38"/>
+      <c r="LE192" s="38"/>
+      <c r="LF192" s="38"/>
+      <c r="LG192" s="38"/>
+      <c r="LH192" s="38"/>
+      <c r="LI192" s="38"/>
+      <c r="LJ192" s="38"/>
+      <c r="LK192" s="38"/>
+      <c r="LL192" s="38"/>
+      <c r="LM192" s="38"/>
+      <c r="LN192" s="38"/>
+      <c r="LO192" s="38"/>
+      <c r="LP192" s="38"/>
+      <c r="LQ192" s="38"/>
+      <c r="LR192" s="38"/>
+      <c r="LS192" s="38"/>
+      <c r="LT192" s="38"/>
+      <c r="LU192" s="38"/>
+      <c r="LV192" s="38"/>
+      <c r="LW192" s="38"/>
+      <c r="LX192" s="38"/>
+      <c r="LY192" s="38"/>
+      <c r="LZ192" s="38"/>
+      <c r="MA192" s="38"/>
+      <c r="MB192" s="38"/>
+      <c r="MC192" s="38"/>
+      <c r="MD192" s="38"/>
+      <c r="ME192" s="38"/>
+      <c r="MF192" s="38"/>
+      <c r="MG192" s="38"/>
+      <c r="MH192" s="38"/>
+      <c r="MI192" s="38"/>
+      <c r="MJ192" s="38"/>
+      <c r="MK192" s="38"/>
+      <c r="ML192" s="38"/>
+      <c r="MM192" s="38"/>
+      <c r="MN192" s="38"/>
+      <c r="MO192" s="38"/>
+      <c r="MP192" s="38"/>
+      <c r="MQ192" s="38"/>
+      <c r="MR192" s="38"/>
+      <c r="MS192" s="38"/>
+      <c r="MT192" s="38"/>
+      <c r="MU192" s="38"/>
+      <c r="MV192" s="38"/>
+      <c r="MW192" s="38"/>
+      <c r="MX192" s="38"/>
+      <c r="MY192" s="38"/>
+      <c r="MZ192" s="38"/>
+      <c r="NA192" s="38"/>
+      <c r="NB192" s="38"/>
+      <c r="NC192" s="38"/>
+      <c r="ND192" s="38"/>
+      <c r="NE192" s="38"/>
+      <c r="NF192" s="38"/>
+      <c r="NG192" s="38"/>
+      <c r="NH192" s="38"/>
+      <c r="NI192" s="38"/>
+      <c r="NJ192" s="38"/>
+      <c r="NK192" s="38"/>
+      <c r="NL192" s="38"/>
+      <c r="NM192" s="38"/>
+      <c r="NN192" s="38"/>
+      <c r="NO192" s="38"/>
+      <c r="NP192" s="38"/>
+      <c r="NQ192" s="38"/>
+      <c r="NR192" s="38"/>
+      <c r="NS192" s="38"/>
+      <c r="NT192" s="38"/>
+      <c r="NU192" s="38"/>
+      <c r="NV192" s="38"/>
+      <c r="NW192" s="38"/>
+      <c r="NX192" s="38"/>
+      <c r="NY192" s="38"/>
+      <c r="NZ192" s="38"/>
+      <c r="OA192" s="38"/>
+      <c r="OB192" s="38"/>
+      <c r="OC192" s="38"/>
+      <c r="OD192" s="38"/>
+      <c r="OE192" s="38"/>
+      <c r="OF192" s="38"/>
+      <c r="OG192" s="38"/>
+      <c r="OH192" s="38"/>
+      <c r="OI192" s="38"/>
+      <c r="OJ192" s="38"/>
+      <c r="OK192" s="38"/>
+      <c r="OL192" s="38"/>
+      <c r="OM192" s="38"/>
+      <c r="ON192" s="38"/>
+      <c r="OO192" s="38"/>
+      <c r="OP192" s="38"/>
+      <c r="OQ192" s="38"/>
+      <c r="OR192" s="38"/>
+      <c r="OS192" s="38"/>
+      <c r="OT192" s="38"/>
+      <c r="OU192" s="38"/>
+      <c r="OV192" s="38"/>
+      <c r="OW192" s="38"/>
+      <c r="OX192" s="38"/>
+      <c r="OY192" s="38"/>
+      <c r="OZ192" s="38"/>
+      <c r="PA192" s="38"/>
+      <c r="PB192" s="38"/>
+      <c r="PC192" s="38"/>
+      <c r="PD192" s="38"/>
+      <c r="PE192" s="38"/>
+      <c r="PF192" s="38"/>
+      <c r="PG192" s="38"/>
+      <c r="PH192" s="38"/>
+      <c r="PI192" s="38"/>
+      <c r="PJ192" s="38"/>
+      <c r="PK192" s="38"/>
+      <c r="PL192" s="38"/>
+      <c r="PM192" s="38"/>
+      <c r="PN192" s="38"/>
+      <c r="PO192" s="38"/>
+      <c r="PP192" s="38"/>
+      <c r="PQ192" s="38"/>
+      <c r="PR192" s="38"/>
+      <c r="PS192" s="38"/>
+      <c r="PT192" s="38"/>
+      <c r="PU192" s="38"/>
+      <c r="PV192" s="38"/>
+      <c r="PW192" s="38"/>
+      <c r="PX192" s="38"/>
+      <c r="PY192" s="38"/>
+      <c r="PZ192" s="38"/>
+      <c r="QA192" s="38"/>
+      <c r="QB192" s="38"/>
+      <c r="QC192" s="38"/>
+      <c r="QD192" s="38"/>
+      <c r="QE192" s="38"/>
+      <c r="QF192" s="38"/>
+      <c r="QG192" s="38"/>
+      <c r="QH192" s="38"/>
+      <c r="QI192" s="38"/>
+      <c r="QJ192" s="38"/>
+      <c r="QK192" s="38"/>
+      <c r="QL192" s="38"/>
+      <c r="QM192" s="38"/>
+      <c r="QN192" s="38"/>
+      <c r="QO192" s="38"/>
+      <c r="QP192" s="38"/>
+      <c r="QQ192" s="38"/>
+      <c r="QR192" s="38"/>
+      <c r="QS192" s="38"/>
+      <c r="QT192" s="38"/>
+      <c r="QU192" s="38"/>
+      <c r="QV192" s="38"/>
+      <c r="QW192" s="38"/>
+      <c r="QX192" s="38"/>
+      <c r="QY192" s="38"/>
+      <c r="QZ192" s="38"/>
+      <c r="RA192" s="38"/>
+      <c r="RB192" s="38"/>
+      <c r="RC192" s="38"/>
+      <c r="RD192" s="38"/>
+      <c r="RE192" s="38"/>
+      <c r="RF192" s="38"/>
+      <c r="RG192" s="38"/>
+      <c r="RH192" s="38"/>
+      <c r="RI192" s="38"/>
+      <c r="RJ192" s="38"/>
+      <c r="RK192" s="38"/>
+      <c r="RL192" s="38"/>
+      <c r="RM192" s="38"/>
+      <c r="RN192" s="38"/>
+      <c r="RO192" s="38"/>
+      <c r="RP192" s="38"/>
+      <c r="RQ192" s="38"/>
+      <c r="RR192" s="38"/>
+      <c r="RS192" s="38"/>
+      <c r="RT192" s="38"/>
+      <c r="RU192" s="38"/>
+      <c r="RV192" s="38"/>
+      <c r="RW192" s="38"/>
+      <c r="RX192" s="38"/>
+      <c r="RY192" s="38"/>
+      <c r="RZ192" s="38"/>
+      <c r="SA192" s="38"/>
+      <c r="SB192" s="38"/>
+      <c r="SC192" s="38"/>
+      <c r="SD192" s="38"/>
+      <c r="SE192" s="38"/>
+      <c r="SF192" s="38"/>
+      <c r="SG192" s="38"/>
+      <c r="SH192" s="38"/>
+      <c r="SI192" s="38"/>
+      <c r="SJ192" s="38"/>
+      <c r="SK192" s="38"/>
+      <c r="SL192" s="38"/>
+      <c r="SM192" s="38"/>
+      <c r="SN192" s="38"/>
+      <c r="SO192" s="38"/>
+      <c r="SP192" s="38"/>
+      <c r="SQ192" s="38"/>
+      <c r="SR192" s="38"/>
+      <c r="SS192" s="38"/>
+      <c r="ST192" s="38"/>
+      <c r="SU192" s="38"/>
+      <c r="SV192" s="38"/>
+      <c r="SW192" s="38"/>
+      <c r="SX192" s="38"/>
+      <c r="SY192" s="38"/>
+      <c r="SZ192" s="38"/>
+      <c r="TA192" s="38"/>
+      <c r="TB192" s="38"/>
+      <c r="TC192" s="38"/>
+      <c r="TD192" s="38"/>
+      <c r="TE192" s="38"/>
+      <c r="TF192" s="38"/>
+      <c r="TG192" s="38"/>
+      <c r="TH192" s="38"/>
+      <c r="TI192" s="38"/>
+      <c r="TJ192" s="38"/>
+      <c r="TK192" s="38"/>
+      <c r="TL192" s="38"/>
+      <c r="TM192" s="38"/>
+      <c r="TN192" s="38"/>
+      <c r="TO192" s="38"/>
+      <c r="TP192" s="38"/>
+      <c r="TQ192" s="38"/>
+      <c r="TR192" s="38"/>
+      <c r="TS192" s="38"/>
+      <c r="TT192" s="38"/>
+      <c r="TU192" s="38"/>
+      <c r="TV192" s="38"/>
+      <c r="TW192" s="38"/>
+      <c r="TX192" s="38"/>
+      <c r="TY192" s="38"/>
+      <c r="TZ192" s="38"/>
+      <c r="UA192" s="38"/>
+      <c r="UB192" s="38"/>
+      <c r="UC192" s="38"/>
+      <c r="UD192" s="38"/>
+      <c r="UE192" s="38"/>
+      <c r="UF192" s="38"/>
+      <c r="UG192" s="38"/>
+      <c r="UH192" s="38"/>
+      <c r="UI192" s="38"/>
+      <c r="UJ192" s="38"/>
+      <c r="UK192" s="38"/>
+      <c r="UL192" s="38"/>
+      <c r="UM192" s="38"/>
+      <c r="UN192" s="38"/>
+      <c r="UO192" s="38"/>
+      <c r="UP192" s="38"/>
+      <c r="UQ192" s="38"/>
+      <c r="UR192" s="38"/>
+      <c r="US192" s="38"/>
+      <c r="UT192" s="38"/>
+      <c r="UU192" s="38"/>
+      <c r="UV192" s="38"/>
+      <c r="UW192" s="38"/>
+      <c r="UX192" s="38"/>
+      <c r="UY192" s="38"/>
+      <c r="UZ192" s="38"/>
+      <c r="VA192" s="38"/>
+      <c r="VB192" s="38"/>
+      <c r="VC192" s="38"/>
+      <c r="VD192" s="38"/>
+      <c r="VE192" s="38"/>
+      <c r="VF192" s="38"/>
+      <c r="VG192" s="38"/>
+      <c r="VH192" s="38"/>
+      <c r="VI192" s="38"/>
+      <c r="VJ192" s="38"/>
+      <c r="VK192" s="38"/>
+      <c r="VL192" s="38"/>
+      <c r="VM192" s="38"/>
+      <c r="VN192" s="38"/>
+      <c r="VO192" s="38"/>
+      <c r="VP192" s="38"/>
+      <c r="VQ192" s="38"/>
+      <c r="VR192" s="38"/>
+      <c r="VS192" s="38"/>
+      <c r="VT192" s="38"/>
+      <c r="VU192" s="38"/>
+      <c r="VV192" s="38"/>
+      <c r="VW192" s="38"/>
+      <c r="VX192" s="38"/>
+      <c r="VY192" s="38"/>
+      <c r="VZ192" s="38"/>
+      <c r="WA192" s="38"/>
+      <c r="WB192" s="38"/>
+      <c r="WC192" s="38"/>
+      <c r="WD192" s="38"/>
+      <c r="WE192" s="38"/>
+      <c r="WF192" s="38"/>
+      <c r="WG192" s="38"/>
+      <c r="WH192" s="38"/>
+      <c r="WI192" s="38"/>
+      <c r="WJ192" s="38"/>
+      <c r="WK192" s="38"/>
+      <c r="WL192" s="38"/>
+      <c r="WM192" s="38"/>
+      <c r="WN192" s="38"/>
+      <c r="WO192" s="38"/>
+      <c r="WP192" s="38"/>
+      <c r="WQ192" s="38"/>
+      <c r="WR192" s="38"/>
+      <c r="WS192" s="38"/>
+      <c r="WT192" s="38"/>
+      <c r="WU192" s="38"/>
+      <c r="WV192" s="38"/>
+      <c r="WW192" s="38"/>
+      <c r="WX192" s="38"/>
+      <c r="WY192" s="38"/>
+      <c r="WZ192" s="38"/>
+      <c r="XA192" s="38"/>
+      <c r="XB192" s="38"/>
+      <c r="XC192" s="38"/>
+      <c r="XD192" s="38"/>
+      <c r="XE192" s="38"/>
+      <c r="XF192" s="38"/>
+      <c r="XG192" s="38"/>
+      <c r="XH192" s="38"/>
+      <c r="XI192" s="38"/>
+      <c r="XJ192" s="38"/>
+      <c r="XK192" s="38"/>
+      <c r="XL192" s="38"/>
+      <c r="XM192" s="38"/>
+      <c r="XN192" s="38"/>
+      <c r="XO192" s="38"/>
+      <c r="XP192" s="38"/>
+      <c r="XQ192" s="38"/>
+      <c r="XR192" s="38"/>
+      <c r="XS192" s="38"/>
+      <c r="XT192" s="38"/>
+      <c r="XU192" s="38"/>
+      <c r="XV192" s="38"/>
+      <c r="XW192" s="38"/>
+      <c r="XX192" s="38"/>
+      <c r="XY192" s="38"/>
+      <c r="XZ192" s="38"/>
+      <c r="YA192" s="38"/>
+      <c r="YB192" s="38"/>
+      <c r="YC192" s="38"/>
+      <c r="YD192" s="38"/>
+      <c r="YE192" s="38"/>
+      <c r="YF192" s="38"/>
+      <c r="YG192" s="38"/>
+      <c r="YH192" s="38"/>
+      <c r="YI192" s="38"/>
+      <c r="YJ192" s="38"/>
+      <c r="YK192" s="38"/>
+      <c r="YL192" s="38"/>
+      <c r="YM192" s="38"/>
+      <c r="YN192" s="38"/>
+      <c r="YO192" s="38"/>
+      <c r="YP192" s="38"/>
+      <c r="YQ192" s="38"/>
+      <c r="YR192" s="38"/>
+      <c r="YS192" s="38"/>
+      <c r="YT192" s="38"/>
+      <c r="YU192" s="38"/>
+      <c r="YV192" s="38"/>
+      <c r="YW192" s="38"/>
+      <c r="YX192" s="38"/>
+      <c r="YY192" s="38"/>
+      <c r="YZ192" s="38"/>
+      <c r="ZA192" s="38"/>
+      <c r="ZB192" s="38"/>
+      <c r="ZC192" s="38"/>
+      <c r="ZD192" s="38"/>
+      <c r="ZE192" s="38"/>
+      <c r="ZF192" s="38"/>
+      <c r="ZG192" s="38"/>
+      <c r="ZH192" s="38"/>
+      <c r="ZI192" s="38"/>
+      <c r="ZJ192" s="38"/>
+      <c r="ZK192" s="38"/>
+      <c r="ZL192" s="38"/>
+      <c r="ZM192" s="38"/>
+      <c r="ZN192" s="38"/>
+      <c r="ZO192" s="38"/>
+      <c r="ZP192" s="38"/>
+      <c r="ZQ192" s="38"/>
+      <c r="ZR192" s="38"/>
+      <c r="ZS192" s="38"/>
+      <c r="ZT192" s="38"/>
+      <c r="ZU192" s="38"/>
+      <c r="ZV192" s="38"/>
+      <c r="ZW192" s="38"/>
+      <c r="ZX192" s="38"/>
+      <c r="ZY192" s="38"/>
+      <c r="ZZ192" s="38"/>
+      <c r="AAA192" s="38"/>
+      <c r="AAB192" s="38"/>
+      <c r="AAC192" s="38"/>
+      <c r="AAD192" s="38"/>
+      <c r="AAE192" s="38"/>
+      <c r="AAF192" s="38"/>
+      <c r="AAG192" s="38"/>
+      <c r="AAH192" s="38"/>
+      <c r="AAI192" s="38"/>
+      <c r="AAJ192" s="38"/>
+      <c r="AAK192" s="38"/>
+      <c r="AAL192" s="38"/>
+      <c r="AAM192" s="38"/>
+      <c r="AAN192" s="38"/>
+      <c r="AAO192" s="38"/>
+      <c r="AAP192" s="38"/>
+      <c r="AAQ192" s="38"/>
+      <c r="AAR192" s="38"/>
+      <c r="AAS192" s="38"/>
+      <c r="AAT192" s="38"/>
+      <c r="AAU192" s="38"/>
+      <c r="AAV192" s="38"/>
+      <c r="AAW192" s="38"/>
+      <c r="AAX192" s="38"/>
+      <c r="AAY192" s="38"/>
+      <c r="AAZ192" s="38"/>
+      <c r="ABA192" s="38"/>
+      <c r="ABB192" s="38"/>
+      <c r="ABC192" s="38"/>
+      <c r="ABD192" s="38"/>
+      <c r="ABE192" s="38"/>
+      <c r="ABF192" s="38"/>
+      <c r="ABG192" s="38"/>
+      <c r="ABH192" s="38"/>
+      <c r="ABI192" s="38"/>
+      <c r="ABJ192" s="38"/>
+      <c r="ABK192" s="38"/>
+      <c r="ABL192" s="38"/>
+      <c r="ABM192" s="38"/>
+      <c r="ABN192" s="38"/>
+      <c r="ABO192" s="38"/>
+      <c r="ABP192" s="38"/>
+      <c r="ABQ192" s="38"/>
+      <c r="ABR192" s="38"/>
+      <c r="ABS192" s="38"/>
+      <c r="ABT192" s="38"/>
+      <c r="ABU192" s="38"/>
+      <c r="ABV192" s="38"/>
+      <c r="ABW192" s="38"/>
+      <c r="ABX192" s="38"/>
+      <c r="ABY192" s="38"/>
+      <c r="ABZ192" s="38"/>
+      <c r="ACA192" s="38"/>
+      <c r="ACB192" s="38"/>
+      <c r="ACC192" s="38"/>
+      <c r="ACD192" s="38"/>
+      <c r="ACE192" s="38"/>
+      <c r="ACF192" s="38"/>
+      <c r="ACG192" s="38"/>
+      <c r="ACH192" s="38"/>
+      <c r="ACI192" s="38"/>
+      <c r="ACJ192" s="38"/>
+      <c r="ACK192" s="38"/>
+      <c r="ACL192" s="38"/>
+      <c r="ACM192" s="38"/>
+      <c r="ACN192" s="38"/>
+      <c r="ACO192" s="38"/>
+      <c r="ACP192" s="38"/>
+      <c r="ACQ192" s="38"/>
+      <c r="ACR192" s="38"/>
+      <c r="ACS192" s="38"/>
+      <c r="ACT192" s="38"/>
+      <c r="ACU192" s="38"/>
+      <c r="ACV192" s="38"/>
+      <c r="ACW192" s="38"/>
+      <c r="ACX192" s="38"/>
+      <c r="ACY192" s="38"/>
+      <c r="ACZ192" s="38"/>
+      <c r="ADA192" s="38"/>
+      <c r="ADB192" s="38"/>
+      <c r="ADC192" s="38"/>
+      <c r="ADD192" s="38"/>
+      <c r="ADE192" s="38"/>
+      <c r="ADF192" s="38"/>
+      <c r="ADG192" s="38"/>
+      <c r="ADH192" s="38"/>
+      <c r="ADI192" s="38"/>
+      <c r="ADJ192" s="38"/>
+      <c r="ADK192" s="38"/>
+      <c r="ADL192" s="38"/>
+      <c r="ADM192" s="38"/>
+      <c r="ADN192" s="38"/>
+      <c r="ADO192" s="38"/>
+      <c r="ADP192" s="38"/>
+      <c r="ADQ192" s="38"/>
+      <c r="ADR192" s="38"/>
+      <c r="ADS192" s="38"/>
+      <c r="ADT192" s="38"/>
+      <c r="ADU192" s="38"/>
+      <c r="ADV192" s="38"/>
+      <c r="ADW192" s="38"/>
+      <c r="ADX192" s="38"/>
+      <c r="ADY192" s="38"/>
+      <c r="ADZ192" s="38"/>
+      <c r="AEA192" s="38"/>
+      <c r="AEB192" s="38"/>
+      <c r="AEC192" s="38"/>
+      <c r="AED192" s="38"/>
+      <c r="AEE192" s="38"/>
+      <c r="AEF192" s="38"/>
+      <c r="AEG192" s="38"/>
+      <c r="AEH192" s="38"/>
+      <c r="AEI192" s="38"/>
+      <c r="AEJ192" s="38"/>
+      <c r="AEK192" s="38"/>
+      <c r="AEL192" s="38"/>
+      <c r="AEM192" s="38"/>
+      <c r="AEN192" s="38"/>
+      <c r="AEO192" s="38"/>
+      <c r="AEP192" s="38"/>
+      <c r="AEQ192" s="38"/>
+      <c r="AER192" s="38"/>
+      <c r="AES192" s="38"/>
+      <c r="AET192" s="38"/>
+      <c r="AEU192" s="38"/>
+      <c r="AEV192" s="38"/>
+      <c r="AEW192" s="38"/>
+      <c r="AEX192" s="38"/>
+      <c r="AEY192" s="38"/>
+      <c r="AEZ192" s="38"/>
+      <c r="AFA192" s="38"/>
+      <c r="AFB192" s="38"/>
+      <c r="AFC192" s="38"/>
+      <c r="AFD192" s="38"/>
+      <c r="AFE192" s="38"/>
+      <c r="AFF192" s="38"/>
+      <c r="AFG192" s="38"/>
+      <c r="AFH192" s="38"/>
+      <c r="AFI192" s="38"/>
+      <c r="AFJ192" s="38"/>
+      <c r="AFK192" s="38"/>
+      <c r="AFL192" s="38"/>
+      <c r="AFM192" s="38"/>
+      <c r="AFN192" s="38"/>
+      <c r="AFO192" s="38"/>
+      <c r="AFP192" s="38"/>
+      <c r="AFQ192" s="38"/>
+      <c r="AFR192" s="38"/>
+      <c r="AFS192" s="38"/>
+      <c r="AFT192" s="38"/>
+      <c r="AFU192" s="38"/>
+      <c r="AFV192" s="38"/>
+      <c r="AFW192" s="38"/>
+      <c r="AFX192" s="38"/>
+      <c r="AFY192" s="38"/>
+      <c r="AFZ192" s="38"/>
+      <c r="AGA192" s="38"/>
+      <c r="AGB192" s="38"/>
+      <c r="AGC192" s="38"/>
+      <c r="AGD192" s="38"/>
+      <c r="AGE192" s="38"/>
+      <c r="AGF192" s="38"/>
+      <c r="AGG192" s="38"/>
+      <c r="AGH192" s="38"/>
+      <c r="AGI192" s="38"/>
+      <c r="AGJ192" s="38"/>
+      <c r="AGK192" s="38"/>
+      <c r="AGL192" s="38"/>
+      <c r="AGM192" s="38"/>
+      <c r="AGN192" s="38"/>
+      <c r="AGO192" s="38"/>
+      <c r="AGP192" s="38"/>
+      <c r="AGQ192" s="38"/>
+      <c r="AGR192" s="38"/>
+      <c r="AGS192" s="38"/>
+      <c r="AGT192" s="38"/>
+      <c r="AGU192" s="38"/>
+      <c r="AGV192" s="38"/>
+      <c r="AGW192" s="38"/>
+      <c r="AGX192" s="38"/>
+      <c r="AGY192" s="38"/>
+      <c r="AGZ192" s="38"/>
+      <c r="AHA192" s="38"/>
+      <c r="AHB192" s="38"/>
+      <c r="AHC192" s="38"/>
+      <c r="AHD192" s="38"/>
+      <c r="AHE192" s="38"/>
+      <c r="AHF192" s="38"/>
+      <c r="AHG192" s="38"/>
+      <c r="AHH192" s="38"/>
+      <c r="AHI192" s="38"/>
+      <c r="AHJ192" s="38"/>
+      <c r="AHK192" s="38"/>
+      <c r="AHL192" s="38"/>
+      <c r="AHM192" s="38"/>
+      <c r="AHN192" s="38"/>
+      <c r="AHO192" s="38"/>
+      <c r="AHP192" s="38"/>
+      <c r="AHQ192" s="38"/>
+      <c r="AHR192" s="38"/>
+      <c r="AHS192" s="38"/>
+      <c r="AHT192" s="38"/>
+      <c r="AHU192" s="38"/>
+      <c r="AHV192" s="38"/>
+      <c r="AHW192" s="38"/>
+      <c r="AHX192" s="38"/>
+      <c r="AHY192" s="38"/>
+      <c r="AHZ192" s="38"/>
+      <c r="AIA192" s="38"/>
+      <c r="AIB192" s="38"/>
+      <c r="AIC192" s="38"/>
+      <c r="AID192" s="38"/>
+      <c r="AIE192" s="38"/>
+      <c r="AIF192" s="38"/>
+      <c r="AIG192" s="38"/>
+      <c r="AIH192" s="38"/>
+      <c r="AII192" s="38"/>
+      <c r="AIJ192" s="38"/>
+      <c r="AIK192" s="38"/>
+      <c r="AIL192" s="38"/>
+      <c r="AIM192" s="38"/>
+      <c r="AIN192" s="38"/>
+      <c r="AIO192" s="38"/>
+      <c r="AIP192" s="38"/>
+      <c r="AIQ192" s="38"/>
+      <c r="AIR192" s="38"/>
+      <c r="AIS192" s="38"/>
+      <c r="AIT192" s="38"/>
+      <c r="AIU192" s="38"/>
+      <c r="AIV192" s="38"/>
+      <c r="AIW192" s="38"/>
+      <c r="AIX192" s="38"/>
+      <c r="AIY192" s="38"/>
+      <c r="AIZ192" s="38"/>
+      <c r="AJA192" s="38"/>
+      <c r="AJB192" s="38"/>
+      <c r="AJC192" s="38"/>
+      <c r="AJD192" s="38"/>
+      <c r="AJE192" s="38"/>
+      <c r="AJF192" s="38"/>
+      <c r="AJG192" s="38"/>
+      <c r="AJH192" s="38"/>
+      <c r="AJI192" s="38"/>
+      <c r="AJJ192" s="38"/>
+      <c r="AJK192" s="38"/>
+      <c r="AJL192" s="38"/>
+      <c r="AJM192" s="38"/>
+      <c r="AJN192" s="38"/>
+      <c r="AJO192" s="38"/>
+      <c r="AJP192" s="38"/>
+      <c r="AJQ192" s="38"/>
+      <c r="AJR192" s="38"/>
+      <c r="AJS192" s="38"/>
+      <c r="AJT192" s="38"/>
+      <c r="AJU192" s="38"/>
+      <c r="AJV192" s="38"/>
+      <c r="AJW192" s="38"/>
+      <c r="AJX192" s="38"/>
+      <c r="AJY192" s="38"/>
+      <c r="AJZ192" s="38"/>
+      <c r="AKA192" s="38"/>
+      <c r="AKB192" s="38"/>
+      <c r="AKC192" s="38"/>
+      <c r="AKD192" s="38"/>
+      <c r="AKE192" s="38"/>
+      <c r="AKF192" s="38"/>
+      <c r="AKG192" s="38"/>
+      <c r="AKH192" s="38"/>
+      <c r="AKI192" s="38"/>
+      <c r="AKJ192" s="38"/>
+      <c r="AKK192" s="38"/>
+      <c r="AKL192" s="38"/>
+      <c r="AKM192" s="38"/>
+      <c r="AKN192" s="38"/>
+      <c r="AKO192" s="38"/>
+      <c r="AKP192" s="38"/>
+      <c r="AKQ192" s="38"/>
+      <c r="AKR192" s="38"/>
+      <c r="AKS192" s="38"/>
+      <c r="AKT192" s="38"/>
+      <c r="AKU192" s="38"/>
+      <c r="AKV192" s="38"/>
+      <c r="AKW192" s="38"/>
+      <c r="AKX192" s="38"/>
+      <c r="AKY192" s="38"/>
+      <c r="AKZ192" s="38"/>
+      <c r="ALA192" s="38"/>
+      <c r="ALB192" s="38"/>
+      <c r="ALC192" s="38"/>
+      <c r="ALD192" s="38"/>
+      <c r="ALE192" s="38"/>
+      <c r="ALF192" s="38"/>
+      <c r="ALG192" s="38"/>
+      <c r="ALH192" s="38"/>
+      <c r="ALI192" s="38"/>
+      <c r="ALJ192" s="38"/>
+      <c r="ALK192" s="38"/>
+      <c r="ALL192" s="38"/>
+      <c r="ALM192" s="38"/>
+      <c r="ALN192" s="38"/>
+      <c r="ALO192" s="38"/>
+      <c r="ALP192" s="38"/>
+      <c r="ALQ192" s="38"/>
+      <c r="ALR192" s="38"/>
+      <c r="ALS192" s="38"/>
+      <c r="ALT192" s="38"/>
+      <c r="ALU192" s="38"/>
+      <c r="ALV192" s="38"/>
+      <c r="ALW192" s="38"/>
+      <c r="ALX192" s="38"/>
+      <c r="ALY192" s="38"/>
+      <c r="ALZ192" s="38"/>
+      <c r="AMA192" s="38"/>
+      <c r="AMB192" s="38"/>
+      <c r="AMC192" s="38"/>
+      <c r="AMD192" s="38"/>
+      <c r="AME192" s="38"/>
+      <c r="AMF192" s="38"/>
+      <c r="AMG192" s="38"/>
+      <c r="AMH192" s="38"/>
+      <c r="AMI192" s="38"/>
+      <c r="AMJ192" s="38"/>
+      <c r="AMK192" s="38"/>
+      <c r="AML192" s="38"/>
+      <c r="AMM192" s="38"/>
+      <c r="AMN192" s="38"/>
+      <c r="AMO192" s="38"/>
+      <c r="AMP192" s="38"/>
+      <c r="AMQ192" s="38"/>
+      <c r="AMR192" s="38"/>
+      <c r="AMS192" s="38"/>
+      <c r="AMT192" s="38"/>
+      <c r="AMU192" s="38"/>
+      <c r="AMV192" s="38"/>
+      <c r="AMW192" s="38"/>
+      <c r="AMX192" s="38"/>
+      <c r="AMY192" s="38"/>
+      <c r="AMZ192" s="38"/>
+      <c r="ANA192" s="38"/>
+      <c r="ANB192" s="38"/>
+      <c r="ANC192" s="38"/>
+      <c r="AND192" s="38"/>
+      <c r="ANE192" s="38"/>
+      <c r="ANF192" s="38"/>
+      <c r="ANG192" s="38"/>
+      <c r="ANH192" s="38"/>
+      <c r="ANI192" s="38"/>
+      <c r="ANJ192" s="38"/>
+      <c r="ANK192" s="38"/>
+      <c r="ANL192" s="38"/>
+      <c r="ANM192" s="38"/>
+      <c r="ANN192" s="38"/>
+      <c r="ANO192" s="38"/>
+      <c r="ANP192" s="38"/>
+      <c r="ANQ192" s="38"/>
+      <c r="ANR192" s="38"/>
+      <c r="ANS192" s="38"/>
+      <c r="ANT192" s="38"/>
+      <c r="ANU192" s="38"/>
+      <c r="ANV192" s="38"/>
+      <c r="ANW192" s="38"/>
+      <c r="ANX192" s="38"/>
+      <c r="ANY192" s="38"/>
+      <c r="ANZ192" s="38"/>
+      <c r="AOA192" s="38"/>
+      <c r="AOB192" s="38"/>
+      <c r="AOC192" s="38"/>
+      <c r="AOD192" s="38"/>
+      <c r="AOE192" s="38"/>
+      <c r="AOF192" s="38"/>
+      <c r="AOG192" s="38"/>
+      <c r="AOH192" s="38"/>
+      <c r="AOI192" s="38"/>
+      <c r="AOJ192" s="38"/>
+      <c r="AOK192" s="38"/>
+      <c r="AOL192" s="38"/>
+      <c r="AOM192" s="38"/>
+      <c r="AON192" s="38"/>
+      <c r="AOO192" s="38"/>
+      <c r="AOP192" s="38"/>
+      <c r="AOQ192" s="38"/>
+      <c r="AOR192" s="38"/>
+      <c r="AOS192" s="38"/>
+      <c r="AOT192" s="38"/>
+      <c r="AOU192" s="38"/>
+      <c r="AOV192" s="38"/>
+      <c r="AOW192" s="38"/>
+      <c r="AOX192" s="38"/>
+      <c r="AOY192" s="38"/>
+      <c r="AOZ192" s="38"/>
+      <c r="APA192" s="38"/>
+      <c r="APB192" s="38"/>
+      <c r="APC192" s="38"/>
+      <c r="APD192" s="38"/>
+      <c r="APE192" s="38"/>
+      <c r="APF192" s="38"/>
+      <c r="APG192" s="38"/>
+      <c r="APH192" s="38"/>
+      <c r="API192" s="38"/>
+      <c r="APJ192" s="38"/>
+      <c r="APK192" s="38"/>
+      <c r="APL192" s="38"/>
+      <c r="APM192" s="38"/>
+      <c r="APN192" s="38"/>
+      <c r="APO192" s="38"/>
+      <c r="APP192" s="38"/>
+      <c r="APQ192" s="38"/>
+      <c r="APR192" s="38"/>
+      <c r="APS192" s="38"/>
+      <c r="APT192" s="38"/>
+      <c r="APU192" s="38"/>
+      <c r="APV192" s="38"/>
+      <c r="APW192" s="38"/>
+      <c r="APX192" s="38"/>
+      <c r="APY192" s="38"/>
+      <c r="APZ192" s="38"/>
+      <c r="AQA192" s="38"/>
+      <c r="AQB192" s="38"/>
+      <c r="AQC192" s="38"/>
+      <c r="AQD192" s="38"/>
+      <c r="AQE192" s="38"/>
+      <c r="AQF192" s="38"/>
+      <c r="AQG192" s="38"/>
+      <c r="AQH192" s="38"/>
+      <c r="AQI192" s="38"/>
+      <c r="AQJ192" s="38"/>
+      <c r="AQK192" s="38"/>
+      <c r="AQL192" s="38"/>
+      <c r="AQM192" s="38"/>
+      <c r="AQN192" s="38"/>
+      <c r="AQO192" s="38"/>
+      <c r="AQP192" s="38"/>
+      <c r="AQQ192" s="38"/>
+      <c r="AQR192" s="38"/>
+      <c r="AQS192" s="38"/>
+      <c r="AQT192" s="38"/>
+      <c r="AQU192" s="38"/>
+      <c r="AQV192" s="38"/>
+      <c r="AQW192" s="38"/>
+      <c r="AQX192" s="38"/>
+      <c r="AQY192" s="38"/>
+      <c r="AQZ192" s="38"/>
+      <c r="ARA192" s="38"/>
+      <c r="ARB192" s="38"/>
+      <c r="ARC192" s="38"/>
+      <c r="ARD192" s="38"/>
+      <c r="ARE192" s="38"/>
+      <c r="ARF192" s="38"/>
+      <c r="ARG192" s="38"/>
+      <c r="ARH192" s="38"/>
+      <c r="ARI192" s="38"/>
+      <c r="ARJ192" s="38"/>
+      <c r="ARK192" s="38"/>
+      <c r="ARL192" s="38"/>
+      <c r="ARM192" s="38"/>
+      <c r="ARN192" s="38"/>
+      <c r="ARO192" s="38"/>
+      <c r="ARP192" s="38"/>
+      <c r="ARQ192" s="38"/>
+      <c r="ARR192" s="38"/>
+      <c r="ARS192" s="38"/>
+      <c r="ART192" s="38"/>
+      <c r="ARU192" s="38"/>
+      <c r="ARV192" s="38"/>
+      <c r="ARW192" s="38"/>
+      <c r="ARX192" s="38"/>
+      <c r="ARY192" s="38"/>
+      <c r="ARZ192" s="38"/>
+      <c r="ASA192" s="38"/>
+      <c r="ASB192" s="38"/>
+      <c r="ASC192" s="38"/>
+      <c r="ASD192" s="38"/>
+      <c r="ASE192" s="38"/>
+      <c r="ASF192" s="38"/>
+      <c r="ASG192" s="38"/>
+      <c r="ASH192" s="38"/>
+      <c r="ASI192" s="38"/>
+      <c r="ASJ192" s="38"/>
+      <c r="ASK192" s="38"/>
+      <c r="ASL192" s="38"/>
+      <c r="ASM192" s="38"/>
+      <c r="ASN192" s="38"/>
+      <c r="ASO192" s="38"/>
+      <c r="ASP192" s="38"/>
+      <c r="ASQ192" s="38"/>
+      <c r="ASR192" s="38"/>
+      <c r="ASS192" s="38"/>
+      <c r="AST192" s="38"/>
+      <c r="ASU192" s="38"/>
+      <c r="ASV192" s="38"/>
+      <c r="ASW192" s="38"/>
+      <c r="ASX192" s="38"/>
+      <c r="ASY192" s="38"/>
+      <c r="ASZ192" s="38"/>
+      <c r="ATA192" s="38"/>
+      <c r="ATB192" s="38"/>
+      <c r="ATC192" s="38"/>
+      <c r="ATD192" s="38"/>
+      <c r="ATE192" s="38"/>
+      <c r="ATF192" s="38"/>
+      <c r="ATG192" s="38"/>
+      <c r="ATH192" s="38"/>
+      <c r="ATI192" s="38"/>
+      <c r="ATJ192" s="38"/>
+      <c r="ATK192" s="38"/>
+      <c r="ATL192" s="38"/>
+      <c r="ATM192" s="38"/>
+      <c r="ATN192" s="38"/>
+      <c r="ATO192" s="38"/>
+      <c r="ATP192" s="38"/>
+      <c r="ATQ192" s="38"/>
+      <c r="ATR192" s="38"/>
+      <c r="ATS192" s="38"/>
+      <c r="ATT192" s="38"/>
+      <c r="ATU192" s="38"/>
+      <c r="ATV192" s="38"/>
+      <c r="ATW192" s="38"/>
+      <c r="ATX192" s="38"/>
+      <c r="ATY192" s="38"/>
+      <c r="ATZ192" s="38"/>
+    </row>
+    <row r="193" spans="1:1222" s="37" customFormat="1">
+      <c r="A193" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B193" s="43"/>
+      <c r="C193" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="D193" s="38"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="38"/>
+      <c r="G193" s="38"/>
+      <c r="H193" s="38"/>
+      <c r="I193" s="38"/>
+      <c r="J193" s="38"/>
+      <c r="K193" s="38"/>
+      <c r="L193" s="38"/>
+      <c r="M193" s="38"/>
+      <c r="N193" s="38"/>
+      <c r="O193" s="38"/>
+      <c r="P193" s="38"/>
+      <c r="Q193" s="38"/>
+      <c r="R193" s="38"/>
+      <c r="S193" s="38"/>
+      <c r="T193" s="38"/>
+      <c r="U193" s="38"/>
+      <c r="V193" s="38"/>
+      <c r="W193" s="38"/>
+      <c r="X193" s="38"/>
+      <c r="Y193" s="38"/>
+      <c r="Z193" s="38"/>
+      <c r="AA193" s="38"/>
+      <c r="AB193" s="38"/>
+      <c r="AC193" s="38"/>
+      <c r="AD193" s="38"/>
+      <c r="AE193" s="38"/>
+      <c r="AF193" s="38"/>
+      <c r="AG193" s="38"/>
+      <c r="AH193" s="38"/>
+      <c r="AI193" s="38"/>
+      <c r="AJ193" s="38"/>
+      <c r="AK193" s="38"/>
+      <c r="AL193" s="38"/>
+      <c r="AM193" s="38"/>
+      <c r="AN193" s="38"/>
+      <c r="AO193" s="38"/>
+      <c r="AP193" s="38"/>
+      <c r="AQ193" s="38"/>
+      <c r="AR193" s="38"/>
+      <c r="AS193" s="38"/>
+      <c r="AT193" s="38"/>
+      <c r="AU193" s="38"/>
+      <c r="AV193" s="38"/>
+      <c r="AW193" s="38"/>
+      <c r="AX193" s="38"/>
+      <c r="AY193" s="38"/>
+      <c r="AZ193" s="38"/>
+      <c r="BA193" s="38"/>
+      <c r="BB193" s="38"/>
+      <c r="BC193" s="38"/>
+      <c r="BD193" s="38"/>
+      <c r="BE193" s="38"/>
+      <c r="BF193" s="38"/>
+      <c r="BG193" s="38"/>
+      <c r="BH193" s="38"/>
+      <c r="BI193" s="38"/>
+      <c r="BJ193" s="38"/>
+      <c r="BK193" s="38"/>
+      <c r="BL193" s="38"/>
+      <c r="BM193" s="38"/>
+      <c r="BN193" s="38"/>
+      <c r="BO193" s="38"/>
+      <c r="BP193" s="38"/>
+      <c r="BQ193" s="38"/>
+      <c r="BR193" s="38"/>
+      <c r="BS193" s="38"/>
+      <c r="BT193" s="38"/>
+      <c r="BU193" s="38"/>
+      <c r="BV193" s="38"/>
+      <c r="BW193" s="38"/>
+      <c r="BX193" s="38"/>
+      <c r="BY193" s="38"/>
+      <c r="BZ193" s="38"/>
+      <c r="CA193" s="38"/>
+      <c r="CB193" s="38"/>
+      <c r="CC193" s="38"/>
+      <c r="CD193" s="38"/>
+      <c r="CE193" s="38"/>
+      <c r="CF193" s="38"/>
+      <c r="CG193" s="38"/>
+      <c r="CH193" s="38"/>
+      <c r="CI193" s="38"/>
+      <c r="CJ193" s="38"/>
+      <c r="CK193" s="38"/>
+      <c r="CL193" s="38"/>
+      <c r="CM193" s="38"/>
+      <c r="CN193" s="38"/>
+      <c r="CO193" s="38"/>
+      <c r="CP193" s="38"/>
+      <c r="CQ193" s="38"/>
+      <c r="CR193" s="38"/>
+      <c r="CS193" s="38"/>
+      <c r="CT193" s="38"/>
+      <c r="CU193" s="38"/>
+      <c r="CV193" s="38"/>
+      <c r="CW193" s="38"/>
+      <c r="CX193" s="38"/>
+      <c r="CY193" s="38"/>
+      <c r="CZ193" s="38"/>
+      <c r="DA193" s="38"/>
+      <c r="DB193" s="38"/>
+      <c r="DC193" s="38"/>
+      <c r="DD193" s="38"/>
+      <c r="DE193" s="38"/>
+      <c r="DF193" s="38"/>
+      <c r="DG193" s="38"/>
+      <c r="DH193" s="38"/>
+      <c r="DI193" s="38"/>
+      <c r="DJ193" s="38"/>
+      <c r="DK193" s="38"/>
+      <c r="DL193" s="38"/>
+      <c r="DM193" s="38"/>
+      <c r="DN193" s="38"/>
+      <c r="DO193" s="38"/>
+      <c r="DP193" s="38"/>
+      <c r="DQ193" s="38"/>
+      <c r="DR193" s="38"/>
+      <c r="DS193" s="38"/>
+      <c r="DT193" s="38"/>
+      <c r="DU193" s="38"/>
+      <c r="DV193" s="38"/>
+      <c r="DW193" s="38"/>
+      <c r="DX193" s="38"/>
+      <c r="DY193" s="38"/>
+      <c r="DZ193" s="38"/>
+      <c r="EA193" s="38"/>
+      <c r="EB193" s="38"/>
+      <c r="EC193" s="38"/>
+      <c r="ED193" s="38"/>
+      <c r="EE193" s="38"/>
+      <c r="EF193" s="38"/>
+      <c r="EG193" s="38"/>
+      <c r="EH193" s="38"/>
+      <c r="EI193" s="38"/>
+      <c r="EJ193" s="38"/>
+      <c r="EK193" s="38"/>
+      <c r="EL193" s="38"/>
+      <c r="EM193" s="38"/>
+      <c r="EN193" s="38"/>
+      <c r="EO193" s="38"/>
+      <c r="EP193" s="38"/>
+      <c r="EQ193" s="38"/>
+      <c r="ER193" s="38"/>
+      <c r="ES193" s="38"/>
+      <c r="ET193" s="38"/>
+      <c r="EU193" s="38"/>
+      <c r="EV193" s="38"/>
+      <c r="EW193" s="38"/>
+      <c r="EX193" s="38"/>
+      <c r="EY193" s="38"/>
+      <c r="EZ193" s="38"/>
+      <c r="FA193" s="38"/>
+      <c r="FB193" s="38"/>
+      <c r="FC193" s="38"/>
+      <c r="FD193" s="38"/>
+      <c r="FE193" s="38"/>
+      <c r="FF193" s="38"/>
+      <c r="FG193" s="38"/>
+      <c r="FH193" s="38"/>
+      <c r="FI193" s="38"/>
+      <c r="FJ193" s="38"/>
+      <c r="FK193" s="38"/>
+      <c r="FL193" s="38"/>
+      <c r="FM193" s="38"/>
+      <c r="FN193" s="38"/>
+      <c r="FO193" s="38"/>
+      <c r="FP193" s="38"/>
+      <c r="FQ193" s="38"/>
+      <c r="FR193" s="38"/>
+      <c r="FS193" s="38"/>
+      <c r="FT193" s="38"/>
+      <c r="FU193" s="38"/>
+      <c r="FV193" s="38"/>
+      <c r="FW193" s="38"/>
+      <c r="FX193" s="38"/>
+      <c r="FY193" s="38"/>
+      <c r="FZ193" s="38"/>
+      <c r="GA193" s="38"/>
+      <c r="GB193" s="38"/>
+      <c r="GC193" s="38"/>
+      <c r="GD193" s="38"/>
+      <c r="GE193" s="38"/>
+      <c r="GF193" s="38"/>
+      <c r="GG193" s="38"/>
+      <c r="GH193" s="38"/>
+      <c r="GI193" s="38"/>
+      <c r="GJ193" s="38"/>
+      <c r="GK193" s="38"/>
+      <c r="GL193" s="38"/>
+      <c r="GM193" s="38"/>
+      <c r="GN193" s="38"/>
+      <c r="GO193" s="38"/>
+      <c r="GP193" s="38"/>
+      <c r="GQ193" s="38"/>
+      <c r="GR193" s="38"/>
+      <c r="GS193" s="38"/>
+      <c r="GT193" s="38"/>
+      <c r="GU193" s="38"/>
+      <c r="GV193" s="38"/>
+      <c r="GW193" s="38"/>
+      <c r="GX193" s="38"/>
+      <c r="GY193" s="38"/>
+      <c r="GZ193" s="38"/>
+      <c r="HA193" s="38"/>
+      <c r="HB193" s="38"/>
+      <c r="HC193" s="38"/>
+      <c r="HD193" s="38"/>
+      <c r="HE193" s="38"/>
+      <c r="HF193" s="38"/>
+      <c r="HG193" s="38"/>
+      <c r="HH193" s="38"/>
+      <c r="HI193" s="38"/>
+      <c r="HJ193" s="38"/>
+      <c r="HK193" s="38"/>
+      <c r="HL193" s="38"/>
+      <c r="HM193" s="38"/>
+      <c r="HN193" s="38"/>
+      <c r="HO193" s="38"/>
+      <c r="HP193" s="38"/>
+      <c r="HQ193" s="38"/>
+      <c r="HR193" s="38"/>
+      <c r="HS193" s="38"/>
+      <c r="HT193" s="38"/>
+      <c r="HU193" s="38"/>
+      <c r="HV193" s="38"/>
+      <c r="HW193" s="38"/>
+      <c r="HX193" s="38"/>
+      <c r="HY193" s="38"/>
+      <c r="HZ193" s="38"/>
+      <c r="IA193" s="38"/>
+      <c r="IB193" s="38"/>
+      <c r="IC193" s="38"/>
+      <c r="ID193" s="38"/>
+      <c r="IE193" s="38"/>
+      <c r="IF193" s="38"/>
+      <c r="IG193" s="38"/>
+      <c r="IH193" s="38"/>
+      <c r="II193" s="38"/>
+      <c r="IJ193" s="38"/>
+      <c r="IK193" s="38"/>
+      <c r="IL193" s="38"/>
+      <c r="IM193" s="38"/>
+      <c r="IN193" s="38"/>
+      <c r="IO193" s="38"/>
+      <c r="IP193" s="38"/>
+      <c r="IQ193" s="38"/>
+      <c r="IR193" s="38"/>
+      <c r="IS193" s="38"/>
+      <c r="IT193" s="38"/>
+      <c r="IU193" s="38"/>
+      <c r="IV193" s="38"/>
+      <c r="IW193" s="38"/>
+      <c r="IX193" s="38"/>
+      <c r="IY193" s="38"/>
+      <c r="IZ193" s="38"/>
+      <c r="JA193" s="38"/>
+      <c r="JB193" s="38"/>
+      <c r="JC193" s="38"/>
+      <c r="JD193" s="38"/>
+      <c r="JE193" s="38"/>
+      <c r="JF193" s="38"/>
+      <c r="JG193" s="38"/>
+      <c r="JH193" s="38"/>
+      <c r="JI193" s="38"/>
+      <c r="JJ193" s="38"/>
+      <c r="JK193" s="38"/>
+      <c r="JL193" s="38"/>
+      <c r="JM193" s="38"/>
+      <c r="JN193" s="38"/>
+      <c r="JO193" s="38"/>
+      <c r="JP193" s="38"/>
+      <c r="JQ193" s="38"/>
+      <c r="JR193" s="38"/>
+      <c r="JS193" s="38"/>
+      <c r="JT193" s="38"/>
+      <c r="JU193" s="38"/>
+      <c r="JV193" s="38"/>
+      <c r="JW193" s="38"/>
+      <c r="JX193" s="38"/>
+      <c r="JY193" s="38"/>
+      <c r="JZ193" s="38"/>
+      <c r="KA193" s="38"/>
+      <c r="KB193" s="38"/>
+      <c r="KC193" s="38"/>
+      <c r="KD193" s="38"/>
+      <c r="KE193" s="38"/>
+      <c r="KF193" s="38"/>
+      <c r="KG193" s="38"/>
+      <c r="KH193" s="38"/>
+      <c r="KI193" s="38"/>
+      <c r="KJ193" s="38"/>
+      <c r="KK193" s="38"/>
+      <c r="KL193" s="38"/>
+      <c r="KM193" s="38"/>
+      <c r="KN193" s="38"/>
+      <c r="KO193" s="38"/>
+      <c r="KP193" s="38"/>
+      <c r="KQ193" s="38"/>
+      <c r="KR193" s="38"/>
+      <c r="KS193" s="38"/>
+      <c r="KT193" s="38"/>
+      <c r="KU193" s="38"/>
+      <c r="KV193" s="38"/>
+      <c r="KW193" s="38"/>
+      <c r="KX193" s="38"/>
+      <c r="KY193" s="38"/>
+      <c r="KZ193" s="38"/>
+      <c r="LA193" s="38"/>
+      <c r="LB193" s="38"/>
+      <c r="LC193" s="38"/>
+      <c r="LD193" s="38"/>
+      <c r="LE193" s="38"/>
+      <c r="LF193" s="38"/>
+      <c r="LG193" s="38"/>
+      <c r="LH193" s="38"/>
+      <c r="LI193" s="38"/>
+      <c r="LJ193" s="38"/>
+      <c r="LK193" s="38"/>
+      <c r="LL193" s="38"/>
+      <c r="LM193" s="38"/>
+      <c r="LN193" s="38"/>
+      <c r="LO193" s="38"/>
+      <c r="LP193" s="38"/>
+      <c r="LQ193" s="38"/>
+      <c r="LR193" s="38"/>
+      <c r="LS193" s="38"/>
+      <c r="LT193" s="38"/>
+      <c r="LU193" s="38"/>
+      <c r="LV193" s="38"/>
+      <c r="LW193" s="38"/>
+      <c r="LX193" s="38"/>
+      <c r="LY193" s="38"/>
+      <c r="LZ193" s="38"/>
+      <c r="MA193" s="38"/>
+      <c r="MB193" s="38"/>
+      <c r="MC193" s="38"/>
+      <c r="MD193" s="38"/>
+      <c r="ME193" s="38"/>
+      <c r="MF193" s="38"/>
+      <c r="MG193" s="38"/>
+      <c r="MH193" s="38"/>
+      <c r="MI193" s="38"/>
+      <c r="MJ193" s="38"/>
+      <c r="MK193" s="38"/>
+      <c r="ML193" s="38"/>
+      <c r="MM193" s="38"/>
+      <c r="MN193" s="38"/>
+      <c r="MO193" s="38"/>
+      <c r="MP193" s="38"/>
+      <c r="MQ193" s="38"/>
+      <c r="MR193" s="38"/>
+      <c r="MS193" s="38"/>
+      <c r="MT193" s="38"/>
+      <c r="MU193" s="38"/>
+      <c r="MV193" s="38"/>
+      <c r="MW193" s="38"/>
+      <c r="MX193" s="38"/>
+      <c r="MY193" s="38"/>
+      <c r="MZ193" s="38"/>
+      <c r="NA193" s="38"/>
+      <c r="NB193" s="38"/>
+      <c r="NC193" s="38"/>
+      <c r="ND193" s="38"/>
+      <c r="NE193" s="38"/>
+      <c r="NF193" s="38"/>
+      <c r="NG193" s="38"/>
+      <c r="NH193" s="38"/>
+      <c r="NI193" s="38"/>
+      <c r="NJ193" s="38"/>
+      <c r="NK193" s="38"/>
+      <c r="NL193" s="38"/>
+      <c r="NM193" s="38"/>
+      <c r="NN193" s="38"/>
+      <c r="NO193" s="38"/>
+      <c r="NP193" s="38"/>
+      <c r="NQ193" s="38"/>
+      <c r="NR193" s="38"/>
+      <c r="NS193" s="38"/>
+      <c r="NT193" s="38"/>
+      <c r="NU193" s="38"/>
+      <c r="NV193" s="38"/>
+      <c r="NW193" s="38"/>
+      <c r="NX193" s="38"/>
+      <c r="NY193" s="38"/>
+      <c r="NZ193" s="38"/>
+      <c r="OA193" s="38"/>
+      <c r="OB193" s="38"/>
+      <c r="OC193" s="38"/>
+      <c r="OD193" s="38"/>
+      <c r="OE193" s="38"/>
+      <c r="OF193" s="38"/>
+      <c r="OG193" s="38"/>
+      <c r="OH193" s="38"/>
+      <c r="OI193" s="38"/>
+      <c r="OJ193" s="38"/>
+      <c r="OK193" s="38"/>
+      <c r="OL193" s="38"/>
+      <c r="OM193" s="38"/>
+      <c r="ON193" s="38"/>
+      <c r="OO193" s="38"/>
+      <c r="OP193" s="38"/>
+      <c r="OQ193" s="38"/>
+      <c r="OR193" s="38"/>
+      <c r="OS193" s="38"/>
+      <c r="OT193" s="38"/>
+      <c r="OU193" s="38"/>
+      <c r="OV193" s="38"/>
+      <c r="OW193" s="38"/>
+      <c r="OX193" s="38"/>
+      <c r="OY193" s="38"/>
+      <c r="OZ193" s="38"/>
+      <c r="PA193" s="38"/>
+      <c r="PB193" s="38"/>
+      <c r="PC193" s="38"/>
+      <c r="PD193" s="38"/>
+      <c r="PE193" s="38"/>
+      <c r="PF193" s="38"/>
+      <c r="PG193" s="38"/>
+      <c r="PH193" s="38"/>
+      <c r="PI193" s="38"/>
+      <c r="PJ193" s="38"/>
+      <c r="PK193" s="38"/>
+      <c r="PL193" s="38"/>
+      <c r="PM193" s="38"/>
+      <c r="PN193" s="38"/>
+      <c r="PO193" s="38"/>
+      <c r="PP193" s="38"/>
+      <c r="PQ193" s="38"/>
+      <c r="PR193" s="38"/>
+      <c r="PS193" s="38"/>
+      <c r="PT193" s="38"/>
+      <c r="PU193" s="38"/>
+      <c r="PV193" s="38"/>
+      <c r="PW193" s="38"/>
+      <c r="PX193" s="38"/>
+      <c r="PY193" s="38"/>
+      <c r="PZ193" s="38"/>
+      <c r="QA193" s="38"/>
+      <c r="QB193" s="38"/>
+      <c r="QC193" s="38"/>
+      <c r="QD193" s="38"/>
+      <c r="QE193" s="38"/>
+      <c r="QF193" s="38"/>
+      <c r="QG193" s="38"/>
+      <c r="QH193" s="38"/>
+      <c r="QI193" s="38"/>
+      <c r="QJ193" s="38"/>
+      <c r="QK193" s="38"/>
+      <c r="QL193" s="38"/>
+      <c r="QM193" s="38"/>
+      <c r="QN193" s="38"/>
+      <c r="QO193" s="38"/>
+      <c r="QP193" s="38"/>
+      <c r="QQ193" s="38"/>
+      <c r="QR193" s="38"/>
+      <c r="QS193" s="38"/>
+      <c r="QT193" s="38"/>
+      <c r="QU193" s="38"/>
+      <c r="QV193" s="38"/>
+      <c r="QW193" s="38"/>
+      <c r="QX193" s="38"/>
+      <c r="QY193" s="38"/>
+      <c r="QZ193" s="38"/>
+      <c r="RA193" s="38"/>
+      <c r="RB193" s="38"/>
+      <c r="RC193" s="38"/>
+      <c r="RD193" s="38"/>
+      <c r="RE193" s="38"/>
+      <c r="RF193" s="38"/>
+      <c r="RG193" s="38"/>
+      <c r="RH193" s="38"/>
+      <c r="RI193" s="38"/>
+      <c r="RJ193" s="38"/>
+      <c r="RK193" s="38"/>
+      <c r="RL193" s="38"/>
+      <c r="RM193" s="38"/>
+      <c r="RN193" s="38"/>
+      <c r="RO193" s="38"/>
+      <c r="RP193" s="38"/>
+      <c r="RQ193" s="38"/>
+      <c r="RR193" s="38"/>
+      <c r="RS193" s="38"/>
+      <c r="RT193" s="38"/>
+      <c r="RU193" s="38"/>
+      <c r="RV193" s="38"/>
+      <c r="RW193" s="38"/>
+      <c r="RX193" s="38"/>
+      <c r="RY193" s="38"/>
+      <c r="RZ193" s="38"/>
+      <c r="SA193" s="38"/>
+      <c r="SB193" s="38"/>
+      <c r="SC193" s="38"/>
+      <c r="SD193" s="38"/>
+      <c r="SE193" s="38"/>
+      <c r="SF193" s="38"/>
+      <c r="SG193" s="38"/>
+      <c r="SH193" s="38"/>
+      <c r="SI193" s="38"/>
+      <c r="SJ193" s="38"/>
+      <c r="SK193" s="38"/>
+      <c r="SL193" s="38"/>
+      <c r="SM193" s="38"/>
+      <c r="SN193" s="38"/>
+      <c r="SO193" s="38"/>
+      <c r="SP193" s="38"/>
+      <c r="SQ193" s="38"/>
+      <c r="SR193" s="38"/>
+      <c r="SS193" s="38"/>
+      <c r="ST193" s="38"/>
+      <c r="SU193" s="38"/>
+      <c r="SV193" s="38"/>
+      <c r="SW193" s="38"/>
+      <c r="SX193" s="38"/>
+      <c r="SY193" s="38"/>
+      <c r="SZ193" s="38"/>
+      <c r="TA193" s="38"/>
+      <c r="TB193" s="38"/>
+      <c r="TC193" s="38"/>
+      <c r="TD193" s="38"/>
+      <c r="TE193" s="38"/>
+      <c r="TF193" s="38"/>
+      <c r="TG193" s="38"/>
+      <c r="TH193" s="38"/>
+      <c r="TI193" s="38"/>
+      <c r="TJ193" s="38"/>
+      <c r="TK193" s="38"/>
+      <c r="TL193" s="38"/>
+      <c r="TM193" s="38"/>
+      <c r="TN193" s="38"/>
+      <c r="TO193" s="38"/>
+      <c r="TP193" s="38"/>
+      <c r="TQ193" s="38"/>
+      <c r="TR193" s="38"/>
+      <c r="TS193" s="38"/>
+      <c r="TT193" s="38"/>
+      <c r="TU193" s="38"/>
+      <c r="TV193" s="38"/>
+      <c r="TW193" s="38"/>
+      <c r="TX193" s="38"/>
+      <c r="TY193" s="38"/>
+      <c r="TZ193" s="38"/>
+      <c r="UA193" s="38"/>
+      <c r="UB193" s="38"/>
+      <c r="UC193" s="38"/>
+      <c r="UD193" s="38"/>
+      <c r="UE193" s="38"/>
+      <c r="UF193" s="38"/>
+      <c r="UG193" s="38"/>
+      <c r="UH193" s="38"/>
+      <c r="UI193" s="38"/>
+      <c r="UJ193" s="38"/>
+      <c r="UK193" s="38"/>
+      <c r="UL193" s="38"/>
+      <c r="UM193" s="38"/>
+      <c r="UN193" s="38"/>
+      <c r="UO193" s="38"/>
+      <c r="UP193" s="38"/>
+      <c r="UQ193" s="38"/>
+      <c r="UR193" s="38"/>
+      <c r="US193" s="38"/>
+      <c r="UT193" s="38"/>
+      <c r="UU193" s="38"/>
+      <c r="UV193" s="38"/>
+      <c r="UW193" s="38"/>
+      <c r="UX193" s="38"/>
+      <c r="UY193" s="38"/>
+      <c r="UZ193" s="38"/>
+      <c r="VA193" s="38"/>
+      <c r="VB193" s="38"/>
+      <c r="VC193" s="38"/>
+      <c r="VD193" s="38"/>
+      <c r="VE193" s="38"/>
+      <c r="VF193" s="38"/>
+      <c r="VG193" s="38"/>
+      <c r="VH193" s="38"/>
+      <c r="VI193" s="38"/>
+      <c r="VJ193" s="38"/>
+      <c r="VK193" s="38"/>
+      <c r="VL193" s="38"/>
+      <c r="VM193" s="38"/>
+      <c r="VN193" s="38"/>
+      <c r="VO193" s="38"/>
+      <c r="VP193" s="38"/>
+      <c r="VQ193" s="38"/>
+      <c r="VR193" s="38"/>
+      <c r="VS193" s="38"/>
+      <c r="VT193" s="38"/>
+      <c r="VU193" s="38"/>
+      <c r="VV193" s="38"/>
+      <c r="VW193" s="38"/>
+      <c r="VX193" s="38"/>
+      <c r="VY193" s="38"/>
+      <c r="VZ193" s="38"/>
+      <c r="WA193" s="38"/>
+      <c r="WB193" s="38"/>
+      <c r="WC193" s="38"/>
+      <c r="WD193" s="38"/>
+      <c r="WE193" s="38"/>
+      <c r="WF193" s="38"/>
+      <c r="WG193" s="38"/>
+      <c r="WH193" s="38"/>
+      <c r="WI193" s="38"/>
+      <c r="WJ193" s="38"/>
+      <c r="WK193" s="38"/>
+      <c r="WL193" s="38"/>
+      <c r="WM193" s="38"/>
+      <c r="WN193" s="38"/>
+      <c r="WO193" s="38"/>
+      <c r="WP193" s="38"/>
+      <c r="WQ193" s="38"/>
+      <c r="WR193" s="38"/>
+      <c r="WS193" s="38"/>
+      <c r="WT193" s="38"/>
+      <c r="WU193" s="38"/>
+      <c r="WV193" s="38"/>
+      <c r="WW193" s="38"/>
+      <c r="WX193" s="38"/>
+      <c r="WY193" s="38"/>
+      <c r="WZ193" s="38"/>
+      <c r="XA193" s="38"/>
+      <c r="XB193" s="38"/>
+      <c r="XC193" s="38"/>
+      <c r="XD193" s="38"/>
+      <c r="XE193" s="38"/>
+      <c r="XF193" s="38"/>
+      <c r="XG193" s="38"/>
+      <c r="XH193" s="38"/>
+      <c r="XI193" s="38"/>
+      <c r="XJ193" s="38"/>
+      <c r="XK193" s="38"/>
+      <c r="XL193" s="38"/>
+      <c r="XM193" s="38"/>
+      <c r="XN193" s="38"/>
+      <c r="XO193" s="38"/>
+      <c r="XP193" s="38"/>
+      <c r="XQ193" s="38"/>
+      <c r="XR193" s="38"/>
+      <c r="XS193" s="38"/>
+      <c r="XT193" s="38"/>
+      <c r="XU193" s="38"/>
+      <c r="XV193" s="38"/>
+      <c r="XW193" s="38"/>
+      <c r="XX193" s="38"/>
+      <c r="XY193" s="38"/>
+      <c r="XZ193" s="38"/>
+      <c r="YA193" s="38"/>
+      <c r="YB193" s="38"/>
+      <c r="YC193" s="38"/>
+      <c r="YD193" s="38"/>
+      <c r="YE193" s="38"/>
+      <c r="YF193" s="38"/>
+      <c r="YG193" s="38"/>
+      <c r="YH193" s="38"/>
+      <c r="YI193" s="38"/>
+      <c r="YJ193" s="38"/>
+      <c r="YK193" s="38"/>
+      <c r="YL193" s="38"/>
+      <c r="YM193" s="38"/>
+      <c r="YN193" s="38"/>
+      <c r="YO193" s="38"/>
+      <c r="YP193" s="38"/>
+      <c r="YQ193" s="38"/>
+      <c r="YR193" s="38"/>
+      <c r="YS193" s="38"/>
+      <c r="YT193" s="38"/>
+      <c r="YU193" s="38"/>
+      <c r="YV193" s="38"/>
+      <c r="YW193" s="38"/>
+      <c r="YX193" s="38"/>
+      <c r="YY193" s="38"/>
+      <c r="YZ193" s="38"/>
+      <c r="ZA193" s="38"/>
+      <c r="ZB193" s="38"/>
+      <c r="ZC193" s="38"/>
+      <c r="ZD193" s="38"/>
+      <c r="ZE193" s="38"/>
+      <c r="ZF193" s="38"/>
+      <c r="ZG193" s="38"/>
+      <c r="ZH193" s="38"/>
+      <c r="ZI193" s="38"/>
+      <c r="ZJ193" s="38"/>
+      <c r="ZK193" s="38"/>
+      <c r="ZL193" s="38"/>
+      <c r="ZM193" s="38"/>
+      <c r="ZN193" s="38"/>
+      <c r="ZO193" s="38"/>
+      <c r="ZP193" s="38"/>
+      <c r="ZQ193" s="38"/>
+      <c r="ZR193" s="38"/>
+      <c r="ZS193" s="38"/>
+      <c r="ZT193" s="38"/>
+      <c r="ZU193" s="38"/>
+      <c r="ZV193" s="38"/>
+      <c r="ZW193" s="38"/>
+      <c r="ZX193" s="38"/>
+      <c r="ZY193" s="38"/>
+      <c r="ZZ193" s="38"/>
+      <c r="AAA193" s="38"/>
+      <c r="AAB193" s="38"/>
+      <c r="AAC193" s="38"/>
+      <c r="AAD193" s="38"/>
+      <c r="AAE193" s="38"/>
+      <c r="AAF193" s="38"/>
+      <c r="AAG193" s="38"/>
+      <c r="AAH193" s="38"/>
+      <c r="AAI193" s="38"/>
+      <c r="AAJ193" s="38"/>
+      <c r="AAK193" s="38"/>
+      <c r="AAL193" s="38"/>
+      <c r="AAM193" s="38"/>
+      <c r="AAN193" s="38"/>
+      <c r="AAO193" s="38"/>
+      <c r="AAP193" s="38"/>
+      <c r="AAQ193" s="38"/>
+      <c r="AAR193" s="38"/>
+      <c r="AAS193" s="38"/>
+      <c r="AAT193" s="38"/>
+      <c r="AAU193" s="38"/>
+      <c r="AAV193" s="38"/>
+      <c r="AAW193" s="38"/>
+      <c r="AAX193" s="38"/>
+      <c r="AAY193" s="38"/>
+      <c r="AAZ193" s="38"/>
+      <c r="ABA193" s="38"/>
+      <c r="ABB193" s="38"/>
+      <c r="ABC193" s="38"/>
+      <c r="ABD193" s="38"/>
+      <c r="ABE193" s="38"/>
+      <c r="ABF193" s="38"/>
+      <c r="ABG193" s="38"/>
+      <c r="ABH193" s="38"/>
+      <c r="ABI193" s="38"/>
+      <c r="ABJ193" s="38"/>
+      <c r="ABK193" s="38"/>
+      <c r="ABL193" s="38"/>
+      <c r="ABM193" s="38"/>
+      <c r="ABN193" s="38"/>
+      <c r="ABO193" s="38"/>
+      <c r="ABP193" s="38"/>
+      <c r="ABQ193" s="38"/>
+      <c r="ABR193" s="38"/>
+      <c r="ABS193" s="38"/>
+      <c r="ABT193" s="38"/>
+      <c r="ABU193" s="38"/>
+      <c r="ABV193" s="38"/>
+      <c r="ABW193" s="38"/>
+      <c r="ABX193" s="38"/>
+      <c r="ABY193" s="38"/>
+      <c r="ABZ193" s="38"/>
+      <c r="ACA193" s="38"/>
+      <c r="ACB193" s="38"/>
+      <c r="ACC193" s="38"/>
+      <c r="ACD193" s="38"/>
+      <c r="ACE193" s="38"/>
+      <c r="ACF193" s="38"/>
+      <c r="ACG193" s="38"/>
+      <c r="ACH193" s="38"/>
+      <c r="ACI193" s="38"/>
+      <c r="ACJ193" s="38"/>
+      <c r="ACK193" s="38"/>
+      <c r="ACL193" s="38"/>
+      <c r="ACM193" s="38"/>
+      <c r="ACN193" s="38"/>
+      <c r="ACO193" s="38"/>
+      <c r="ACP193" s="38"/>
+      <c r="ACQ193" s="38"/>
+      <c r="ACR193" s="38"/>
+      <c r="ACS193" s="38"/>
+      <c r="ACT193" s="38"/>
+      <c r="ACU193" s="38"/>
+      <c r="ACV193" s="38"/>
+      <c r="ACW193" s="38"/>
+      <c r="ACX193" s="38"/>
+      <c r="ACY193" s="38"/>
+      <c r="ACZ193" s="38"/>
+      <c r="ADA193" s="38"/>
+      <c r="ADB193" s="38"/>
+      <c r="ADC193" s="38"/>
+      <c r="ADD193" s="38"/>
+      <c r="ADE193" s="38"/>
+      <c r="ADF193" s="38"/>
+      <c r="ADG193" s="38"/>
+      <c r="ADH193" s="38"/>
+      <c r="ADI193" s="38"/>
+      <c r="ADJ193" s="38"/>
+      <c r="ADK193" s="38"/>
+      <c r="ADL193" s="38"/>
+      <c r="ADM193" s="38"/>
+      <c r="ADN193" s="38"/>
+      <c r="ADO193" s="38"/>
+      <c r="ADP193" s="38"/>
+      <c r="ADQ193" s="38"/>
+      <c r="ADR193" s="38"/>
+      <c r="ADS193" s="38"/>
+      <c r="ADT193" s="38"/>
+      <c r="ADU193" s="38"/>
+      <c r="ADV193" s="38"/>
+      <c r="ADW193" s="38"/>
+      <c r="ADX193" s="38"/>
+      <c r="ADY193" s="38"/>
+      <c r="ADZ193" s="38"/>
+      <c r="AEA193" s="38"/>
+      <c r="AEB193" s="38"/>
+      <c r="AEC193" s="38"/>
+      <c r="AED193" s="38"/>
+      <c r="AEE193" s="38"/>
+      <c r="AEF193" s="38"/>
+      <c r="AEG193" s="38"/>
+      <c r="AEH193" s="38"/>
+      <c r="AEI193" s="38"/>
+      <c r="AEJ193" s="38"/>
+      <c r="AEK193" s="38"/>
+      <c r="AEL193" s="38"/>
+      <c r="AEM193" s="38"/>
+      <c r="AEN193" s="38"/>
+      <c r="AEO193" s="38"/>
+      <c r="AEP193" s="38"/>
+      <c r="AEQ193" s="38"/>
+      <c r="AER193" s="38"/>
+      <c r="AES193" s="38"/>
+      <c r="AET193" s="38"/>
+      <c r="AEU193" s="38"/>
+      <c r="AEV193" s="38"/>
+      <c r="AEW193" s="38"/>
+      <c r="AEX193" s="38"/>
+      <c r="AEY193" s="38"/>
+      <c r="AEZ193" s="38"/>
+      <c r="AFA193" s="38"/>
+      <c r="AFB193" s="38"/>
+      <c r="AFC193" s="38"/>
+      <c r="AFD193" s="38"/>
+      <c r="AFE193" s="38"/>
+      <c r="AFF193" s="38"/>
+      <c r="AFG193" s="38"/>
+      <c r="AFH193" s="38"/>
+      <c r="AFI193" s="38"/>
+      <c r="AFJ193" s="38"/>
+      <c r="AFK193" s="38"/>
+      <c r="AFL193" s="38"/>
+      <c r="AFM193" s="38"/>
+      <c r="AFN193" s="38"/>
+      <c r="AFO193" s="38"/>
+      <c r="AFP193" s="38"/>
+      <c r="AFQ193" s="38"/>
+      <c r="AFR193" s="38"/>
+      <c r="AFS193" s="38"/>
+      <c r="AFT193" s="38"/>
+      <c r="AFU193" s="38"/>
+      <c r="AFV193" s="38"/>
+      <c r="AFW193" s="38"/>
+      <c r="AFX193" s="38"/>
+      <c r="AFY193" s="38"/>
+      <c r="AFZ193" s="38"/>
+      <c r="AGA193" s="38"/>
+      <c r="AGB193" s="38"/>
+      <c r="AGC193" s="38"/>
+      <c r="AGD193" s="38"/>
+      <c r="AGE193" s="38"/>
+      <c r="AGF193" s="38"/>
+      <c r="AGG193" s="38"/>
+      <c r="AGH193" s="38"/>
+      <c r="AGI193" s="38"/>
+      <c r="AGJ193" s="38"/>
+      <c r="AGK193" s="38"/>
+      <c r="AGL193" s="38"/>
+      <c r="AGM193" s="38"/>
+      <c r="AGN193" s="38"/>
+      <c r="AGO193" s="38"/>
+      <c r="AGP193" s="38"/>
+      <c r="AGQ193" s="38"/>
+      <c r="AGR193" s="38"/>
+      <c r="AGS193" s="38"/>
+      <c r="AGT193" s="38"/>
+      <c r="AGU193" s="38"/>
+      <c r="AGV193" s="38"/>
+      <c r="AGW193" s="38"/>
+      <c r="AGX193" s="38"/>
+      <c r="AGY193" s="38"/>
+      <c r="AGZ193" s="38"/>
+      <c r="AHA193" s="38"/>
+      <c r="AHB193" s="38"/>
+      <c r="AHC193" s="38"/>
+      <c r="AHD193" s="38"/>
+      <c r="AHE193" s="38"/>
+      <c r="AHF193" s="38"/>
+      <c r="AHG193" s="38"/>
+      <c r="AHH193" s="38"/>
+      <c r="AHI193" s="38"/>
+      <c r="AHJ193" s="38"/>
+      <c r="AHK193" s="38"/>
+      <c r="AHL193" s="38"/>
+      <c r="AHM193" s="38"/>
+      <c r="AHN193" s="38"/>
+      <c r="AHO193" s="38"/>
+      <c r="AHP193" s="38"/>
+      <c r="AHQ193" s="38"/>
+      <c r="AHR193" s="38"/>
+      <c r="AHS193" s="38"/>
+      <c r="AHT193" s="38"/>
+      <c r="AHU193" s="38"/>
+      <c r="AHV193" s="38"/>
+      <c r="AHW193" s="38"/>
+      <c r="AHX193" s="38"/>
+      <c r="AHY193" s="38"/>
+      <c r="AHZ193" s="38"/>
+      <c r="AIA193" s="38"/>
+      <c r="AIB193" s="38"/>
+      <c r="AIC193" s="38"/>
+      <c r="AID193" s="38"/>
+      <c r="AIE193" s="38"/>
+      <c r="AIF193" s="38"/>
+      <c r="AIG193" s="38"/>
+      <c r="AIH193" s="38"/>
+      <c r="AII193" s="38"/>
+      <c r="AIJ193" s="38"/>
+      <c r="AIK193" s="38"/>
+      <c r="AIL193" s="38"/>
+      <c r="AIM193" s="38"/>
+      <c r="AIN193" s="38"/>
+      <c r="AIO193" s="38"/>
+      <c r="AIP193" s="38"/>
+      <c r="AIQ193" s="38"/>
+      <c r="AIR193" s="38"/>
+      <c r="AIS193" s="38"/>
+      <c r="AIT193" s="38"/>
+      <c r="AIU193" s="38"/>
+      <c r="AIV193" s="38"/>
+      <c r="AIW193" s="38"/>
+      <c r="AIX193" s="38"/>
+      <c r="AIY193" s="38"/>
+      <c r="AIZ193" s="38"/>
+      <c r="AJA193" s="38"/>
+      <c r="AJB193" s="38"/>
+      <c r="AJC193" s="38"/>
+      <c r="AJD193" s="38"/>
+      <c r="AJE193" s="38"/>
+      <c r="AJF193" s="38"/>
+      <c r="AJG193" s="38"/>
+      <c r="AJH193" s="38"/>
+      <c r="AJI193" s="38"/>
+      <c r="AJJ193" s="38"/>
+      <c r="AJK193" s="38"/>
+      <c r="AJL193" s="38"/>
+      <c r="AJM193" s="38"/>
+      <c r="AJN193" s="38"/>
+      <c r="AJO193" s="38"/>
+      <c r="AJP193" s="38"/>
+      <c r="AJQ193" s="38"/>
+      <c r="AJR193" s="38"/>
+      <c r="AJS193" s="38"/>
+      <c r="AJT193" s="38"/>
+      <c r="AJU193" s="38"/>
+      <c r="AJV193" s="38"/>
+      <c r="AJW193" s="38"/>
+      <c r="AJX193" s="38"/>
+      <c r="AJY193" s="38"/>
+      <c r="AJZ193" s="38"/>
+      <c r="AKA193" s="38"/>
+      <c r="AKB193" s="38"/>
+      <c r="AKC193" s="38"/>
+      <c r="AKD193" s="38"/>
+      <c r="AKE193" s="38"/>
+      <c r="AKF193" s="38"/>
+      <c r="AKG193" s="38"/>
+      <c r="AKH193" s="38"/>
+      <c r="AKI193" s="38"/>
+      <c r="AKJ193" s="38"/>
+      <c r="AKK193" s="38"/>
+      <c r="AKL193" s="38"/>
+      <c r="AKM193" s="38"/>
+      <c r="AKN193" s="38"/>
+      <c r="AKO193" s="38"/>
+      <c r="AKP193" s="38"/>
+      <c r="AKQ193" s="38"/>
+      <c r="AKR193" s="38"/>
+      <c r="AKS193" s="38"/>
+      <c r="AKT193" s="38"/>
+      <c r="AKU193" s="38"/>
+      <c r="AKV193" s="38"/>
+      <c r="AKW193" s="38"/>
+      <c r="AKX193" s="38"/>
+      <c r="AKY193" s="38"/>
+      <c r="AKZ193" s="38"/>
+      <c r="ALA193" s="38"/>
+      <c r="ALB193" s="38"/>
+      <c r="ALC193" s="38"/>
+      <c r="ALD193" s="38"/>
+      <c r="ALE193" s="38"/>
+      <c r="ALF193" s="38"/>
+      <c r="ALG193" s="38"/>
+      <c r="ALH193" s="38"/>
+      <c r="ALI193" s="38"/>
+      <c r="ALJ193" s="38"/>
+      <c r="ALK193" s="38"/>
+      <c r="ALL193" s="38"/>
+      <c r="ALM193" s="38"/>
+      <c r="ALN193" s="38"/>
+      <c r="ALO193" s="38"/>
+      <c r="ALP193" s="38"/>
+      <c r="ALQ193" s="38"/>
+      <c r="ALR193" s="38"/>
+      <c r="ALS193" s="38"/>
+      <c r="ALT193" s="38"/>
+      <c r="ALU193" s="38"/>
+      <c r="ALV193" s="38"/>
+      <c r="ALW193" s="38"/>
+      <c r="ALX193" s="38"/>
+      <c r="ALY193" s="38"/>
+      <c r="ALZ193" s="38"/>
+      <c r="AMA193" s="38"/>
+      <c r="AMB193" s="38"/>
+      <c r="AMC193" s="38"/>
+      <c r="AMD193" s="38"/>
+      <c r="AME193" s="38"/>
+      <c r="AMF193" s="38"/>
+      <c r="AMG193" s="38"/>
+      <c r="AMH193" s="38"/>
+      <c r="AMI193" s="38"/>
+      <c r="AMJ193" s="38"/>
+      <c r="AMK193" s="38"/>
+      <c r="AML193" s="38"/>
+      <c r="AMM193" s="38"/>
+      <c r="AMN193" s="38"/>
+      <c r="AMO193" s="38"/>
+      <c r="AMP193" s="38"/>
+      <c r="AMQ193" s="38"/>
+      <c r="AMR193" s="38"/>
+      <c r="AMS193" s="38"/>
+      <c r="AMT193" s="38"/>
+      <c r="AMU193" s="38"/>
+      <c r="AMV193" s="38"/>
+      <c r="AMW193" s="38"/>
+      <c r="AMX193" s="38"/>
+      <c r="AMY193" s="38"/>
+      <c r="AMZ193" s="38"/>
+      <c r="ANA193" s="38"/>
+      <c r="ANB193" s="38"/>
+      <c r="ANC193" s="38"/>
+      <c r="AND193" s="38"/>
+      <c r="ANE193" s="38"/>
+      <c r="ANF193" s="38"/>
+      <c r="ANG193" s="38"/>
+      <c r="ANH193" s="38"/>
+      <c r="ANI193" s="38"/>
+      <c r="ANJ193" s="38"/>
+      <c r="ANK193" s="38"/>
+      <c r="ANL193" s="38"/>
+      <c r="ANM193" s="38"/>
+      <c r="ANN193" s="38"/>
+      <c r="ANO193" s="38"/>
+      <c r="ANP193" s="38"/>
+      <c r="ANQ193" s="38"/>
+      <c r="ANR193" s="38"/>
+      <c r="ANS193" s="38"/>
+      <c r="ANT193" s="38"/>
+      <c r="ANU193" s="38"/>
+      <c r="ANV193" s="38"/>
+      <c r="ANW193" s="38"/>
+      <c r="ANX193" s="38"/>
+      <c r="ANY193" s="38"/>
+      <c r="ANZ193" s="38"/>
+      <c r="AOA193" s="38"/>
+      <c r="AOB193" s="38"/>
+      <c r="AOC193" s="38"/>
+      <c r="AOD193" s="38"/>
+      <c r="AOE193" s="38"/>
+      <c r="AOF193" s="38"/>
+      <c r="AOG193" s="38"/>
+      <c r="AOH193" s="38"/>
+      <c r="AOI193" s="38"/>
+      <c r="AOJ193" s="38"/>
+      <c r="AOK193" s="38"/>
+      <c r="AOL193" s="38"/>
+      <c r="AOM193" s="38"/>
+      <c r="AON193" s="38"/>
+      <c r="AOO193" s="38"/>
+      <c r="AOP193" s="38"/>
+      <c r="AOQ193" s="38"/>
+      <c r="AOR193" s="38"/>
+      <c r="AOS193" s="38"/>
+      <c r="AOT193" s="38"/>
+      <c r="AOU193" s="38"/>
+      <c r="AOV193" s="38"/>
+      <c r="AOW193" s="38"/>
+      <c r="AOX193" s="38"/>
+      <c r="AOY193" s="38"/>
+      <c r="AOZ193" s="38"/>
+      <c r="APA193" s="38"/>
+      <c r="APB193" s="38"/>
+      <c r="APC193" s="38"/>
+      <c r="APD193" s="38"/>
+      <c r="APE193" s="38"/>
+      <c r="APF193" s="38"/>
+      <c r="APG193" s="38"/>
+      <c r="APH193" s="38"/>
+      <c r="API193" s="38"/>
+      <c r="APJ193" s="38"/>
+      <c r="APK193" s="38"/>
+      <c r="APL193" s="38"/>
+      <c r="APM193" s="38"/>
+      <c r="APN193" s="38"/>
+      <c r="APO193" s="38"/>
+      <c r="APP193" s="38"/>
+      <c r="APQ193" s="38"/>
+      <c r="APR193" s="38"/>
+      <c r="APS193" s="38"/>
+      <c r="APT193" s="38"/>
+      <c r="APU193" s="38"/>
+      <c r="APV193" s="38"/>
+      <c r="APW193" s="38"/>
+      <c r="APX193" s="38"/>
+      <c r="APY193" s="38"/>
+      <c r="APZ193" s="38"/>
+      <c r="AQA193" s="38"/>
+      <c r="AQB193" s="38"/>
+      <c r="AQC193" s="38"/>
+      <c r="AQD193" s="38"/>
+      <c r="AQE193" s="38"/>
+      <c r="AQF193" s="38"/>
+      <c r="AQG193" s="38"/>
+      <c r="AQH193" s="38"/>
+      <c r="AQI193" s="38"/>
+      <c r="AQJ193" s="38"/>
+      <c r="AQK193" s="38"/>
+      <c r="AQL193" s="38"/>
+      <c r="AQM193" s="38"/>
+      <c r="AQN193" s="38"/>
+      <c r="AQO193" s="38"/>
+      <c r="AQP193" s="38"/>
+      <c r="AQQ193" s="38"/>
+      <c r="AQR193" s="38"/>
+      <c r="AQS193" s="38"/>
+      <c r="AQT193" s="38"/>
+      <c r="AQU193" s="38"/>
+      <c r="AQV193" s="38"/>
+      <c r="AQW193" s="38"/>
+      <c r="AQX193" s="38"/>
+      <c r="AQY193" s="38"/>
+      <c r="AQZ193" s="38"/>
+      <c r="ARA193" s="38"/>
+      <c r="ARB193" s="38"/>
+      <c r="ARC193" s="38"/>
+      <c r="ARD193" s="38"/>
+      <c r="ARE193" s="38"/>
+      <c r="ARF193" s="38"/>
+      <c r="ARG193" s="38"/>
+      <c r="ARH193" s="38"/>
+      <c r="ARI193" s="38"/>
+      <c r="ARJ193" s="38"/>
+      <c r="ARK193" s="38"/>
+      <c r="ARL193" s="38"/>
+      <c r="ARM193" s="38"/>
+      <c r="ARN193" s="38"/>
+      <c r="ARO193" s="38"/>
+      <c r="ARP193" s="38"/>
+      <c r="ARQ193" s="38"/>
+      <c r="ARR193" s="38"/>
+      <c r="ARS193" s="38"/>
+      <c r="ART193" s="38"/>
+      <c r="ARU193" s="38"/>
+      <c r="ARV193" s="38"/>
+      <c r="ARW193" s="38"/>
+      <c r="ARX193" s="38"/>
+      <c r="ARY193" s="38"/>
+      <c r="ARZ193" s="38"/>
+      <c r="ASA193" s="38"/>
+      <c r="ASB193" s="38"/>
+      <c r="ASC193" s="38"/>
+      <c r="ASD193" s="38"/>
+      <c r="ASE193" s="38"/>
+      <c r="ASF193" s="38"/>
+      <c r="ASG193" s="38"/>
+      <c r="ASH193" s="38"/>
+      <c r="ASI193" s="38"/>
+      <c r="ASJ193" s="38"/>
+      <c r="ASK193" s="38"/>
+      <c r="ASL193" s="38"/>
+      <c r="ASM193" s="38"/>
+      <c r="ASN193" s="38"/>
+      <c r="ASO193" s="38"/>
+      <c r="ASP193" s="38"/>
+      <c r="ASQ193" s="38"/>
+      <c r="ASR193" s="38"/>
+      <c r="ASS193" s="38"/>
+      <c r="AST193" s="38"/>
+      <c r="ASU193" s="38"/>
+      <c r="ASV193" s="38"/>
+      <c r="ASW193" s="38"/>
+      <c r="ASX193" s="38"/>
+      <c r="ASY193" s="38"/>
+      <c r="ASZ193" s="38"/>
+      <c r="ATA193" s="38"/>
+      <c r="ATB193" s="38"/>
+      <c r="ATC193" s="38"/>
+      <c r="ATD193" s="38"/>
+      <c r="ATE193" s="38"/>
+      <c r="ATF193" s="38"/>
+      <c r="ATG193" s="38"/>
+      <c r="ATH193" s="38"/>
+      <c r="ATI193" s="38"/>
+      <c r="ATJ193" s="38"/>
+      <c r="ATK193" s="38"/>
+      <c r="ATL193" s="38"/>
+      <c r="ATM193" s="38"/>
+      <c r="ATN193" s="38"/>
+      <c r="ATO193" s="38"/>
+      <c r="ATP193" s="38"/>
+      <c r="ATQ193" s="38"/>
+      <c r="ATR193" s="38"/>
+      <c r="ATS193" s="38"/>
+      <c r="ATT193" s="38"/>
+      <c r="ATU193" s="38"/>
+      <c r="ATV193" s="38"/>
+      <c r="ATW193" s="38"/>
+      <c r="ATX193" s="38"/>
+      <c r="ATY193" s="38"/>
+      <c r="ATZ193" s="38"/>
+    </row>
+    <row r="194" spans="1:1222">
+      <c r="A194" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" s="41"/>
+      <c r="C194" s="41"/>
+    </row>
+    <row r="196" spans="1:1222">
+      <c r="A196" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B196" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="41"/>
+    </row>
+    <row r="197" spans="1:1222">
+      <c r="A197" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B197" s="52">
+        <v>1</v>
+      </c>
+      <c r="C197" s="42"/>
+    </row>
+    <row r="198" spans="1:1222">
+      <c r="A198" s="43"/>
+      <c r="B198" s="43"/>
+      <c r="C198" s="43"/>
+    </row>
+    <row r="199" spans="1:1222">
+      <c r="A199" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" s="41"/>
+      <c r="C199" s="41"/>
+    </row>
+    <row r="201" spans="1:1222">
+      <c r="A201" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B201" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" s="41"/>
+    </row>
+    <row r="202" spans="1:1222">
+      <c r="A202" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B202" s="52">
+        <v>1</v>
+      </c>
+      <c r="C202" s="42"/>
+    </row>
+    <row r="203" spans="1:1222">
+      <c r="A203" s="43"/>
+      <c r="B203" s="43"/>
+      <c r="C203" s="43"/>
+    </row>
+    <row r="204" spans="1:1222">
+      <c r="A204" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" s="41"/>
+      <c r="C204" s="41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -53262,14 +61383,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="2" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -53678,15 +61799,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="122.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="37"/>
+    <col min="1" max="1" width="30.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="122.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1">
@@ -53760,18 +61881,18 @@
   <dimension ref="A1:ATZ31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.109375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="138.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="1222" width="8.88671875" style="38"/>
-    <col min="1223" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="54.140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="138.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="1222" width="8.85546875" style="38"/>
+    <col min="1223" max="16384" width="8.85546875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1222" s="39" customFormat="1">
@@ -58873,11 +66994,11 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
